--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E3EA1F-AC74-42CF-AF84-E15B7E75862C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89815CB-237D-4769-B89B-EA80C4E1A1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40170" yWindow="4425" windowWidth="24750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN041301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -75,7 +78,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,2578 +356,2773 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A513"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1.40707</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2.5937199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1.21393</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1.367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1.3120700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1.17875</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1.2888500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1.2759400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1.26766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1.15283</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1.26203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>1.14449</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1.2579800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1.2549699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1.2526200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>1.12487</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1.2507200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1.11836</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1.24912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1.2477400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>1.10816</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1.2464900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.2454000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.2443599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1.09259</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.2433700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.2423299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.24129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.24031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>1.06873</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1.2394400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1.23861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>1.05697</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1.23783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>1.0506</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1.2370699999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1.2363299999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1.2356199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1.2349300000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>1.02234</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.2342299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1.2335199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>1.00186</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1.2327900000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1.23201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1.2313000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1.23064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1.23001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1.22939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1.2287999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1.2282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1.2276100000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1.22702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>0.91352</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1.22644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1.2258599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1.22529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1.2247300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>0.88793</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>1.2241500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1.22357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>0.87073</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1.2230099999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>1.22244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>1.2219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>1.2213700000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1.2208399999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>1.2203200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1.2198100000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1.2193000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1.2188099999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>1.2183200000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>1.21783</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>1.2173400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>1.21685</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>1.21635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>1.2158599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>1.2153499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>1.2148399999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>1.2143200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>1.2137800000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>0.66208</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>0.59414</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>0.51349</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>0.49478</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114">
         <v>0.41952</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119">
         <v>0.42812</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1">
       <c r="A128">
         <v>0.35158</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130">
         <v>0.3392</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135">
         <v>0.32943</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138">
         <v>0.31</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140">
         <v>0.30506</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143">
         <v>0.29479</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1">
       <c r="A147">
         <v>0.2722</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1">
       <c r="A153">
         <v>0.25683</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1">
       <c r="A157">
         <v>0.24456</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1">
       <c r="A160">
         <v>0.22721</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1">
       <c r="A162">
         <v>0.21545</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1">
       <c r="A163">
         <v>0.21892</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1">
       <c r="A165">
         <v>0.22827</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1">
       <c r="A167">
         <v>0.21489</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1">
       <c r="A170">
         <v>0.20321</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1">
       <c r="A171">
         <v>0.193</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1">
       <c r="A173">
         <v>0.19649</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1">
       <c r="A176">
         <v>0.18289</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1">
       <c r="A177">
         <v>0.17509</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1">
       <c r="A178">
         <v>0.16594</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1">
       <c r="A179">
         <v>0.16971</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1">
       <c r="A182">
         <v>0.17637</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1">
       <c r="A183">
         <v>0.16108</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1">
       <c r="A192">
         <v>0.17412</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1">
       <c r="A194">
         <v>0.14726</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1">
       <c r="A195">
         <v>0.14654</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1">
       <c r="A201">
         <v>0.13768</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203">
         <v>0.14656</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206">
         <v>0.12268</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207">
         <v>0.12182</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208">
         <v>0.12303</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1">
       <c r="A209">
         <v>0.11706</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210">
         <v>0.11583</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1">
       <c r="A216">
         <v>0.11314</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218">
         <v>0.13441</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219">
         <v>0.11197</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1">
       <c r="A220">
         <v>0.11214</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221">
         <v>0.10238</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1">
       <c r="A224">
         <v>0.10054</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1">
       <c r="A225">
         <v>0.10248</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1">
       <c r="A226">
         <v>0.10149</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1">
       <c r="A227">
         <v>0.10385</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1">
       <c r="A228">
         <v>0.10721</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1">
       <c r="A229">
         <v>0.10183</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236">
         <v>0.11858</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
       <c r="A241">
         <v>0.1134</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247">
         <v>0.10452</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273">
         <v>7.6480000000000006E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274">
         <v>7.5179999999999997E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275">
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276">
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277">
         <v>6.071E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279">
         <v>6.2780000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280">
         <v>6.4979999999999996E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281">
         <v>0.10792</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282">
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284">
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285">
         <v>6.293E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286">
         <v>7.7579999999999996E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287">
         <v>9.8110000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288">
         <v>7.6689999999999994E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290">
         <v>5.3370000000000001E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291">
         <v>5.1860000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292">
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293">
         <v>8.2559999999999995E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294">
         <v>6.837E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295">
         <v>6.5949999999999995E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296">
         <v>6.1510000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297">
         <v>0.10789</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298">
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300">
         <v>6.3140000000000002E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301">
         <v>5.6579999999999998E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302">
         <v>5.2389999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304">
         <v>5.1450000000000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306">
         <v>6.479E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307">
         <v>9.6180000000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308">
         <v>9.4920000000000004E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309">
         <v>6.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310">
         <v>5.9479999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311">
         <v>5.4510000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312">
         <v>5.1979999999999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313">
         <v>7.6670000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314">
         <v>5.9240000000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315">
         <v>5.8049999999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316">
         <v>5.0360000000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317">
         <v>6.3320000000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318">
         <v>8.1710000000000005E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319">
         <v>5.9950000000000003E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320">
         <v>4.9979999999999997E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321">
         <v>4.7169999999999997E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322">
         <v>4.8779999999999997E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323">
         <v>5.7770000000000002E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324">
         <v>9.8250000000000004E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325">
         <v>8.5629999999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326">
         <v>6.6720000000000002E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327">
         <v>5.4260000000000003E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329">
         <v>6.3339999999999994E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330">
         <v>5.6610000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331">
         <v>5.3510000000000002E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333">
         <v>4.299E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335">
         <v>4.514E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336">
         <v>5.0110000000000002E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337">
         <v>6.7330000000000001E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338">
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339">
         <v>6.5509999999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340">
         <v>5.4379999999999998E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341">
         <v>4.718E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342">
         <v>4.3270000000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343">
         <v>4.1439999999999998E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344">
         <v>4.1779999999999998E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345">
         <v>4.3880000000000002E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346">
         <v>4.632E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347">
         <v>5.0509999999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348">
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349">
         <v>7.979E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350">
         <v>5.9249999999999997E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351">
         <v>5.4719999999999998E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352">
         <v>6.4049999999999996E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353">
         <v>5.3150000000000003E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354">
         <v>4.6440000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355">
         <v>4.2340000000000003E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356">
         <v>4.0939999999999997E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357">
         <v>4.1410000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358">
         <v>4.3040000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359">
         <v>0.11991</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360">
         <v>8.2909999999999998E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361">
         <v>5.2209999999999999E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362">
         <v>4.428E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363">
         <v>4.054E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365">
         <v>3.8080000000000003E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366">
         <v>3.9030000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367">
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368">
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369">
         <v>6.9519999999999998E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370">
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371">
         <v>4.7539999999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372">
         <v>4.3720000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373">
         <v>4.2119999999999998E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376">
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377">
         <v>0.12336</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378">
         <v>6.5350000000000005E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379">
         <v>4.7890000000000002E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380">
         <v>4.1860000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381">
         <v>4.2659999999999997E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382">
         <v>4.4089999999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383">
         <v>3.934E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384">
         <v>3.7409999999999999E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385">
         <v>3.6589999999999998E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386">
         <v>3.8170000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387">
         <v>4.3180000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388">
         <v>0.12934999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389">
         <v>6.5110000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390">
         <v>5.1470000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391">
         <v>4.5769999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392">
         <v>4.1110000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394">
         <v>4.7570000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395">
         <v>7.5480000000000005E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396">
         <v>6.3519999999999993E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397">
         <v>6.275E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398">
         <v>4.8570000000000002E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399">
         <v>0.04</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400">
         <v>3.594E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401">
         <v>3.4470000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402">
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403">
         <v>3.6580000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404">
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405">
         <v>5.042E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406">
         <v>6.8080000000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408">
         <v>6.4339999999999994E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409">
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410">
         <v>5.8790000000000002E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411">
         <v>4.5330000000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412">
         <v>3.9370000000000002E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413">
         <v>3.6830000000000002E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415">
         <v>3.8690000000000002E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416">
         <v>4.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418">
         <v>4.0340000000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419">
         <v>5.0310000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420">
         <v>8.4580000000000002E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421">
         <v>5.781E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422">
         <v>4.7840000000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423">
         <v>4.5089999999999998E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424">
         <v>3.8370000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425">
         <v>3.526E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426">
         <v>3.4130000000000001E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427">
         <v>3.4439999999999998E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428">
         <v>3.5409999999999997E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429">
         <v>3.9489999999999997E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430">
         <v>5.5320000000000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431">
         <v>7.8359999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432">
         <v>4.6640000000000001E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435">
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436">
         <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437">
         <v>3.4119999999999998E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438">
         <v>0.14990999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439">
         <v>6.216E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440">
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441">
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442">
         <v>3.5180000000000003E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443">
         <v>3.3279999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444">
         <v>3.168E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445">
         <v>3.1419999999999997E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446">
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447">
         <v>3.7220000000000003E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448">
         <v>5.2019999999999997E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449">
         <v>7.4300000000000005E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450">
         <v>5.008E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451">
         <v>4.0189999999999997E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452">
         <v>3.542E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454">
         <v>3.3239999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455">
         <v>4.5440000000000001E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456">
         <v>8.5529999999999995E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457">
         <v>4.4650000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458">
         <v>3.7850000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459">
         <v>3.508E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460">
         <v>3.6859999999999997E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461">
         <v>4.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462">
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463">
         <v>4.0529999999999997E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464">
         <v>3.4009999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465">
         <v>3.2439999999999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466">
         <v>3.2480000000000002E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467">
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468">
         <v>3.6409999999999998E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469">
         <v>6.7019999999999996E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470">
         <v>8.3449999999999996E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471">
         <v>5.5449999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472">
         <v>4.2090000000000002E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473">
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474">
         <v>3.9280000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475">
         <v>3.4139999999999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476">
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477">
         <v>3.143E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478">
         <v>5.0040000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479">
         <v>4.5080000000000002E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480">
         <v>5.0770000000000003E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1">
       <c r="A482">
         <v>3.6769999999999997E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1">
       <c r="A483">
         <v>3.3360000000000001E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1">
       <c r="A484">
         <v>3.2590000000000001E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1">
       <c r="A485">
         <v>3.848E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1">
       <c r="A486">
         <v>4.9820000000000003E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1">
       <c r="A487">
         <v>5.373E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1">
       <c r="A488">
         <v>4.0419999999999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1">
       <c r="A489">
         <v>3.5040000000000002E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1">
       <c r="A490">
         <v>3.4070000000000003E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1">
       <c r="A491">
         <v>3.3689999999999998E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1">
       <c r="A492">
         <v>3.2939999999999997E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1">
       <c r="A493">
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1">
       <c r="A494">
         <v>4.0320000000000002E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1">
       <c r="A495">
         <v>6.2920000000000004E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1">
       <c r="A496">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1">
       <c r="A497">
         <v>3.5139999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1">
       <c r="A498">
         <v>3.3579999999999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1">
       <c r="A499">
         <v>3.9559999999999998E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1">
       <c r="A500">
         <v>5.2109999999999997E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1">
       <c r="A501">
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1">
       <c r="A502">
         <v>4.4010000000000001E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1">
       <c r="A503">
         <v>3.9809999999999998E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1">
       <c r="A504">
         <v>3.4250000000000003E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1">
       <c r="A505">
         <v>3.0530000000000002E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1">
       <c r="A506">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1">
       <c r="A507">
         <v>2.8819999999999998E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1">
       <c r="A508">
         <v>3.1210000000000002E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1">
       <c r="A509">
         <v>3.4279999999999998E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1">
       <c r="A510">
         <v>4.0759999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1">
       <c r="A511">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1">
       <c r="A512">
         <v>7.0860000000000006E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1">
       <c r="A513">
         <v>4.3569999999999998E-2</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89815CB-237D-4769-B89B-EA80C4E1A1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3133C1-6A7C-4939-B937-4DC40FFD9EBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34770" yWindow="7905" windowWidth="24750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,22 +33,26 @@
   <si>
     <t>NN041301</t>
   </si>
+  <si>
+    <t>NN041303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -78,7 +82,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,2773 +360,3546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:C513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.40707</v>
       </c>
       <c r="B2">
         <v>2.5937199999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>1.3067800000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.21393</v>
       </c>
       <c r="B3">
         <v>1.367</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>1.2271300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
       <c r="B4">
         <v>1.3120700000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>1.19485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.17875</v>
       </c>
       <c r="B5">
         <v>1.2888500000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>1.1706000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
       <c r="B6">
         <v>1.2759400000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>1.1561600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
       <c r="B7">
         <v>1.26766</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>1.14398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.15283</v>
       </c>
       <c r="B8">
         <v>1.26203</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>1.13351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.14449</v>
       </c>
       <c r="B9">
         <v>1.2579800000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>1.1233900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
       <c r="B10">
         <v>1.2549699999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>1.1127800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
       <c r="B11">
         <v>1.2526200000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>1.1017999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.12487</v>
       </c>
       <c r="B12">
         <v>1.2507200000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>1.0905800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.11836</v>
       </c>
       <c r="B13">
         <v>1.24912</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>1.0793200000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
       <c r="B14">
         <v>1.2477400000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>1.0663800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.10816</v>
       </c>
       <c r="B15">
         <v>1.2464900000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>1.0566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
       <c r="B16">
         <v>1.2454000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1.0479099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
       <c r="B17">
         <v>1.2443599999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>1.0392699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.09259</v>
       </c>
       <c r="B18">
         <v>1.2433700000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>1.0317700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
       <c r="B19">
         <v>1.2423299999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>1.0224599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
       <c r="B20">
         <v>1.24129</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>1.0147600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
       <c r="B21">
         <v>1.24031</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>1.0066200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.06873</v>
       </c>
       <c r="B22">
         <v>1.2394400000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>0.99648000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
       <c r="B23">
         <v>1.23861</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>0.98843999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.05697</v>
       </c>
       <c r="B24">
         <v>1.23783</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>0.97726000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.0506</v>
       </c>
       <c r="B25">
         <v>1.2370699999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>0.96725000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
       <c r="B26">
         <v>1.2363299999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>0.95870999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
       <c r="B27">
         <v>1.2356199999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0.94493000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
       <c r="B28">
         <v>1.2349300000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>0.93525000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.02234</v>
       </c>
       <c r="B29">
         <v>1.2342299999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>0.9204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
       <c r="B30">
         <v>1.2335199999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>0.90500999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.00186</v>
       </c>
       <c r="B31">
         <v>1.2327900000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>0.88915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
       <c r="B32">
         <v>1.23201</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>0.87417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
       <c r="B33">
         <v>1.2313000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>0.85911000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
       <c r="B34">
         <v>1.23064</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>0.84665000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
       <c r="B35">
         <v>1.23001</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>0.83975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
       <c r="B36">
         <v>1.22939</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>0.81608000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
       <c r="B37">
         <v>1.2287999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0.80518000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
       <c r="B38">
         <v>1.2282</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>0.79096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
       <c r="B39">
         <v>1.2276100000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>0.77266000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
       <c r="B40">
         <v>1.22702</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>0.78290000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.91352</v>
       </c>
       <c r="B41">
         <v>1.22644</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0.75809000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
       <c r="B42">
         <v>1.2258599999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0.74380000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
       <c r="B43">
         <v>1.22529</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>0.72923000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
       <c r="B44">
         <v>1.2247300000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>0.72638999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.88793</v>
       </c>
       <c r="B45">
         <v>1.2241500000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0.71504999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
       <c r="B46">
         <v>1.22357</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>0.71279000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.87073</v>
       </c>
       <c r="B47">
         <v>1.2230099999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>0.69898000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
       <c r="B48">
         <v>1.22244</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>0.69496000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
       <c r="B49">
         <v>1.2219</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>0.68861000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
       <c r="B50">
         <v>1.2213700000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0.67230000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
       <c r="B51">
         <v>1.2208399999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>0.66581000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
       <c r="B52">
         <v>1.2203200000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0.66944999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
       <c r="B53">
         <v>1.2198100000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>0.66198000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
       <c r="B54">
         <v>1.2193000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>0.65761999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
       <c r="B55">
         <v>1.2188099999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>0.64422000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
       <c r="B56">
         <v>1.2183200000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>0.63946000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
       <c r="B57">
         <v>1.21783</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
       <c r="B58">
         <v>1.2173400000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
       <c r="B59">
         <v>1.21685</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0.61001000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
       <c r="B60">
         <v>1.21635</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0.60267000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
       <c r="B61">
         <v>1.2158599999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0.59394999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
       <c r="B62">
         <v>1.2153499999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0.59040999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
       <c r="B63">
         <v>1.2148399999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0.58523000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
       <c r="B64">
         <v>1.2143200000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>0.57632000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
       <c r="B65">
         <v>1.2137800000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0.56052000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0.55001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0.55661000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>0.54752999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>0.54742000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>0.54034000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>0.52003999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>0.50936999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.66208</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0.49428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>0.48464000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>0.48442000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>0.48116999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>0.46965000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>0.46010000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>0.45423999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="C80">
+        <v>0.44885999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="C81">
+        <v>0.44814999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="C82">
+        <v>0.44141999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="C83">
+        <v>0.44418000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="C84">
+        <v>0.43164999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="C85">
+        <v>0.4158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="C86">
+        <v>0.41432000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="C87">
+        <v>0.41360999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.59414</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="C88">
+        <v>0.41425000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="C89">
+        <v>0.40318999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="C90">
+        <v>0.39633000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="C91">
+        <v>0.38988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="C92">
+        <v>0.39842</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="C93">
+        <v>0.38323000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="C94">
+        <v>0.38762000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="C95">
+        <v>0.37907999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="C96">
+        <v>0.37003000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="C97">
+        <v>0.36486000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="C98">
+        <v>0.37292999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="C99">
+        <v>0.36876999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.51349</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="C100">
+        <v>0.36042000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="C101">
+        <v>0.34182000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.49478</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="C102">
+        <v>0.33657999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="C103">
+        <v>0.32969999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="C104">
+        <v>0.32508999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="C105">
+        <v>0.33051000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="C106">
+        <v>0.33929999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="C107">
+        <v>0.32551999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="C108">
+        <v>0.31818000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="C109">
+        <v>0.31541000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="C110">
+        <v>0.30708999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="C111">
+        <v>0.28858</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="C112">
+        <v>0.2858</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="C113">
+        <v>0.30207000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.41952</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="C114">
+        <v>0.29698000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="C115">
+        <v>0.29146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="C116">
+        <v>0.28876000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="C117">
+        <v>0.28576000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="C118">
+        <v>0.27393000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.42812</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="C119">
+        <v>0.27456999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="C120">
+        <v>0.26812000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="C121">
+        <v>0.25152000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="C122">
+        <v>0.25774999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="C123">
+        <v>0.25034000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="C124">
+        <v>0.25777</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="C125">
+        <v>0.25125999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="C126">
+        <v>0.24773000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="C127">
+        <v>0.24424999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.35158</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="C128">
+        <v>0.22797999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="C129">
+        <v>0.22364999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.3392</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="C130">
+        <v>0.22902</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="C131">
+        <v>0.22875999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="C132">
+        <v>0.22853000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="C133">
+        <v>0.21440000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="C134">
+        <v>0.2127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.32943</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="C135">
+        <v>0.20891000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="C136">
+        <v>0.20993999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="C137">
+        <v>0.20680999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="C138">
+        <v>0.20876</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="C139">
+        <v>0.20946999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.30506</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="C140">
+        <v>0.20457</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="C141">
+        <v>0.20099</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="C142">
+        <v>0.19449</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.29479</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="C143">
+        <v>0.19891</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="C144">
+        <v>0.20014000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="C145">
+        <v>0.18437999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="C146">
+        <v>0.18107000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.2722</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="C147">
+        <v>0.17599000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="C148">
+        <v>0.17827000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="C149">
+        <v>0.18465000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="C150">
+        <v>0.18501999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="C151">
+        <v>0.17671999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="C152">
+        <v>0.17186000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.25683</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="C153">
+        <v>0.16059999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="C154">
+        <v>0.16444</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="C155">
+        <v>0.16728999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="C156">
+        <v>0.16388</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.24456</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="C157">
+        <v>0.16431000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="C158">
+        <v>0.16422999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="C159">
+        <v>0.18754999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.22721</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="C160">
+        <v>0.16234000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="C161">
+        <v>0.15307000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.21545</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="C162">
+        <v>0.15681</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.21892</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="C163">
+        <v>0.15890000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="C164">
+        <v>0.14777999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.22827</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="C165">
+        <v>0.14760999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="C166">
+        <v>0.13699</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.21489</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="C167">
+        <v>0.13624</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="C168">
+        <v>0.14498</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="C169">
+        <v>0.15895000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.20321</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="C170">
+        <v>0.15376000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.193</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="C171">
+        <v>0.13858000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="C172">
+        <v>0.12934999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.19649</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="C173">
+        <v>0.11971</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="C174">
+        <v>0.15013000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="C175">
+        <v>0.14032</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.18289</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="C176">
+        <v>0.15142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.17509</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="C177">
+        <v>0.14477000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.16594</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="C178">
+        <v>0.12167</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.16971</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="C179">
+        <v>0.11013000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="C180">
+        <v>0.11736000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="C181">
+        <v>0.13522000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.17637</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="C182">
+        <v>0.12343999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.16108</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="C183">
+        <v>0.11525000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="C184">
+        <v>0.11007</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="C185">
+        <v>0.13111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="C186">
+        <v>0.12187000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="C187">
+        <v>0.1099</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="C188">
+        <v>0.10435999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="C189">
+        <v>0.10741000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="C190">
+        <v>0.12886</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="C191">
+        <v>0.13349</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.17412</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="C192">
+        <v>0.11687</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="C193">
+        <v>0.11276</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.14726</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="C194">
+        <v>0.14413000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.14654</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="C195">
+        <v>0.11169999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="C196">
+        <v>9.579E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="C197">
+        <v>0.1139</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="C198">
+        <v>0.11994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="C199">
+        <v>0.12268</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="C200">
+        <v>0.10169</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.13768</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="C201">
+        <v>9.6369999999999997E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="C202">
+        <v>9.8040000000000002E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.14656</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="C203">
+        <v>0.11561</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="C204">
+        <v>0.10573</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="C205">
+        <v>0.14255999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.12268</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="C206">
+        <v>0.10829</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.12182</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="C207">
+        <v>8.6139999999999994E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.12303</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="C208">
+        <v>8.0369999999999997E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.11706</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="C209">
+        <v>7.7060000000000003E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.11583</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="C210">
+        <v>0.10075000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="C211">
+        <v>0.14574999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="C212">
+        <v>0.10495</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="C213">
+        <v>7.8320000000000001E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="C214">
+        <v>7.1260000000000004E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="C215">
+        <v>9.6159999999999995E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.11314</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="C216">
+        <v>0.13653000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="C217">
+        <v>0.10451000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.13441</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="C218">
+        <v>8.4650000000000003E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.11197</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="C219">
+        <v>8.6120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.11214</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="C220">
+        <v>8.677E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.10238</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="C221">
+        <v>0.10234</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="C222">
+        <v>0.10056</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="C223">
+        <v>9.2979999999999993E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.10054</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="C224">
+        <v>8.7760000000000005E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.10248</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="C225">
+        <v>8.2839999999999997E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.10149</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="C226">
+        <v>7.3870000000000005E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.10385</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="C227">
+        <v>7.0730000000000001E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.10721</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="C228">
+        <v>7.8960000000000002E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.10183</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="C229">
+        <v>0.10442</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="C230">
+        <v>9.9669999999999995E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="C231">
+        <v>7.8950000000000006E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="C232">
+        <v>8.4140000000000006E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="C233">
+        <v>7.8020000000000006E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="C234">
+        <v>7.1620000000000003E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="C235">
+        <v>7.5060000000000002E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.11858</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="C236">
+        <v>0.10357</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="C237">
+        <v>9.1679999999999998E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="C238">
+        <v>7.6119999999999993E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="C239">
+        <v>7.9729999999999995E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="C240">
+        <v>8.3049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.1134</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="C241">
+        <v>0.11194999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="C242">
+        <v>8.8959999999999997E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="C243">
+        <v>8.6849999999999997E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="C244">
+        <v>7.2120000000000004E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="C245">
+        <v>7.9570000000000002E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="C246">
+        <v>7.757E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.10452</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="C247">
+        <v>0.10059999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="C248">
+        <v>9.2369999999999994E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="C249">
+        <v>9.4359999999999999E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="C250">
+        <v>9.9030000000000007E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="C251">
+        <v>8.2269999999999996E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="C252">
+        <v>6.6089999999999996E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="C253">
+        <v>5.7489999999999999E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="C254">
+        <v>5.8799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="C255">
+        <v>9.5210000000000003E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="C256">
+        <v>0.10203</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="C257">
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>7.6480000000000006E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>7.5179999999999997E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>6.071E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>6.2780000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>6.4979999999999996E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.10792</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>6.293E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>7.7579999999999996E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>9.8110000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>7.6689999999999994E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>5.3370000000000001E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>5.1860000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>8.2559999999999995E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>6.837E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>6.5949999999999995E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>6.1510000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.10789</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>6.3140000000000002E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>5.6579999999999998E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>5.2389999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>5.1450000000000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>6.479E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>9.6180000000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>9.4920000000000004E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>6.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>5.9479999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>5.4510000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>5.1979999999999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>7.6670000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>5.9240000000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>5.8049999999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>5.0360000000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>6.3320000000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>8.1710000000000005E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>5.9950000000000003E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>4.9979999999999997E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>4.7169999999999997E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>4.8779999999999997E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>5.7770000000000002E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>9.8250000000000004E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>8.5629999999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>6.6720000000000002E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>5.4260000000000003E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>6.3339999999999994E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>5.6610000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>5.3510000000000002E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>4.299E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>4.514E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>5.0110000000000002E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>6.7330000000000001E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>6.5509999999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>5.4379999999999998E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4.718E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4.3270000000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>4.1439999999999998E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4.1779999999999998E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>4.3880000000000002E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>4.632E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>5.0509999999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>7.979E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>5.9249999999999997E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>5.4719999999999998E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>6.4049999999999996E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>5.3150000000000003E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>4.6440000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>4.2340000000000003E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>4.0939999999999997E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4.1410000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>4.3040000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.11991</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>8.2909999999999998E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>5.2209999999999999E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>4.428E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>4.054E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>3.8080000000000003E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3.9030000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>6.9519999999999998E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>4.7539999999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>4.3720000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>4.2119999999999998E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.12336</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>6.5350000000000005E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>4.7890000000000002E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>4.1860000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>4.2659999999999997E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>4.4089999999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3.934E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3.7409999999999999E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>3.6589999999999998E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3.8170000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>4.3180000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.12934999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>6.5110000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>5.1470000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>4.5769999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>4.1110000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>4.7570000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>7.5480000000000005E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>6.3519999999999993E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>6.275E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>4.8570000000000002E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.04</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>3.594E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3.4470000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>3.6580000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>5.042E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>6.8080000000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>6.4339999999999994E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>5.8790000000000002E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>4.5330000000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>3.9370000000000002E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3.6830000000000002E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>3.8690000000000002E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>4.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>4.0340000000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>5.0310000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>8.4580000000000002E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>5.781E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>4.7840000000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>4.5089999999999998E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>3.8370000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>3.526E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3.4130000000000001E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3.4439999999999998E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>3.5409999999999997E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3.9489999999999997E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>5.5320000000000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>7.8359999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>4.6640000000000001E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>3.4119999999999998E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>0.14990999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>6.216E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3.5180000000000003E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>3.3279999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>3.168E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>3.1419999999999997E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3.7220000000000003E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>5.2019999999999997E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>7.4300000000000005E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>5.008E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>4.0189999999999997E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>3.542E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>3.3239999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>4.5440000000000001E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>8.5529999999999995E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>4.4650000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>3.7850000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>3.508E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3.6859999999999997E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>4.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>4.0529999999999997E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>3.4009999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>3.2439999999999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3.2480000000000002E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>3.6409999999999998E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>6.7019999999999996E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>8.3449999999999996E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>5.5449999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>4.2090000000000002E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>3.9280000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>3.4139999999999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>3.143E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>5.0040000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>4.5080000000000002E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>5.0770000000000003E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>3.6769999999999997E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3.3360000000000001E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3.2590000000000001E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>3.848E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>4.9820000000000003E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>5.373E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>4.0419999999999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>3.5040000000000002E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3.4070000000000003E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>3.3689999999999998E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>3.2939999999999997E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>4.0320000000000002E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>6.2920000000000004E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>3.5139999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>3.3579999999999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>3.9559999999999998E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>5.2109999999999997E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>4.4010000000000001E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>3.9809999999999998E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>3.4250000000000003E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>3.0530000000000002E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2.8819999999999998E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>3.1210000000000002E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>3.4279999999999998E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>4.0759999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>7.0860000000000006E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>4.3569999999999998E-2</v>
       </c>
@@ -3130,5 +3907,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9585745-71C5-4CDC-95FD-7FDEB340C84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59791B09-9387-48B3-9516-C2A3FDEA5264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3828,102 +3828,6 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>1.2137800000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.21323</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.21268</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.21211</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.21153</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.2109300000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.2103200000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.2097100000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.2090799999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.20844</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.2077800000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.20712</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.2064600000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.2057800000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.2051000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.20444</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.20377</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.2031000000000001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.20242</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.20174</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.2010400000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.20034</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.19964</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.1989399999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.19825</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.19756</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.1968700000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.1961900000000001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.1955199999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.19486</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.1941999999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.19356</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.19292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7028,16 +6932,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>62864</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7330,8 +7234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7372,6 +7276,9 @@
       <c r="D2">
         <v>1.4550799999999999</v>
       </c>
+      <c r="E2">
+        <v>2.5937199999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
@@ -7386,6 +7293,9 @@
       <c r="D3">
         <v>1.2123200000000001</v>
       </c>
+      <c r="E3">
+        <v>1.367</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -7400,6 +7310,9 @@
       <c r="D4">
         <v>1.18127</v>
       </c>
+      <c r="E4">
+        <v>1.3120700000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -7414,6 +7327,9 @@
       <c r="D5">
         <v>1.1647700000000001</v>
       </c>
+      <c r="E5">
+        <v>1.2888500000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -7428,6 +7344,9 @@
       <c r="D6">
         <v>1.1539299999999999</v>
       </c>
+      <c r="E6">
+        <v>1.2759400000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -7442,6 +7361,9 @@
       <c r="D7">
         <v>1.14429</v>
       </c>
+      <c r="E7">
+        <v>1.26766</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
@@ -7456,6 +7378,9 @@
       <c r="D8">
         <v>1.13487</v>
       </c>
+      <c r="E8">
+        <v>1.26203</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
@@ -7470,6 +7395,9 @@
       <c r="D9">
         <v>1.1251800000000001</v>
       </c>
+      <c r="E9">
+        <v>1.2579800000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
@@ -7484,6 +7412,9 @@
       <c r="D10">
         <v>1.1159300000000001</v>
       </c>
+      <c r="E10">
+        <v>1.2549699999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
@@ -7498,6 +7429,9 @@
       <c r="D11">
         <v>1.1063099999999999</v>
       </c>
+      <c r="E11">
+        <v>1.2526200000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -7512,6 +7446,9 @@
       <c r="D12">
         <v>1.0964100000000001</v>
       </c>
+      <c r="E12">
+        <v>1.2507200000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
@@ -7526,6 +7463,9 @@
       <c r="D13">
         <v>1.0862099999999999</v>
       </c>
+      <c r="E13">
+        <v>1.24912</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
@@ -7540,6 +7480,9 @@
       <c r="D14">
         <v>1.0748800000000001</v>
       </c>
+      <c r="E14">
+        <v>1.2477400000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
@@ -7554,6 +7497,9 @@
       <c r="D15">
         <v>1.06287</v>
       </c>
+      <c r="E15">
+        <v>1.2464900000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
@@ -7568,8 +7514,11 @@
       <c r="D16">
         <v>1.0519000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1.2454000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -7582,8 +7531,11 @@
       <c r="D17">
         <v>1.0408599999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1.2443599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -7596,8 +7548,11 @@
       <c r="D18">
         <v>1.03006</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1.2433700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -7610,8 +7565,11 @@
       <c r="D19">
         <v>1.0193300000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>1.2423299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -7624,8 +7582,11 @@
       <c r="D20">
         <v>1.0099499999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>1.24129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -7638,8 +7599,11 @@
       <c r="D21">
         <v>0.99824999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1.24031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -7652,8 +7616,11 @@
       <c r="D22">
         <v>0.98738000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>1.2394400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -7666,8 +7633,11 @@
       <c r="D23">
         <v>0.97380999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>1.23861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -7680,8 +7650,11 @@
       <c r="D24">
         <v>0.95870999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>1.23783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -7694,8 +7667,11 @@
       <c r="D25">
         <v>0.94657000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>1.2370699999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -7708,8 +7684,11 @@
       <c r="D26">
         <v>0.92986000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>1.2363299999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -7722,8 +7701,11 @@
       <c r="D27">
         <v>0.91842999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>1.2356199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -7736,8 +7718,11 @@
       <c r="D28">
         <v>0.90283999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>1.2349300000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -7750,8 +7735,11 @@
       <c r="D29">
         <v>0.89232999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>1.2342299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -7764,8 +7752,11 @@
       <c r="D30">
         <v>0.88227999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>1.2335199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -7778,8 +7769,11 @@
       <c r="D31">
         <v>0.86517999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>1.2327900000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -7792,8 +7786,11 @@
       <c r="D32">
         <v>0.85448000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>1.23201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -7806,8 +7803,11 @@
       <c r="D33">
         <v>0.83909999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>1.2313000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -7820,8 +7820,11 @@
       <c r="D34">
         <v>0.82679999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>1.23064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -7834,8 +7837,11 @@
       <c r="D35">
         <v>0.81405000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>1.23001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -7848,8 +7854,11 @@
       <c r="D36">
         <v>0.80705000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>1.22939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -7862,8 +7871,11 @@
       <c r="D37">
         <v>0.79708000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>1.2287999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -7876,8 +7888,11 @@
       <c r="D38">
         <v>0.78922000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>1.2282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -7890,8 +7905,11 @@
       <c r="D39">
         <v>0.77366999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>1.2276100000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -7904,8 +7922,11 @@
       <c r="D40">
         <v>0.76861999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>1.22702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -7918,8 +7939,11 @@
       <c r="D41">
         <v>0.75548000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>1.22644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -7932,8 +7956,11 @@
       <c r="D42">
         <v>0.74595</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>1.2258599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -7946,8 +7973,11 @@
       <c r="D43">
         <v>0.73960000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>1.22529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -7960,8 +7990,11 @@
       <c r="D44">
         <v>0.73185</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>1.2247300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -7974,8 +8007,11 @@
       <c r="D45">
         <v>0.72047000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>1.2241500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -7988,8 +8024,11 @@
       <c r="D46">
         <v>0.71225000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>1.22357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -8002,8 +8041,11 @@
       <c r="D47">
         <v>0.71186000000000005</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>1.2230099999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -8016,8 +8058,11 @@
       <c r="D48">
         <v>0.69811999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>1.22244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -8030,8 +8075,11 @@
       <c r="D49">
         <v>0.69357999999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>1.2219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -8044,8 +8092,11 @@
       <c r="D50">
         <v>0.69576000000000005</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>1.2213700000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -8058,8 +8109,11 @@
       <c r="D51">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>1.2208399999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -8072,8 +8126,11 @@
       <c r="D52">
         <v>0.67688000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>1.2203200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -8086,8 +8143,11 @@
       <c r="D53">
         <v>0.66454000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>1.2198100000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -8100,8 +8160,11 @@
       <c r="D54">
         <v>0.65758000000000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>1.2193000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -8114,8 +8177,11 @@
       <c r="D55">
         <v>0.64153000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>1.2188099999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -8128,8 +8194,11 @@
       <c r="D56">
         <v>0.63280999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>1.2183200000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -8142,8 +8211,11 @@
       <c r="D57">
         <v>0.62158999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>1.21783</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -8156,8 +8228,11 @@
       <c r="D58">
         <v>0.61992999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>1.2173400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -8170,8 +8245,11 @@
       <c r="D59">
         <v>0.62409000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>1.21685</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -8184,8 +8262,11 @@
       <c r="D60">
         <v>0.61355999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>1.21635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -8198,8 +8279,11 @@
       <c r="D61">
         <v>0.60026000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>1.2158599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -8212,8 +8296,11 @@
       <c r="D62">
         <v>0.59309000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>1.2153499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -8226,8 +8313,11 @@
       <c r="D63">
         <v>0.59869000000000006</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>1.2148399999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -8240,8 +8330,11 @@
       <c r="D64">
         <v>0.5927</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>1.2143200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -8254,456 +8347,459 @@
       <c r="D65">
         <v>0.58945999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>1.2137800000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
-      <c r="B66">
-        <v>1.21323</v>
-      </c>
       <c r="C66">
         <v>0.55001</v>
       </c>
       <c r="D66">
         <v>0.58147000000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>1.21323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
-      <c r="B67">
-        <v>1.21268</v>
-      </c>
       <c r="C67">
         <v>0.55661000000000005</v>
       </c>
       <c r="D67">
         <v>0.56920999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>1.21268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
-      <c r="B68">
-        <v>1.21211</v>
-      </c>
       <c r="C68">
         <v>0.54752999999999996</v>
       </c>
       <c r="D68">
         <v>0.54952999999999996</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>1.21211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
-      <c r="B69">
-        <v>1.21153</v>
-      </c>
       <c r="C69">
         <v>0.54742000000000002</v>
       </c>
       <c r="D69">
         <v>0.55583000000000005</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>1.21153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
-      <c r="B70">
-        <v>1.2109300000000001</v>
-      </c>
       <c r="C70">
         <v>0.54034000000000004</v>
       </c>
       <c r="D70">
         <v>0.53515999999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>1.2109300000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
-      <c r="B71">
-        <v>1.2103200000000001</v>
-      </c>
       <c r="C71">
         <v>0.52003999999999995</v>
       </c>
       <c r="D71">
         <v>0.52797000000000005</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>1.2103200000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
-      <c r="B72">
-        <v>1.2097100000000001</v>
-      </c>
       <c r="C72">
         <v>0.50936999999999999</v>
       </c>
       <c r="D72">
         <v>0.51866999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>1.2097100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>0.66208</v>
       </c>
-      <c r="B73">
-        <v>1.2090799999999999</v>
-      </c>
       <c r="C73">
         <v>0.49428</v>
       </c>
       <c r="D73">
         <v>0.51670000000000005</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>1.2090799999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
-      <c r="B74">
-        <v>1.20844</v>
-      </c>
       <c r="C74">
         <v>0.48464000000000002</v>
       </c>
       <c r="D74">
         <v>0.51124999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>1.20844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
-      <c r="B75">
-        <v>1.2077800000000001</v>
-      </c>
       <c r="C75">
         <v>0.48442000000000002</v>
       </c>
       <c r="D75">
         <v>0.50865000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>1.2077800000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
-      <c r="B76">
-        <v>1.20712</v>
-      </c>
       <c r="C76">
         <v>0.48116999999999999</v>
       </c>
       <c r="D76">
         <v>0.51075000000000004</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>1.20712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
-      <c r="B77">
-        <v>1.2064600000000001</v>
-      </c>
       <c r="C77">
         <v>0.46965000000000001</v>
       </c>
       <c r="D77">
         <v>0.49995000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>1.2064600000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
-      <c r="B78">
-        <v>1.2057800000000001</v>
-      </c>
       <c r="C78">
         <v>0.46010000000000001</v>
       </c>
       <c r="D78">
         <v>0.49647000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>1.2057800000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
-      <c r="B79">
-        <v>1.2051000000000001</v>
-      </c>
       <c r="C79">
         <v>0.45423999999999998</v>
       </c>
       <c r="D79">
         <v>0.48866999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>1.2051000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
-      <c r="B80">
-        <v>1.20444</v>
-      </c>
       <c r="C80">
         <v>0.44885999999999998</v>
       </c>
       <c r="D80">
         <v>0.49308000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>1.20444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
-      <c r="B81">
-        <v>1.20377</v>
-      </c>
       <c r="C81">
         <v>0.44814999999999999</v>
       </c>
       <c r="D81">
         <v>0.48571999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>1.20377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
-      <c r="B82">
-        <v>1.2031000000000001</v>
-      </c>
       <c r="C82">
         <v>0.44141999999999998</v>
       </c>
       <c r="D82">
         <v>0.45912999999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>1.2031000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
-      <c r="B83">
-        <v>1.20242</v>
-      </c>
       <c r="C83">
         <v>0.44418000000000002</v>
       </c>
       <c r="D83">
         <v>0.44529999999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>1.20242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
-      <c r="B84">
-        <v>1.20174</v>
-      </c>
       <c r="C84">
         <v>0.43164999999999998</v>
       </c>
       <c r="D84">
         <v>0.43774000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>1.20174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
-      <c r="B85">
-        <v>1.2010400000000001</v>
-      </c>
       <c r="C85">
         <v>0.4158</v>
       </c>
       <c r="D85">
         <v>0.42914999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>1.2010400000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
-      <c r="B86">
-        <v>1.20034</v>
-      </c>
       <c r="C86">
         <v>0.41432000000000002</v>
       </c>
       <c r="D86">
         <v>0.43347999999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>1.20034</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
-      <c r="B87">
-        <v>1.19964</v>
-      </c>
       <c r="C87">
         <v>0.41360999999999998</v>
       </c>
       <c r="D87">
         <v>0.42430000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>1.19964</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>0.59414</v>
       </c>
-      <c r="B88">
-        <v>1.1989399999999999</v>
-      </c>
       <c r="C88">
         <v>0.41425000000000001</v>
       </c>
       <c r="D88">
         <v>0.43492999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>1.1989399999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
-      <c r="B89">
-        <v>1.19825</v>
-      </c>
       <c r="C89">
         <v>0.40318999999999999</v>
       </c>
       <c r="D89">
         <v>0.42354000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>1.19825</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
-      <c r="B90">
-        <v>1.19756</v>
-      </c>
       <c r="C90">
         <v>0.39633000000000002</v>
       </c>
       <c r="D90">
         <v>0.41489999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>1.19756</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
-      <c r="B91">
-        <v>1.1968700000000001</v>
-      </c>
       <c r="C91">
         <v>0.38988</v>
       </c>
       <c r="D91">
         <v>0.41060000000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>1.1968700000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
-      <c r="B92">
-        <v>1.1961900000000001</v>
-      </c>
       <c r="C92">
         <v>0.39842</v>
       </c>
       <c r="D92">
         <v>0.41025</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>1.1961900000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
-      <c r="B93">
-        <v>1.1955199999999999</v>
-      </c>
       <c r="C93">
         <v>0.38323000000000002</v>
       </c>
       <c r="D93">
         <v>0.41682999999999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>1.1955199999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
-      <c r="B94">
-        <v>1.19486</v>
-      </c>
       <c r="C94">
         <v>0.38762000000000002</v>
       </c>
       <c r="D94">
         <v>0.38552999999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>1.19486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
-      <c r="B95">
-        <v>1.1941999999999999</v>
-      </c>
       <c r="C95">
         <v>0.37907999999999997</v>
       </c>
       <c r="D95">
         <v>0.38585000000000003</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>1.1941999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
-      <c r="B96">
-        <v>1.19356</v>
-      </c>
       <c r="C96">
         <v>0.37003000000000003</v>
       </c>
       <c r="D96">
         <v>0.38717000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>1.19356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
-      <c r="B97">
-        <v>1.19292</v>
-      </c>
       <c r="C97">
         <v>0.36486000000000002</v>
       </c>
       <c r="D97">
         <v>0.37884000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>1.19292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -8714,7 +8810,7 @@
         <v>0.36810999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -8725,7 +8821,7 @@
         <v>0.36287999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -8736,7 +8832,7 @@
         <v>0.36048999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -8747,7 +8843,7 @@
         <v>0.3669</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -8758,7 +8854,7 @@
         <v>0.34415000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -8769,7 +8865,7 @@
         <v>0.34428999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -8780,7 +8876,7 @@
         <v>0.34982000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -8791,7 +8887,7 @@
         <v>0.34572000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -8802,7 +8898,7 @@
         <v>0.33648</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -8813,7 +8909,7 @@
         <v>0.32311000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -8824,7 +8920,7 @@
         <v>0.32171</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -8835,7 +8931,7 @@
         <v>0.32001000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -8846,7 +8942,7 @@
         <v>0.30098000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -8857,7 +8953,7 @@
         <v>0.29605999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9585745-71C5-4CDC-95FD-7FDEB340C84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9806BB-8056-4360-B0AD-6030A39904A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NN041301</t>
   </si>
   <si>
     <t>NN041303</t>
@@ -44,22 +41,30 @@
   <si>
     <t>NN041304</t>
   </si>
+  <si>
+    <t>NN041304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN041401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -89,7 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -107,7 +112,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -144,7 +149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1805,7 +1810,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497101071"/>
@@ -1864,7 +1869,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="499027071"/>
@@ -1906,7 +1911,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1936,7 +1941,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1950,7 +1955,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2017,7 +2022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3614,7 +3619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NN041301</c:v>
+                  <c:v>NN041304</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5552,6 +5557,858 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A9A4-4007-BDD1-897BF332E7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN041304</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$513</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="512"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C55-486E-83D4-E929D2AAADF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN041401</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$513</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="512"/>
+                <c:pt idx="0">
+                  <c:v>2.8085599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7160299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6047099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4560900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2374800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9437599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.66245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4977100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4370099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4154800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.40391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3951899999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.38771</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3810199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.37487</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3691500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3639600000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3591899999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.35476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3506400000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3467800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3431299999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3396600000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.33636</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3331999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3301700000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3272699999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3244899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3218099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3192200000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.31674</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3143400000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.31203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3098000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.30765</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3055699999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3035600000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.30162</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2997399999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2979099999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2961400000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2944199999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2927599999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.29114</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2895799999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.28807</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2866</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2851699999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2837799999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.28244</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2811399999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2798799999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.27867</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2775000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.27637</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2752699999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.2742100000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.27318</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2721899999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2712300000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2703</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2694099999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.26854</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.26772</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.26692</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.26616</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2654300000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2647200000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2640499999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.26339</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2627600000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2621500000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2615499999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.26098</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2604200000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.25987</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2593399999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2583200000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.25783</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.25735</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2568900000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2564299999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2559899999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2555499999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2551300000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2547200000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2543200000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2539199999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2535400000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2531699999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.25244</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2520899999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2517499999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.25142</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.25109</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2507699999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2504599999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2501500000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2498499999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.24956</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.2492700000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.24899</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.24871</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.24844</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.2481800000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.2479199999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.2476700000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.24742</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.2471699999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2469300000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.24647</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.24624</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2460199999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.2458</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.24559</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.24539</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.24518</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.24499</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2447900000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2445999999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.24441</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2442299999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2440500000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.24387</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2437</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.24353</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.2433700000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.2432000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.2430399999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.24288</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.2427299999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.24258</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.2424299999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.2422800000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.24214</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.2419899999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.2418499999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.2417100000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.2415700000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.2414400000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.2413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.2411700000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.2410399999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.24091</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.2407900000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.2406600000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.24054</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.2404200000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.2403</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.2401800000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.2400599999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.2399500000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.23983</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.2397100000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.2396</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.23949</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.2393799999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.2392700000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.2391700000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.2390600000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.23895</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.23885</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.23875</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.23865</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.23855</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.2384500000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.2383500000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.2382500000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.2381599999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.2380599999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.23797</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.23787</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.2377800000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.23769</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.23759</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.2375</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.2374099999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.23732</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.2372300000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.2371399999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.23705</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.2369699999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.23688</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.2367900000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.23671</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.2366200000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.23654</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.23645</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.23637</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.23628</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.2362</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.23611</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.23603</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.2359500000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.23586</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.2357800000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.2357</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.2356199999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.23553</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.2354499999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.2353700000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.23529</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.2352000000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.23512</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.2350399999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.2349600000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.23488</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.2347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.23471</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.2346299999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.23455</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.2344599999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.23438</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.2342900000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.23421</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.2341200000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.23403</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.2339500000000001</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.23387</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.2337899999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.2337100000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.23363</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.2335499999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.2334700000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.2334000000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.23332</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.23325</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.2331700000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.2331000000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.2330300000000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.2329600000000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.23289</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.23282</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.23275</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.23268</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.23261</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.23254</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.23248</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.23241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.23234</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.23227</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.23221</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.23214</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.2320800000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.23201</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.23194</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.2318800000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.2318199999999999</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.2317499999999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.23169</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.2316199999999999</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.23156</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.2315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C55-486E-83D4-E929D2AAADF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5626,7 +6483,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5664,7 +6521,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493239103"/>
@@ -5761,7 +6618,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5793,7 +6650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="455121583"/>
@@ -5835,7 +6692,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5865,7 +6722,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7028,16 +7885,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>478155</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>62864</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>664845</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7328,38 +8185,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E513"/>
+  <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -7372,8 +8234,11 @@
       <c r="D2">
         <v>1.4550799999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>2.8085599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -7386,8 +8251,11 @@
       <c r="D3">
         <v>1.2123200000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>2.7160299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -7400,8 +8268,11 @@
       <c r="D4">
         <v>1.18127</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>2.6047099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -7414,8 +8285,11 @@
       <c r="D5">
         <v>1.1647700000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>2.4560900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -7428,8 +8302,11 @@
       <c r="D6">
         <v>1.1539299999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>2.2374800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -7442,8 +8319,11 @@
       <c r="D7">
         <v>1.14429</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1.9437599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -7456,8 +8336,11 @@
       <c r="D8">
         <v>1.13487</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1.66245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -7470,8 +8353,11 @@
       <c r="D9">
         <v>1.1251800000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1.4977100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -7484,8 +8370,11 @@
       <c r="D10">
         <v>1.1159300000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>1.4370099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -7498,8 +8387,11 @@
       <c r="D11">
         <v>1.1063099999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>1.4154800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -7512,8 +8404,11 @@
       <c r="D12">
         <v>1.0964100000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>1.40391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -7526,8 +8421,11 @@
       <c r="D13">
         <v>1.0862099999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>1.3951899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -7540,8 +8438,11 @@
       <c r="D14">
         <v>1.0748800000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>1.38771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -7554,8 +8455,11 @@
       <c r="D15">
         <v>1.06287</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>1.3810199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -7568,8 +8472,11 @@
       <c r="D16">
         <v>1.0519000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>1.37487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -7582,8 +8489,11 @@
       <c r="D17">
         <v>1.0408599999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <v>1.3691500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -7596,8 +8506,11 @@
       <c r="D18">
         <v>1.03006</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <v>1.3639600000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -7610,8 +8523,11 @@
       <c r="D19">
         <v>1.0193300000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <v>1.3591899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -7624,8 +8540,11 @@
       <c r="D20">
         <v>1.0099499999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <v>1.35476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -7638,8 +8557,11 @@
       <c r="D21">
         <v>0.99824999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <v>1.3506400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -7652,8 +8574,11 @@
       <c r="D22">
         <v>0.98738000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <v>1.3467800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -7666,8 +8591,11 @@
       <c r="D23">
         <v>0.97380999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <v>1.3431299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -7680,8 +8608,11 @@
       <c r="D24">
         <v>0.95870999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <v>1.3396600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -7694,8 +8625,11 @@
       <c r="D25">
         <v>0.94657000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <v>1.33636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -7708,8 +8642,11 @@
       <c r="D26">
         <v>0.92986000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <v>1.3331999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -7722,8 +8659,11 @@
       <c r="D27">
         <v>0.91842999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <v>1.3301700000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -7736,8 +8676,11 @@
       <c r="D28">
         <v>0.90283999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <v>1.3272699999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -7750,8 +8693,11 @@
       <c r="D29">
         <v>0.89232999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <v>1.3244899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -7764,8 +8710,11 @@
       <c r="D30">
         <v>0.88227999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <v>1.3218099999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -7778,8 +8727,11 @@
       <c r="D31">
         <v>0.86517999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <v>1.3192200000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -7792,8 +8744,11 @@
       <c r="D32">
         <v>0.85448000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <v>1.31674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -7806,8 +8761,11 @@
       <c r="D33">
         <v>0.83909999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <v>1.3143400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -7820,8 +8778,11 @@
       <c r="D34">
         <v>0.82679999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <v>1.31203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -7834,8 +8795,11 @@
       <c r="D35">
         <v>0.81405000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <v>1.3098000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -7848,8 +8812,11 @@
       <c r="D36">
         <v>0.80705000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <v>1.30765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -7862,8 +8829,11 @@
       <c r="D37">
         <v>0.79708000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <v>1.3055699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -7876,8 +8846,11 @@
       <c r="D38">
         <v>0.78922000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <v>1.3035600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -7890,8 +8863,11 @@
       <c r="D39">
         <v>0.77366999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <v>1.30162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -7904,8 +8880,11 @@
       <c r="D40">
         <v>0.76861999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <v>1.2997399999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -7918,8 +8897,11 @@
       <c r="D41">
         <v>0.75548000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <v>1.2979099999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -7932,8 +8914,11 @@
       <c r="D42">
         <v>0.74595</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <v>1.2961400000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -7946,8 +8931,11 @@
       <c r="D43">
         <v>0.73960000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <v>1.2944199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -7960,8 +8948,11 @@
       <c r="D44">
         <v>0.73185</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <v>1.2927599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -7974,8 +8965,11 @@
       <c r="D45">
         <v>0.72047000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <v>1.29114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -7988,8 +8982,11 @@
       <c r="D46">
         <v>0.71225000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <v>1.2895799999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -8002,8 +8999,11 @@
       <c r="D47">
         <v>0.71186000000000005</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <v>1.28807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -8016,8 +9016,11 @@
       <c r="D48">
         <v>0.69811999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <v>1.2866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -8030,8 +9033,11 @@
       <c r="D49">
         <v>0.69357999999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <v>1.2851699999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -8044,8 +9050,11 @@
       <c r="D50">
         <v>0.69576000000000005</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <v>1.2837799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -8058,8 +9067,11 @@
       <c r="D51">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <v>1.28244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -8072,8 +9084,11 @@
       <c r="D52">
         <v>0.67688000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <v>1.2811399999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -8086,8 +9101,11 @@
       <c r="D53">
         <v>0.66454000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <v>1.2798799999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -8100,8 +9118,11 @@
       <c r="D54">
         <v>0.65758000000000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <v>1.27867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -8114,8 +9135,11 @@
       <c r="D55">
         <v>0.64153000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <v>1.2775000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -8128,8 +9152,11 @@
       <c r="D56">
         <v>0.63280999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56">
+        <v>1.27637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -8142,8 +9169,11 @@
       <c r="D57">
         <v>0.62158999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57">
+        <v>1.2752699999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -8156,8 +9186,11 @@
       <c r="D58">
         <v>0.61992999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58">
+        <v>1.2742100000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -8170,8 +9203,11 @@
       <c r="D59">
         <v>0.62409000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <v>1.27318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -8184,8 +9220,11 @@
       <c r="D60">
         <v>0.61355999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60">
+        <v>1.2721899999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -8198,8 +9237,11 @@
       <c r="D61">
         <v>0.60026000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61">
+        <v>1.2712300000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -8212,8 +9254,11 @@
       <c r="D62">
         <v>0.59309000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62">
+        <v>1.2703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -8226,8 +9271,11 @@
       <c r="D63">
         <v>0.59869000000000006</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63">
+        <v>1.2694099999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -8240,8 +9288,11 @@
       <c r="D64">
         <v>0.5927</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F64">
+        <v>1.26854</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -8254,8 +9305,11 @@
       <c r="D65">
         <v>0.58945999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="F65">
+        <v>1.26772</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -8268,8 +9322,11 @@
       <c r="D66">
         <v>0.58147000000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F66">
+        <v>1.26692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -8282,8 +9339,11 @@
       <c r="D67">
         <v>0.56920999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="F67">
+        <v>1.26616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -8296,8 +9356,11 @@
       <c r="D68">
         <v>0.54952999999999996</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F68">
+        <v>1.2654300000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -8310,8 +9373,11 @@
       <c r="D69">
         <v>0.55583000000000005</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="F69">
+        <v>1.2647200000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -8324,8 +9390,11 @@
       <c r="D70">
         <v>0.53515999999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70">
+        <v>1.2640499999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -8338,8 +9407,11 @@
       <c r="D71">
         <v>0.52797000000000005</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="F71">
+        <v>1.26339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -8352,8 +9424,11 @@
       <c r="D72">
         <v>0.51866999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="F72">
+        <v>1.2627600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -8366,8 +9441,11 @@
       <c r="D73">
         <v>0.51670000000000005</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="F73">
+        <v>1.2621500000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -8380,8 +9458,11 @@
       <c r="D74">
         <v>0.51124999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="F74">
+        <v>1.2615499999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -8394,8 +9475,11 @@
       <c r="D75">
         <v>0.50865000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="F75">
+        <v>1.26098</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -8408,8 +9492,11 @@
       <c r="D76">
         <v>0.51075000000000004</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="F76">
+        <v>1.2604200000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -8422,8 +9509,11 @@
       <c r="D77">
         <v>0.49995000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="F77">
+        <v>1.25987</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -8436,8 +9526,11 @@
       <c r="D78">
         <v>0.49647000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="F78">
+        <v>1.2593399999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -8450,8 +9543,11 @@
       <c r="D79">
         <v>0.48866999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="F79">
+        <v>1.2588200000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -8464,8 +9560,11 @@
       <c r="D80">
         <v>0.49308000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="F80">
+        <v>1.2583200000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -8478,8 +9577,11 @@
       <c r="D81">
         <v>0.48571999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F81">
+        <v>1.25783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -8492,8 +9594,11 @@
       <c r="D82">
         <v>0.45912999999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82">
+        <v>1.25735</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -8506,8 +9611,11 @@
       <c r="D83">
         <v>0.44529999999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="F83">
+        <v>1.2568900000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -8520,8 +9628,11 @@
       <c r="D84">
         <v>0.43774000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F84">
+        <v>1.2564299999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -8534,8 +9645,11 @@
       <c r="D85">
         <v>0.42914999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85">
+        <v>1.2559899999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -8548,8 +9662,11 @@
       <c r="D86">
         <v>0.43347999999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86">
+        <v>1.2555499999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -8562,8 +9679,11 @@
       <c r="D87">
         <v>0.42430000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="F87">
+        <v>1.2551300000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -8576,8 +9696,11 @@
       <c r="D88">
         <v>0.43492999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="F88">
+        <v>1.2547200000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -8590,8 +9713,11 @@
       <c r="D89">
         <v>0.42354000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="F89">
+        <v>1.2543200000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -8604,8 +9730,11 @@
       <c r="D90">
         <v>0.41489999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="F90">
+        <v>1.2539199999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -8618,8 +9747,11 @@
       <c r="D91">
         <v>0.41060000000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="F91">
+        <v>1.2535400000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -8632,8 +9764,11 @@
       <c r="D92">
         <v>0.41025</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="F92">
+        <v>1.2531699999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -8646,8 +9781,11 @@
       <c r="D93">
         <v>0.41682999999999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="F93">
+        <v>1.2527999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -8660,8 +9798,11 @@
       <c r="D94">
         <v>0.38552999999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="F94">
+        <v>1.25244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -8674,8 +9815,11 @@
       <c r="D95">
         <v>0.38585000000000003</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="F95">
+        <v>1.2520899999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -8688,8 +9832,11 @@
       <c r="D96">
         <v>0.38717000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="F96">
+        <v>1.2517499999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -8702,8 +9849,11 @@
       <c r="D97">
         <v>0.37884000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="F97">
+        <v>1.25142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -8713,8 +9863,11 @@
       <c r="D98">
         <v>0.36810999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="F98">
+        <v>1.25109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -8724,8 +9877,11 @@
       <c r="D99">
         <v>0.36287999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="F99">
+        <v>1.2507699999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -8735,8 +9891,11 @@
       <c r="D100">
         <v>0.36048999999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="F100">
+        <v>1.2504599999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -8746,8 +9905,11 @@
       <c r="D101">
         <v>0.3669</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="F101">
+        <v>1.2501500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -8757,8 +9919,11 @@
       <c r="D102">
         <v>0.34415000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="F102">
+        <v>1.2498499999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -8768,8 +9933,11 @@
       <c r="D103">
         <v>0.34428999999999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="F103">
+        <v>1.24956</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -8779,8 +9947,11 @@
       <c r="D104">
         <v>0.34982000000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="F104">
+        <v>1.2492700000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -8790,8 +9961,11 @@
       <c r="D105">
         <v>0.34572000000000003</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="F105">
+        <v>1.24899</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -8801,8 +9975,11 @@
       <c r="D106">
         <v>0.33648</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="F106">
+        <v>1.24871</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -8812,8 +9989,11 @@
       <c r="D107">
         <v>0.32311000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="F107">
+        <v>1.24844</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -8823,8 +10003,11 @@
       <c r="D108">
         <v>0.32171</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="F108">
+        <v>1.2481800000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -8834,8 +10017,11 @@
       <c r="D109">
         <v>0.32001000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="F109">
+        <v>1.2479199999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -8845,8 +10031,11 @@
       <c r="D110">
         <v>0.30098000000000003</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="F110">
+        <v>1.2476700000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -8856,8 +10045,11 @@
       <c r="D111">
         <v>0.29605999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="F111">
+        <v>1.24742</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -8867,8 +10059,11 @@
       <c r="D112">
         <v>0.30780000000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="F112">
+        <v>1.2471699999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -8878,8 +10073,11 @@
       <c r="D113">
         <v>0.31039</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="F113">
+        <v>1.2469300000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -8889,8 +10087,11 @@
       <c r="D114">
         <v>0.29815000000000003</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="F114">
+        <v>1.2466999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -8900,8 +10101,11 @@
       <c r="D115">
         <v>0.28283999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="F115">
+        <v>1.24647</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
@@ -8911,8 +10115,11 @@
       <c r="D116">
         <v>0.2848</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="F116">
+        <v>1.24624</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
@@ -8922,8 +10129,11 @@
       <c r="D117">
         <v>0.29748000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="F117">
+        <v>1.2460199999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
@@ -8933,8 +10143,11 @@
       <c r="D118">
         <v>0.28262999999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="F118">
+        <v>1.2458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.42812</v>
       </c>
@@ -8944,8 +10157,11 @@
       <c r="D119">
         <v>0.27805999999999997</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="F119">
+        <v>1.24559</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
@@ -8955,8 +10171,11 @@
       <c r="D120">
         <v>0.26778000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="F120">
+        <v>1.24539</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
@@ -8966,8 +10185,11 @@
       <c r="D121">
         <v>0.27274999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="F121">
+        <v>1.24518</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
@@ -8977,8 +10199,11 @@
       <c r="D122">
         <v>0.27481</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="F122">
+        <v>1.24499</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
@@ -8988,8 +10213,11 @@
       <c r="D123">
         <v>0.28289999999999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="F123">
+        <v>1.2447900000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
@@ -8999,8 +10227,11 @@
       <c r="D124">
         <v>0.26416000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="F124">
+        <v>1.2445999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
@@ -9010,8 +10241,11 @@
       <c r="D125">
         <v>0.25890999999999997</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="F125">
+        <v>1.24441</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
@@ -9021,8 +10255,11 @@
       <c r="D126">
         <v>0.25984000000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="F126">
+        <v>1.2442299999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
@@ -9032,8 +10269,11 @@
       <c r="D127">
         <v>0.24740000000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="F127">
+        <v>1.2440500000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.35158</v>
       </c>
@@ -9043,8 +10283,11 @@
       <c r="D128">
         <v>0.25179000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="F128">
+        <v>1.24387</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
@@ -9054,8 +10297,11 @@
       <c r="D129">
         <v>0.24515999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="F129">
+        <v>1.2437</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.3392</v>
       </c>
@@ -9065,8 +10311,11 @@
       <c r="D130">
         <v>0.24173</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="F130">
+        <v>1.24353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
@@ -9076,8 +10325,11 @@
       <c r="D131">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="F131">
+        <v>1.2433700000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
@@ -9087,8 +10339,11 @@
       <c r="D132">
         <v>0.24235000000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="F132">
+        <v>1.2432000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
@@ -9098,8 +10353,11 @@
       <c r="D133">
         <v>0.23604</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="F133">
+        <v>1.2430399999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
@@ -9109,8 +10367,11 @@
       <c r="D134">
         <v>0.23710999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="F134">
+        <v>1.24288</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.32943</v>
       </c>
@@ -9120,8 +10381,11 @@
       <c r="D135">
         <v>0.22086</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="F135">
+        <v>1.2427299999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
@@ -9131,8 +10395,11 @@
       <c r="D136">
         <v>0.21845000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="F136">
+        <v>1.24258</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
@@ -9142,8 +10409,11 @@
       <c r="D137">
         <v>0.21536</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="F137">
+        <v>1.2424299999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.31</v>
       </c>
@@ -9153,8 +10423,11 @@
       <c r="D138">
         <v>0.22564000000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="F138">
+        <v>1.2422800000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
@@ -9164,8 +10437,11 @@
       <c r="D139">
         <v>0.22377</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="F139">
+        <v>1.24214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.30506</v>
       </c>
@@ -9175,8 +10451,11 @@
       <c r="D140">
         <v>0.22228000000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="F140">
+        <v>1.2419899999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
@@ -9186,8 +10465,11 @@
       <c r="D141">
         <v>0.21185000000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="F141">
+        <v>1.2418499999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
@@ -9197,8 +10479,11 @@
       <c r="D142">
         <v>0.21571000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="F142">
+        <v>1.2417100000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.29479</v>
       </c>
@@ -9208,8 +10493,11 @@
       <c r="D143">
         <v>0.22498000000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="F143">
+        <v>1.2415700000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
@@ -9219,8 +10507,11 @@
       <c r="D144">
         <v>0.21965999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="F144">
+        <v>1.2414400000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
@@ -9230,8 +10521,11 @@
       <c r="D145">
         <v>0.20135</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="F145">
+        <v>1.2413000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
@@ -9241,8 +10535,11 @@
       <c r="D146">
         <v>0.20230000000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="F146">
+        <v>1.2411700000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.2722</v>
       </c>
@@ -9252,8 +10549,11 @@
       <c r="D147">
         <v>0.19808000000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="F147">
+        <v>1.2410399999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
@@ -9263,8 +10563,11 @@
       <c r="D148">
         <v>0.20610000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="F148">
+        <v>1.24091</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
@@ -9274,8 +10577,11 @@
       <c r="D149">
         <v>0.19775999999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="F149">
+        <v>1.2407900000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
@@ -9285,8 +10591,11 @@
       <c r="D150">
         <v>0.19378000000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="F150">
+        <v>1.2406600000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
@@ -9296,8 +10605,11 @@
       <c r="D151">
         <v>0.18723999999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="F151">
+        <v>1.24054</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
@@ -9307,8 +10619,11 @@
       <c r="D152">
         <v>0.18529999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="F152">
+        <v>1.2404200000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.25683</v>
       </c>
@@ -9318,8 +10633,11 @@
       <c r="D153">
         <v>0.19272</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="F153">
+        <v>1.2403</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
@@ -9329,8 +10647,11 @@
       <c r="D154">
         <v>0.18823000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="F154">
+        <v>1.2401800000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
@@ -9340,8 +10661,11 @@
       <c r="D155">
         <v>0.17982999999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="F155">
+        <v>1.2400599999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
@@ -9351,8 +10675,11 @@
       <c r="D156">
         <v>0.18754000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="F156">
+        <v>1.2399500000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.24456</v>
       </c>
@@ -9362,8 +10689,11 @@
       <c r="D157">
         <v>0.19553999999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="F157">
+        <v>1.23983</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
@@ -9373,8 +10703,11 @@
       <c r="D158">
         <v>0.17718999999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="F158">
+        <v>1.2397100000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
@@ -9384,8 +10717,11 @@
       <c r="D159">
         <v>0.17866000000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="F159">
+        <v>1.2396</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.22721</v>
       </c>
@@ -9395,8 +10731,11 @@
       <c r="D160">
         <v>0.18045</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="F160">
+        <v>1.23949</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
@@ -9406,8 +10745,11 @@
       <c r="D161">
         <v>0.17671000000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="F161">
+        <v>1.2393799999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.21545</v>
       </c>
@@ -9417,8 +10759,11 @@
       <c r="D162">
         <v>0.17236000000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="F162">
+        <v>1.2392700000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.21892</v>
       </c>
@@ -9428,8 +10773,11 @@
       <c r="D163">
         <v>0.16070000000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="F163">
+        <v>1.2391700000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
@@ -9439,8 +10787,11 @@
       <c r="D164">
         <v>0.16042000000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="F164">
+        <v>1.2390600000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.22827</v>
       </c>
@@ -9450,8 +10801,11 @@
       <c r="D165">
         <v>0.16800999999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="F165">
+        <v>1.23895</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
@@ -9461,8 +10815,11 @@
       <c r="D166">
         <v>0.17025000000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="F166">
+        <v>1.23885</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.21489</v>
       </c>
@@ -9472,8 +10829,11 @@
       <c r="D167">
         <v>0.16649</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="F167">
+        <v>1.23875</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
@@ -9483,8 +10843,11 @@
       <c r="D168">
         <v>0.16031000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="F168">
+        <v>1.23865</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
@@ -9494,8 +10857,11 @@
       <c r="D169">
         <v>0.16003000000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="F169">
+        <v>1.23855</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.20321</v>
       </c>
@@ -9505,8 +10871,11 @@
       <c r="D170">
         <v>0.15348000000000001</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="F170">
+        <v>1.2384500000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.193</v>
       </c>
@@ -9516,8 +10885,11 @@
       <c r="D171">
         <v>0.16517000000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="F171">
+        <v>1.2383500000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
@@ -9527,8 +10899,11 @@
       <c r="D172">
         <v>0.15306</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="F172">
+        <v>1.2382500000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.19649</v>
       </c>
@@ -9538,8 +10913,11 @@
       <c r="D173">
         <v>0.16123000000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="F173">
+        <v>1.2381599999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
@@ -9549,8 +10927,11 @@
       <c r="D174">
         <v>0.15737999999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="F174">
+        <v>1.2380599999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
@@ -9560,8 +10941,11 @@
       <c r="D175">
         <v>0.1701</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="F175">
+        <v>1.23797</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.18289</v>
       </c>
@@ -9571,8 +10955,11 @@
       <c r="D176">
         <v>0.15525</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="F176">
+        <v>1.23787</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.17509</v>
       </c>
@@ -9582,8 +10969,11 @@
       <c r="D177">
         <v>0.16148000000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="F177">
+        <v>1.2377800000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.16594</v>
       </c>
@@ -9593,8 +10983,11 @@
       <c r="D178">
         <v>0.15081</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="F178">
+        <v>1.23769</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.16971</v>
       </c>
@@ -9604,8 +10997,11 @@
       <c r="D179">
         <v>0.14430000000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="F179">
+        <v>1.23759</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
@@ -9615,8 +11011,11 @@
       <c r="D180">
         <v>0.12689</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="F180">
+        <v>1.2375</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
@@ -9626,8 +11025,11 @@
       <c r="D181">
         <v>0.12836</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="F181">
+        <v>1.2374099999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.17637</v>
       </c>
@@ -9637,8 +11039,11 @@
       <c r="D182">
         <v>0.13012000000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="F182">
+        <v>1.23732</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.16108</v>
       </c>
@@ -9648,8 +11053,11 @@
       <c r="D183">
         <v>0.14104</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="F183">
+        <v>1.2372300000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
@@ -9659,8 +11067,11 @@
       <c r="D184">
         <v>0.13553999999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="F184">
+        <v>1.2371399999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
@@ -9670,8 +11081,11 @@
       <c r="D185">
         <v>0.14688000000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="F185">
+        <v>1.23705</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
@@ -9681,8 +11095,11 @@
       <c r="D186">
         <v>0.12767000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="F186">
+        <v>1.2369699999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
@@ -9692,8 +11109,11 @@
       <c r="D187">
         <v>0.12453</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="F187">
+        <v>1.23688</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
@@ -9703,8 +11123,11 @@
       <c r="D188">
         <v>0.13966000000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="F188">
+        <v>1.2367900000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
@@ -9714,8 +11137,11 @@
       <c r="D189">
         <v>0.13855999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="F189">
+        <v>1.23671</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
@@ -9725,8 +11151,11 @@
       <c r="D190">
         <v>0.13850999999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="F190">
+        <v>1.2366200000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
@@ -9736,8 +11165,11 @@
       <c r="D191">
         <v>0.12601000000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="F191">
+        <v>1.23654</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.17412</v>
       </c>
@@ -9747,8 +11179,11 @@
       <c r="D192">
         <v>0.13830999999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="F192">
+        <v>1.23645</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
@@ -9758,8 +11193,11 @@
       <c r="D193">
         <v>0.13525000000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="F193">
+        <v>1.23637</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.14726</v>
       </c>
@@ -9769,8 +11207,11 @@
       <c r="D194">
         <v>0.12297</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="F194">
+        <v>1.23628</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.14654</v>
       </c>
@@ -9780,8 +11221,11 @@
       <c r="D195">
         <v>0.1134</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="F195">
+        <v>1.2362</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
@@ -9791,8 +11235,11 @@
       <c r="D196">
         <v>0.11598</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="F196">
+        <v>1.23611</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
@@ -9802,8 +11249,11 @@
       <c r="D197">
         <v>0.11566</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="F197">
+        <v>1.23603</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
@@ -9813,8 +11263,11 @@
       <c r="D198">
         <v>0.11946</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="F198">
+        <v>1.2359500000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
@@ -9824,8 +11277,11 @@
       <c r="D199">
         <v>0.12431</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="F199">
+        <v>1.23586</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
@@ -9835,8 +11291,11 @@
       <c r="D200">
         <v>0.11838</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="F200">
+        <v>1.2357800000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.13768</v>
       </c>
@@ -9846,8 +11305,11 @@
       <c r="D201">
         <v>0.12187000000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="F201">
+        <v>1.2357</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
@@ -9857,8 +11319,11 @@
       <c r="D202">
         <v>0.11327</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="F202">
+        <v>1.2356199999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.14656</v>
       </c>
@@ -9868,8 +11333,11 @@
       <c r="D203">
         <v>0.13059000000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="F203">
+        <v>1.23553</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
@@ -9879,8 +11347,11 @@
       <c r="D204">
         <v>0.11713999999999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="F204">
+        <v>1.2354499999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
@@ -9890,8 +11361,11 @@
       <c r="D205">
         <v>0.10595</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="F205">
+        <v>1.2353700000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.12268</v>
       </c>
@@ -9901,8 +11375,11 @@
       <c r="D206">
         <v>9.8760000000000001E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="F206">
+        <v>1.23529</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.12182</v>
       </c>
@@ -9912,8 +11389,11 @@
       <c r="D207">
         <v>0.12873000000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="F207">
+        <v>1.2352000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.12303</v>
       </c>
@@ -9923,8 +11403,11 @@
       <c r="D208">
         <v>0.11028</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="F208">
+        <v>1.23512</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.11706</v>
       </c>
@@ -9934,8 +11417,11 @@
       <c r="D209">
         <v>0.10236000000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="F209">
+        <v>1.2350399999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.11583</v>
       </c>
@@ -9945,8 +11431,11 @@
       <c r="D210">
         <v>0.13727</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="F210">
+        <v>1.2349600000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
@@ -9956,8 +11445,11 @@
       <c r="D211">
         <v>0.12335</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="F211">
+        <v>1.23488</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
@@ -9967,8 +11459,11 @@
       <c r="D212">
         <v>0.10541</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="F212">
+        <v>1.2347999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
@@ -9978,8 +11473,11 @@
       <c r="D213">
         <v>9.3289999999999998E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="F213">
+        <v>1.23471</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
@@ -9989,8 +11487,11 @@
       <c r="D214">
         <v>9.4149999999999998E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="F214">
+        <v>1.2346299999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
@@ -10000,8 +11501,11 @@
       <c r="D215">
         <v>0.14613000000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="F215">
+        <v>1.23455</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.11314</v>
       </c>
@@ -10011,8 +11515,11 @@
       <c r="D216">
         <v>0.10502</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="F216">
+        <v>1.2344599999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
@@ -10022,8 +11529,11 @@
       <c r="D217">
         <v>9.1520000000000004E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="F217">
+        <v>1.23438</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.13441</v>
       </c>
@@ -10033,8 +11543,11 @@
       <c r="D218">
         <v>0.10233</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="F218">
+        <v>1.2342900000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.11197</v>
       </c>
@@ -10044,8 +11557,11 @@
       <c r="D219">
         <v>9.4700000000000006E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="F219">
+        <v>1.23421</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.11214</v>
       </c>
@@ -10055,8 +11571,11 @@
       <c r="D220">
         <v>8.6110000000000006E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="F220">
+        <v>1.2341200000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.10238</v>
       </c>
@@ -10066,8 +11585,11 @@
       <c r="D221">
         <v>9.042E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="F221">
+        <v>1.23403</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
@@ -10077,8 +11599,11 @@
       <c r="D222">
         <v>0.10008</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="F222">
+        <v>1.2339500000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -10088,8 +11613,11 @@
       <c r="D223">
         <v>0.10374</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="F223">
+        <v>1.23387</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.10054</v>
       </c>
@@ -10099,8 +11627,11 @@
       <c r="D224">
         <v>9.8239999999999994E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="F224">
+        <v>1.2337899999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.10248</v>
       </c>
@@ -10110,8 +11641,11 @@
       <c r="D225">
         <v>0.11015</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="F225">
+        <v>1.2337100000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.10149</v>
       </c>
@@ -10121,8 +11655,11 @@
       <c r="D226">
         <v>9.0840000000000004E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="F226">
+        <v>1.23363</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.10385</v>
       </c>
@@ -10132,8 +11669,11 @@
       <c r="D227">
         <v>9.5810000000000006E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="F227">
+        <v>1.2335499999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.10721</v>
       </c>
@@ -10143,8 +11683,11 @@
       <c r="D228">
         <v>9.8229999999999998E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="F228">
+        <v>1.2334700000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.10183</v>
       </c>
@@ -10154,8 +11697,11 @@
       <c r="D229">
         <v>9.3280000000000002E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="F229">
+        <v>1.2334000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
@@ -10165,8 +11711,11 @@
       <c r="D230">
         <v>8.0990000000000006E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="F230">
+        <v>1.23332</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
@@ -10176,8 +11725,11 @@
       <c r="D231">
         <v>9.9309999999999996E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="F231">
+        <v>1.23325</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
@@ -10187,8 +11739,11 @@
       <c r="D232">
         <v>0.12787999999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="F232">
+        <v>1.2331700000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
@@ -10198,8 +11753,11 @@
       <c r="D233">
         <v>9.2369999999999994E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="F233">
+        <v>1.2331000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
@@ -10209,8 +11767,11 @@
       <c r="D234">
         <v>7.8229999999999994E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="F234">
+        <v>1.2330300000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
@@ -10220,8 +11781,11 @@
       <c r="D235">
         <v>7.3130000000000001E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="F235">
+        <v>1.2329600000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.11858</v>
       </c>
@@ -10231,8 +11795,11 @@
       <c r="D236">
         <v>8.6980000000000002E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="F236">
+        <v>1.23289</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
@@ -10242,8 +11809,11 @@
       <c r="D237">
         <v>0.1217</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="F237">
+        <v>1.23282</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
@@ -10253,8 +11823,11 @@
       <c r="D238">
         <v>8.7749999999999995E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="F238">
+        <v>1.23275</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
@@ -10264,8 +11837,11 @@
       <c r="D239">
         <v>8.1549999999999997E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="F239">
+        <v>1.23268</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
@@ -10275,8 +11851,11 @@
       <c r="D240">
         <v>8.276E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="F240">
+        <v>1.23261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.1134</v>
       </c>
@@ -10286,8 +11865,11 @@
       <c r="D241">
         <v>0.11021</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="F241">
+        <v>1.23254</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
@@ -10297,8 +11879,11 @@
       <c r="D242">
         <v>0.10186000000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="F242">
+        <v>1.23248</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
@@ -10308,8 +11893,11 @@
       <c r="D243">
         <v>8.3409999999999998E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="F243">
+        <v>1.23241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
@@ -10319,8 +11907,11 @@
       <c r="D244">
         <v>7.3279999999999998E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="F244">
+        <v>1.23234</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
@@ -10330,8 +11921,11 @@
       <c r="D245">
         <v>7.0639999999999994E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="F245">
+        <v>1.23227</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
@@ -10341,8 +11935,11 @@
       <c r="D246">
         <v>9.5079999999999998E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="F246">
+        <v>1.23221</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.10452</v>
       </c>
@@ -10352,8 +11949,11 @@
       <c r="D247">
         <v>8.5370000000000001E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="F247">
+        <v>1.23214</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
@@ -10363,8 +11963,11 @@
       <c r="D248">
         <v>9.2530000000000001E-2</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="F248">
+        <v>1.2320800000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -10374,8 +11977,11 @@
       <c r="D249">
         <v>7.3849999999999999E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="F249">
+        <v>1.23201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
@@ -10385,8 +11991,11 @@
       <c r="D250">
         <v>9.9500000000000005E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="F250">
+        <v>1.23194</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
@@ -10396,8 +12005,11 @@
       <c r="D251">
         <v>8.8980000000000004E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="F251">
+        <v>1.2318800000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
@@ -10407,8 +12019,11 @@
       <c r="D252">
         <v>7.2989999999999999E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="F252">
+        <v>1.2318199999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
@@ -10418,8 +12033,11 @@
       <c r="D253">
         <v>6.522E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="F253">
+        <v>1.2317499999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
@@ -10429,8 +12047,11 @@
       <c r="D254">
         <v>7.0510000000000003E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="F254">
+        <v>1.23169</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
@@ -10440,8 +12061,11 @@
       <c r="D255">
         <v>0.11413</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="F255">
+        <v>1.2316199999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
@@ -10451,8 +12075,11 @@
       <c r="D256">
         <v>9.9180000000000004E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="F256">
+        <v>1.23156</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
@@ -10462,1283 +12089,1286 @@
       <c r="D257">
         <v>7.5719999999999996E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="F257">
+        <v>1.2315</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>7.6480000000000006E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>7.5179999999999997E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>6.071E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>6.2780000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>6.4979999999999996E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.10792</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>6.293E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>7.7579999999999996E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>9.8110000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>7.6689999999999994E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>5.3370000000000001E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>5.1860000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>8.2559999999999995E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>6.837E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>6.5949999999999995E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>6.1510000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.10789</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>6.3140000000000002E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>5.6579999999999998E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>5.2389999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>5.1450000000000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>6.479E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>9.6180000000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>9.4920000000000004E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>6.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>5.9479999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>5.4510000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>5.1979999999999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>7.6670000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>5.9240000000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>5.8049999999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>5.0360000000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>6.3320000000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>8.1710000000000005E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>5.9950000000000003E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>4.9979999999999997E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>4.7169999999999997E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>4.8779999999999997E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>5.7770000000000002E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>9.8250000000000004E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>8.5629999999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>6.6720000000000002E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>5.4260000000000003E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>6.3339999999999994E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>5.6610000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>5.3510000000000002E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>4.299E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>4.514E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>5.0110000000000002E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>6.7330000000000001E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>6.5509999999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>5.4379999999999998E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4.718E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4.3270000000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>4.1439999999999998E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4.1779999999999998E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>4.3880000000000002E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>4.632E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>5.0509999999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>7.979E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>5.9249999999999997E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>5.4719999999999998E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>6.4049999999999996E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>5.3150000000000003E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>4.6440000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>4.2340000000000003E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>4.0939999999999997E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4.1410000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>4.3040000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.11991</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>8.2909999999999998E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>5.2209999999999999E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>4.428E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>4.054E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>3.8080000000000003E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3.9030000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>6.9519999999999998E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>4.7539999999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>4.3720000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>4.2119999999999998E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.12336</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>6.5350000000000005E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>4.7890000000000002E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>4.1860000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>4.2659999999999997E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>4.4089999999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3.934E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3.7409999999999999E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>3.6589999999999998E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3.8170000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>4.3180000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.12934999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>6.5110000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>5.1470000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>4.5769999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>4.1110000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>4.7570000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>7.5480000000000005E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>6.3519999999999993E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>6.275E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>4.8570000000000002E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.04</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>3.594E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3.4470000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>3.6580000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>5.042E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>6.8080000000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>6.4339999999999994E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>5.8790000000000002E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>4.5330000000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>3.9370000000000002E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3.6830000000000002E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>3.8690000000000002E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>4.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>4.0340000000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>5.0310000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>8.4580000000000002E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>5.781E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>4.7840000000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>4.5089999999999998E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>3.8370000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>3.526E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3.4130000000000001E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3.4439999999999998E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>3.5409999999999997E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3.9489999999999997E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>5.5320000000000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>7.8359999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>4.6640000000000001E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>3.4119999999999998E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>0.14990999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>6.216E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3.5180000000000003E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>3.3279999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>3.168E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>3.1419999999999997E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3.7220000000000003E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>5.2019999999999997E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>7.4300000000000005E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>5.008E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>4.0189999999999997E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>3.542E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>3.3239999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>4.5440000000000001E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>8.5529999999999995E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>4.4650000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>3.7850000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>3.508E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3.6859999999999997E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>4.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>4.0529999999999997E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>3.4009999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>3.2439999999999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3.2480000000000002E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>3.6409999999999998E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>6.7019999999999996E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>8.3449999999999996E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>5.5449999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>4.2090000000000002E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>3.9280000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>3.4139999999999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>3.143E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>5.0040000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>4.5080000000000002E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>5.0770000000000003E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>3.6769999999999997E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3.3360000000000001E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3.2590000000000001E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>3.848E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>4.9820000000000003E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>5.373E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>4.0419999999999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>3.5040000000000002E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3.4070000000000003E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>3.3689999999999998E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>3.2939999999999997E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>4.0320000000000002E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>6.2920000000000004E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>3.5139999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>3.3579999999999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>3.9559999999999998E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>5.2109999999999997E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>4.4010000000000001E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>3.9809999999999998E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>3.4250000000000003E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>3.0530000000000002E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2.8819999999999998E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>3.1210000000000002E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>3.4279999999999998E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>4.0759999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>7.0860000000000006E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>4.3569999999999998E-2</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9806BB-8056-4360-B0AD-6030A39904A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED45A6-4DA2-4B8D-9749-3A6749C9C8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>NN041304</t>
-  </si>
-  <si>
-    <t>NN041304</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,17 +51,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -94,7 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,7 +109,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -149,7 +146,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1810,7 +1807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497101071"/>
@@ -1869,7 +1866,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="499027071"/>
@@ -1911,7 +1908,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1941,7 +1938,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1955,7 +1952,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2022,7 +2019,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3930,6 +3927,54 @@
                 <c:pt idx="95">
                   <c:v>1.19292</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.19228</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1916500000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.19102</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.19041</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1897899999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.18916</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.18855</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.1879299999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.1873100000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.1867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1860900000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.1854899999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.1848799999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.1842900000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1837</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1831</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5568,9 +5613,6 @@
               <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NN041304</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -6483,7 +6525,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6521,7 +6563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493239103"/>
@@ -6618,7 +6660,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6650,7 +6692,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="455121583"/>
@@ -6692,7 +6734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6722,7 +6764,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8188,25 +8230,25 @@
   <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8214,14 +8256,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -8238,7 +8277,7 @@
         <v>2.8085599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -8255,7 +8294,7 @@
         <v>2.7160299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -8272,7 +8311,7 @@
         <v>2.6047099999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -8289,7 +8328,7 @@
         <v>2.4560900000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -8306,7 +8345,7 @@
         <v>2.2374800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -8323,7 +8362,7 @@
         <v>1.9437599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -8340,7 +8379,7 @@
         <v>1.66245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -8357,7 +8396,7 @@
         <v>1.4977100000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -8374,7 +8413,7 @@
         <v>1.4370099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -8391,7 +8430,7 @@
         <v>1.4154800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -8408,7 +8447,7 @@
         <v>1.40391</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -8425,7 +8464,7 @@
         <v>1.3951899999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -8442,7 +8481,7 @@
         <v>1.38771</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -8459,7 +8498,7 @@
         <v>1.3810199999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -8476,7 +8515,7 @@
         <v>1.37487</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -8493,7 +8532,7 @@
         <v>1.3691500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -8510,7 +8549,7 @@
         <v>1.3639600000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -8527,7 +8566,7 @@
         <v>1.3591899999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -8544,7 +8583,7 @@
         <v>1.35476</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -8561,7 +8600,7 @@
         <v>1.3506400000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -8578,7 +8617,7 @@
         <v>1.3467800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -8595,7 +8634,7 @@
         <v>1.3431299999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -8612,7 +8651,7 @@
         <v>1.3396600000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -8629,7 +8668,7 @@
         <v>1.33636</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -8646,7 +8685,7 @@
         <v>1.3331999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -8663,7 +8702,7 @@
         <v>1.3301700000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -8680,7 +8719,7 @@
         <v>1.3272699999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -8697,7 +8736,7 @@
         <v>1.3244899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -8714,7 +8753,7 @@
         <v>1.3218099999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -8731,7 +8770,7 @@
         <v>1.3192200000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -8748,7 +8787,7 @@
         <v>1.31674</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -8765,7 +8804,7 @@
         <v>1.3143400000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -8782,7 +8821,7 @@
         <v>1.31203</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -8799,7 +8838,7 @@
         <v>1.3098000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -8816,7 +8855,7 @@
         <v>1.30765</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -8833,7 +8872,7 @@
         <v>1.3055699999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -8850,7 +8889,7 @@
         <v>1.3035600000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -8867,7 +8906,7 @@
         <v>1.30162</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -8884,7 +8923,7 @@
         <v>1.2997399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -8901,7 +8940,7 @@
         <v>1.2979099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -8918,7 +8957,7 @@
         <v>1.2961400000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -8935,7 +8974,7 @@
         <v>1.2944199999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -8952,7 +8991,7 @@
         <v>1.2927599999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -8969,7 +9008,7 @@
         <v>1.29114</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -8986,7 +9025,7 @@
         <v>1.2895799999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -9003,7 +9042,7 @@
         <v>1.28807</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -9020,7 +9059,7 @@
         <v>1.2866</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -9037,7 +9076,7 @@
         <v>1.2851699999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -9054,7 +9093,7 @@
         <v>1.2837799999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -9071,7 +9110,7 @@
         <v>1.28244</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -9088,7 +9127,7 @@
         <v>1.2811399999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -9105,7 +9144,7 @@
         <v>1.2798799999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -9122,7 +9161,7 @@
         <v>1.27867</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -9139,7 +9178,7 @@
         <v>1.2775000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -9156,7 +9195,7 @@
         <v>1.27637</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -9173,7 +9212,7 @@
         <v>1.2752699999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -9190,7 +9229,7 @@
         <v>1.2742100000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -9207,7 +9246,7 @@
         <v>1.27318</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -9224,7 +9263,7 @@
         <v>1.2721899999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -9241,7 +9280,7 @@
         <v>1.2712300000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -9258,7 +9297,7 @@
         <v>1.2703</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -9275,7 +9314,7 @@
         <v>1.2694099999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -9292,7 +9331,7 @@
         <v>1.26854</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -9309,7 +9348,7 @@
         <v>1.26772</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -9326,7 +9365,7 @@
         <v>1.26692</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -9343,7 +9382,7 @@
         <v>1.26616</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -9360,7 +9399,7 @@
         <v>1.2654300000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -9377,7 +9416,7 @@
         <v>1.2647200000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -9394,7 +9433,7 @@
         <v>1.2640499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -9411,7 +9450,7 @@
         <v>1.26339</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -9428,7 +9467,7 @@
         <v>1.2627600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -9445,7 +9484,7 @@
         <v>1.2621500000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -9462,7 +9501,7 @@
         <v>1.2615499999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -9479,7 +9518,7 @@
         <v>1.26098</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -9496,7 +9535,7 @@
         <v>1.2604200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -9513,7 +9552,7 @@
         <v>1.25987</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -9530,7 +9569,7 @@
         <v>1.2593399999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -9547,7 +9586,7 @@
         <v>1.2588200000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -9564,7 +9603,7 @@
         <v>1.2583200000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -9581,7 +9620,7 @@
         <v>1.25783</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -9598,7 +9637,7 @@
         <v>1.25735</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -9615,7 +9654,7 @@
         <v>1.2568900000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -9632,7 +9671,7 @@
         <v>1.2564299999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -9649,7 +9688,7 @@
         <v>1.2559899999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -9666,7 +9705,7 @@
         <v>1.2555499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -9683,7 +9722,7 @@
         <v>1.2551300000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -9700,7 +9739,7 @@
         <v>1.2547200000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -9717,7 +9756,7 @@
         <v>1.2543200000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -9734,7 +9773,7 @@
         <v>1.2539199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -9751,7 +9790,7 @@
         <v>1.2535400000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -9768,7 +9807,7 @@
         <v>1.2531699999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -9785,7 +9824,7 @@
         <v>1.2527999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -9802,7 +9841,7 @@
         <v>1.25244</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -9819,7 +9858,7 @@
         <v>1.2520899999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -9836,7 +9875,7 @@
         <v>1.2517499999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -9853,10 +9892,13 @@
         <v>1.25142</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
+      <c r="B98">
+        <v>1.19228</v>
+      </c>
       <c r="C98">
         <v>0.37292999999999998</v>
       </c>
@@ -9867,10 +9909,13 @@
         <v>1.25109</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
+      <c r="B99">
+        <v>1.1916500000000001</v>
+      </c>
       <c r="C99">
         <v>0.36876999999999999</v>
       </c>
@@ -9881,10 +9926,13 @@
         <v>1.2507699999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>0.51349</v>
       </c>
+      <c r="B100">
+        <v>1.19102</v>
+      </c>
       <c r="C100">
         <v>0.36042000000000002</v>
       </c>
@@ -9895,10 +9943,13 @@
         <v>1.2504599999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
+      <c r="B101">
+        <v>1.19041</v>
+      </c>
       <c r="C101">
         <v>0.34182000000000001</v>
       </c>
@@ -9909,10 +9960,13 @@
         <v>1.2501500000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>0.49478</v>
       </c>
+      <c r="B102">
+        <v>1.1897899999999999</v>
+      </c>
       <c r="C102">
         <v>0.33657999999999999</v>
       </c>
@@ -9923,10 +9977,13 @@
         <v>1.2498499999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
+      <c r="B103">
+        <v>1.18916</v>
+      </c>
       <c r="C103">
         <v>0.32969999999999999</v>
       </c>
@@ -9937,10 +9994,13 @@
         <v>1.24956</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
+      <c r="B104">
+        <v>1.18855</v>
+      </c>
       <c r="C104">
         <v>0.32508999999999999</v>
       </c>
@@ -9951,10 +10011,13 @@
         <v>1.2492700000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
+      <c r="B105">
+        <v>1.1879299999999999</v>
+      </c>
       <c r="C105">
         <v>0.33051000000000003</v>
       </c>
@@ -9965,10 +10028,13 @@
         <v>1.24899</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
+      <c r="B106">
+        <v>1.1873100000000001</v>
+      </c>
       <c r="C106">
         <v>0.33929999999999999</v>
       </c>
@@ -9979,10 +10045,13 @@
         <v>1.24871</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
+      <c r="B107">
+        <v>1.1867000000000001</v>
+      </c>
       <c r="C107">
         <v>0.32551999999999998</v>
       </c>
@@ -9993,10 +10062,13 @@
         <v>1.24844</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
+      <c r="B108">
+        <v>1.1860900000000001</v>
+      </c>
       <c r="C108">
         <v>0.31818000000000002</v>
       </c>
@@ -10007,10 +10079,13 @@
         <v>1.2481800000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
+      <c r="B109">
+        <v>1.1854899999999999</v>
+      </c>
       <c r="C109">
         <v>0.31541000000000002</v>
       </c>
@@ -10021,10 +10096,13 @@
         <v>1.2479199999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
+      <c r="B110">
+        <v>1.1848799999999999</v>
+      </c>
       <c r="C110">
         <v>0.30708999999999997</v>
       </c>
@@ -10035,10 +10113,13 @@
         <v>1.2476700000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
+      <c r="B111">
+        <v>1.1842900000000001</v>
+      </c>
       <c r="C111">
         <v>0.28858</v>
       </c>
@@ -10049,10 +10130,13 @@
         <v>1.24742</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
+      <c r="B112">
+        <v>1.1837</v>
+      </c>
       <c r="C112">
         <v>0.2858</v>
       </c>
@@ -10063,10 +10147,13 @@
         <v>1.2471699999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
+      <c r="B113">
+        <v>1.1831</v>
+      </c>
       <c r="C113">
         <v>0.30207000000000001</v>
       </c>
@@ -10077,7 +10164,7 @@
         <v>1.2469300000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -10091,7 +10178,7 @@
         <v>1.2466999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -10105,7 +10192,7 @@
         <v>1.24647</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
@@ -10119,7 +10206,7 @@
         <v>1.24624</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
@@ -10133,7 +10220,7 @@
         <v>1.2460199999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
@@ -10147,7 +10234,7 @@
         <v>1.2458</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>0.42812</v>
       </c>
@@ -10161,7 +10248,7 @@
         <v>1.24559</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
@@ -10175,7 +10262,7 @@
         <v>1.24539</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
@@ -10189,7 +10276,7 @@
         <v>1.24518</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
@@ -10203,7 +10290,7 @@
         <v>1.24499</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
@@ -10217,7 +10304,7 @@
         <v>1.2447900000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
@@ -10231,7 +10318,7 @@
         <v>1.2445999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
@@ -10245,7 +10332,7 @@
         <v>1.24441</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
@@ -10259,7 +10346,7 @@
         <v>1.2442299999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
@@ -10273,7 +10360,7 @@
         <v>1.2440500000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>0.35158</v>
       </c>
@@ -10287,7 +10374,7 @@
         <v>1.24387</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
@@ -10301,7 +10388,7 @@
         <v>1.2437</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>0.3392</v>
       </c>
@@ -10315,7 +10402,7 @@
         <v>1.24353</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
@@ -10329,7 +10416,7 @@
         <v>1.2433700000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
@@ -10343,7 +10430,7 @@
         <v>1.2432000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
@@ -10357,7 +10444,7 @@
         <v>1.2430399999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
@@ -10371,7 +10458,7 @@
         <v>1.24288</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>0.32943</v>
       </c>
@@ -10385,7 +10472,7 @@
         <v>1.2427299999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
@@ -10399,7 +10486,7 @@
         <v>1.24258</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
@@ -10413,7 +10500,7 @@
         <v>1.2424299999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>0.31</v>
       </c>
@@ -10427,7 +10514,7 @@
         <v>1.2422800000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
@@ -10441,7 +10528,7 @@
         <v>1.24214</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>0.30506</v>
       </c>
@@ -10455,7 +10542,7 @@
         <v>1.2419899999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
@@ -10469,7 +10556,7 @@
         <v>1.2418499999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
@@ -10483,7 +10570,7 @@
         <v>1.2417100000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>0.29479</v>
       </c>
@@ -10497,7 +10584,7 @@
         <v>1.2415700000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
@@ -10511,7 +10598,7 @@
         <v>1.2414400000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
@@ -10525,7 +10612,7 @@
         <v>1.2413000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
@@ -10539,7 +10626,7 @@
         <v>1.2411700000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>0.2722</v>
       </c>
@@ -10553,7 +10640,7 @@
         <v>1.2410399999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
@@ -10567,7 +10654,7 @@
         <v>1.24091</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
@@ -10581,7 +10668,7 @@
         <v>1.2407900000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
@@ -10595,7 +10682,7 @@
         <v>1.2406600000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
@@ -10609,7 +10696,7 @@
         <v>1.24054</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
@@ -10623,7 +10710,7 @@
         <v>1.2404200000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>0.25683</v>
       </c>
@@ -10637,7 +10724,7 @@
         <v>1.2403</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
@@ -10651,7 +10738,7 @@
         <v>1.2401800000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
@@ -10665,7 +10752,7 @@
         <v>1.2400599999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
@@ -10679,7 +10766,7 @@
         <v>1.2399500000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>0.24456</v>
       </c>
@@ -10693,7 +10780,7 @@
         <v>1.23983</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
@@ -10707,7 +10794,7 @@
         <v>1.2397100000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
@@ -10721,7 +10808,7 @@
         <v>1.2396</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>0.22721</v>
       </c>
@@ -10735,7 +10822,7 @@
         <v>1.23949</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
@@ -10749,7 +10836,7 @@
         <v>1.2393799999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>0.21545</v>
       </c>
@@ -10763,7 +10850,7 @@
         <v>1.2392700000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>0.21892</v>
       </c>
@@ -10777,7 +10864,7 @@
         <v>1.2391700000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
@@ -10791,7 +10878,7 @@
         <v>1.2390600000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>0.22827</v>
       </c>
@@ -10805,7 +10892,7 @@
         <v>1.23895</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
@@ -10819,7 +10906,7 @@
         <v>1.23885</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>0.21489</v>
       </c>
@@ -10833,7 +10920,7 @@
         <v>1.23875</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
@@ -10847,7 +10934,7 @@
         <v>1.23865</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
@@ -10861,7 +10948,7 @@
         <v>1.23855</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>0.20321</v>
       </c>
@@ -10875,7 +10962,7 @@
         <v>1.2384500000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>0.193</v>
       </c>
@@ -10889,7 +10976,7 @@
         <v>1.2383500000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
@@ -10903,7 +10990,7 @@
         <v>1.2382500000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>0.19649</v>
       </c>
@@ -10917,7 +11004,7 @@
         <v>1.2381599999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
@@ -10931,7 +11018,7 @@
         <v>1.2380599999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
@@ -10945,7 +11032,7 @@
         <v>1.23797</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>0.18289</v>
       </c>
@@ -10959,7 +11046,7 @@
         <v>1.23787</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>0.17509</v>
       </c>
@@ -10973,7 +11060,7 @@
         <v>1.2377800000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>0.16594</v>
       </c>
@@ -10987,7 +11074,7 @@
         <v>1.23769</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>0.16971</v>
       </c>
@@ -11001,7 +11088,7 @@
         <v>1.23759</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
@@ -11015,7 +11102,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
@@ -11029,7 +11116,7 @@
         <v>1.2374099999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>0.17637</v>
       </c>
@@ -11043,7 +11130,7 @@
         <v>1.23732</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>0.16108</v>
       </c>
@@ -11057,7 +11144,7 @@
         <v>1.2372300000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
@@ -11071,7 +11158,7 @@
         <v>1.2371399999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
@@ -11085,7 +11172,7 @@
         <v>1.23705</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
@@ -11099,7 +11186,7 @@
         <v>1.2369699999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
@@ -11113,7 +11200,7 @@
         <v>1.23688</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
@@ -11127,7 +11214,7 @@
         <v>1.2367900000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
@@ -11141,7 +11228,7 @@
         <v>1.23671</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
@@ -11155,7 +11242,7 @@
         <v>1.2366200000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
@@ -11169,7 +11256,7 @@
         <v>1.23654</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>0.17412</v>
       </c>
@@ -11183,7 +11270,7 @@
         <v>1.23645</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
@@ -11197,7 +11284,7 @@
         <v>1.23637</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>0.14726</v>
       </c>
@@ -11211,7 +11298,7 @@
         <v>1.23628</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>0.14654</v>
       </c>
@@ -11225,7 +11312,7 @@
         <v>1.2362</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
@@ -11239,7 +11326,7 @@
         <v>1.23611</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
@@ -11253,7 +11340,7 @@
         <v>1.23603</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
@@ -11267,7 +11354,7 @@
         <v>1.2359500000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
@@ -11281,7 +11368,7 @@
         <v>1.23586</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
@@ -11295,7 +11382,7 @@
         <v>1.2357800000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>0.13768</v>
       </c>
@@ -11309,7 +11396,7 @@
         <v>1.2357</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
@@ -11323,7 +11410,7 @@
         <v>1.2356199999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>0.14656</v>
       </c>
@@ -11337,7 +11424,7 @@
         <v>1.23553</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
@@ -11351,7 +11438,7 @@
         <v>1.2354499999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
@@ -11365,7 +11452,7 @@
         <v>1.2353700000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>0.12268</v>
       </c>
@@ -11379,7 +11466,7 @@
         <v>1.23529</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>0.12182</v>
       </c>
@@ -11393,7 +11480,7 @@
         <v>1.2352000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>0.12303</v>
       </c>
@@ -11407,7 +11494,7 @@
         <v>1.23512</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>0.11706</v>
       </c>
@@ -11421,7 +11508,7 @@
         <v>1.2350399999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>0.11583</v>
       </c>
@@ -11435,7 +11522,7 @@
         <v>1.2349600000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
@@ -11449,7 +11536,7 @@
         <v>1.23488</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
@@ -11463,7 +11550,7 @@
         <v>1.2347999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
@@ -11477,7 +11564,7 @@
         <v>1.23471</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
@@ -11491,7 +11578,7 @@
         <v>1.2346299999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
@@ -11505,7 +11592,7 @@
         <v>1.23455</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>0.11314</v>
       </c>
@@ -11519,7 +11606,7 @@
         <v>1.2344599999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
@@ -11533,7 +11620,7 @@
         <v>1.23438</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>0.13441</v>
       </c>
@@ -11547,7 +11634,7 @@
         <v>1.2342900000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>0.11197</v>
       </c>
@@ -11561,7 +11648,7 @@
         <v>1.23421</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>0.11214</v>
       </c>
@@ -11575,7 +11662,7 @@
         <v>1.2341200000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>0.10238</v>
       </c>
@@ -11589,7 +11676,7 @@
         <v>1.23403</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
@@ -11603,7 +11690,7 @@
         <v>1.2339500000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -11617,7 +11704,7 @@
         <v>1.23387</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>0.10054</v>
       </c>
@@ -11631,7 +11718,7 @@
         <v>1.2337899999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>0.10248</v>
       </c>
@@ -11645,7 +11732,7 @@
         <v>1.2337100000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>0.10149</v>
       </c>
@@ -11659,7 +11746,7 @@
         <v>1.23363</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>0.10385</v>
       </c>
@@ -11673,7 +11760,7 @@
         <v>1.2335499999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>0.10721</v>
       </c>
@@ -11687,7 +11774,7 @@
         <v>1.2334700000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>0.10183</v>
       </c>
@@ -11701,7 +11788,7 @@
         <v>1.2334000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
@@ -11715,7 +11802,7 @@
         <v>1.23332</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
@@ -11729,7 +11816,7 @@
         <v>1.23325</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
@@ -11743,7 +11830,7 @@
         <v>1.2331700000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
@@ -11757,7 +11844,7 @@
         <v>1.2331000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
@@ -11771,7 +11858,7 @@
         <v>1.2330300000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
@@ -11785,7 +11872,7 @@
         <v>1.2329600000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>0.11858</v>
       </c>
@@ -11799,7 +11886,7 @@
         <v>1.23289</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
@@ -11813,7 +11900,7 @@
         <v>1.23282</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
@@ -11827,7 +11914,7 @@
         <v>1.23275</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
@@ -11841,7 +11928,7 @@
         <v>1.23268</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
@@ -11855,7 +11942,7 @@
         <v>1.23261</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>0.1134</v>
       </c>
@@ -11869,7 +11956,7 @@
         <v>1.23254</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
@@ -11883,7 +11970,7 @@
         <v>1.23248</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
@@ -11897,7 +11984,7 @@
         <v>1.23241</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
@@ -11911,7 +11998,7 @@
         <v>1.23234</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
@@ -11925,7 +12012,7 @@
         <v>1.23227</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
@@ -11939,7 +12026,7 @@
         <v>1.23221</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>0.10452</v>
       </c>
@@ -11953,7 +12040,7 @@
         <v>1.23214</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
@@ -11967,7 +12054,7 @@
         <v>1.2320800000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -11981,7 +12068,7 @@
         <v>1.23201</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
@@ -11995,7 +12082,7 @@
         <v>1.23194</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
@@ -12009,7 +12096,7 @@
         <v>1.2318800000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
@@ -12023,7 +12110,7 @@
         <v>1.2318199999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
@@ -12037,7 +12124,7 @@
         <v>1.2317499999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
@@ -12051,7 +12138,7 @@
         <v>1.23169</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
@@ -12065,7 +12152,7 @@
         <v>1.2316199999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
@@ -12079,7 +12166,7 @@
         <v>1.23156</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
@@ -12093,1282 +12180,1282 @@
         <v>1.2315</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273">
         <v>7.6480000000000006E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274">
         <v>7.5179999999999997E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275">
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276">
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277">
         <v>6.071E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279">
         <v>6.2780000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280">
         <v>6.4979999999999996E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281">
         <v>0.10792</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282">
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284">
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285">
         <v>6.293E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286">
         <v>7.7579999999999996E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287">
         <v>9.8110000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288">
         <v>7.6689999999999994E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290">
         <v>5.3370000000000001E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291">
         <v>5.1860000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292">
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293">
         <v>8.2559999999999995E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294">
         <v>6.837E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295">
         <v>6.5949999999999995E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296">
         <v>6.1510000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297">
         <v>0.10789</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298">
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300">
         <v>6.3140000000000002E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301">
         <v>5.6579999999999998E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302">
         <v>5.2389999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304">
         <v>5.1450000000000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306">
         <v>6.479E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307">
         <v>9.6180000000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308">
         <v>9.4920000000000004E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309">
         <v>6.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310">
         <v>5.9479999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311">
         <v>5.4510000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312">
         <v>5.1979999999999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313">
         <v>7.6670000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314">
         <v>5.9240000000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315">
         <v>5.8049999999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316">
         <v>5.0360000000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317">
         <v>6.3320000000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318">
         <v>8.1710000000000005E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319">
         <v>5.9950000000000003E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320">
         <v>4.9979999999999997E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321">
         <v>4.7169999999999997E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322">
         <v>4.8779999999999997E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323">
         <v>5.7770000000000002E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324">
         <v>9.8250000000000004E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325">
         <v>8.5629999999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326">
         <v>6.6720000000000002E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327">
         <v>5.4260000000000003E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329">
         <v>6.3339999999999994E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330">
         <v>5.6610000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331">
         <v>5.3510000000000002E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333">
         <v>4.299E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335">
         <v>4.514E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336">
         <v>5.0110000000000002E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337">
         <v>6.7330000000000001E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338">
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339">
         <v>6.5509999999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340">
         <v>5.4379999999999998E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341">
         <v>4.718E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342">
         <v>4.3270000000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343">
         <v>4.1439999999999998E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344">
         <v>4.1779999999999998E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345">
         <v>4.3880000000000002E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346">
         <v>4.632E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347">
         <v>5.0509999999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348">
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349">
         <v>7.979E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350">
         <v>5.9249999999999997E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351">
         <v>5.4719999999999998E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352">
         <v>6.4049999999999996E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353">
         <v>5.3150000000000003E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354">
         <v>4.6440000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355">
         <v>4.2340000000000003E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356">
         <v>4.0939999999999997E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357">
         <v>4.1410000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358">
         <v>4.3040000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359">
         <v>0.11991</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360">
         <v>8.2909999999999998E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361">
         <v>5.2209999999999999E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362">
         <v>4.428E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363">
         <v>4.054E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365">
         <v>3.8080000000000003E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366">
         <v>3.9030000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367">
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368">
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369">
         <v>6.9519999999999998E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370">
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371">
         <v>4.7539999999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372">
         <v>4.3720000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373">
         <v>4.2119999999999998E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376">
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377">
         <v>0.12336</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378">
         <v>6.5350000000000005E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379">
         <v>4.7890000000000002E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380">
         <v>4.1860000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381">
         <v>4.2659999999999997E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382">
         <v>4.4089999999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383">
         <v>3.934E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384">
         <v>3.7409999999999999E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385">
         <v>3.6589999999999998E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386">
         <v>3.8170000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387">
         <v>4.3180000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388">
         <v>0.12934999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389">
         <v>6.5110000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390">
         <v>5.1470000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391">
         <v>4.5769999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392">
         <v>4.1110000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394">
         <v>4.7570000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395">
         <v>7.5480000000000005E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396">
         <v>6.3519999999999993E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397">
         <v>6.275E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398">
         <v>4.8570000000000002E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399">
         <v>0.04</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400">
         <v>3.594E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401">
         <v>3.4470000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402">
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403">
         <v>3.6580000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404">
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405">
         <v>5.042E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406">
         <v>6.8080000000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408">
         <v>6.4339999999999994E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409">
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410">
         <v>5.8790000000000002E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411">
         <v>4.5330000000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412">
         <v>3.9370000000000002E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413">
         <v>3.6830000000000002E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415">
         <v>3.8690000000000002E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416">
         <v>4.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418">
         <v>4.0340000000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419">
         <v>5.0310000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420">
         <v>8.4580000000000002E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421">
         <v>5.781E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422">
         <v>4.7840000000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423">
         <v>4.5089999999999998E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424">
         <v>3.8370000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425">
         <v>3.526E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426">
         <v>3.4130000000000001E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427">
         <v>3.4439999999999998E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428">
         <v>3.5409999999999997E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429">
         <v>3.9489999999999997E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430">
         <v>5.5320000000000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431">
         <v>7.8359999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432">
         <v>4.6640000000000001E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435">
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436">
         <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437">
         <v>3.4119999999999998E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438">
         <v>0.14990999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439">
         <v>6.216E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440">
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441">
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442">
         <v>3.5180000000000003E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443">
         <v>3.3279999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444">
         <v>3.168E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445">
         <v>3.1419999999999997E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446">
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447">
         <v>3.7220000000000003E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448">
         <v>5.2019999999999997E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449">
         <v>7.4300000000000005E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450">
         <v>5.008E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451">
         <v>4.0189999999999997E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452">
         <v>3.542E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454">
         <v>3.3239999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455">
         <v>4.5440000000000001E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456">
         <v>8.5529999999999995E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457">
         <v>4.4650000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458">
         <v>3.7850000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459">
         <v>3.508E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460">
         <v>3.6859999999999997E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461">
         <v>4.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462">
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463">
         <v>4.0529999999999997E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464">
         <v>3.4009999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465">
         <v>3.2439999999999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466">
         <v>3.2480000000000002E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467">
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468">
         <v>3.6409999999999998E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469">
         <v>6.7019999999999996E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470">
         <v>8.3449999999999996E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471">
         <v>5.5449999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472">
         <v>4.2090000000000002E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473">
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474">
         <v>3.9280000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475">
         <v>3.4139999999999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476">
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477">
         <v>3.143E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478">
         <v>5.0040000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479">
         <v>4.5080000000000002E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480">
         <v>5.0770000000000003E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1">
       <c r="A482">
         <v>3.6769999999999997E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1">
       <c r="A483">
         <v>3.3360000000000001E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1">
       <c r="A484">
         <v>3.2590000000000001E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1">
       <c r="A485">
         <v>3.848E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1">
       <c r="A486">
         <v>4.9820000000000003E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1">
       <c r="A487">
         <v>5.373E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1">
       <c r="A488">
         <v>4.0419999999999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1">
       <c r="A489">
         <v>3.5040000000000002E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1">
       <c r="A490">
         <v>3.4070000000000003E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1">
       <c r="A491">
         <v>3.3689999999999998E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1">
       <c r="A492">
         <v>3.2939999999999997E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1">
       <c r="A493">
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1">
       <c r="A494">
         <v>4.0320000000000002E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1">
       <c r="A495">
         <v>6.2920000000000004E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1">
       <c r="A496">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1">
       <c r="A497">
         <v>3.5139999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1">
       <c r="A498">
         <v>3.3579999999999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1">
       <c r="A499">
         <v>3.9559999999999998E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1">
       <c r="A500">
         <v>5.2109999999999997E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1">
       <c r="A501">
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1">
       <c r="A502">
         <v>4.4010000000000001E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1">
       <c r="A503">
         <v>3.9809999999999998E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1">
       <c r="A504">
         <v>3.4250000000000003E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1">
       <c r="A505">
         <v>3.0530000000000002E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1">
       <c r="A506">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1">
       <c r="A507">
         <v>2.8819999999999998E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1">
       <c r="A508">
         <v>3.1210000000000002E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1">
       <c r="A509">
         <v>3.4279999999999998E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1">
       <c r="A510">
         <v>4.0759999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1">
       <c r="A511">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1">
       <c r="A512">
         <v>7.0860000000000006E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1">
       <c r="A513">
         <v>4.3569999999999998E-2</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F571DA-BF7B-4843-A449-2E5E0FA6DD29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F82FD66-41BA-4621-9358-598BA9CAFFB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>NN041402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN041501</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5383,6 +5387,818 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1ABE-480A-9FED-90AF9A844567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN041501</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$513</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="512"/>
+                <c:pt idx="0">
+                  <c:v>2.30599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3350599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2908200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2646299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2462200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2311700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2180899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2065399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1869000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.17818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1701299999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.16275</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1559699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1496299999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.14374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.13832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1332899999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1286099999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.12422</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.12008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1161700000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1124099999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1088100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.10534</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1019699999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.09544</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.09226</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0891</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.08599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.08291</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.07986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0768500000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0738300000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.07081</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0647800000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0617799999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.05871</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0549900000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0515399999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.04834</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.04518</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.04203</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.03891</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0358000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0326200000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.02918</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.02596</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.02278</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.01959</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.01641</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0132099999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0099899999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0067600000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.00352</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0002599999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99702999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99375999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99048999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98716000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.98375999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.98021000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.97677000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.97328999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.96984000000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.96641999999999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.96301999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.95960999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.95620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.95279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.94938999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.94599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.94254000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.93908999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.93564000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.93218999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.92856000000000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.92496</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.92135999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.91773000000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.91405999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.91047999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.90683999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.90322000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.89966999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89614000000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89263999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.88919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.88571</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.88229000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.87887999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.87546000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.87207999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.86926000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.86670999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.86336000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.86077999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.85994000000000004</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.85757000000000005</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.86043000000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.86950000000000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.87638000000000005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.87222999999999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.86689000000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.85804000000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.84963999999999995</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.84289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83869000000000005</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83701000000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.83909</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.83935999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.84277000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.83904000000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.85743000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.86573999999999995</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.85258</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.84231999999999996</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.83406000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.82852999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.82123999999999997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.82833999999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.82135000000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.81681000000000004</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.81601000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.82311999999999996</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.81657999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.82149000000000005</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.83540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.84416000000000002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.83274000000000004</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.81962999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.80949000000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.79984999999999995</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.79993000000000003</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.80113999999999996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.79676000000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.79410999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.78771999999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.79752999999999996</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.79556000000000004</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.79842999999999997</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.81416999999999995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.82487999999999995</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.82128999999999996</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.81572999999999996</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.79237999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.78751000000000004</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.78115000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.78827000000000003</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.78649000000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.78088999999999997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.77698999999999996</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.78622999999999998</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.80396999999999996</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.81691000000000003</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.81113999999999997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.79454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.77942</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.76549</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.75734999999999997</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.75366</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.75095999999999996</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.74782000000000004</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.74883</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.73992999999999998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.73945000000000005</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.73831000000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.73860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.74448999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.73782000000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.74309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.75180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.78634999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.80135999999999996</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.78881999999999997</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.77288000000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.75773000000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.74763000000000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.73882999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.73633999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.73165000000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.73589000000000004</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.72821999999999998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.73309000000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.72802</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.72974000000000006</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.73209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.75055000000000005</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.78698000000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.77359</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.75322</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.73314000000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.71940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.71026</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.71031999999999995</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.70660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.70996999999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.70370999999999995</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.70409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.70086999999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.70760999999999996</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.71286000000000005</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.70401000000000002</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.70357999999999998</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.70657000000000003</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.71133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.72902</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.74695999999999996</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.75007999999999997</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.73807</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.71233999999999997</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.69760999999999995</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.69294999999999995</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.69530999999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.68459000000000003</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.68754000000000004</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.68622000000000005</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.68147000000000002</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.66976000000000002</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.67376000000000003</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.68093999999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.66654999999999998</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.66503999999999996</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.67837000000000003</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.67551000000000005</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.67139000000000004</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.66718999999999995</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.67025000000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.67418999999999996</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.68684999999999996</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.70298000000000005</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.73690999999999995</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.73109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.70372999999999997</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.67754999999999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.65913999999999995</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.65425999999999995</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.65612000000000004</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.66015999999999997</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.66012000000000004</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.65134000000000003</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.64149</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.64356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.64159999999999995</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.63892000000000004</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.64859999999999995</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.64698</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.64588999999999996</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.65403</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.67178000000000004</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.69860999999999995</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.69111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9041-42A2-8CF7-822D0A30421B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6271,16 +7087,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6571,10 +7387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F513"/>
+  <dimension ref="A1:G513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6585,9 +7401,10 @@
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
     <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6606,8 +7423,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -6626,8 +7446,11 @@
       <c r="F2">
         <v>2.8994399999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>2.30599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -6646,8 +7469,11 @@
       <c r="F3">
         <v>2.8929100000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1.46272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -6666,8 +7492,11 @@
       <c r="F4">
         <v>2.8862199999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1.3350599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -6686,8 +7515,11 @@
       <c r="F5">
         <v>2.8793600000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1.2908200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -6706,8 +7538,11 @@
       <c r="F6">
         <v>2.8723000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1.2646299999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -6726,8 +7561,11 @@
       <c r="F7">
         <v>2.8650500000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1.2462200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -6746,8 +7584,11 @@
       <c r="F8">
         <v>2.85758</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1.2311700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -6766,8 +7607,11 @@
       <c r="F9">
         <v>2.8498999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1.2180899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -6786,8 +7630,11 @@
       <c r="F10">
         <v>2.8420000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1.2065399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -6806,8 +7653,11 @@
       <c r="F11">
         <v>2.83385</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1.19621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -6826,8 +7676,11 @@
       <c r="F12">
         <v>2.8254600000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1.1869000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -6846,8 +7699,11 @@
       <c r="F13">
         <v>2.8168099999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>1.17818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -6866,8 +7722,11 @@
       <c r="F14">
         <v>2.80789</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1.1701299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -6886,8 +7745,11 @@
       <c r="F15">
         <v>2.79867</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1.16275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -6906,8 +7768,11 @@
       <c r="F16">
         <v>2.7891499999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1.1559699999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -6926,8 +7791,11 @@
       <c r="F17">
         <v>2.7793100000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>1.1496299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -6946,8 +7814,11 @@
       <c r="F18">
         <v>2.7691300000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>1.14374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -6966,8 +7837,11 @@
       <c r="F19">
         <v>2.7585899999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>1.13832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -6986,8 +7860,11 @@
       <c r="F20">
         <v>2.7476699999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>1.1332899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -7006,8 +7883,11 @@
       <c r="F21">
         <v>2.7363499999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>1.1286099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -7026,8 +7906,11 @@
       <c r="F22">
         <v>2.7246100000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>1.12422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -7046,8 +7929,11 @@
       <c r="F23">
         <v>2.7124199999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>1.12008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -7066,8 +7952,11 @@
       <c r="F24">
         <v>2.6997599999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>1.1161700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -7086,8 +7975,11 @@
       <c r="F25">
         <v>2.6865999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>1.1124099999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -7106,8 +7998,11 @@
       <c r="F26">
         <v>2.67292</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>1.1088100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -7126,8 +8021,11 @@
       <c r="F27">
         <v>2.6586699999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>1.10534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -7146,8 +8044,11 @@
       <c r="F28">
         <v>2.6438299999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>1.1019699999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -7166,8 +8067,11 @@
       <c r="F29">
         <v>2.6283699999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>1.0987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -7186,8 +8090,11 @@
       <c r="F30">
         <v>2.61225</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>1.09544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -7206,8 +8113,11 @@
       <c r="F31">
         <v>2.5954199999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>1.09226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -7226,8 +8136,11 @@
       <c r="F32">
         <v>2.5778699999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>1.0891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -7246,8 +8159,11 @@
       <c r="F33">
         <v>2.5595300000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>1.08599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -7266,8 +8182,11 @@
       <c r="F34">
         <v>2.5403799999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>1.08291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -7286,8 +8205,11 @@
       <c r="F35">
         <v>2.5203600000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>1.07986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -7306,8 +8228,11 @@
       <c r="F36">
         <v>2.4994399999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>1.0768500000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -7326,8 +8251,11 @@
       <c r="F37">
         <v>2.4775800000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>1.0738300000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -7346,8 +8274,11 @@
       <c r="F38">
         <v>2.45472</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>1.07081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -7366,8 +8297,11 @@
       <c r="F39">
         <v>2.4308399999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>1.0678000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -7386,8 +8320,11 @@
       <c r="F40">
         <v>2.4058899999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>1.0647800000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -7406,8 +8343,11 @@
       <c r="F41">
         <v>2.3798699999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>1.0617799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -7426,8 +8366,11 @@
       <c r="F42">
         <v>2.3527399999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>1.05871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -7446,8 +8389,11 @@
       <c r="F43">
         <v>2.3245</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>1.0549900000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -7466,8 +8412,11 @@
       <c r="F44">
         <v>2.29514</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>1.0515399999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -7486,8 +8435,11 @@
       <c r="F45">
         <v>2.2646700000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>1.04834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -7506,8 +8458,11 @@
       <c r="F46">
         <v>2.2331099999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>1.04518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -7526,8 +8481,11 @@
       <c r="F47">
         <v>2.20051</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>1.04203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -7546,8 +8504,11 @@
       <c r="F48">
         <v>2.1669100000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>1.03891</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -7566,8 +8527,11 @@
       <c r="F49">
         <v>2.13239</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>1.0358000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -7586,8 +8550,11 @@
       <c r="F50">
         <v>2.0970599999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>1.0326200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -7606,8 +8573,11 @@
       <c r="F51">
         <v>2.06101</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>1.02918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -7626,8 +8596,11 @@
       <c r="F52">
         <v>2.0244</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>1.02596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -7646,8 +8619,11 @@
       <c r="F53">
         <v>1.9873700000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>1.02278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -7666,8 +8642,11 @@
       <c r="F54">
         <v>1.9500999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>1.01959</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -7686,8 +8665,11 @@
       <c r="F55">
         <v>1.91279</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>1.01641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -7706,8 +8688,11 @@
       <c r="F56">
         <v>1.8756600000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>1.0132099999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -7726,8 +8711,11 @@
       <c r="F57">
         <v>1.83894</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>1.0099899999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -7746,8 +8734,11 @@
       <c r="F58">
         <v>1.80287</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>1.0067600000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -7766,8 +8757,11 @@
       <c r="F59">
         <v>1.7677</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>1.00352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -7786,8 +8780,11 @@
       <c r="F60">
         <v>1.73367</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>1.0002599999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -7806,8 +8803,11 @@
       <c r="F61">
         <v>1.70103</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>0.99702999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -7826,8 +8826,11 @@
       <c r="F62">
         <v>1.6699900000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>0.99375999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -7846,8 +8849,11 @@
       <c r="F63">
         <v>1.6407</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>0.99048999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -7866,8 +8872,11 @@
       <c r="F64">
         <v>1.6133</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>0.98716000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -7886,8 +8895,11 @@
       <c r="F65">
         <v>1.58788</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>0.98375999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -7906,8 +8918,11 @@
       <c r="F66">
         <v>1.5644800000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>0.98021000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -7926,8 +8941,11 @@
       <c r="F67">
         <v>1.54311</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>0.97677000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -7946,8 +8964,11 @@
       <c r="F68">
         <v>1.52373</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>0.97328999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -7966,8 +8987,11 @@
       <c r="F69">
         <v>1.5062899999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>0.96984000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -7986,8 +9010,11 @@
       <c r="F70">
         <v>1.49068</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>0.96641999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -8006,8 +9033,11 @@
       <c r="F71">
         <v>1.47679</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>0.96301999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -8026,8 +9056,11 @@
       <c r="F72">
         <v>1.46448</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>0.95960999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -8046,8 +9079,11 @@
       <c r="F73">
         <v>1.4536199999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>0.95620000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -8066,8 +9102,11 @@
       <c r="F74">
         <v>1.4440500000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>0.95279000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -8086,8 +9125,11 @@
       <c r="F75">
         <v>1.4356500000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>0.94938999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -8106,8 +9148,11 @@
       <c r="F76">
         <v>1.42828</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>0.94599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -8126,8 +9171,11 @@
       <c r="F77">
         <v>1.4218</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>0.94254000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -8146,8 +9194,11 @@
       <c r="F78">
         <v>1.41611</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>0.93908999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -8166,8 +9217,11 @@
       <c r="F79">
         <v>1.41109</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>0.93564000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -8186,8 +9240,11 @@
       <c r="F80">
         <v>1.4066700000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>0.93218999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -8206,8 +9263,11 @@
       <c r="F81">
         <v>1.4027499999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>0.92856000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -8226,8 +9286,11 @@
       <c r="F82">
         <v>1.3992599999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>0.92496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -8246,8 +9309,11 @@
       <c r="F83">
         <v>1.39615</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>0.92135999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -8266,8 +9332,11 @@
       <c r="F84">
         <v>1.3933599999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>0.91773000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -8286,8 +9355,11 @@
       <c r="F85">
         <v>1.3908400000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>0.91405999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -8306,8 +9378,11 @@
       <c r="F86">
         <v>1.38856</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>0.91047999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -8326,8 +9401,11 @@
       <c r="F87">
         <v>1.3864799999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>0.90683999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -8346,8 +9424,11 @@
       <c r="F88">
         <v>1.38456</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>0.90322000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -8366,8 +9447,11 @@
       <c r="F89">
         <v>1.3828</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>0.89966999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -8386,8 +9470,11 @@
       <c r="F90">
         <v>1.3811599999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>0.89614000000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -8406,8 +9493,11 @@
       <c r="F91">
         <v>1.37964</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>0.89263999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -8426,8 +9516,11 @@
       <c r="F92">
         <v>1.3782000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>0.88919999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -8446,8 +9539,11 @@
       <c r="F93">
         <v>1.3768499999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>0.88571</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -8466,8 +9562,11 @@
       <c r="F94">
         <v>1.37557</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>0.88229000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -8486,8 +9585,11 @@
       <c r="F95">
         <v>1.37435</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>0.87887999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -8506,8 +9608,11 @@
       <c r="F96">
         <v>1.3731899999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>0.87546000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -8526,8 +9631,11 @@
       <c r="F97">
         <v>1.3720699999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>0.87207999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -8546,8 +9654,11 @@
       <c r="F98">
         <v>1.371</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>0.86926000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -8566,8 +9677,11 @@
       <c r="F99">
         <v>1.3699600000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>0.86670999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -8586,8 +9700,11 @@
       <c r="F100">
         <v>1.3689499999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>0.86336000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -8606,8 +9723,11 @@
       <c r="F101">
         <v>1.36798</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>0.86077999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -8626,8 +9746,11 @@
       <c r="F102">
         <v>1.3670199999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>0.85994000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -8646,8 +9769,11 @@
       <c r="F103">
         <v>1.3661000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>0.85757000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -8666,8 +9792,11 @@
       <c r="F104">
         <v>1.3651899999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>0.86043000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -8686,8 +9815,11 @@
       <c r="F105">
         <v>1.3643000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>0.86950000000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -8706,8 +9838,11 @@
       <c r="F106">
         <v>1.3634299999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>0.87638000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -8726,8 +9861,11 @@
       <c r="F107">
         <v>1.3625799999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>0.87222999999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -8746,8 +9884,11 @@
       <c r="F108">
         <v>1.36174</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>0.86689000000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -8766,8 +9907,11 @@
       <c r="F109">
         <v>1.3609100000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>0.85804000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -8786,8 +9930,11 @@
       <c r="F110">
         <v>1.3601000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>0.84963999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -8806,8 +9953,11 @@
       <c r="F111">
         <v>1.3593</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>0.84289999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -8826,8 +9976,11 @@
       <c r="F112">
         <v>1.3585100000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>0.83869000000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -8846,8 +9999,11 @@
       <c r="F113">
         <v>1.35772</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>0.83701000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -8864,8 +10020,11 @@
       <c r="F114">
         <v>1.3569500000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>0.83909</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -8882,8 +10041,11 @@
       <c r="F115">
         <v>1.35619</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>0.83935999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
@@ -8900,8 +10062,11 @@
       <c r="F116">
         <v>1.3554299999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>0.84277000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
@@ -8918,8 +10083,11 @@
       <c r="F117">
         <v>1.3546899999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>0.83904000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
@@ -8936,8 +10104,11 @@
       <c r="F118">
         <v>1.35395</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>0.85743000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.42812</v>
       </c>
@@ -8954,8 +10125,11 @@
       <c r="F119">
         <v>1.3532200000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>0.86573999999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
@@ -8972,8 +10146,11 @@
       <c r="F120">
         <v>1.35249</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>0.85258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
@@ -8990,8 +10167,11 @@
       <c r="F121">
         <v>1.3517699999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>0.84231999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
@@ -9008,8 +10188,11 @@
       <c r="F122">
         <v>1.3510599999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>0.83406000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
@@ -9026,8 +10209,11 @@
       <c r="F123">
         <v>1.35036</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>0.82852999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
@@ -9044,8 +10230,11 @@
       <c r="F124">
         <v>1.3496600000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>0.82123999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
@@ -9062,8 +10251,11 @@
       <c r="F125">
         <v>1.3489599999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>0.82833999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
@@ -9080,8 +10272,11 @@
       <c r="F126">
         <v>1.3482700000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>0.82135000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
@@ -9098,8 +10293,11 @@
       <c r="F127">
         <v>1.3475900000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>0.81681000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.35158</v>
       </c>
@@ -9116,8 +10314,11 @@
       <c r="F128">
         <v>1.3469100000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>0.81601000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
@@ -9134,8 +10335,11 @@
       <c r="F129">
         <v>1.3462400000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>0.82311999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.3392</v>
       </c>
@@ -9152,8 +10356,11 @@
       <c r="F130">
         <v>1.3455699999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>0.81657999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
@@ -9170,8 +10377,11 @@
       <c r="F131">
         <v>1.3449</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>0.82149000000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
@@ -9188,8 +10398,11 @@
       <c r="F132">
         <v>1.3442400000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>0.83540000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
@@ -9206,8 +10419,11 @@
       <c r="F133">
         <v>1.3435900000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>0.84416000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
@@ -9224,8 +10440,11 @@
       <c r="F134">
         <v>1.34294</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>0.83274000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.32943</v>
       </c>
@@ -9242,8 +10461,11 @@
       <c r="F135">
         <v>1.34229</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>0.81962999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
@@ -9260,8 +10482,11 @@
       <c r="F136">
         <v>1.34165</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <v>0.80949000000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
@@ -9278,8 +10503,11 @@
       <c r="F137">
         <v>1.34101</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>0.79984999999999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.31</v>
       </c>
@@ -9296,8 +10524,11 @@
       <c r="F138">
         <v>1.3403700000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <v>0.79993000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
@@ -9314,8 +10545,11 @@
       <c r="F139">
         <v>1.3397399999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <v>0.80113999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.30506</v>
       </c>
@@ -9332,8 +10566,11 @@
       <c r="F140">
         <v>1.3391200000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <v>0.79676000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
@@ -9350,8 +10587,11 @@
       <c r="F141">
         <v>1.33849</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <v>0.79410999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
@@ -9368,8 +10608,11 @@
       <c r="F142">
         <v>1.3378699999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>0.78771999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.29479</v>
       </c>
@@ -9386,8 +10629,11 @@
       <c r="F143">
         <v>1.33725</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>0.79752999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
@@ -9404,8 +10650,11 @@
       <c r="F144">
         <v>1.3366400000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <v>0.79556000000000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
@@ -9422,8 +10671,11 @@
       <c r="F145">
         <v>1.3360300000000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <v>0.79842999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
@@ -9440,8 +10692,11 @@
       <c r="F146">
         <v>1.3354200000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146">
+        <v>0.81416999999999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.2722</v>
       </c>
@@ -9458,8 +10713,11 @@
       <c r="F147">
         <v>1.3348199999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147">
+        <v>0.82487999999999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
@@ -9476,8 +10734,11 @@
       <c r="F148">
         <v>1.33422</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148">
+        <v>0.82128999999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
@@ -9494,8 +10755,11 @@
       <c r="F149">
         <v>1.33362</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149">
+        <v>0.81572999999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
@@ -9512,8 +10776,11 @@
       <c r="F150">
         <v>1.3330299999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
@@ -9530,8 +10797,11 @@
       <c r="F151">
         <v>1.3324400000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <v>0.79237999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
@@ -9548,8 +10818,11 @@
       <c r="F152">
         <v>1.33186</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152">
+        <v>0.78751000000000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.25683</v>
       </c>
@@ -9566,8 +10839,11 @@
       <c r="F153">
         <v>1.33128</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153">
+        <v>0.78115000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
@@ -9584,8 +10860,11 @@
       <c r="F154">
         <v>1.3307</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154">
+        <v>0.78827000000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
@@ -9602,8 +10881,11 @@
       <c r="F155">
         <v>1.33012</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155">
+        <v>0.78649000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
@@ -9620,8 +10902,11 @@
       <c r="F156">
         <v>1.32955</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156">
+        <v>0.78088999999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.24456</v>
       </c>
@@ -9638,8 +10923,11 @@
       <c r="F157">
         <v>1.3289800000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157">
+        <v>0.77698999999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
@@ -9656,8 +10944,11 @@
       <c r="F158">
         <v>1.3284199999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <v>0.78622999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
@@ -9674,8 +10965,11 @@
       <c r="F159">
         <v>1.32785</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159">
+        <v>0.80396999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.22721</v>
       </c>
@@ -9692,8 +10986,11 @@
       <c r="F160">
         <v>1.3272900000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160">
+        <v>0.81691000000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
@@ -9710,8 +11007,11 @@
       <c r="F161">
         <v>1.32674</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G161">
+        <v>0.81113999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.21545</v>
       </c>
@@ -9728,8 +11028,11 @@
       <c r="F162">
         <v>1.32619</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162">
+        <v>0.79454999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.21892</v>
       </c>
@@ -9746,8 +11049,11 @@
       <c r="F163">
         <v>1.3256399999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163">
+        <v>0.77942</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
@@ -9764,8 +11070,11 @@
       <c r="F164">
         <v>1.3250999999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164">
+        <v>0.76549</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.22827</v>
       </c>
@@ -9782,8 +11091,11 @@
       <c r="F165">
         <v>1.32456</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165">
+        <v>0.75734999999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
@@ -9800,8 +11112,11 @@
       <c r="F166">
         <v>1.32403</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G166">
+        <v>0.75366</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.21489</v>
       </c>
@@ -9818,8 +11133,11 @@
       <c r="F167">
         <v>1.3234999999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G167">
+        <v>0.75095999999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
@@ -9836,8 +11154,11 @@
       <c r="F168">
         <v>1.32298</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G168">
+        <v>0.74782000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
@@ -9854,8 +11175,11 @@
       <c r="F169">
         <v>1.32246</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G169">
+        <v>0.74883</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.20321</v>
       </c>
@@ -9872,8 +11196,11 @@
       <c r="F170">
         <v>1.3219399999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G170">
+        <v>0.73992999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.193</v>
       </c>
@@ -9890,8 +11217,11 @@
       <c r="F171">
         <v>1.3214300000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G171">
+        <v>0.73945000000000005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
@@ -9908,8 +11238,11 @@
       <c r="F172">
         <v>1.3209299999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G172">
+        <v>0.73831000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.19649</v>
       </c>
@@ -9926,8 +11259,11 @@
       <c r="F173">
         <v>1.32043</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G173">
+        <v>0.73860000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
@@ -9944,8 +11280,11 @@
       <c r="F174">
         <v>1.31993</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G174">
+        <v>0.74448999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
@@ -9962,8 +11301,11 @@
       <c r="F175">
         <v>1.3194399999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G175">
+        <v>0.73782000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.18289</v>
       </c>
@@ -9980,8 +11322,11 @@
       <c r="F176">
         <v>1.3189500000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G176">
+        <v>0.74309999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.17509</v>
       </c>
@@ -9998,8 +11343,11 @@
       <c r="F177">
         <v>1.31846</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G177">
+        <v>0.75180000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.16594</v>
       </c>
@@ -10016,8 +11364,11 @@
       <c r="F178">
         <v>1.3179799999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G178">
+        <v>0.78634999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.16971</v>
       </c>
@@ -10034,8 +11385,11 @@
       <c r="F179">
         <v>1.31751</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <v>0.80135999999999996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
@@ -10052,8 +11406,11 @@
       <c r="F180">
         <v>1.31704</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G180">
+        <v>0.78881999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
@@ -10070,8 +11427,11 @@
       <c r="F181">
         <v>1.31657</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G181">
+        <v>0.77288000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.17637</v>
       </c>
@@ -10088,8 +11448,11 @@
       <c r="F182">
         <v>1.3161099999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G182">
+        <v>0.75773000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.16108</v>
       </c>
@@ -10106,8 +11469,11 @@
       <c r="F183">
         <v>1.31565</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G183">
+        <v>0.74763000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
@@ -10124,8 +11490,11 @@
       <c r="F184">
         <v>1.3151900000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G184">
+        <v>0.73882999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
@@ -10142,8 +11511,11 @@
       <c r="F185">
         <v>1.31474</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G185">
+        <v>0.73633999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
@@ -10160,8 +11532,11 @@
       <c r="F186">
         <v>1.3143</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G186">
+        <v>0.73165000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
@@ -10178,8 +11553,11 @@
       <c r="F187">
         <v>1.31386</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G187">
+        <v>0.73589000000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
@@ -10196,8 +11574,11 @@
       <c r="F188">
         <v>1.31342</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G188">
+        <v>0.72821999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
@@ -10214,8 +11595,11 @@
       <c r="F189">
         <v>1.3129900000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G189">
+        <v>0.73309000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
@@ -10232,8 +11616,11 @@
       <c r="F190">
         <v>1.31257</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G190">
+        <v>0.72802</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
@@ -10250,8 +11637,11 @@
       <c r="F191">
         <v>1.3121400000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G191">
+        <v>0.72974000000000006</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.17412</v>
       </c>
@@ -10268,8 +11658,11 @@
       <c r="F192">
         <v>1.3117300000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G192">
+        <v>0.73209999999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
@@ -10286,8 +11679,11 @@
       <c r="F193">
         <v>1.31131</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G193">
+        <v>0.75055000000000005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.14726</v>
       </c>
@@ -10304,8 +11700,11 @@
       <c r="F194">
         <v>1.3109</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G194">
+        <v>0.78698000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.14654</v>
       </c>
@@ -10322,8 +11721,11 @@
       <c r="F195">
         <v>1.3105</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G195">
+        <v>0.77359</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
@@ -10340,8 +11742,11 @@
       <c r="F196">
         <v>1.3101</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G196">
+        <v>0.75322</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
@@ -10358,8 +11763,11 @@
       <c r="F197">
         <v>1.3097000000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G197">
+        <v>0.73314000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
@@ -10376,8 +11784,11 @@
       <c r="F198">
         <v>1.30931</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G198">
+        <v>0.71940999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
@@ -10394,8 +11805,11 @@
       <c r="F199">
         <v>1.3089299999999999</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199">
+        <v>0.71026</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
@@ -10412,8 +11826,11 @@
       <c r="F200">
         <v>1.30854</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G200">
+        <v>0.71031999999999995</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.13768</v>
       </c>
@@ -10430,8 +11847,11 @@
       <c r="F201">
         <v>1.3081700000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G201">
+        <v>0.70660000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
@@ -10448,8 +11868,11 @@
       <c r="F202">
         <v>1.30779</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G202">
+        <v>0.70996999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.14656</v>
       </c>
@@ -10466,8 +11889,11 @@
       <c r="F203">
         <v>1.30742</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G203">
+        <v>0.70370999999999995</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
@@ -10484,8 +11910,11 @@
       <c r="F204">
         <v>1.3070600000000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G204">
+        <v>0.70409999999999995</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
@@ -10502,8 +11931,11 @@
       <c r="F205">
         <v>1.3067</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G205">
+        <v>0.70086999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.12268</v>
       </c>
@@ -10520,8 +11952,11 @@
       <c r="F206">
         <v>1.3063400000000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G206">
+        <v>0.70760999999999996</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.12182</v>
       </c>
@@ -10538,8 +11973,11 @@
       <c r="F207">
         <v>1.30599</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G207">
+        <v>0.71286000000000005</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.12303</v>
       </c>
@@ -10556,8 +11994,11 @@
       <c r="F208">
         <v>1.3056399999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G208">
+        <v>0.70401000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.11706</v>
       </c>
@@ -10574,8 +12015,11 @@
       <c r="F209">
         <v>1.3052900000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G209">
+        <v>0.70357999999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.11583</v>
       </c>
@@ -10592,8 +12036,11 @@
       <c r="F210">
         <v>1.3049500000000001</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G210">
+        <v>0.70657000000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
@@ -10610,8 +12057,11 @@
       <c r="F211">
         <v>1.30461</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G211">
+        <v>0.71133000000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
@@ -10628,8 +12078,11 @@
       <c r="F212">
         <v>1.30427</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G212">
+        <v>0.72902</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
@@ -10646,8 +12099,11 @@
       <c r="F213">
         <v>1.3039400000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G213">
+        <v>0.74695999999999996</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
@@ -10664,8 +12120,11 @@
       <c r="F214">
         <v>1.3036099999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G214">
+        <v>0.75007999999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
@@ -10682,8 +12141,11 @@
       <c r="F215">
         <v>1.30328</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G215">
+        <v>0.73807</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.11314</v>
       </c>
@@ -10700,8 +12162,11 @@
       <c r="F216">
         <v>1.3029599999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G216">
+        <v>0.71233999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
@@ -10718,8 +12183,11 @@
       <c r="F217">
         <v>1.30264</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G217">
+        <v>0.69760999999999995</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.13441</v>
       </c>
@@ -10736,8 +12204,11 @@
       <c r="F218">
         <v>1.30233</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G218">
+        <v>0.69294999999999995</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.11197</v>
       </c>
@@ -10754,8 +12225,11 @@
       <c r="F219">
         <v>1.30202</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G219">
+        <v>0.69530999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.11214</v>
       </c>
@@ -10772,8 +12246,11 @@
       <c r="F220">
         <v>1.3017099999999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G220">
+        <v>0.68459000000000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.10238</v>
       </c>
@@ -10790,8 +12267,11 @@
       <c r="F221">
         <v>1.3013999999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G221">
+        <v>0.68754000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
@@ -10808,8 +12288,11 @@
       <c r="F222">
         <v>1.3010999999999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G222">
+        <v>0.68622000000000005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -10826,8 +12309,11 @@
       <c r="F223">
         <v>1.3008</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G223">
+        <v>0.68147000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.10054</v>
       </c>
@@ -10844,8 +12330,11 @@
       <c r="F224">
         <v>1.3005100000000001</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G224">
+        <v>0.66976000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.10248</v>
       </c>
@@ -10862,8 +12351,11 @@
       <c r="F225">
         <v>1.3002199999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G225">
+        <v>0.67376000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.10149</v>
       </c>
@@ -10880,8 +12372,11 @@
       <c r="F226">
         <v>1.29993</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G226">
+        <v>0.68093999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.10385</v>
       </c>
@@ -10898,8 +12393,11 @@
       <c r="F227">
         <v>1.2996399999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G227">
+        <v>0.66654999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.10721</v>
       </c>
@@ -10916,8 +12414,11 @@
       <c r="F228">
         <v>1.2993600000000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G228">
+        <v>0.66503999999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.10183</v>
       </c>
@@ -10934,8 +12435,11 @@
       <c r="F229">
         <v>1.29908</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G229">
+        <v>0.67837000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
@@ -10952,8 +12456,11 @@
       <c r="F230">
         <v>1.2988</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G230">
+        <v>0.67551000000000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
@@ -10970,8 +12477,11 @@
       <c r="F231">
         <v>1.29853</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G231">
+        <v>0.67139000000000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
@@ -10988,8 +12498,11 @@
       <c r="F232">
         <v>1.2982499999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G232">
+        <v>0.66718999999999995</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
@@ -11006,8 +12519,11 @@
       <c r="F233">
         <v>1.2979799999999999</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G233">
+        <v>0.67025000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
@@ -11024,8 +12540,11 @@
       <c r="F234">
         <v>1.29772</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G234">
+        <v>0.67418999999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
@@ -11042,8 +12561,11 @@
       <c r="F235">
         <v>1.29745</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G235">
+        <v>0.68684999999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.11858</v>
       </c>
@@ -11060,8 +12582,11 @@
       <c r="F236">
         <v>1.2971900000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G236">
+        <v>0.70298000000000005</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
@@ -11078,8 +12603,11 @@
       <c r="F237">
         <v>1.2969299999999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G237">
+        <v>0.73690999999999995</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
@@ -11096,8 +12624,11 @@
       <c r="F238">
         <v>1.29667</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G238">
+        <v>0.73109999999999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
@@ -11114,8 +12645,11 @@
       <c r="F239">
         <v>1.2964199999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G239">
+        <v>0.70372999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
@@ -11132,8 +12666,11 @@
       <c r="F240">
         <v>1.29616</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G240">
+        <v>0.67754999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.1134</v>
       </c>
@@ -11150,8 +12687,11 @@
       <c r="F241">
         <v>1.2959099999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G241">
+        <v>0.65913999999999995</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
@@ -11168,8 +12708,11 @@
       <c r="F242">
         <v>1.2956700000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G242">
+        <v>0.65425999999999995</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
@@ -11186,8 +12729,11 @@
       <c r="F243">
         <v>1.29542</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G243">
+        <v>0.65612000000000004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
@@ -11204,8 +12750,11 @@
       <c r="F244">
         <v>1.29518</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G244">
+        <v>0.66015999999999997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
@@ -11222,8 +12771,11 @@
       <c r="F245">
         <v>1.2949299999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G245">
+        <v>0.66012000000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
@@ -11240,8 +12792,11 @@
       <c r="F246">
         <v>1.2947</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G246">
+        <v>0.65134000000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.10452</v>
       </c>
@@ -11258,8 +12813,11 @@
       <c r="F247">
         <v>1.2944599999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G247">
+        <v>0.64149</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
@@ -11276,8 +12834,11 @@
       <c r="F248">
         <v>1.2942199999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G248">
+        <v>0.64356000000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -11294,8 +12855,11 @@
       <c r="F249">
         <v>1.29399</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G249">
+        <v>0.64159999999999995</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
@@ -11312,8 +12876,11 @@
       <c r="F250">
         <v>1.29376</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G250">
+        <v>0.63892000000000004</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
@@ -11330,8 +12897,11 @@
       <c r="F251">
         <v>1.2935300000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G251">
+        <v>0.64859999999999995</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
@@ -11348,8 +12918,11 @@
       <c r="F252">
         <v>1.2932999999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G252">
+        <v>0.64698</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
@@ -11366,8 +12939,11 @@
       <c r="F253">
         <v>1.2930699999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G253">
+        <v>0.64588999999999996</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
@@ -11384,8 +12960,11 @@
       <c r="F254">
         <v>1.2928500000000001</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G254">
+        <v>0.65403</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
@@ -11402,8 +12981,11 @@
       <c r="F255">
         <v>1.2926299999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G255">
+        <v>0.67178000000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
@@ -11420,8 +13002,11 @@
       <c r="F256">
         <v>1.2924100000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G256">
+        <v>0.69860999999999995</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
@@ -11438,92 +13023,95 @@
       <c r="F257">
         <v>1.2921899999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G257">
+        <v>0.69111</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F82FD66-41BA-4621-9358-598BA9CAFFB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DA36F3-A994-464D-97A5-6815D65D38F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,17 +58,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +117,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -184,7 +184,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2139,6 +2139,438 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>1.1831</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.18251</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1819200000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1813400000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.18076</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.18018</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1795899999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.17903</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.17845</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.17788</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.1773</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1767300000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.1761600000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.1755899999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.17503</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.1744600000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1738900000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1733100000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.17275</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.17218</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.17161</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.1710400000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.1704300000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.1698500000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.1692499999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.16866</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.16805</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.16743</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.1668000000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.1661600000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.16551</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.1648400000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.1641600000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.1634599999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.1627400000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.1620299999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.1612899999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.1605000000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.1597</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.1588799999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.15802</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.15713</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.1562300000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.1553199999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.15439</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.15341</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.1525000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.1515</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.1505399999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.14954</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.14859</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.14764</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.14669</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.1457299999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.1447799999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.14385</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.1429100000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.14201</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.1411</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.1402099999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.1393200000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.1384399999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.13757</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.13669</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.13584</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.13507</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.1342000000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.13341</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.1325700000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.13178</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.1309499999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.13015</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.1293599999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.1285799999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.12778</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.1270100000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.12625</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.12548</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.1247400000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.12399</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.1233</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.1225499999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.12185</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.12114</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.12042</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.11968</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.119</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.1182799999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.11755</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.1167899999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.11609</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.1152899999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.1145499999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.11388</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.11307</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.1123400000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.1115699999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.1107899999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.1099699999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.10917</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.10823</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.1073200000000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.1064499999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.1054299999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.1043700000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.1033900000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.10219</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.1009899999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.0997399999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.0984799999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.09711</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.0958000000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.0943700000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.093</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.09169</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.0903</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.08894</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.0875699999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.0862499999999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.0849500000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.08365</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.0823100000000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.081</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.0796699999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.0783499999999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.07708</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.07575</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.0744100000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.0730599999999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.0717000000000001</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.0703199999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.0689200000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.0675399999999999</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.06612</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.06473</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.06335</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.0619799999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.0606</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.0592200000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.05785</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.0564899999999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.0550999999999999</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.0537300000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.0523800000000001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.0509599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6277,7 +6709,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6315,7 +6747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1310328271"/>
@@ -6412,7 +6844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6444,7 +6876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383030927"/>
@@ -6486,7 +6918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6516,7 +6948,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7389,22 +7821,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7427,7 +7859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -7450,7 +7882,7 @@
         <v>2.30599</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -7473,7 +7905,7 @@
         <v>1.46272</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -7496,7 +7928,7 @@
         <v>1.3350599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -7519,7 +7951,7 @@
         <v>1.2908200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -7542,7 +7974,7 @@
         <v>1.2646299999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -7565,7 +7997,7 @@
         <v>1.2462200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -7588,7 +8020,7 @@
         <v>1.2311700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -7611,7 +8043,7 @@
         <v>1.2180899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -7634,7 +8066,7 @@
         <v>1.2065399999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -7657,7 +8089,7 @@
         <v>1.19621</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -7680,7 +8112,7 @@
         <v>1.1869000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -7703,7 +8135,7 @@
         <v>1.17818</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -7726,7 +8158,7 @@
         <v>1.1701299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -7749,7 +8181,7 @@
         <v>1.16275</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -7772,7 +8204,7 @@
         <v>1.1559699999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -7795,7 +8227,7 @@
         <v>1.1496299999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -7818,7 +8250,7 @@
         <v>1.14374</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -7841,7 +8273,7 @@
         <v>1.13832</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -7864,7 +8296,7 @@
         <v>1.1332899999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -7887,7 +8319,7 @@
         <v>1.1286099999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -7910,7 +8342,7 @@
         <v>1.12422</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -7933,7 +8365,7 @@
         <v>1.12008</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -7956,7 +8388,7 @@
         <v>1.1161700000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -7979,7 +8411,7 @@
         <v>1.1124099999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -8002,7 +8434,7 @@
         <v>1.1088100000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -8025,7 +8457,7 @@
         <v>1.10534</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -8048,7 +8480,7 @@
         <v>1.1019699999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -8071,7 +8503,7 @@
         <v>1.0987</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -8094,7 +8526,7 @@
         <v>1.09544</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -8117,7 +8549,7 @@
         <v>1.09226</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -8140,7 +8572,7 @@
         <v>1.0891</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -8163,7 +8595,7 @@
         <v>1.08599</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -8186,7 +8618,7 @@
         <v>1.08291</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -8209,7 +8641,7 @@
         <v>1.07986</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -8232,7 +8664,7 @@
         <v>1.0768500000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -8255,7 +8687,7 @@
         <v>1.0738300000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -8278,7 +8710,7 @@
         <v>1.07081</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -8301,7 +8733,7 @@
         <v>1.0678000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -8324,7 +8756,7 @@
         <v>1.0647800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -8347,7 +8779,7 @@
         <v>1.0617799999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -8370,7 +8802,7 @@
         <v>1.05871</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -8393,7 +8825,7 @@
         <v>1.0549900000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -8416,7 +8848,7 @@
         <v>1.0515399999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -8439,7 +8871,7 @@
         <v>1.04834</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -8462,7 +8894,7 @@
         <v>1.04518</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -8485,7 +8917,7 @@
         <v>1.04203</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -8508,7 +8940,7 @@
         <v>1.03891</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -8531,7 +8963,7 @@
         <v>1.0358000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -8554,7 +8986,7 @@
         <v>1.0326200000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -8577,7 +9009,7 @@
         <v>1.02918</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -8600,7 +9032,7 @@
         <v>1.02596</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -8623,7 +9055,7 @@
         <v>1.02278</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -8646,7 +9078,7 @@
         <v>1.01959</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -8669,7 +9101,7 @@
         <v>1.01641</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -8692,7 +9124,7 @@
         <v>1.0132099999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -8715,7 +9147,7 @@
         <v>1.0099899999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -8738,7 +9170,7 @@
         <v>1.0067600000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -8761,7 +9193,7 @@
         <v>1.00352</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -8784,7 +9216,7 @@
         <v>1.0002599999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -8807,7 +9239,7 @@
         <v>0.99702999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -8830,7 +9262,7 @@
         <v>0.99375999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -8853,7 +9285,7 @@
         <v>0.99048999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -8876,7 +9308,7 @@
         <v>0.98716000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -8899,7 +9331,7 @@
         <v>0.98375999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -8922,7 +9354,7 @@
         <v>0.98021000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -8945,7 +9377,7 @@
         <v>0.97677000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -8968,7 +9400,7 @@
         <v>0.97328999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -8991,7 +9423,7 @@
         <v>0.96984000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -9014,7 +9446,7 @@
         <v>0.96641999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -9037,7 +9469,7 @@
         <v>0.96301999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -9060,7 +9492,7 @@
         <v>0.95960999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -9083,7 +9515,7 @@
         <v>0.95620000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -9106,7 +9538,7 @@
         <v>0.95279000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -9129,7 +9561,7 @@
         <v>0.94938999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -9152,7 +9584,7 @@
         <v>0.94599</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -9175,7 +9607,7 @@
         <v>0.94254000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -9198,7 +9630,7 @@
         <v>0.93908999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -9221,7 +9653,7 @@
         <v>0.93564000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -9244,7 +9676,7 @@
         <v>0.93218999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -9267,7 +9699,7 @@
         <v>0.92856000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -9290,7 +9722,7 @@
         <v>0.92496</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -9313,7 +9745,7 @@
         <v>0.92135999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -9336,7 +9768,7 @@
         <v>0.91773000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -9359,7 +9791,7 @@
         <v>0.91405999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -9382,7 +9814,7 @@
         <v>0.91047999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -9405,7 +9837,7 @@
         <v>0.90683999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -9428,7 +9860,7 @@
         <v>0.90322000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -9451,7 +9883,7 @@
         <v>0.89966999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -9474,7 +9906,7 @@
         <v>0.89614000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -9497,7 +9929,7 @@
         <v>0.89263999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -9520,7 +9952,7 @@
         <v>0.88919999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -9543,7 +9975,7 @@
         <v>0.88571</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -9566,7 +9998,7 @@
         <v>0.88229000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -9589,7 +10021,7 @@
         <v>0.87887999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -9612,7 +10044,7 @@
         <v>0.87546000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -9635,7 +10067,7 @@
         <v>0.87207999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -9658,7 +10090,7 @@
         <v>0.86926000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -9681,7 +10113,7 @@
         <v>0.86670999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -9704,7 +10136,7 @@
         <v>0.86336000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -9727,7 +10159,7 @@
         <v>0.86077999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -9750,7 +10182,7 @@
         <v>0.85994000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -9773,7 +10205,7 @@
         <v>0.85757000000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -9796,7 +10228,7 @@
         <v>0.86043000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -9819,7 +10251,7 @@
         <v>0.86950000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -9842,7 +10274,7 @@
         <v>0.87638000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -9865,7 +10297,7 @@
         <v>0.87222999999999995</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -9888,7 +10320,7 @@
         <v>0.86689000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -9911,7 +10343,7 @@
         <v>0.85804000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -9934,7 +10366,7 @@
         <v>0.84963999999999995</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -9957,7 +10389,7 @@
         <v>0.84289999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -9980,7 +10412,7 @@
         <v>0.83869000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -10003,11 +10435,13 @@
         <v>0.83701000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>0.41952</v>
       </c>
-      <c r="B114" s="1"/>
+      <c r="B114" s="1">
+        <v>1.18251</v>
+      </c>
       <c r="C114">
         <v>0.29698000000000002</v>
       </c>
@@ -10024,11 +10458,13 @@
         <v>0.83909</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
-      <c r="B115" s="1"/>
+      <c r="B115" s="1">
+        <v>1.1819200000000001</v>
+      </c>
       <c r="C115">
         <v>0.29146</v>
       </c>
@@ -10045,11 +10481,13 @@
         <v>0.83935999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
-      <c r="B116" s="1"/>
+      <c r="B116" s="1">
+        <v>1.1813400000000001</v>
+      </c>
       <c r="C116">
         <v>0.28876000000000002</v>
       </c>
@@ -10066,11 +10504,13 @@
         <v>0.84277000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
-      <c r="B117" s="1"/>
+      <c r="B117" s="1">
+        <v>1.18076</v>
+      </c>
       <c r="C117">
         <v>0.28576000000000001</v>
       </c>
@@ -10087,11 +10527,13 @@
         <v>0.83904000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
-      <c r="B118" s="1"/>
+      <c r="B118" s="1">
+        <v>1.18018</v>
+      </c>
       <c r="C118">
         <v>0.27393000000000001</v>
       </c>
@@ -10108,11 +10550,13 @@
         <v>0.85743000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>0.42812</v>
       </c>
-      <c r="B119" s="1"/>
+      <c r="B119" s="1">
+        <v>1.1795899999999999</v>
+      </c>
       <c r="C119">
         <v>0.27456999999999998</v>
       </c>
@@ -10129,11 +10573,13 @@
         <v>0.86573999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
-      <c r="B120" s="1"/>
+      <c r="B120" s="1">
+        <v>1.17903</v>
+      </c>
       <c r="C120">
         <v>0.26812000000000002</v>
       </c>
@@ -10150,11 +10596,13 @@
         <v>0.85258</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" s="1">
+        <v>1.17845</v>
+      </c>
       <c r="C121">
         <v>0.25152000000000002</v>
       </c>
@@ -10171,11 +10619,13 @@
         <v>0.84231999999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
-      <c r="B122" s="1"/>
+      <c r="B122" s="1">
+        <v>1.17788</v>
+      </c>
       <c r="C122">
         <v>0.25774999999999998</v>
       </c>
@@ -10192,11 +10642,13 @@
         <v>0.83406000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
-      <c r="B123" s="1"/>
+      <c r="B123" s="1">
+        <v>1.1773</v>
+      </c>
       <c r="C123">
         <v>0.25034000000000001</v>
       </c>
@@ -10213,11 +10665,13 @@
         <v>0.82852999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
-      <c r="B124" s="1"/>
+      <c r="B124" s="1">
+        <v>1.1767300000000001</v>
+      </c>
       <c r="C124">
         <v>0.25777</v>
       </c>
@@ -10234,11 +10688,13 @@
         <v>0.82123999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
-      <c r="B125" s="1"/>
+      <c r="B125" s="1">
+        <v>1.1761600000000001</v>
+      </c>
       <c r="C125">
         <v>0.25125999999999998</v>
       </c>
@@ -10255,11 +10711,13 @@
         <v>0.82833999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
-      <c r="B126" s="1"/>
+      <c r="B126" s="1">
+        <v>1.1755899999999999</v>
+      </c>
       <c r="C126">
         <v>0.24773000000000001</v>
       </c>
@@ -10276,11 +10734,13 @@
         <v>0.82135000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
-      <c r="B127" s="1"/>
+      <c r="B127" s="1">
+        <v>1.17503</v>
+      </c>
       <c r="C127">
         <v>0.24424999999999999</v>
       </c>
@@ -10297,11 +10757,13 @@
         <v>0.81681000000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>0.35158</v>
       </c>
-      <c r="B128" s="1"/>
+      <c r="B128" s="1">
+        <v>1.1744600000000001</v>
+      </c>
       <c r="C128">
         <v>0.22797999999999999</v>
       </c>
@@ -10318,11 +10780,13 @@
         <v>0.81601000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
-      <c r="B129" s="1"/>
+      <c r="B129" s="1">
+        <v>1.1738900000000001</v>
+      </c>
       <c r="C129">
         <v>0.22364999999999999</v>
       </c>
@@ -10339,11 +10803,13 @@
         <v>0.82311999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>0.3392</v>
       </c>
-      <c r="B130" s="1"/>
+      <c r="B130" s="1">
+        <v>1.1733100000000001</v>
+      </c>
       <c r="C130">
         <v>0.22902</v>
       </c>
@@ -10360,11 +10826,13 @@
         <v>0.81657999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
-      <c r="B131" s="1"/>
+      <c r="B131" s="1">
+        <v>1.17275</v>
+      </c>
       <c r="C131">
         <v>0.22875999999999999</v>
       </c>
@@ -10381,11 +10849,13 @@
         <v>0.82149000000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
-      <c r="B132" s="1"/>
+      <c r="B132" s="1">
+        <v>1.17218</v>
+      </c>
       <c r="C132">
         <v>0.22853000000000001</v>
       </c>
@@ -10402,11 +10872,13 @@
         <v>0.83540000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
-      <c r="B133" s="1"/>
+      <c r="B133" s="1">
+        <v>1.17161</v>
+      </c>
       <c r="C133">
         <v>0.21440000000000001</v>
       </c>
@@ -10423,11 +10895,13 @@
         <v>0.84416000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
-      <c r="B134" s="1"/>
+      <c r="B134" s="1">
+        <v>1.1710400000000001</v>
+      </c>
       <c r="C134">
         <v>0.2127</v>
       </c>
@@ -10444,11 +10918,13 @@
         <v>0.83274000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>0.32943</v>
       </c>
-      <c r="B135" s="1"/>
+      <c r="B135" s="1">
+        <v>1.1704300000000001</v>
+      </c>
       <c r="C135">
         <v>0.20891000000000001</v>
       </c>
@@ -10465,11 +10941,13 @@
         <v>0.81962999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
-      <c r="B136" s="1"/>
+      <c r="B136" s="1">
+        <v>1.1698500000000001</v>
+      </c>
       <c r="C136">
         <v>0.20993999999999999</v>
       </c>
@@ -10486,11 +10964,13 @@
         <v>0.80949000000000004</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
-      <c r="B137" s="1"/>
+      <c r="B137" s="1">
+        <v>1.1692499999999999</v>
+      </c>
       <c r="C137">
         <v>0.20680999999999999</v>
       </c>
@@ -10507,11 +10987,13 @@
         <v>0.79984999999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>0.31</v>
       </c>
-      <c r="B138" s="1"/>
+      <c r="B138" s="1">
+        <v>1.16866</v>
+      </c>
       <c r="C138">
         <v>0.20876</v>
       </c>
@@ -10528,11 +11010,13 @@
         <v>0.79993000000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
-      <c r="B139" s="1"/>
+      <c r="B139" s="1">
+        <v>1.16805</v>
+      </c>
       <c r="C139">
         <v>0.20946999999999999</v>
       </c>
@@ -10549,11 +11033,13 @@
         <v>0.80113999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>0.30506</v>
       </c>
-      <c r="B140" s="1"/>
+      <c r="B140" s="1">
+        <v>1.16743</v>
+      </c>
       <c r="C140">
         <v>0.20457</v>
       </c>
@@ -10570,11 +11056,13 @@
         <v>0.79676000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
-      <c r="B141" s="1"/>
+      <c r="B141" s="1">
+        <v>1.1668000000000001</v>
+      </c>
       <c r="C141">
         <v>0.20099</v>
       </c>
@@ -10591,11 +11079,13 @@
         <v>0.79410999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
-      <c r="B142" s="1"/>
+      <c r="B142" s="1">
+        <v>1.1661600000000001</v>
+      </c>
       <c r="C142">
         <v>0.19449</v>
       </c>
@@ -10612,11 +11102,13 @@
         <v>0.78771999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>0.29479</v>
       </c>
-      <c r="B143" s="1"/>
+      <c r="B143" s="1">
+        <v>1.16551</v>
+      </c>
       <c r="C143">
         <v>0.19891</v>
       </c>
@@ -10633,11 +11125,13 @@
         <v>0.79752999999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
-      <c r="B144" s="1"/>
+      <c r="B144" s="1">
+        <v>1.1648400000000001</v>
+      </c>
       <c r="C144">
         <v>0.20014000000000001</v>
       </c>
@@ -10654,11 +11148,13 @@
         <v>0.79556000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
-      <c r="B145" s="1"/>
+      <c r="B145" s="1">
+        <v>1.1641600000000001</v>
+      </c>
       <c r="C145">
         <v>0.18437999999999999</v>
       </c>
@@ -10675,11 +11171,13 @@
         <v>0.79842999999999997</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
-      <c r="B146" s="1"/>
+      <c r="B146" s="1">
+        <v>1.1634599999999999</v>
+      </c>
       <c r="C146">
         <v>0.18107000000000001</v>
       </c>
@@ -10696,11 +11194,13 @@
         <v>0.81416999999999995</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>0.2722</v>
       </c>
-      <c r="B147" s="1"/>
+      <c r="B147" s="1">
+        <v>1.1627400000000001</v>
+      </c>
       <c r="C147">
         <v>0.17599000000000001</v>
       </c>
@@ -10717,11 +11217,13 @@
         <v>0.82487999999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
-      <c r="B148" s="1"/>
+      <c r="B148" s="1">
+        <v>1.1620299999999999</v>
+      </c>
       <c r="C148">
         <v>0.17827000000000001</v>
       </c>
@@ -10738,11 +11240,13 @@
         <v>0.82128999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
-      <c r="B149" s="1"/>
+      <c r="B149" s="1">
+        <v>1.1612899999999999</v>
+      </c>
       <c r="C149">
         <v>0.18465000000000001</v>
       </c>
@@ -10759,11 +11263,13 @@
         <v>0.81572999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
-      <c r="B150" s="1"/>
+      <c r="B150" s="1">
+        <v>1.1605000000000001</v>
+      </c>
       <c r="C150">
         <v>0.18501999999999999</v>
       </c>
@@ -10780,11 +11286,13 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
-      <c r="B151" s="1"/>
+      <c r="B151" s="1">
+        <v>1.1597</v>
+      </c>
       <c r="C151">
         <v>0.17671999999999999</v>
       </c>
@@ -10801,11 +11309,13 @@
         <v>0.79237999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
-      <c r="B152" s="1"/>
+      <c r="B152" s="1">
+        <v>1.1588799999999999</v>
+      </c>
       <c r="C152">
         <v>0.17186000000000001</v>
       </c>
@@ -10822,11 +11332,13 @@
         <v>0.78751000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>0.25683</v>
       </c>
-      <c r="B153" s="1"/>
+      <c r="B153" s="1">
+        <v>1.15802</v>
+      </c>
       <c r="C153">
         <v>0.16059999999999999</v>
       </c>
@@ -10843,11 +11355,13 @@
         <v>0.78115000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
-      <c r="B154" s="1"/>
+      <c r="B154" s="1">
+        <v>1.15713</v>
+      </c>
       <c r="C154">
         <v>0.16444</v>
       </c>
@@ -10864,11 +11378,13 @@
         <v>0.78827000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
-      <c r="B155" s="1"/>
+      <c r="B155" s="1">
+        <v>1.1562300000000001</v>
+      </c>
       <c r="C155">
         <v>0.16728999999999999</v>
       </c>
@@ -10885,11 +11401,13 @@
         <v>0.78649000000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
-      <c r="B156" s="1"/>
+      <c r="B156" s="1">
+        <v>1.1553199999999999</v>
+      </c>
       <c r="C156">
         <v>0.16388</v>
       </c>
@@ -10906,11 +11424,13 @@
         <v>0.78088999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>0.24456</v>
       </c>
-      <c r="B157" s="1"/>
+      <c r="B157" s="1">
+        <v>1.15439</v>
+      </c>
       <c r="C157">
         <v>0.16431000000000001</v>
       </c>
@@ -10927,11 +11447,13 @@
         <v>0.77698999999999996</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
-      <c r="B158" s="1"/>
+      <c r="B158" s="1">
+        <v>1.15341</v>
+      </c>
       <c r="C158">
         <v>0.16422999999999999</v>
       </c>
@@ -10948,11 +11470,13 @@
         <v>0.78622999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
-      <c r="B159" s="1"/>
+      <c r="B159" s="1">
+        <v>1.1525000000000001</v>
+      </c>
       <c r="C159">
         <v>0.18754999999999999</v>
       </c>
@@ -10969,11 +11493,13 @@
         <v>0.80396999999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>0.22721</v>
       </c>
-      <c r="B160" s="1"/>
+      <c r="B160" s="1">
+        <v>1.1515</v>
+      </c>
       <c r="C160">
         <v>0.16234000000000001</v>
       </c>
@@ -10990,11 +11516,13 @@
         <v>0.81691000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
-      <c r="B161" s="1"/>
+      <c r="B161" s="1">
+        <v>1.1505399999999999</v>
+      </c>
       <c r="C161">
         <v>0.15307000000000001</v>
       </c>
@@ -11011,11 +11539,13 @@
         <v>0.81113999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>0.21545</v>
       </c>
-      <c r="B162" s="1"/>
+      <c r="B162" s="1">
+        <v>1.14954</v>
+      </c>
       <c r="C162">
         <v>0.15681</v>
       </c>
@@ -11032,11 +11562,13 @@
         <v>0.79454999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>0.21892</v>
       </c>
-      <c r="B163" s="1"/>
+      <c r="B163" s="1">
+        <v>1.14859</v>
+      </c>
       <c r="C163">
         <v>0.15890000000000001</v>
       </c>
@@ -11053,11 +11585,13 @@
         <v>0.77942</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
-      <c r="B164" s="1"/>
+      <c r="B164" s="1">
+        <v>1.14764</v>
+      </c>
       <c r="C164">
         <v>0.14777999999999999</v>
       </c>
@@ -11074,11 +11608,13 @@
         <v>0.76549</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>0.22827</v>
       </c>
-      <c r="B165" s="1"/>
+      <c r="B165" s="1">
+        <v>1.14669</v>
+      </c>
       <c r="C165">
         <v>0.14760999999999999</v>
       </c>
@@ -11095,11 +11631,13 @@
         <v>0.75734999999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
-      <c r="B166" s="1"/>
+      <c r="B166" s="1">
+        <v>1.1457299999999999</v>
+      </c>
       <c r="C166">
         <v>0.13699</v>
       </c>
@@ -11116,11 +11654,13 @@
         <v>0.75366</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>0.21489</v>
       </c>
-      <c r="B167" s="1"/>
+      <c r="B167" s="1">
+        <v>1.1447799999999999</v>
+      </c>
       <c r="C167">
         <v>0.13624</v>
       </c>
@@ -11137,11 +11677,13 @@
         <v>0.75095999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
-      <c r="B168" s="1"/>
+      <c r="B168" s="1">
+        <v>1.14385</v>
+      </c>
       <c r="C168">
         <v>0.14498</v>
       </c>
@@ -11158,11 +11700,13 @@
         <v>0.74782000000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
-      <c r="B169" s="1"/>
+      <c r="B169" s="1">
+        <v>1.1429100000000001</v>
+      </c>
       <c r="C169">
         <v>0.15895000000000001</v>
       </c>
@@ -11179,11 +11723,13 @@
         <v>0.74883</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>0.20321</v>
       </c>
-      <c r="B170" s="1"/>
+      <c r="B170" s="1">
+        <v>1.14201</v>
+      </c>
       <c r="C170">
         <v>0.15376000000000001</v>
       </c>
@@ -11200,11 +11746,13 @@
         <v>0.73992999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>0.193</v>
       </c>
-      <c r="B171" s="1"/>
+      <c r="B171" s="1">
+        <v>1.1411</v>
+      </c>
       <c r="C171">
         <v>0.13858000000000001</v>
       </c>
@@ -11221,11 +11769,13 @@
         <v>0.73945000000000005</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
-      <c r="B172" s="1"/>
+      <c r="B172" s="1">
+        <v>1.1402099999999999</v>
+      </c>
       <c r="C172">
         <v>0.12934999999999999</v>
       </c>
@@ -11242,11 +11792,13 @@
         <v>0.73831000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>0.19649</v>
       </c>
-      <c r="B173" s="1"/>
+      <c r="B173" s="1">
+        <v>1.1393200000000001</v>
+      </c>
       <c r="C173">
         <v>0.11971</v>
       </c>
@@ -11263,11 +11815,13 @@
         <v>0.73860000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
-      <c r="B174" s="1"/>
+      <c r="B174" s="1">
+        <v>1.1384399999999999</v>
+      </c>
       <c r="C174">
         <v>0.15013000000000001</v>
       </c>
@@ -11284,11 +11838,13 @@
         <v>0.74448999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
-      <c r="B175" s="1"/>
+      <c r="B175" s="1">
+        <v>1.13757</v>
+      </c>
       <c r="C175">
         <v>0.14032</v>
       </c>
@@ -11305,11 +11861,13 @@
         <v>0.73782000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>0.18289</v>
       </c>
-      <c r="B176" s="1"/>
+      <c r="B176" s="1">
+        <v>1.13669</v>
+      </c>
       <c r="C176">
         <v>0.15142</v>
       </c>
@@ -11326,11 +11884,13 @@
         <v>0.74309999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>0.17509</v>
       </c>
-      <c r="B177" s="1"/>
+      <c r="B177" s="1">
+        <v>1.13584</v>
+      </c>
       <c r="C177">
         <v>0.14477000000000001</v>
       </c>
@@ -11347,11 +11907,13 @@
         <v>0.75180000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>0.16594</v>
       </c>
-      <c r="B178" s="1"/>
+      <c r="B178" s="1">
+        <v>1.13507</v>
+      </c>
       <c r="C178">
         <v>0.12167</v>
       </c>
@@ -11368,11 +11930,13 @@
         <v>0.78634999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>0.16971</v>
       </c>
-      <c r="B179" s="1"/>
+      <c r="B179" s="1">
+        <v>1.1342000000000001</v>
+      </c>
       <c r="C179">
         <v>0.11013000000000001</v>
       </c>
@@ -11389,11 +11953,13 @@
         <v>0.80135999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
-      <c r="B180" s="1"/>
+      <c r="B180" s="1">
+        <v>1.13341</v>
+      </c>
       <c r="C180">
         <v>0.11736000000000001</v>
       </c>
@@ -11410,11 +11976,13 @@
         <v>0.78881999999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
-      <c r="B181" s="1"/>
+      <c r="B181" s="1">
+        <v>1.1325700000000001</v>
+      </c>
       <c r="C181">
         <v>0.13522000000000001</v>
       </c>
@@ -11431,11 +11999,13 @@
         <v>0.77288000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>0.17637</v>
       </c>
-      <c r="B182" s="1"/>
+      <c r="B182" s="1">
+        <v>1.13178</v>
+      </c>
       <c r="C182">
         <v>0.12343999999999999</v>
       </c>
@@ -11452,11 +12022,13 @@
         <v>0.75773000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>0.16108</v>
       </c>
-      <c r="B183" s="1"/>
+      <c r="B183" s="1">
+        <v>1.1309499999999999</v>
+      </c>
       <c r="C183">
         <v>0.11525000000000001</v>
       </c>
@@ -11473,11 +12045,13 @@
         <v>0.74763000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
-      <c r="B184" s="1"/>
+      <c r="B184" s="1">
+        <v>1.13015</v>
+      </c>
       <c r="C184">
         <v>0.11007</v>
       </c>
@@ -11494,11 +12068,13 @@
         <v>0.73882999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
-      <c r="B185" s="1"/>
+      <c r="B185" s="1">
+        <v>1.1293599999999999</v>
+      </c>
       <c r="C185">
         <v>0.13111</v>
       </c>
@@ -11515,11 +12091,13 @@
         <v>0.73633999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
-      <c r="B186" s="1"/>
+      <c r="B186" s="1">
+        <v>1.1285799999999999</v>
+      </c>
       <c r="C186">
         <v>0.12187000000000001</v>
       </c>
@@ -11536,11 +12114,13 @@
         <v>0.73165000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
-      <c r="B187" s="1"/>
+      <c r="B187" s="1">
+        <v>1.12778</v>
+      </c>
       <c r="C187">
         <v>0.1099</v>
       </c>
@@ -11557,11 +12137,13 @@
         <v>0.73589000000000004</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
-      <c r="B188" s="1"/>
+      <c r="B188" s="1">
+        <v>1.1270100000000001</v>
+      </c>
       <c r="C188">
         <v>0.10435999999999999</v>
       </c>
@@ -11578,11 +12160,13 @@
         <v>0.72821999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
-      <c r="B189" s="1"/>
+      <c r="B189" s="1">
+        <v>1.12625</v>
+      </c>
       <c r="C189">
         <v>0.10741000000000001</v>
       </c>
@@ -11599,11 +12183,13 @@
         <v>0.73309000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
-      <c r="B190" s="1"/>
+      <c r="B190" s="1">
+        <v>1.12548</v>
+      </c>
       <c r="C190">
         <v>0.12886</v>
       </c>
@@ -11620,11 +12206,13 @@
         <v>0.72802</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
-      <c r="B191" s="1"/>
+      <c r="B191" s="1">
+        <v>1.1247400000000001</v>
+      </c>
       <c r="C191">
         <v>0.13349</v>
       </c>
@@ -11641,11 +12229,13 @@
         <v>0.72974000000000006</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>0.17412</v>
       </c>
-      <c r="B192" s="1"/>
+      <c r="B192" s="1">
+        <v>1.12399</v>
+      </c>
       <c r="C192">
         <v>0.11687</v>
       </c>
@@ -11662,11 +12252,13 @@
         <v>0.73209999999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
-      <c r="B193" s="1"/>
+      <c r="B193" s="1">
+        <v>1.1233</v>
+      </c>
       <c r="C193">
         <v>0.11276</v>
       </c>
@@ -11683,11 +12275,13 @@
         <v>0.75055000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>0.14726</v>
       </c>
-      <c r="B194" s="1"/>
+      <c r="B194" s="1">
+        <v>1.1225499999999999</v>
+      </c>
       <c r="C194">
         <v>0.14413000000000001</v>
       </c>
@@ -11704,11 +12298,13 @@
         <v>0.78698000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>0.14654</v>
       </c>
-      <c r="B195" s="1"/>
+      <c r="B195" s="1">
+        <v>1.12185</v>
+      </c>
       <c r="C195">
         <v>0.11169999999999999</v>
       </c>
@@ -11725,11 +12321,13 @@
         <v>0.77359</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
-      <c r="B196" s="1"/>
+      <c r="B196" s="1">
+        <v>1.12114</v>
+      </c>
       <c r="C196">
         <v>9.579E-2</v>
       </c>
@@ -11746,11 +12344,13 @@
         <v>0.75322</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
-      <c r="B197" s="1"/>
+      <c r="B197" s="1">
+        <v>1.12042</v>
+      </c>
       <c r="C197">
         <v>0.1139</v>
       </c>
@@ -11767,11 +12367,13 @@
         <v>0.73314000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
-      <c r="B198" s="1"/>
+      <c r="B198" s="1">
+        <v>1.11968</v>
+      </c>
       <c r="C198">
         <v>0.11994</v>
       </c>
@@ -11788,11 +12390,13 @@
         <v>0.71940999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
-      <c r="B199" s="1"/>
+      <c r="B199" s="1">
+        <v>1.119</v>
+      </c>
       <c r="C199">
         <v>0.12268</v>
       </c>
@@ -11809,11 +12413,13 @@
         <v>0.71026</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
-      <c r="B200" s="1"/>
+      <c r="B200" s="1">
+        <v>1.1182799999999999</v>
+      </c>
       <c r="C200">
         <v>0.10169</v>
       </c>
@@ -11830,11 +12436,13 @@
         <v>0.71031999999999995</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>0.13768</v>
       </c>
-      <c r="B201" s="1"/>
+      <c r="B201" s="1">
+        <v>1.11755</v>
+      </c>
       <c r="C201">
         <v>9.6369999999999997E-2</v>
       </c>
@@ -11851,11 +12459,13 @@
         <v>0.70660000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
-      <c r="B202" s="1"/>
+      <c r="B202" s="1">
+        <v>1.1167899999999999</v>
+      </c>
       <c r="C202">
         <v>9.8040000000000002E-2</v>
       </c>
@@ -11872,11 +12482,13 @@
         <v>0.70996999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>0.14656</v>
       </c>
-      <c r="B203" s="1"/>
+      <c r="B203" s="1">
+        <v>1.11609</v>
+      </c>
       <c r="C203">
         <v>0.11561</v>
       </c>
@@ -11893,11 +12505,13 @@
         <v>0.70370999999999995</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
-      <c r="B204" s="1"/>
+      <c r="B204" s="1">
+        <v>1.1152899999999999</v>
+      </c>
       <c r="C204">
         <v>0.10573</v>
       </c>
@@ -11914,11 +12528,13 @@
         <v>0.70409999999999995</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
-      <c r="B205" s="1"/>
+      <c r="B205" s="1">
+        <v>1.1145499999999999</v>
+      </c>
       <c r="C205">
         <v>0.14255999999999999</v>
       </c>
@@ -11935,11 +12551,13 @@
         <v>0.70086999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>0.12268</v>
       </c>
-      <c r="B206" s="1"/>
+      <c r="B206" s="1">
+        <v>1.11388</v>
+      </c>
       <c r="C206">
         <v>0.10829</v>
       </c>
@@ -11956,11 +12574,13 @@
         <v>0.70760999999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>0.12182</v>
       </c>
-      <c r="B207" s="1"/>
+      <c r="B207" s="1">
+        <v>1.11307</v>
+      </c>
       <c r="C207">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -11977,11 +12597,13 @@
         <v>0.71286000000000005</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>0.12303</v>
       </c>
-      <c r="B208" s="1"/>
+      <c r="B208" s="1">
+        <v>1.1123400000000001</v>
+      </c>
       <c r="C208">
         <v>8.0369999999999997E-2</v>
       </c>
@@ -11998,11 +12620,13 @@
         <v>0.70401000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>0.11706</v>
       </c>
-      <c r="B209" s="1"/>
+      <c r="B209" s="1">
+        <v>1.1115699999999999</v>
+      </c>
       <c r="C209">
         <v>7.7060000000000003E-2</v>
       </c>
@@ -12019,11 +12643,13 @@
         <v>0.70357999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>0.11583</v>
       </c>
-      <c r="B210" s="1"/>
+      <c r="B210" s="1">
+        <v>1.1107899999999999</v>
+      </c>
       <c r="C210">
         <v>0.10075000000000001</v>
       </c>
@@ -12040,11 +12666,13 @@
         <v>0.70657000000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
-      <c r="B211" s="1"/>
+      <c r="B211" s="1">
+        <v>1.1099699999999999</v>
+      </c>
       <c r="C211">
         <v>0.14574999999999999</v>
       </c>
@@ -12061,11 +12689,13 @@
         <v>0.71133000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
-      <c r="B212" s="1"/>
+      <c r="B212" s="1">
+        <v>1.10917</v>
+      </c>
       <c r="C212">
         <v>0.10495</v>
       </c>
@@ -12082,11 +12712,13 @@
         <v>0.72902</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
-      <c r="B213" s="1"/>
+      <c r="B213" s="1">
+        <v>1.10823</v>
+      </c>
       <c r="C213">
         <v>7.8320000000000001E-2</v>
       </c>
@@ -12103,11 +12735,13 @@
         <v>0.74695999999999996</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
-      <c r="B214" s="1"/>
+      <c r="B214" s="1">
+        <v>1.1073200000000001</v>
+      </c>
       <c r="C214">
         <v>7.1260000000000004E-2</v>
       </c>
@@ -12124,11 +12758,13 @@
         <v>0.75007999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
-      <c r="B215" s="1"/>
+      <c r="B215" s="1">
+        <v>1.1064499999999999</v>
+      </c>
       <c r="C215">
         <v>9.6159999999999995E-2</v>
       </c>
@@ -12145,11 +12781,13 @@
         <v>0.73807</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>0.11314</v>
       </c>
-      <c r="B216" s="1"/>
+      <c r="B216" s="1">
+        <v>1.1054299999999999</v>
+      </c>
       <c r="C216">
         <v>0.13653000000000001</v>
       </c>
@@ -12166,11 +12804,13 @@
         <v>0.71233999999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
-      <c r="B217" s="1"/>
+      <c r="B217" s="1">
+        <v>1.1043700000000001</v>
+      </c>
       <c r="C217">
         <v>0.10451000000000001</v>
       </c>
@@ -12187,11 +12827,13 @@
         <v>0.69760999999999995</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>0.13441</v>
       </c>
-      <c r="B218" s="1"/>
+      <c r="B218" s="1">
+        <v>1.1033900000000001</v>
+      </c>
       <c r="C218">
         <v>8.4650000000000003E-2</v>
       </c>
@@ -12208,11 +12850,13 @@
         <v>0.69294999999999995</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>0.11197</v>
       </c>
-      <c r="B219" s="1"/>
+      <c r="B219" s="1">
+        <v>1.10219</v>
+      </c>
       <c r="C219">
         <v>8.6120000000000002E-2</v>
       </c>
@@ -12229,11 +12873,13 @@
         <v>0.69530999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>0.11214</v>
       </c>
-      <c r="B220" s="1"/>
+      <c r="B220" s="1">
+        <v>1.1009899999999999</v>
+      </c>
       <c r="C220">
         <v>8.677E-2</v>
       </c>
@@ -12250,11 +12896,13 @@
         <v>0.68459000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>0.10238</v>
       </c>
-      <c r="B221" s="1"/>
+      <c r="B221" s="1">
+        <v>1.0997399999999999</v>
+      </c>
       <c r="C221">
         <v>0.10234</v>
       </c>
@@ -12271,11 +12919,13 @@
         <v>0.68754000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
-      <c r="B222" s="1"/>
+      <c r="B222" s="1">
+        <v>1.0984799999999999</v>
+      </c>
       <c r="C222">
         <v>0.10056</v>
       </c>
@@ -12292,11 +12942,13 @@
         <v>0.68622000000000005</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="B223" s="1"/>
+      <c r="B223" s="1">
+        <v>1.09711</v>
+      </c>
       <c r="C223">
         <v>9.2979999999999993E-2</v>
       </c>
@@ -12313,11 +12965,13 @@
         <v>0.68147000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>0.10054</v>
       </c>
-      <c r="B224" s="1"/>
+      <c r="B224" s="1">
+        <v>1.0958000000000001</v>
+      </c>
       <c r="C224">
         <v>8.7760000000000005E-2</v>
       </c>
@@ -12334,11 +12988,13 @@
         <v>0.66976000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>0.10248</v>
       </c>
-      <c r="B225" s="1"/>
+      <c r="B225" s="1">
+        <v>1.0943700000000001</v>
+      </c>
       <c r="C225">
         <v>8.2839999999999997E-2</v>
       </c>
@@ -12355,11 +13011,13 @@
         <v>0.67376000000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>0.10149</v>
       </c>
-      <c r="B226" s="1"/>
+      <c r="B226" s="1">
+        <v>1.093</v>
+      </c>
       <c r="C226">
         <v>7.3870000000000005E-2</v>
       </c>
@@ -12376,11 +13034,13 @@
         <v>0.68093999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>0.10385</v>
       </c>
-      <c r="B227" s="1"/>
+      <c r="B227" s="1">
+        <v>1.09169</v>
+      </c>
       <c r="C227">
         <v>7.0730000000000001E-2</v>
       </c>
@@ -12397,11 +13057,13 @@
         <v>0.66654999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>0.10721</v>
       </c>
-      <c r="B228" s="1"/>
+      <c r="B228" s="1">
+        <v>1.0903</v>
+      </c>
       <c r="C228">
         <v>7.8960000000000002E-2</v>
       </c>
@@ -12418,11 +13080,13 @@
         <v>0.66503999999999996</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>0.10183</v>
       </c>
-      <c r="B229" s="1"/>
+      <c r="B229" s="1">
+        <v>1.08894</v>
+      </c>
       <c r="C229">
         <v>0.10442</v>
       </c>
@@ -12439,11 +13103,13 @@
         <v>0.67837000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
-      <c r="B230" s="1"/>
+      <c r="B230" s="1">
+        <v>1.0875699999999999</v>
+      </c>
       <c r="C230">
         <v>9.9669999999999995E-2</v>
       </c>
@@ -12460,11 +13126,13 @@
         <v>0.67551000000000005</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
-      <c r="B231" s="1"/>
+      <c r="B231" s="1">
+        <v>1.0862499999999999</v>
+      </c>
       <c r="C231">
         <v>7.8950000000000006E-2</v>
       </c>
@@ -12481,11 +13149,13 @@
         <v>0.67139000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
-      <c r="B232" s="1"/>
+      <c r="B232" s="1">
+        <v>1.0849500000000001</v>
+      </c>
       <c r="C232">
         <v>8.4140000000000006E-2</v>
       </c>
@@ -12502,11 +13172,13 @@
         <v>0.66718999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
-      <c r="B233" s="1"/>
+      <c r="B233" s="1">
+        <v>1.08365</v>
+      </c>
       <c r="C233">
         <v>7.8020000000000006E-2</v>
       </c>
@@ -12523,11 +13195,13 @@
         <v>0.67025000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
-      <c r="B234" s="1"/>
+      <c r="B234" s="1">
+        <v>1.0823100000000001</v>
+      </c>
       <c r="C234">
         <v>7.1620000000000003E-2</v>
       </c>
@@ -12544,11 +13218,13 @@
         <v>0.67418999999999996</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
-      <c r="B235" s="1"/>
+      <c r="B235" s="1">
+        <v>1.081</v>
+      </c>
       <c r="C235">
         <v>7.5060000000000002E-2</v>
       </c>
@@ -12565,11 +13241,13 @@
         <v>0.68684999999999996</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>0.11858</v>
       </c>
-      <c r="B236" s="1"/>
+      <c r="B236" s="1">
+        <v>1.0796699999999999</v>
+      </c>
       <c r="C236">
         <v>0.10357</v>
       </c>
@@ -12586,11 +13264,13 @@
         <v>0.70298000000000005</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
-      <c r="B237" s="1"/>
+      <c r="B237" s="1">
+        <v>1.0783499999999999</v>
+      </c>
       <c r="C237">
         <v>9.1679999999999998E-2</v>
       </c>
@@ -12607,11 +13287,13 @@
         <v>0.73690999999999995</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="B238" s="1"/>
+      <c r="B238" s="1">
+        <v>1.07708</v>
+      </c>
       <c r="C238">
         <v>7.6119999999999993E-2</v>
       </c>
@@ -12628,11 +13310,13 @@
         <v>0.73109999999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
-      <c r="B239" s="1"/>
+      <c r="B239" s="1">
+        <v>1.07575</v>
+      </c>
       <c r="C239">
         <v>7.9729999999999995E-2</v>
       </c>
@@ -12649,11 +13333,13 @@
         <v>0.70372999999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
-      <c r="B240" s="1"/>
+      <c r="B240" s="1">
+        <v>1.0744100000000001</v>
+      </c>
       <c r="C240">
         <v>8.3049999999999999E-2</v>
       </c>
@@ -12670,11 +13356,13 @@
         <v>0.67754999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>0.1134</v>
       </c>
-      <c r="B241" s="1"/>
+      <c r="B241" s="1">
+        <v>1.0730599999999999</v>
+      </c>
       <c r="C241">
         <v>0.11194999999999999</v>
       </c>
@@ -12691,11 +13379,13 @@
         <v>0.65913999999999995</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
-      <c r="B242" s="1"/>
+      <c r="B242" s="1">
+        <v>1.0717000000000001</v>
+      </c>
       <c r="C242">
         <v>8.8959999999999997E-2</v>
       </c>
@@ -12712,11 +13402,13 @@
         <v>0.65425999999999995</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
-      <c r="B243" s="1"/>
+      <c r="B243" s="1">
+        <v>1.0703199999999999</v>
+      </c>
       <c r="C243">
         <v>8.6849999999999997E-2</v>
       </c>
@@ -12733,11 +13425,13 @@
         <v>0.65612000000000004</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
-      <c r="B244" s="1"/>
+      <c r="B244" s="1">
+        <v>1.0689200000000001</v>
+      </c>
       <c r="C244">
         <v>7.2120000000000004E-2</v>
       </c>
@@ -12754,11 +13448,13 @@
         <v>0.66015999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
-      <c r="B245" s="1"/>
+      <c r="B245" s="1">
+        <v>1.0675399999999999</v>
+      </c>
       <c r="C245">
         <v>7.9570000000000002E-2</v>
       </c>
@@ -12775,11 +13471,13 @@
         <v>0.66012000000000004</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
-      <c r="B246" s="1"/>
+      <c r="B246" s="1">
+        <v>1.06612</v>
+      </c>
       <c r="C246">
         <v>7.757E-2</v>
       </c>
@@ -12796,11 +13494,13 @@
         <v>0.65134000000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>0.10452</v>
       </c>
-      <c r="B247" s="1"/>
+      <c r="B247" s="1">
+        <v>1.06473</v>
+      </c>
       <c r="C247">
         <v>0.10059999999999999</v>
       </c>
@@ -12817,11 +13517,13 @@
         <v>0.64149</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
-      <c r="B248" s="1"/>
+      <c r="B248" s="1">
+        <v>1.06335</v>
+      </c>
       <c r="C248">
         <v>9.2369999999999994E-2</v>
       </c>
@@ -12838,11 +13540,13 @@
         <v>0.64356000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
-      <c r="B249" s="1"/>
+      <c r="B249" s="1">
+        <v>1.0619799999999999</v>
+      </c>
       <c r="C249">
         <v>9.4359999999999999E-2</v>
       </c>
@@ -12859,11 +13563,13 @@
         <v>0.64159999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
-      <c r="B250" s="1"/>
+      <c r="B250" s="1">
+        <v>1.0606</v>
+      </c>
       <c r="C250">
         <v>9.9030000000000007E-2</v>
       </c>
@@ -12880,11 +13586,13 @@
         <v>0.63892000000000004</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
-      <c r="B251" s="1"/>
+      <c r="B251" s="1">
+        <v>1.0592200000000001</v>
+      </c>
       <c r="C251">
         <v>8.2269999999999996E-2</v>
       </c>
@@ -12901,11 +13609,13 @@
         <v>0.64859999999999995</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
-      <c r="B252" s="1"/>
+      <c r="B252" s="1">
+        <v>1.05785</v>
+      </c>
       <c r="C252">
         <v>6.6089999999999996E-2</v>
       </c>
@@ -12922,11 +13632,13 @@
         <v>0.64698</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
-      <c r="B253" s="1"/>
+      <c r="B253" s="1">
+        <v>1.0564899999999999</v>
+      </c>
       <c r="C253">
         <v>5.7489999999999999E-2</v>
       </c>
@@ -12943,11 +13655,13 @@
         <v>0.64588999999999996</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
-      <c r="B254" s="1"/>
+      <c r="B254" s="1">
+        <v>1.0550999999999999</v>
+      </c>
       <c r="C254">
         <v>5.8799999999999998E-2</v>
       </c>
@@ -12964,11 +13678,13 @@
         <v>0.65403</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
-      <c r="B255" s="1"/>
+      <c r="B255" s="1">
+        <v>1.0537300000000001</v>
+      </c>
       <c r="C255">
         <v>9.5210000000000003E-2</v>
       </c>
@@ -12985,11 +13701,13 @@
         <v>0.67178000000000004</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
-      <c r="B256" s="1"/>
+      <c r="B256" s="1">
+        <v>1.0523800000000001</v>
+      </c>
       <c r="C256">
         <v>0.10203</v>
       </c>
@@ -13006,11 +13724,13 @@
         <v>0.69860999999999995</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
-      <c r="B257" s="1"/>
+      <c r="B257" s="1">
+        <v>1.0509599999999999</v>
+      </c>
       <c r="C257">
         <v>7.0499999999999993E-2</v>
       </c>
@@ -13027,1297 +13747,1297 @@
         <v>0.69111</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273">
         <v>7.6480000000000006E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274">
         <v>7.5179999999999997E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275">
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276">
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277">
         <v>6.071E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279">
         <v>6.2780000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280">
         <v>6.4979999999999996E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281">
         <v>0.10792</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282">
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284">
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285">
         <v>6.293E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286">
         <v>7.7579999999999996E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287">
         <v>9.8110000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288">
         <v>7.6689999999999994E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290">
         <v>5.3370000000000001E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291">
         <v>5.1860000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292">
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293">
         <v>8.2559999999999995E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294">
         <v>6.837E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295">
         <v>6.5949999999999995E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296">
         <v>6.1510000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297">
         <v>0.10789</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298">
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300">
         <v>6.3140000000000002E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301">
         <v>5.6579999999999998E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302">
         <v>5.2389999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304">
         <v>5.1450000000000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306">
         <v>6.479E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307">
         <v>9.6180000000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308">
         <v>9.4920000000000004E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309">
         <v>6.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310">
         <v>5.9479999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311">
         <v>5.4510000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312">
         <v>5.1979999999999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313">
         <v>7.6670000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314">
         <v>5.9240000000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315">
         <v>5.8049999999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316">
         <v>5.0360000000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317">
         <v>6.3320000000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318">
         <v>8.1710000000000005E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319">
         <v>5.9950000000000003E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320">
         <v>4.9979999999999997E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321">
         <v>4.7169999999999997E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322">
         <v>4.8779999999999997E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323">
         <v>5.7770000000000002E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324">
         <v>9.8250000000000004E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325">
         <v>8.5629999999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326">
         <v>6.6720000000000002E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327">
         <v>5.4260000000000003E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329">
         <v>6.3339999999999994E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330">
         <v>5.6610000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331">
         <v>5.3510000000000002E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333">
         <v>4.299E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335">
         <v>4.514E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336">
         <v>5.0110000000000002E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337">
         <v>6.7330000000000001E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338">
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339">
         <v>6.5509999999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340">
         <v>5.4379999999999998E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341">
         <v>4.718E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342">
         <v>4.3270000000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343">
         <v>4.1439999999999998E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344">
         <v>4.1779999999999998E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345">
         <v>4.3880000000000002E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346">
         <v>4.632E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347">
         <v>5.0509999999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348">
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349">
         <v>7.979E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350">
         <v>5.9249999999999997E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351">
         <v>5.4719999999999998E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352">
         <v>6.4049999999999996E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353">
         <v>5.3150000000000003E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354">
         <v>4.6440000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355">
         <v>4.2340000000000003E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356">
         <v>4.0939999999999997E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357">
         <v>4.1410000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358">
         <v>4.3040000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359">
         <v>0.11991</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360">
         <v>8.2909999999999998E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361">
         <v>5.2209999999999999E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362">
         <v>4.428E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363">
         <v>4.054E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365">
         <v>3.8080000000000003E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366">
         <v>3.9030000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367">
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368">
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369">
         <v>6.9519999999999998E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370">
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371">
         <v>4.7539999999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372">
         <v>4.3720000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373">
         <v>4.2119999999999998E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376">
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377">
         <v>0.12336</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378">
         <v>6.5350000000000005E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379">
         <v>4.7890000000000002E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380">
         <v>4.1860000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381">
         <v>4.2659999999999997E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382">
         <v>4.4089999999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383">
         <v>3.934E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384">
         <v>3.7409999999999999E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385">
         <v>3.6589999999999998E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386">
         <v>3.8170000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387">
         <v>4.3180000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388">
         <v>0.12934999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389">
         <v>6.5110000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390">
         <v>5.1470000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391">
         <v>4.5769999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392">
         <v>4.1110000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394">
         <v>4.7570000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395">
         <v>7.5480000000000005E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396">
         <v>6.3519999999999993E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397">
         <v>6.275E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398">
         <v>4.8570000000000002E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399">
         <v>0.04</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400">
         <v>3.594E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401">
         <v>3.4470000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402">
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403">
         <v>3.6580000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404">
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405">
         <v>5.042E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406">
         <v>6.8080000000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408">
         <v>6.4339999999999994E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409">
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410">
         <v>5.8790000000000002E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411">
         <v>4.5330000000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412">
         <v>3.9370000000000002E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413">
         <v>3.6830000000000002E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415">
         <v>3.8690000000000002E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416">
         <v>4.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418">
         <v>4.0340000000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419">
         <v>5.0310000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420">
         <v>8.4580000000000002E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421">
         <v>5.781E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422">
         <v>4.7840000000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423">
         <v>4.5089999999999998E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424">
         <v>3.8370000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425">
         <v>3.526E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426">
         <v>3.4130000000000001E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427">
         <v>3.4439999999999998E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428">
         <v>3.5409999999999997E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429">
         <v>3.9489999999999997E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430">
         <v>5.5320000000000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431">
         <v>7.8359999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432">
         <v>4.6640000000000001E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435">
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436">
         <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437">
         <v>3.4119999999999998E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438">
         <v>0.14990999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439">
         <v>6.216E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440">
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441">
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442">
         <v>3.5180000000000003E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443">
         <v>3.3279999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444">
         <v>3.168E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445">
         <v>3.1419999999999997E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446">
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447">
         <v>3.7220000000000003E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448">
         <v>5.2019999999999997E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449">
         <v>7.4300000000000005E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450">
         <v>5.008E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451">
         <v>4.0189999999999997E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452">
         <v>3.542E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454">
         <v>3.3239999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455">
         <v>4.5440000000000001E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456">
         <v>8.5529999999999995E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457">
         <v>4.4650000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458">
         <v>3.7850000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459">
         <v>3.508E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460">
         <v>3.6859999999999997E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461">
         <v>4.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462">
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463">
         <v>4.0529999999999997E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464">
         <v>3.4009999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465">
         <v>3.2439999999999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466">
         <v>3.2480000000000002E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467">
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468">
         <v>3.6409999999999998E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469">
         <v>6.7019999999999996E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470">
         <v>8.3449999999999996E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471">
         <v>5.5449999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472">
         <v>4.2090000000000002E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473">
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474">
         <v>3.9280000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475">
         <v>3.4139999999999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476">
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477">
         <v>3.143E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478">
         <v>5.0040000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479">
         <v>4.5080000000000002E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480">
         <v>5.0770000000000003E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1">
       <c r="A482">
         <v>3.6769999999999997E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1">
       <c r="A483">
         <v>3.3360000000000001E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1">
       <c r="A484">
         <v>3.2590000000000001E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1">
       <c r="A485">
         <v>3.848E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1">
       <c r="A486">
         <v>4.9820000000000003E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1">
       <c r="A487">
         <v>5.373E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1">
       <c r="A488">
         <v>4.0419999999999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1">
       <c r="A489">
         <v>3.5040000000000002E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1">
       <c r="A490">
         <v>3.4070000000000003E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1">
       <c r="A491">
         <v>3.3689999999999998E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1">
       <c r="A492">
         <v>3.2939999999999997E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1">
       <c r="A493">
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1">
       <c r="A494">
         <v>4.0320000000000002E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1">
       <c r="A495">
         <v>6.2920000000000004E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1">
       <c r="A496">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1">
       <c r="A497">
         <v>3.5139999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1">
       <c r="A498">
         <v>3.3579999999999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1">
       <c r="A499">
         <v>3.9559999999999998E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1">
       <c r="A500">
         <v>5.2109999999999997E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1">
       <c r="A501">
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1">
       <c r="A502">
         <v>4.4010000000000001E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1">
       <c r="A503">
         <v>3.9809999999999998E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1">
       <c r="A504">
         <v>3.4250000000000003E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1">
       <c r="A505">
         <v>3.0530000000000002E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1">
       <c r="A506">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1">
       <c r="A507">
         <v>2.8819999999999998E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1">
       <c r="A508">
         <v>3.1210000000000002E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1">
       <c r="A509">
         <v>3.4279999999999998E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1">
       <c r="A510">
         <v>4.0759999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1">
       <c r="A511">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1">
       <c r="A512">
         <v>7.0860000000000006E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1">
       <c r="A513">
         <v>4.3569999999999998E-2</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DA36F3-A994-464D-97A5-6815D65D38F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CE490A-44CF-4FD5-BA19-93525BCBE52C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7519,16 +7519,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7821,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFAEED5-5395-4DD6-8210-1C6CE88450B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF15A266-C8E1-4686-BAFA-1C4102110A87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ConvergePatternOfNN" sheetId="1" r:id="rId1"/>
+    <sheet name="LearningRateScheduler" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +56,14 @@
   </si>
   <si>
     <t>NN041502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +212,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>ConvergePatternOfNN!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -226,7 +235,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$257</c:f>
+              <c:f>ConvergePatternOfNN!$B$2:$B$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -1013,7 +1022,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>ConvergePatternOfNN!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1036,7 +1045,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$257</c:f>
+              <c:f>ConvergePatternOfNN!$C$2:$C$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -1823,7 +1832,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>ConvergePatternOfNN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1846,7 +1855,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$257</c:f>
+              <c:f>ConvergePatternOfNN!$D$2:$D$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -2633,7 +2642,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>ConvergePatternOfNN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2656,7 +2665,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$257</c:f>
+              <c:f>ConvergePatternOfNN!$E$2:$E$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -3443,7 +3452,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>ConvergePatternOfNN!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3466,7 +3475,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$257</c:f>
+              <c:f>ConvergePatternOfNN!$F$2:$F$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -4253,7 +4262,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>ConvergePatternOfNN!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4276,7 +4285,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$257</c:f>
+              <c:f>ConvergePatternOfNN!$G$2:$G$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -5063,7 +5072,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>ConvergePatternOfNN!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5088,7 +5097,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$257</c:f>
+              <c:f>ConvergePatternOfNN!$H$2:$H$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -6195,6 +6204,2009 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PolynomialLRDecay</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LearningRateScheduler!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LearningRateScheduler!$A$2:$A$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>9.9228073120117104E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9228073120117104E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8459167480468707E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7693283081054603E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6930419921875E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6170578002929604E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5413757324218692E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4659957885742194E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3909179687500007E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3161422729492096E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2416687011718703E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1674972534179604E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0936279296875006E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0200607299804596E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9467956542968706E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8738327026367195E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8011718749999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.7288131713867192E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.65675659179687E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.5850021362304692E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5135498046874994E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4423995971679693E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3715515136718703E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3010055541992093E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2307617187500001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1608200073242099E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.0911804199218697E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0218429565429693E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.9528076171875E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.88407440185546E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.8156433105468701E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7475143432617199E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6796874999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6121627807617196E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.5449401855468704E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.47801971435546E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4114013671874998E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3450851440429697E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.2790710449218698E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.2133590698242097E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1479492187499997E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.0828414916992198E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.0180358886718702E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.9535324096679698E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.8893310546874996E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.82543182373047E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.7618347167968697E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.69853973388671E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.6355468750000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.5728561401367097E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.51046752929687E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.4483810424804597E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.3865966796875003E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.3251144409179599E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.2639343261718704E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.2030563354492198E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.1424804687500003E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.0822067260742196E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.0222351074218699E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.96256561279296E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9031982421875002E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.8441329956054697E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.7853698730468703E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.7269088745117097E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.6687500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.6108932495117104E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.5533386230468698E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.4960861206054604E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.4391357421875001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.3824874877929597E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.3261413574218703E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.2700973510742197E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.2143554687500001E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.1589157104492099E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.1037780761718698E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0489425659179599E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.9944091796875001E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.9401779174804697E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.8862487792968702E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.8326217651367097E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.7792968750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.7262741088867103E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.6735534667968698E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.6211349487304603E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.5690185546875001E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.5172042846679597E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.4656921386718703E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.4144821166992197E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3635742187500002E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.3129684448242099E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.2626647949218699E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.21266326904296E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.1629638671875002E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.1135665893554697E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0644714355468703E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0156784057617098E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.9671875000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.9189987182617096E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.8711120605468699E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.82352752685546E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.7762451171874998E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.7292648315429599E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.68258666992187E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.6362106323242099E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.5901367187499999E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.5443649291992101E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.4988952636718701E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.4537277221679602E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.4088623046875E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.36429901123046E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.3200378417968701E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.27607879638671E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.2324218750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.1890670776367099E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.1460144042968702E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.1032638549804599E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.0608154296875001E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.0186691284179602E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.9768249511718699E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.9352828979492102E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.8940429687499998E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.85310516357421E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.81246948242187E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.7721359252929601E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.7321044921874999E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.6923751831054599E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.6529479980468701E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.61382293701171E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.575E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.5364791870117098E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.4982604980468702E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.4603439331054599E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.4227294921875002E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.3854171752929602E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.3484069824218699E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.3116989135742098E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.2752929687499999E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.2391891479492101E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.2033874511718701E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.1678878784179602E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.1326904296875E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.09779510498046E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.0632019042968702E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.0289108276367101E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.9949218750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.96123504638671E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.9278503417968699E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.8947677612304601E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.8619873046874999E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.8295089721679599E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.7973327636718701E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.76545867919921E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.7338867187500001E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.7026168823242099E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.6716491699218701E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.64098358154296E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.6106201171875E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.5805587768554601E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.55079956054687E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.52134246826171E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.4921875E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.4633346557617101E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.43478393554687E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.40653533935546E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.3785888671875E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.3509445190429601E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.32360229492187E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.29656219482421E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.26982421875E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.2433883666992101E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.21725463867187E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.19142303466796E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.1658935546875E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.1406661987304601E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.11574096679687E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.09111785888671E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.066796875E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.0427780151367101E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.0190612792968701E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.9564666748046802E-4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.7253417968749996E-4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.4972381591796804E-4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.2721557617187497E-4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.0500946044921795E-4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8.8310546874999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.6150360107421797E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8.4020385742187502E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.1920623779296799E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.9851074218750004E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.7811737060546802E-4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.5802612304687496E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.3823699951171805E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.1874999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.9956512451171797E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.8068237304687502E-4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.62101745605468E-4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6.4382324218750005E-4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6.2584686279296804E-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6.0817260742187498E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.9080047607421797E-4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5.7373046875000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.5696258544921801E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.4049682617187495E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5.2433319091796805E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5.084716796875E-4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.9291229248046799E-4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.7765502929687499E-4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.6269989013671798E-4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.4804687499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.3369598388671798E-4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.1964721679687498E-4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.0590057373046797E-4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3.9245605468749998E-4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.7931365966796797E-4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.6647338867187498E-4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.5393524169921798E-4</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.4169921874999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.2976531982421798E-4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.18133544921875E-4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.0680389404296799E-4</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.9577636718750001E-4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.85050964355468E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.7462768554687502E-4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.6450653076171801E-4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.5468749999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.4517059326171798E-4</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.3595581054687499E-4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.2704315185546799E-4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.1843261718750001E-4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.1012420654296799E-4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.0211791992187501E-4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.9441375732421801E-4</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.8701171875E-4</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.7991180419921801E-4</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.73114013671875E-4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.6661834716796801E-4</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.604248046875E-4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.5453338623046801E-4</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.4894409179687501E-4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.4365692138671799E-4</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.3867187499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.33988952636718E-4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.29608154296875E-4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.2552947998046801E-4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.2175292968749999E-4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.1827850341796801E-4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.1510620117187499E-4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.1223602294921799E-4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.0966796875E-4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.07402038574218E-4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.05438232421875E-4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.03776550292968E-4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.024169921875E-4</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.01359558105468E-4</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.0060424804687501E-4</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.00151062011718E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99AA-4CD9-B92D-88D585553266}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LearningRateScheduler!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LearningRateScheduler!$B$2:$B$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>9.9613281250000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9613281250000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9226562500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.883984375E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8453124999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8066406249999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7679687499999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7292968749999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6906249999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6519531249999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6132812499999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5746093749999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5359374999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4972656249999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4585937500000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4199218750000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3812500000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3425781250000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.3039062500000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2652343750000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2265625000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1878906250000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1492187500000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1105468750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0718750000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.033203125E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9945312499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9558593749999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.9171874999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.8785156249999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8398437499999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.8011718749999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.7624999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.7238281249999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.6851562499999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.6464843749999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6078124999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.5691406250000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.5304687500000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.4917968750000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.4531250000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.4144531250000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.3757812500000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.3371093750000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.2984375000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.2597656250000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.2210937500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.182421875E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.1437499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1050781249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.0664062499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.0277343749999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.9890624999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.9503906249999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.9117187499999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.8730468749999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.8343749999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.7957031250000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.75703125E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.718359375E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.6796874999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.6410156249999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.6023437499999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.5636718749999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5249999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.4863281250000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.4476562500000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.4089843750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.3703125000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.331640625E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.29296875E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.2542968749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2156249999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.1769531249999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.1382812499999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.0996093749999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.0609375000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.0222656250000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.9835937500000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.9449218750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.9062500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.867578125E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.8289062499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.7902343749999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.7515624999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.7128906249999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.6742187499999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.6355468750000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.5968750000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.5582031250000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.5195312500000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.4808593750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.4421875E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.4035156249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.3648437499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.3261718749999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.2874999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.2488281249999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.2101562500000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1714843750000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.1328125000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.0941406250000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.0554687500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.016796875E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.9781249999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.9394531249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.9007812499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.8621093749999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.8234374999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.7847656250000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.7460937500000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.7074218750000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.6687500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.6300781250000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.59140625E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.5527343749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.5140624999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.4753906249999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.4367187499999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.3980468749999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.3593750000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.3207031250000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.2820312500000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.2433593750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.2046875000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.166015625E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.12734375E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0886718749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.0113281249999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.9726562499999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.9339843749999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.8953125000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.8566406250000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.8179687500000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.7792968750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.740625E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.701953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.6632812499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.6246093749999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.5859374999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.5472656249999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.5085937499999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.4699218750000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.4312500000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.3925781250000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.3539062500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.3152343750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.2765625E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.2378906249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.1992187499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.1605468749999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.1218749999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.0832031249999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.0445312500000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.0058593750000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.9671875000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.9285156250000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.8898437500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.851171875E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.8124999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.7738281249999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.7351562500000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.6964843750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.6578125E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.619140625E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.5804687499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.5417968749999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.5031250000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.4644531250000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.42578125E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.3871093749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.3484374999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.3097656250000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.2710937500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.2324218750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.19375E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.1550781249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.1164062499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.0777343750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.0390625000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.000390625E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.9617187499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.9230468749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.8843749999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.8457031250000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.8070312500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.768359375E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.7296874999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.6910156249999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.6523437500000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.6136718750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.575E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.536328125E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.4976562499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.4589843749999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.4203125000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.3816406250000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.34296875E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.3042968749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.2656249999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.2269531250000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.1882812500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.149609375E-3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.1109375E-3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.0722656249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.0335937499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.9949218750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.9562500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.917578125E-3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.8789062499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.8402343750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.8015625E-3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.7628906249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.7242187500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.685546875E-3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.6468749999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.608203125E-3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.56953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.5308593750000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.4921875E-3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.4535156249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.4148437500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.376171875E-3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.3374999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.2988281250000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.26015625E-3</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.2214843749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.1828125000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.144140625E-3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.1054687499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.066796875E-3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.028125E-3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9.894531250000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>9.5078125000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>9.1210937500000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>8.7343749999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>8.34765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>7.9609375000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7.5742187499999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7.1874999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>6.8007812500000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6.4140625000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>6.0273437499999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>5.640625E-4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>5.2539062500000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.8671875000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4.4804687499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.0937500000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.7070312499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3.3203125000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.93359375E-4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.5468749999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.1601562500000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.7734375000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.3867187499999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99AA-4CD9-B92D-88D585553266}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="335908895"/>
+        <c:axId val="2133561007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="335908895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Number of epochs</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133561007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2133561007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Learning Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335908895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6235,7 +8247,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6792,6 +9360,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF729B9-18D5-4B4A-B2C3-193047254AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7057,7 +9666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -15056,4 +17665,2077 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D35BB-E572-41C3-9409-E11A3769A3F0}">
+  <dimension ref="A1:B257"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A241" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>9.9228073120117104E-3</v>
+      </c>
+      <c r="B2">
+        <v>9.9613281250000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9.9228073120117104E-3</v>
+      </c>
+      <c r="B3">
+        <v>9.9613281250000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.8459167480468707E-3</v>
+      </c>
+      <c r="B4">
+        <v>9.9226562500000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.7693283081054603E-3</v>
+      </c>
+      <c r="B5">
+        <v>9.883984375E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9.6930419921875E-3</v>
+      </c>
+      <c r="B6">
+        <v>9.8453124999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9.6170578002929604E-3</v>
+      </c>
+      <c r="B7">
+        <v>9.8066406249999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9.5413757324218692E-3</v>
+      </c>
+      <c r="B8">
+        <v>9.7679687499999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9.4659957885742194E-3</v>
+      </c>
+      <c r="B9">
+        <v>9.7292968749999997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9.3909179687500007E-3</v>
+      </c>
+      <c r="B10">
+        <v>9.6906249999999996E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9.3161422729492096E-3</v>
+      </c>
+      <c r="B11">
+        <v>9.6519531249999995E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9.2416687011718703E-3</v>
+      </c>
+      <c r="B12">
+        <v>9.6132812499999994E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9.1674972534179604E-3</v>
+      </c>
+      <c r="B13">
+        <v>9.5746093749999994E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9.0936279296875006E-3</v>
+      </c>
+      <c r="B14">
+        <v>9.5359374999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9.0200607299804596E-3</v>
+      </c>
+      <c r="B15">
+        <v>9.4972656249999992E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8.9467956542968706E-3</v>
+      </c>
+      <c r="B16">
+        <v>9.4585937500000009E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8.8738327026367195E-3</v>
+      </c>
+      <c r="B17">
+        <v>9.4199218750000008E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8.8011718749999995E-3</v>
+      </c>
+      <c r="B18">
+        <v>9.3812500000000007E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8.7288131713867192E-3</v>
+      </c>
+      <c r="B19">
+        <v>9.3425781250000006E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8.65675659179687E-3</v>
+      </c>
+      <c r="B20">
+        <v>9.3039062500000005E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8.5850021362304692E-3</v>
+      </c>
+      <c r="B21">
+        <v>9.2652343750000005E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8.5135498046874994E-3</v>
+      </c>
+      <c r="B22">
+        <v>9.2265625000000004E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.4423995971679693E-3</v>
+      </c>
+      <c r="B23">
+        <v>9.1878906250000003E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8.3715515136718703E-3</v>
+      </c>
+      <c r="B24">
+        <v>9.1492187500000002E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8.3010055541992093E-3</v>
+      </c>
+      <c r="B25">
+        <v>9.1105468750000002E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8.2307617187500001E-3</v>
+      </c>
+      <c r="B26">
+        <v>9.0718750000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8.1608200073242099E-3</v>
+      </c>
+      <c r="B27">
+        <v>9.033203125E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.0911804199218697E-3</v>
+      </c>
+      <c r="B28">
+        <v>8.9945312499999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8.0218429565429693E-3</v>
+      </c>
+      <c r="B29">
+        <v>8.9558593749999998E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7.9528076171875E-3</v>
+      </c>
+      <c r="B30">
+        <v>8.9171874999999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7.88407440185546E-3</v>
+      </c>
+      <c r="B31">
+        <v>8.8785156249999997E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7.8156433105468701E-3</v>
+      </c>
+      <c r="B32">
+        <v>8.8398437499999996E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7.7475143432617199E-3</v>
+      </c>
+      <c r="B33">
+        <v>8.8011718749999995E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>7.6796874999999999E-3</v>
+      </c>
+      <c r="B34">
+        <v>8.7624999999999995E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7.6121627807617196E-3</v>
+      </c>
+      <c r="B35">
+        <v>8.7238281249999994E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7.5449401855468704E-3</v>
+      </c>
+      <c r="B36">
+        <v>8.6851562499999993E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>7.47801971435546E-3</v>
+      </c>
+      <c r="B37">
+        <v>8.6464843749999992E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7.4114013671874998E-3</v>
+      </c>
+      <c r="B38">
+        <v>8.6078124999999991E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>7.3450851440429697E-3</v>
+      </c>
+      <c r="B39">
+        <v>8.5691406250000008E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7.2790710449218698E-3</v>
+      </c>
+      <c r="B40">
+        <v>8.5304687500000007E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7.2133590698242097E-3</v>
+      </c>
+      <c r="B41">
+        <v>8.4917968750000006E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7.1479492187499997E-3</v>
+      </c>
+      <c r="B42">
+        <v>8.4531250000000006E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7.0828414916992198E-3</v>
+      </c>
+      <c r="B43">
+        <v>8.4144531250000005E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>7.0180358886718702E-3</v>
+      </c>
+      <c r="B44">
+        <v>8.3757812500000004E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6.9535324096679698E-3</v>
+      </c>
+      <c r="B45">
+        <v>8.3371093750000003E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6.8893310546874996E-3</v>
+      </c>
+      <c r="B46">
+        <v>8.2984375000000003E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>6.82543182373047E-3</v>
+      </c>
+      <c r="B47">
+        <v>8.2597656250000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6.7618347167968697E-3</v>
+      </c>
+      <c r="B48">
+        <v>8.2210937500000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6.69853973388671E-3</v>
+      </c>
+      <c r="B49">
+        <v>8.182421875E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6.6355468750000004E-3</v>
+      </c>
+      <c r="B50">
+        <v>8.1437499999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6.5728561401367097E-3</v>
+      </c>
+      <c r="B51">
+        <v>8.1050781249999999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>6.51046752929687E-3</v>
+      </c>
+      <c r="B52">
+        <v>8.0664062499999998E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6.4483810424804597E-3</v>
+      </c>
+      <c r="B53">
+        <v>8.0277343749999997E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6.3865966796875003E-3</v>
+      </c>
+      <c r="B54">
+        <v>7.9890624999999996E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>6.3251144409179599E-3</v>
+      </c>
+      <c r="B55">
+        <v>7.9503906249999996E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>6.2639343261718704E-3</v>
+      </c>
+      <c r="B56">
+        <v>7.9117187499999995E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>6.2030563354492198E-3</v>
+      </c>
+      <c r="B57">
+        <v>7.8730468749999994E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>6.1424804687500003E-3</v>
+      </c>
+      <c r="B58">
+        <v>7.8343749999999993E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>6.0822067260742196E-3</v>
+      </c>
+      <c r="B59">
+        <v>7.7957031250000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>6.0222351074218699E-3</v>
+      </c>
+      <c r="B60">
+        <v>7.75703125E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5.96256561279296E-3</v>
+      </c>
+      <c r="B61">
+        <v>7.718359375E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>5.9031982421875002E-3</v>
+      </c>
+      <c r="B62">
+        <v>7.6796874999999999E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>5.8441329956054697E-3</v>
+      </c>
+      <c r="B63">
+        <v>7.6410156249999998E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>5.7853698730468703E-3</v>
+      </c>
+      <c r="B64">
+        <v>7.6023437499999997E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>5.7269088745117097E-3</v>
+      </c>
+      <c r="B65">
+        <v>7.5636718749999996E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5.6687500000000002E-3</v>
+      </c>
+      <c r="B66">
+        <v>7.5249999999999996E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5.6108932495117104E-3</v>
+      </c>
+      <c r="B67">
+        <v>7.4863281250000004E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5.5533386230468698E-3</v>
+      </c>
+      <c r="B68">
+        <v>7.4476562500000003E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>5.4960861206054604E-3</v>
+      </c>
+      <c r="B69">
+        <v>7.4089843750000002E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>5.4391357421875001E-3</v>
+      </c>
+      <c r="B70">
+        <v>7.3703125000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>5.3824874877929597E-3</v>
+      </c>
+      <c r="B71">
+        <v>7.331640625E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5.3261413574218703E-3</v>
+      </c>
+      <c r="B72">
+        <v>7.29296875E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>5.2700973510742197E-3</v>
+      </c>
+      <c r="B73">
+        <v>7.2542968749999999E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>5.2143554687500001E-3</v>
+      </c>
+      <c r="B74">
+        <v>7.2156249999999998E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5.1589157104492099E-3</v>
+      </c>
+      <c r="B75">
+        <v>7.1769531249999997E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>5.1037780761718698E-3</v>
+      </c>
+      <c r="B76">
+        <v>7.1382812499999997E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>5.0489425659179599E-3</v>
+      </c>
+      <c r="B77">
+        <v>7.0996093749999996E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>4.9944091796875001E-3</v>
+      </c>
+      <c r="B78">
+        <v>7.0609375000000004E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4.9401779174804697E-3</v>
+      </c>
+      <c r="B79">
+        <v>7.0222656250000003E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4.8862487792968702E-3</v>
+      </c>
+      <c r="B80">
+        <v>6.9835937500000002E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4.8326217651367097E-3</v>
+      </c>
+      <c r="B81">
+        <v>6.9449218750000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>4.7792968750000001E-3</v>
+      </c>
+      <c r="B82">
+        <v>6.9062500000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>4.7262741088867103E-3</v>
+      </c>
+      <c r="B83">
+        <v>6.867578125E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>4.6735534667968698E-3</v>
+      </c>
+      <c r="B84">
+        <v>6.8289062499999999E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>4.6211349487304603E-3</v>
+      </c>
+      <c r="B85">
+        <v>6.7902343749999998E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>4.5690185546875001E-3</v>
+      </c>
+      <c r="B86">
+        <v>6.7515624999999998E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>4.5172042846679597E-3</v>
+      </c>
+      <c r="B87">
+        <v>6.7128906249999997E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>4.4656921386718703E-3</v>
+      </c>
+      <c r="B88">
+        <v>6.6742187499999996E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>4.4144821166992197E-3</v>
+      </c>
+      <c r="B89">
+        <v>6.6355468750000004E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>4.3635742187500002E-3</v>
+      </c>
+      <c r="B90">
+        <v>6.5968750000000003E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>4.3129684448242099E-3</v>
+      </c>
+      <c r="B91">
+        <v>6.5582031250000002E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>4.2626647949218699E-3</v>
+      </c>
+      <c r="B92">
+        <v>6.5195312500000002E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>4.21266326904296E-3</v>
+      </c>
+      <c r="B93">
+        <v>6.4808593750000001E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>4.1629638671875002E-3</v>
+      </c>
+      <c r="B94">
+        <v>6.4421875E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>4.1135665893554697E-3</v>
+      </c>
+      <c r="B95">
+        <v>6.4035156249999999E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>4.0644714355468703E-3</v>
+      </c>
+      <c r="B96">
+        <v>6.3648437499999998E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>4.0156784057617098E-3</v>
+      </c>
+      <c r="B97">
+        <v>6.3261718749999998E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>3.9671875000000002E-3</v>
+      </c>
+      <c r="B98">
+        <v>6.2874999999999997E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>3.9189987182617096E-3</v>
+      </c>
+      <c r="B99">
+        <v>6.2488281249999996E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3.8711120605468699E-3</v>
+      </c>
+      <c r="B100">
+        <v>6.2101562500000004E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>3.82352752685546E-3</v>
+      </c>
+      <c r="B101">
+        <v>6.1714843750000003E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>3.7762451171874998E-3</v>
+      </c>
+      <c r="B102">
+        <v>6.1328125000000002E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>3.7292648315429599E-3</v>
+      </c>
+      <c r="B103">
+        <v>6.0941406250000002E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>3.68258666992187E-3</v>
+      </c>
+      <c r="B104">
+        <v>6.0554687500000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>3.6362106323242099E-3</v>
+      </c>
+      <c r="B105">
+        <v>6.016796875E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>3.5901367187499999E-3</v>
+      </c>
+      <c r="B106">
+        <v>5.9781249999999999E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>3.5443649291992101E-3</v>
+      </c>
+      <c r="B107">
+        <v>5.9394531249999999E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>3.4988952636718701E-3</v>
+      </c>
+      <c r="B108">
+        <v>5.9007812499999998E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>3.4537277221679602E-3</v>
+      </c>
+      <c r="B109">
+        <v>5.8621093749999997E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>3.4088623046875E-3</v>
+      </c>
+      <c r="B110">
+        <v>5.8234374999999996E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>3.36429901123046E-3</v>
+      </c>
+      <c r="B111">
+        <v>5.7847656250000004E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>3.3200378417968701E-3</v>
+      </c>
+      <c r="B112">
+        <v>5.7460937500000003E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>3.27607879638671E-3</v>
+      </c>
+      <c r="B113">
+        <v>5.7074218750000003E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>3.2324218750000001E-3</v>
+      </c>
+      <c r="B114">
+        <v>5.6687500000000002E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>3.1890670776367099E-3</v>
+      </c>
+      <c r="B115">
+        <v>5.6300781250000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>3.1460144042968702E-3</v>
+      </c>
+      <c r="B116">
+        <v>5.59140625E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>3.1032638549804599E-3</v>
+      </c>
+      <c r="B117">
+        <v>5.5527343749999999E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>3.0608154296875001E-3</v>
+      </c>
+      <c r="B118">
+        <v>5.5140624999999999E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>3.0186691284179602E-3</v>
+      </c>
+      <c r="B119">
+        <v>5.4753906249999998E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2.9768249511718699E-3</v>
+      </c>
+      <c r="B120">
+        <v>5.4367187499999997E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2.9352828979492102E-3</v>
+      </c>
+      <c r="B121">
+        <v>5.3980468749999996E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2.8940429687499998E-3</v>
+      </c>
+      <c r="B122">
+        <v>5.3593750000000004E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2.85310516357421E-3</v>
+      </c>
+      <c r="B123">
+        <v>5.3207031250000003E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2.81246948242187E-3</v>
+      </c>
+      <c r="B124">
+        <v>5.2820312500000003E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2.7721359252929601E-3</v>
+      </c>
+      <c r="B125">
+        <v>5.2433593750000002E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2.7321044921874999E-3</v>
+      </c>
+      <c r="B126">
+        <v>5.2046875000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2.6923751831054599E-3</v>
+      </c>
+      <c r="B127">
+        <v>5.166015625E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2.6529479980468701E-3</v>
+      </c>
+      <c r="B128">
+        <v>5.12734375E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2.61382293701171E-3</v>
+      </c>
+      <c r="B129">
+        <v>5.0886718749999999E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2.575E-3</v>
+      </c>
+      <c r="B130">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2.5364791870117098E-3</v>
+      </c>
+      <c r="B131">
+        <v>5.0113281249999997E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2.4982604980468702E-3</v>
+      </c>
+      <c r="B132">
+        <v>4.9726562499999996E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2.4603439331054599E-3</v>
+      </c>
+      <c r="B133">
+        <v>4.9339843749999996E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2.4227294921875002E-3</v>
+      </c>
+      <c r="B134">
+        <v>4.8953125000000004E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2.3854171752929602E-3</v>
+      </c>
+      <c r="B135">
+        <v>4.8566406250000003E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2.3484069824218699E-3</v>
+      </c>
+      <c r="B136">
+        <v>4.8179687500000002E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2.3116989135742098E-3</v>
+      </c>
+      <c r="B137">
+        <v>4.7792968750000001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2.2752929687499999E-3</v>
+      </c>
+      <c r="B138">
+        <v>4.740625E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2.2391891479492101E-3</v>
+      </c>
+      <c r="B139">
+        <v>4.701953125E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2.2033874511718701E-3</v>
+      </c>
+      <c r="B140">
+        <v>4.6632812499999999E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2.1678878784179602E-3</v>
+      </c>
+      <c r="B141">
+        <v>4.6246093749999998E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2.1326904296875E-3</v>
+      </c>
+      <c r="B142">
+        <v>4.5859374999999997E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2.09779510498046E-3</v>
+      </c>
+      <c r="B143">
+        <v>4.5472656249999997E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2.0632019042968702E-3</v>
+      </c>
+      <c r="B144">
+        <v>4.5085937499999996E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2.0289108276367101E-3</v>
+      </c>
+      <c r="B145">
+        <v>4.4699218750000004E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1.9949218750000002E-3</v>
+      </c>
+      <c r="B146">
+        <v>4.4312500000000003E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1.96123504638671E-3</v>
+      </c>
+      <c r="B147">
+        <v>4.3925781250000002E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1.9278503417968699E-3</v>
+      </c>
+      <c r="B148">
+        <v>4.3539062500000001E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1.8947677612304601E-3</v>
+      </c>
+      <c r="B149">
+        <v>4.3152343750000001E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1.8619873046874999E-3</v>
+      </c>
+      <c r="B150">
+        <v>4.2765625E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1.8295089721679599E-3</v>
+      </c>
+      <c r="B151">
+        <v>4.2378906249999999E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1.7973327636718701E-3</v>
+      </c>
+      <c r="B152">
+        <v>4.1992187499999998E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1.76545867919921E-3</v>
+      </c>
+      <c r="B153">
+        <v>4.1605468749999997E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1.7338867187500001E-3</v>
+      </c>
+      <c r="B154">
+        <v>4.1218749999999997E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1.7026168823242099E-3</v>
+      </c>
+      <c r="B155">
+        <v>4.0832031249999996E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1.6716491699218701E-3</v>
+      </c>
+      <c r="B156">
+        <v>4.0445312500000004E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1.64098358154296E-3</v>
+      </c>
+      <c r="B157">
+        <v>4.0058593750000003E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1.6106201171875E-3</v>
+      </c>
+      <c r="B158">
+        <v>3.9671875000000002E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1.5805587768554601E-3</v>
+      </c>
+      <c r="B159">
+        <v>3.9285156250000001E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1.55079956054687E-3</v>
+      </c>
+      <c r="B160">
+        <v>3.8898437500000001E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1.52134246826171E-3</v>
+      </c>
+      <c r="B161">
+        <v>3.851171875E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1.4921875E-3</v>
+      </c>
+      <c r="B162">
+        <v>3.8124999999999999E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1.4633346557617101E-3</v>
+      </c>
+      <c r="B163">
+        <v>3.7738281249999998E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1.43478393554687E-3</v>
+      </c>
+      <c r="B164">
+        <v>3.7351562500000002E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1.40653533935546E-3</v>
+      </c>
+      <c r="B165">
+        <v>3.6964843750000001E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1.3785888671875E-3</v>
+      </c>
+      <c r="B166">
+        <v>3.6578125E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1.3509445190429601E-3</v>
+      </c>
+      <c r="B167">
+        <v>3.619140625E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1.32360229492187E-3</v>
+      </c>
+      <c r="B168">
+        <v>3.5804687499999999E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1.29656219482421E-3</v>
+      </c>
+      <c r="B169">
+        <v>3.5417968749999998E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1.26982421875E-3</v>
+      </c>
+      <c r="B170">
+        <v>3.5031250000000002E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1.2433883666992101E-3</v>
+      </c>
+      <c r="B171">
+        <v>3.4644531250000001E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1.21725463867187E-3</v>
+      </c>
+      <c r="B172">
+        <v>3.42578125E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1.19142303466796E-3</v>
+      </c>
+      <c r="B173">
+        <v>3.3871093749999999E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>1.1658935546875E-3</v>
+      </c>
+      <c r="B174">
+        <v>3.3484374999999999E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>1.1406661987304601E-3</v>
+      </c>
+      <c r="B175">
+        <v>3.3097656250000002E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>1.11574096679687E-3</v>
+      </c>
+      <c r="B176">
+        <v>3.2710937500000001E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1.09111785888671E-3</v>
+      </c>
+      <c r="B177">
+        <v>3.2324218750000001E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>1.066796875E-3</v>
+      </c>
+      <c r="B178">
+        <v>3.19375E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>1.0427780151367101E-3</v>
+      </c>
+      <c r="B179">
+        <v>3.1550781249999999E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>1.0190612792968701E-3</v>
+      </c>
+      <c r="B180">
+        <v>3.1164062499999998E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>9.9564666748046802E-4</v>
+      </c>
+      <c r="B181">
+        <v>3.0777343750000002E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>9.7253417968749996E-4</v>
+      </c>
+      <c r="B182">
+        <v>3.0390625000000001E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>9.4972381591796804E-4</v>
+      </c>
+      <c r="B183">
+        <v>3.000390625E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>9.2721557617187497E-4</v>
+      </c>
+      <c r="B184">
+        <v>2.9617187499999999E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>9.0500946044921795E-4</v>
+      </c>
+      <c r="B185">
+        <v>2.9230468749999999E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>8.8310546874999999E-4</v>
+      </c>
+      <c r="B186">
+        <v>2.8843749999999998E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>8.6150360107421797E-4</v>
+      </c>
+      <c r="B187">
+        <v>2.8457031250000001E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>8.4020385742187502E-4</v>
+      </c>
+      <c r="B188">
+        <v>2.8070312500000001E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>8.1920623779296799E-4</v>
+      </c>
+      <c r="B189">
+        <v>2.768359375E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>7.9851074218750004E-4</v>
+      </c>
+      <c r="B190">
+        <v>2.7296874999999999E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>7.7811737060546802E-4</v>
+      </c>
+      <c r="B191">
+        <v>2.6910156249999998E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>7.5802612304687496E-4</v>
+      </c>
+      <c r="B192">
+        <v>2.6523437500000002E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>7.3823699951171805E-4</v>
+      </c>
+      <c r="B193">
+        <v>2.6136718750000001E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>7.1874999999999999E-4</v>
+      </c>
+      <c r="B194">
+        <v>2.575E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>6.9956512451171797E-4</v>
+      </c>
+      <c r="B195">
+        <v>2.536328125E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>6.8068237304687502E-4</v>
+      </c>
+      <c r="B196">
+        <v>2.4976562499999999E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>6.62101745605468E-4</v>
+      </c>
+      <c r="B197">
+        <v>2.4589843749999998E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>6.4382324218750005E-4</v>
+      </c>
+      <c r="B198">
+        <v>2.4203125000000002E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>6.2584686279296804E-4</v>
+      </c>
+      <c r="B199">
+        <v>2.3816406250000001E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>6.0817260742187498E-4</v>
+      </c>
+      <c r="B200">
+        <v>2.34296875E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>5.9080047607421797E-4</v>
+      </c>
+      <c r="B201">
+        <v>2.3042968749999999E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>5.7373046875000002E-4</v>
+      </c>
+      <c r="B202">
+        <v>2.2656249999999998E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>5.5696258544921801E-4</v>
+      </c>
+      <c r="B203">
+        <v>2.2269531250000002E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>5.4049682617187495E-4</v>
+      </c>
+      <c r="B204">
+        <v>2.1882812500000001E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>5.2433319091796805E-4</v>
+      </c>
+      <c r="B205">
+        <v>2.149609375E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>5.084716796875E-4</v>
+      </c>
+      <c r="B206">
+        <v>2.1109375E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>4.9291229248046799E-4</v>
+      </c>
+      <c r="B207">
+        <v>2.0722656249999999E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>4.7765502929687499E-4</v>
+      </c>
+      <c r="B208">
+        <v>2.0335937499999998E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>4.6269989013671798E-4</v>
+      </c>
+      <c r="B209">
+        <v>1.9949218750000002E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>4.4804687499999999E-4</v>
+      </c>
+      <c r="B210">
+        <v>1.9562500000000001E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>4.3369598388671798E-4</v>
+      </c>
+      <c r="B211">
+        <v>1.917578125E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>4.1964721679687498E-4</v>
+      </c>
+      <c r="B212">
+        <v>1.8789062499999999E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>4.0590057373046797E-4</v>
+      </c>
+      <c r="B213">
+        <v>1.8402343750000001E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>3.9245605468749998E-4</v>
+      </c>
+      <c r="B214">
+        <v>1.8015625E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>3.7931365966796797E-4</v>
+      </c>
+      <c r="B215">
+        <v>1.7628906249999999E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>3.6647338867187498E-4</v>
+      </c>
+      <c r="B216">
+        <v>1.7242187500000001E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>3.5393524169921798E-4</v>
+      </c>
+      <c r="B217">
+        <v>1.685546875E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>3.4169921874999999E-4</v>
+      </c>
+      <c r="B218">
+        <v>1.6468749999999999E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>3.2976531982421798E-4</v>
+      </c>
+      <c r="B219">
+        <v>1.608203125E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>3.18133544921875E-4</v>
+      </c>
+      <c r="B220">
+        <v>1.56953125E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>3.0680389404296799E-4</v>
+      </c>
+      <c r="B221">
+        <v>1.5308593750000001E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>2.9577636718750001E-4</v>
+      </c>
+      <c r="B222">
+        <v>1.4921875E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>2.85050964355468E-4</v>
+      </c>
+      <c r="B223">
+        <v>1.4535156249999999E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>2.7462768554687502E-4</v>
+      </c>
+      <c r="B224">
+        <v>1.4148437500000001E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>2.6450653076171801E-4</v>
+      </c>
+      <c r="B225">
+        <v>1.376171875E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>2.5468749999999998E-4</v>
+      </c>
+      <c r="B226">
+        <v>1.3374999999999999E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2.4517059326171798E-4</v>
+      </c>
+      <c r="B227">
+        <v>1.2988281250000001E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>2.3595581054687499E-4</v>
+      </c>
+      <c r="B228">
+        <v>1.26015625E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>2.2704315185546799E-4</v>
+      </c>
+      <c r="B229">
+        <v>1.2214843749999999E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>2.1843261718750001E-4</v>
+      </c>
+      <c r="B230">
+        <v>1.1828125000000001E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>2.1012420654296799E-4</v>
+      </c>
+      <c r="B231">
+        <v>1.144140625E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>2.0211791992187501E-4</v>
+      </c>
+      <c r="B232">
+        <v>1.1054687499999999E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>1.9441375732421801E-4</v>
+      </c>
+      <c r="B233">
+        <v>1.066796875E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>1.8701171875E-4</v>
+      </c>
+      <c r="B234">
+        <v>1.028125E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>1.7991180419921801E-4</v>
+      </c>
+      <c r="B235">
+        <v>9.894531250000001E-4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>1.73114013671875E-4</v>
+      </c>
+      <c r="B236">
+        <v>9.5078125000000002E-4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>1.6661834716796801E-4</v>
+      </c>
+      <c r="B237">
+        <v>9.1210937500000005E-4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>1.604248046875E-4</v>
+      </c>
+      <c r="B238">
+        <v>8.7343749999999997E-4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>1.5453338623046801E-4</v>
+      </c>
+      <c r="B239">
+        <v>8.34765625E-4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>1.4894409179687501E-4</v>
+      </c>
+      <c r="B240">
+        <v>7.9609375000000003E-4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1.4365692138671799E-4</v>
+      </c>
+      <c r="B241">
+        <v>7.5742187499999996E-4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1.3867187499999999E-4</v>
+      </c>
+      <c r="B242">
+        <v>7.1874999999999999E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>1.33988952636718E-4</v>
+      </c>
+      <c r="B243">
+        <v>6.8007812500000002E-4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>1.29608154296875E-4</v>
+      </c>
+      <c r="B244">
+        <v>6.4140625000000005E-4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>1.2552947998046801E-4</v>
+      </c>
+      <c r="B245">
+        <v>6.0273437499999997E-4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>1.2175292968749999E-4</v>
+      </c>
+      <c r="B246">
+        <v>5.640625E-4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>1.1827850341796801E-4</v>
+      </c>
+      <c r="B247">
+        <v>5.2539062500000003E-4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>1.1510620117187499E-4</v>
+      </c>
+      <c r="B248">
+        <v>4.8671875000000001E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>1.1223602294921799E-4</v>
+      </c>
+      <c r="B249">
+        <v>4.4804687499999999E-4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>1.0966796875E-4</v>
+      </c>
+      <c r="B250">
+        <v>4.0937500000000002E-4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>1.07402038574218E-4</v>
+      </c>
+      <c r="B251">
+        <v>3.7070312499999999E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>1.05438232421875E-4</v>
+      </c>
+      <c r="B252">
+        <v>3.3203125000000002E-4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>1.03776550292968E-4</v>
+      </c>
+      <c r="B253">
+        <v>2.93359375E-4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>1.024169921875E-4</v>
+      </c>
+      <c r="B254">
+        <v>2.5468749999999998E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>1.01359558105468E-4</v>
+      </c>
+      <c r="B255">
+        <v>2.1601562500000001E-4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>1.0060424804687501E-4</v>
+      </c>
+      <c r="B256">
+        <v>1.7734375000000001E-4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>1.00151062011718E-4</v>
+      </c>
+      <c r="B257">
+        <v>1.3867187499999999E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF15A266-C8E1-4686-BAFA-1C4102110A87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92352D18-2CC0-4996-9485-76E70796EBDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConvergePatternOfNN" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,22 +66,25 @@
     <t>Power=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NN041503</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -112,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,7 +133,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -197,7 +200,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5954,7 +5957,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5992,7 +5995,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1310328271"/>
@@ -6089,7 +6092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6121,7 +6124,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383030927"/>
@@ -6163,7 +6166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6193,7 +6196,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6207,7 +6210,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6270,7 +6273,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7971,7 +7974,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8009,7 +8012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2133561007"/>
@@ -8092,7 +8095,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8124,7 +8127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="335908895"/>
@@ -8166,7 +8169,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8196,7 +8199,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9323,16 +9326,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>931544</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9364,16 +9367,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9664,25 +9667,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H513"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9707,8 +9710,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -9733,8 +9739,11 @@
       <c r="H2">
         <v>1.4206300000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>2.5353300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -9759,8 +9768,11 @@
       <c r="H3">
         <v>1.2538</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1.35999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -9785,8 +9797,11 @@
       <c r="H4">
         <v>1.24709</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1.30938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -9811,8 +9826,11 @@
       <c r="H5">
         <v>1.24204</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>1.2875700000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -9837,8 +9855,11 @@
       <c r="H6">
         <v>1.23665</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1.2744899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -9863,8 +9884,11 @@
       <c r="H7">
         <v>1.23014</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1.2654799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -9889,8 +9913,11 @@
       <c r="H8">
         <v>1.2240500000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1.25922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -9915,8 +9942,11 @@
       <c r="H9">
         <v>1.2190000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1.2545900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -9941,8 +9971,11 @@
       <c r="H10">
         <v>1.21421</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>1.25102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -9967,8 +10000,11 @@
       <c r="H11">
         <v>1.2098199999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1.2481100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -9993,8 +10029,11 @@
       <c r="H12">
         <v>1.2054800000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1.2457499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -10019,8 +10058,11 @@
       <c r="H13">
         <v>1.20116</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>1.2438100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -10045,8 +10087,11 @@
       <c r="H14">
         <v>1.19678</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1.24221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -10071,8 +10116,11 @@
       <c r="H15">
         <v>1.19224</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1.2408399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -10097,8 +10145,11 @@
       <c r="H16">
         <v>1.1869799999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1.2396799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -10123,8 +10174,11 @@
       <c r="H17">
         <v>1.18069</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>1.2386699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -10149,8 +10203,11 @@
       <c r="H18">
         <v>1.1738200000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>1.2377800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -10175,8 +10232,11 @@
       <c r="H19">
         <v>1.167</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1.23699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -10201,8 +10261,11 @@
       <c r="H20">
         <v>1.1607000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1.23628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -10227,8 +10290,11 @@
       <c r="H21">
         <v>1.1549100000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>1.2356400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -10253,8 +10319,11 @@
       <c r="H22">
         <v>1.1495200000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>1.23505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -10279,8 +10348,11 @@
       <c r="H23">
         <v>1.14462</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1.2345200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -10305,8 +10377,11 @@
       <c r="H24">
         <v>1.1403300000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>1.23403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -10331,8 +10406,11 @@
       <c r="H25">
         <v>1.13646</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>1.23356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -10357,8 +10435,11 @@
       <c r="H26">
         <v>1.13263</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1.23312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -10383,8 +10464,11 @@
       <c r="H27">
         <v>1.1289199999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>1.23271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -10409,8 +10493,11 @@
       <c r="H28">
         <v>1.1248800000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>1.23231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -10435,8 +10522,11 @@
       <c r="H29">
         <v>1.1197299999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>1.23193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -10461,8 +10551,11 @@
       <c r="H30">
         <v>1.1130199999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>1.2315499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -10487,8 +10580,11 @@
       <c r="H31">
         <v>1.1065799999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>1.2311799999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -10513,8 +10609,11 @@
       <c r="H32">
         <v>1.1006</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>1.23081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -10539,8 +10638,11 @@
       <c r="H33">
         <v>1.0948199999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>1.2304299999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -10565,8 +10667,11 @@
       <c r="H34">
         <v>1.0890200000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>1.2300599999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -10591,8 +10696,11 @@
       <c r="H35">
         <v>1.0837600000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>1.2297100000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -10617,8 +10725,11 @@
       <c r="H36">
         <v>1.07883</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>1.22936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -10643,8 +10754,11 @@
       <c r="H37">
         <v>1.0743100000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>1.2290300000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -10669,8 +10783,11 @@
       <c r="H38">
         <v>1.06986</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>1.2286900000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -10695,8 +10812,11 @@
       <c r="H39">
         <v>1.0653699999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>1.2283599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -10721,8 +10841,11 @@
       <c r="H40">
         <v>1.06094</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>1.22804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -10747,8 +10870,11 @@
       <c r="H41">
         <v>1.05653</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>1.2277100000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -10773,8 +10899,11 @@
       <c r="H42">
         <v>1.05226</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>1.2273799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -10799,8 +10928,11 @@
       <c r="H43">
         <v>1.0482499999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>1.2270399999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -10825,8 +10957,11 @@
       <c r="H44">
         <v>1.0442199999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>1.2266999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -10851,8 +10986,11 @@
       <c r="H45">
         <v>1.0398400000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>1.22637</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -10877,8 +11015,11 @@
       <c r="H46">
         <v>1.03542</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>1.2260200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -10903,8 +11044,11 @@
       <c r="H47">
         <v>1.03081</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>1.2256800000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -10929,8 +11073,11 @@
       <c r="H48">
         <v>1.0271699999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>1.22533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -10955,8 +11102,11 @@
       <c r="H49">
         <v>1.02199</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>1.22498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -10981,8 +11131,11 @@
       <c r="H50">
         <v>1.0180800000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>1.2246300000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -11007,8 +11160,11 @@
       <c r="H51">
         <v>1.01369</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>1.2242599999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -11033,8 +11189,11 @@
       <c r="H52">
         <v>1.00952</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>1.2238899999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -11059,8 +11218,11 @@
       <c r="H53">
         <v>1.00505</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>1.22353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -11085,8 +11247,11 @@
       <c r="H54">
         <v>1.00098</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>1.22315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -11111,8 +11276,11 @@
       <c r="H55">
         <v>0.99624000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>1.2227600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -11137,8 +11305,11 @@
       <c r="H56">
         <v>0.99194000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>1.22238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -11163,8 +11334,11 @@
       <c r="H57">
         <v>0.98812</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>1.2219899999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -11189,8 +11363,11 @@
       <c r="H58">
         <v>0.98468</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>1.2216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -11215,8 +11392,11 @@
       <c r="H59">
         <v>0.97796000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>1.2212000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -11241,8 +11421,11 @@
       <c r="H60">
         <v>0.97294000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>1.22078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -11267,8 +11450,11 @@
       <c r="H61">
         <v>0.97084999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>1.22035</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -11293,8 +11479,11 @@
       <c r="H62">
         <v>0.96528000000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>1.2199199999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -11319,8 +11508,11 @@
       <c r="H63">
         <v>0.96106000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>1.21949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -11345,8 +11537,11 @@
       <c r="H64">
         <v>0.95560999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>1.2190399999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -11371,8 +11566,11 @@
       <c r="H65">
         <v>0.95350999999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>1.2185900000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -11397,8 +11595,11 @@
       <c r="H66">
         <v>0.96733000000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>1.2181500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -11423,8 +11624,11 @@
       <c r="H67">
         <v>0.94330999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>1.2177100000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -11449,8 +11653,11 @@
       <c r="H68">
         <v>0.94547999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>1.2172700000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -11475,8 +11682,11 @@
       <c r="H69">
         <v>0.93547000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>1.2168399999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -11501,8 +11711,11 @@
       <c r="H70">
         <v>0.93228</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>1.2163999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -11527,8 +11740,11 @@
       <c r="H71">
         <v>0.94906000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>1.2159599999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -11553,8 +11769,11 @@
       <c r="H72">
         <v>0.92579999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>1.2155199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -11579,8 +11798,11 @@
       <c r="H73">
         <v>0.92037000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>1.21506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -11605,8 +11827,11 @@
       <c r="H74">
         <v>0.91693999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>1.21462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -11631,8 +11856,11 @@
       <c r="H75">
         <v>0.91124000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>1.21417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -11657,8 +11885,11 @@
       <c r="H76">
         <v>0.90739999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>1.2137100000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -11683,8 +11914,11 @@
       <c r="H77">
         <v>0.90813999999999995</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>1.2132700000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -11709,8 +11943,11 @@
       <c r="H78">
         <v>0.93222000000000005</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>1.21279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -11735,8 +11972,11 @@
       <c r="H79">
         <v>0.89912000000000003</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>1.2123299999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -11761,8 +12001,11 @@
       <c r="H80">
         <v>0.89558000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>1.2118500000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -11787,8 +12030,11 @@
       <c r="H81">
         <v>0.89078999999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>1.21136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -11813,8 +12059,11 @@
       <c r="H82">
         <v>0.88263000000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>1.2108699999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -11839,8 +12088,11 @@
       <c r="H83">
         <v>0.88412000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>1.2103600000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -11865,8 +12117,11 @@
       <c r="H84">
         <v>0.88268999999999997</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>1.2098500000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -11891,8 +12146,11 @@
       <c r="H85">
         <v>0.87907999999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>1.20933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -11917,8 +12175,11 @@
       <c r="H86">
         <v>0.87473000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>1.2088000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -11943,8 +12204,11 @@
       <c r="H87">
         <v>0.86824000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>1.20825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -11969,8 +12233,11 @@
       <c r="H88">
         <v>0.86436999999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>1.2077</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -11995,8 +12262,11 @@
       <c r="H89">
         <v>0.85697999999999996</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>1.2071400000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -12021,8 +12291,11 @@
       <c r="H90">
         <v>0.85526999999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>1.2065600000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -12047,8 +12320,11 @@
       <c r="H91">
         <v>0.85407</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>1.20597</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -12073,8 +12349,11 @@
       <c r="H92">
         <v>0.85119999999999996</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>1.2053799999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -12099,8 +12378,11 @@
       <c r="H93">
         <v>0.85323000000000004</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>1.2047600000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -12125,8 +12407,11 @@
       <c r="H94">
         <v>0.84450999999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>1.20414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -12151,8 +12436,11 @@
       <c r="H95">
         <v>0.84823999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>1.2035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -12177,8 +12465,11 @@
       <c r="H96">
         <v>0.83233999999999997</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>1.20286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -12203,8 +12494,11 @@
       <c r="H97">
         <v>0.83599999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>1.20221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -12229,8 +12523,11 @@
       <c r="H98">
         <v>0.82711000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>1.2015499999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -12255,8 +12552,11 @@
       <c r="H99">
         <v>0.83006999999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>1.2008700000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -12281,8 +12581,11 @@
       <c r="H100">
         <v>0.82708000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>1.20018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -12307,8 +12610,11 @@
       <c r="H101">
         <v>0.81877</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>1.19947</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -12333,8 +12639,11 @@
       <c r="H102">
         <v>0.84021000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <v>1.1987399999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -12359,8 +12668,11 @@
       <c r="H103">
         <v>0.81716999999999995</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <v>1.1979900000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -12385,8 +12697,11 @@
       <c r="H104">
         <v>0.81201999999999996</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <v>1.1972</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -12411,8 +12726,11 @@
       <c r="H105">
         <v>0.81013999999999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <v>1.19638</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -12437,8 +12755,11 @@
       <c r="H106">
         <v>0.80354000000000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <v>1.1955499999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -12463,8 +12784,11 @@
       <c r="H107">
         <v>0.80054000000000003</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <v>1.1946699999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -12489,8 +12813,11 @@
       <c r="H108">
         <v>0.80269000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <v>1.1937800000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -12515,8 +12842,11 @@
       <c r="H109">
         <v>0.79493999999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <v>1.19289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -12541,8 +12871,11 @@
       <c r="H110">
         <v>0.79386000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <v>1.1920299999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -12567,8 +12900,11 @@
       <c r="H111">
         <v>0.79425999999999997</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <v>1.19119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -12593,8 +12929,11 @@
       <c r="H112">
         <v>0.80025000000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <v>1.1903600000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -12619,8 +12958,11 @@
       <c r="H113">
         <v>0.78715000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>1.18957</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -12645,8 +12987,11 @@
       <c r="H114">
         <v>0.78998999999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <v>1.1887799999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -12671,8 +13016,11 @@
       <c r="H115">
         <v>0.77854000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <v>1.18801</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
@@ -12697,8 +13045,11 @@
       <c r="H116">
         <v>0.78276999999999997</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <v>1.18726</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
@@ -12723,8 +13074,11 @@
       <c r="H117">
         <v>0.78036000000000005</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <v>1.1865300000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
@@ -12749,8 +13103,11 @@
       <c r="H118">
         <v>0.77046000000000003</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <v>1.1858</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>0.42812</v>
       </c>
@@ -12775,8 +13132,11 @@
       <c r="H119">
         <v>0.76402000000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <v>1.1850799999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
@@ -12801,8 +13161,11 @@
       <c r="H120">
         <v>0.77542</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <v>1.18438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
@@ -12827,8 +13190,11 @@
       <c r="H121">
         <v>0.76939000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <v>1.18367</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
@@ -12853,8 +13219,11 @@
       <c r="H122">
         <v>0.76453000000000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <v>1.18296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
@@ -12879,8 +13248,11 @@
       <c r="H123">
         <v>0.76256000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123">
+        <v>1.18228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
@@ -12905,8 +13277,11 @@
       <c r="H124">
         <v>0.75192999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124">
+        <v>1.1816</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
@@ -12931,8 +13306,11 @@
       <c r="H125">
         <v>0.75334000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125">
+        <v>1.18092</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
@@ -12957,8 +13335,11 @@
       <c r="H126">
         <v>0.75883</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126">
+        <v>1.18024</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
@@ -12983,8 +13364,11 @@
       <c r="H127">
         <v>0.75678999999999996</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127">
+        <v>1.1795800000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>0.35158</v>
       </c>
@@ -13009,8 +13393,11 @@
       <c r="H128">
         <v>0.74107999999999996</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128">
+        <v>1.17892</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
@@ -13035,8 +13422,11 @@
       <c r="H129">
         <v>0.74944999999999995</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129">
+        <v>1.1782699999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>0.3392</v>
       </c>
@@ -13061,8 +13451,11 @@
       <c r="H130">
         <v>0.73465999999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130">
+        <v>1.17763</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
@@ -13087,8 +13480,11 @@
       <c r="H131">
         <v>0.74058999999999997</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131">
+        <v>1.17699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
@@ -13113,8 +13509,11 @@
       <c r="H132">
         <v>0.74428000000000005</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132">
+        <v>1.1763600000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
@@ -13139,8 +13538,11 @@
       <c r="H133">
         <v>0.72777000000000003</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133">
+        <v>1.17574</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
@@ -13165,8 +13567,11 @@
       <c r="H134">
         <v>0.73497000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <v>1.1751199999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>0.32943</v>
       </c>
@@ -13191,8 +13596,11 @@
       <c r="H135">
         <v>0.72772000000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135">
+        <v>1.1745099999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
@@ -13217,8 +13625,11 @@
       <c r="H136">
         <v>0.73414999999999997</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136">
+        <v>1.1738900000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
@@ -13243,8 +13654,11 @@
       <c r="H137">
         <v>0.72009000000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137">
+        <v>1.17327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>0.31</v>
       </c>
@@ -13269,8 +13683,11 @@
       <c r="H138">
         <v>0.73116000000000003</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138">
+        <v>1.1726700000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
@@ -13295,8 +13712,11 @@
       <c r="H139">
         <v>0.71641999999999995</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <v>1.1720900000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>0.30506</v>
       </c>
@@ -13321,8 +13741,11 @@
       <c r="H140">
         <v>0.71338000000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <v>1.1715100000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
@@ -13347,8 +13770,11 @@
       <c r="H141">
         <v>0.71118999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <v>1.1709400000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
@@ -13373,8 +13799,11 @@
       <c r="H142">
         <v>0.71628000000000003</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142">
+        <v>1.1703699999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>0.29479</v>
       </c>
@@ -13399,8 +13828,11 @@
       <c r="H143">
         <v>0.70799999999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143">
+        <v>1.1698</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
@@ -13425,8 +13857,11 @@
       <c r="H144">
         <v>0.70323000000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144">
+        <v>1.1692400000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
@@ -13451,8 +13886,11 @@
       <c r="H145">
         <v>0.70603000000000005</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145">
+        <v>1.1687000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
@@ -13477,8 +13915,11 @@
       <c r="H146">
         <v>0.69372</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146">
+        <v>1.1681600000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>0.2722</v>
       </c>
@@ -13503,8 +13944,11 @@
       <c r="H147">
         <v>0.69537000000000004</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <v>1.16761</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
@@ -13529,8 +13973,11 @@
       <c r="H148">
         <v>0.69259999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148">
+        <v>1.16706</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
@@ -13555,8 +14002,11 @@
       <c r="H149">
         <v>0.68938999999999995</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149">
+        <v>1.16652</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
@@ -13581,8 +14031,11 @@
       <c r="H150">
         <v>0.68257999999999996</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150">
+        <v>1.1659900000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
@@ -13607,8 +14060,11 @@
       <c r="H151">
         <v>0.67796999999999996</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151">
+        <v>1.1654800000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
@@ -13633,8 +14089,11 @@
       <c r="H152">
         <v>0.67749000000000004</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152">
+        <v>1.16496</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>0.25683</v>
       </c>
@@ -13659,8 +14118,11 @@
       <c r="H153">
         <v>0.66674999999999995</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153">
+        <v>1.1644399999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
@@ -13685,8 +14147,11 @@
       <c r="H154">
         <v>0.67457</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154">
+        <v>1.1639299999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
@@ -13711,8 +14176,11 @@
       <c r="H155">
         <v>0.66513</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155">
+        <v>1.1634100000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
@@ -13737,8 +14205,11 @@
       <c r="H156">
         <v>0.66325000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156">
+        <v>1.1629</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>0.24456</v>
       </c>
@@ -13763,8 +14234,11 @@
       <c r="H157">
         <v>0.65815999999999997</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157">
+        <v>1.16239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
@@ -13789,8 +14263,11 @@
       <c r="H158">
         <v>0.65037999999999996</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158">
+        <v>1.1618999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
@@ -13815,8 +14292,11 @@
       <c r="H159">
         <v>0.64881</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159">
+        <v>1.1614</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>0.22721</v>
       </c>
@@ -13841,8 +14321,11 @@
       <c r="H160">
         <v>0.64459</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160">
+        <v>1.1609</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
@@ -13867,8 +14350,11 @@
       <c r="H161">
         <v>0.63604000000000005</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161">
+        <v>1.1604000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>0.21545</v>
       </c>
@@ -13893,8 +14379,11 @@
       <c r="H162">
         <v>0.63507999999999998</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162">
+        <v>1.15991</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>0.21892</v>
       </c>
@@ -13919,8 +14408,11 @@
       <c r="H163">
         <v>0.63336000000000003</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163">
+        <v>1.1594199999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
@@ -13945,8 +14437,11 @@
       <c r="H164">
         <v>0.62831000000000004</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164">
+        <v>1.1589400000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>0.22827</v>
       </c>
@@ -13971,8 +14466,11 @@
       <c r="H165">
         <v>0.63027999999999995</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165">
+        <v>1.15846</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
@@ -13997,8 +14495,11 @@
       <c r="H166">
         <v>0.62341999999999997</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166">
+        <v>1.1579699999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>0.21489</v>
       </c>
@@ -14023,8 +14524,11 @@
       <c r="H167">
         <v>0.61877000000000004</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167">
+        <v>1.1574899999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
@@ -14049,8 +14553,11 @@
       <c r="H168">
         <v>0.61660000000000004</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168">
+        <v>1.15699</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
@@ -14075,8 +14582,11 @@
       <c r="H169">
         <v>0.60760000000000003</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169">
+        <v>1.1565000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>0.20321</v>
       </c>
@@ -14101,8 +14611,11 @@
       <c r="H170">
         <v>0.63016000000000005</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170">
+        <v>1.1559999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>0.193</v>
       </c>
@@ -14127,8 +14640,11 @@
       <c r="H171">
         <v>0.60284000000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171">
+        <v>1.15551</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
@@ -14153,8 +14669,11 @@
       <c r="H172">
         <v>0.60062000000000004</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172">
+        <v>1.155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>0.19649</v>
       </c>
@@ -14179,8 +14698,11 @@
       <c r="H173">
         <v>0.60146999999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173">
+        <v>1.15448</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
@@ -14205,8 +14727,11 @@
       <c r="H174">
         <v>0.58921999999999997</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174">
+        <v>1.1539600000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
@@ -14231,8 +14756,11 @@
       <c r="H175">
         <v>0.59062000000000003</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175">
+        <v>1.15343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>0.18289</v>
       </c>
@@ -14257,8 +14785,11 @@
       <c r="H176">
         <v>0.59038999999999997</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176">
+        <v>1.1529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>0.17509</v>
       </c>
@@ -14283,8 +14814,11 @@
       <c r="H177">
         <v>0.60116000000000003</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177">
+        <v>1.15235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>0.16594</v>
       </c>
@@ -14309,8 +14843,11 @@
       <c r="H178">
         <v>0.59645999999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178">
+        <v>1.1517900000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>0.16971</v>
       </c>
@@ -14335,8 +14872,11 @@
       <c r="H179">
         <v>0.56959000000000004</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179">
+        <v>1.1512199999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
@@ -14361,8 +14901,11 @@
       <c r="H180">
         <v>0.58275999999999994</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180">
+        <v>1.15063</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
@@ -14387,8 +14930,11 @@
       <c r="H181">
         <v>0.57596000000000003</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181">
+        <v>1.15002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>0.17637</v>
       </c>
@@ -14413,8 +14959,11 @@
       <c r="H182">
         <v>0.57486000000000004</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182">
+        <v>1.1493800000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>0.16108</v>
       </c>
@@ -14439,8 +14988,11 @@
       <c r="H183">
         <v>0.57452999999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183">
+        <v>1.14873</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
@@ -14465,8 +15017,11 @@
       <c r="H184">
         <v>0.56479999999999997</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184">
+        <v>1.1480600000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
@@ -14491,8 +15046,11 @@
       <c r="H185">
         <v>0.56006</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185">
+        <v>1.1473599999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
@@ -14517,8 +15075,11 @@
       <c r="H186">
         <v>0.56879000000000002</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186">
+        <v>1.1466499999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
@@ -14543,8 +15104,11 @@
       <c r="H187">
         <v>0.55698000000000003</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187">
+        <v>1.14591</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
@@ -14569,8 +15133,11 @@
       <c r="H188">
         <v>0.56464999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188">
+        <v>1.14516</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
@@ -14595,8 +15162,11 @@
       <c r="H189">
         <v>0.55678000000000005</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189">
+        <v>1.14439</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
@@ -14621,8 +15191,11 @@
       <c r="H190">
         <v>0.54979999999999996</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190">
+        <v>1.14361</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
@@ -14647,8 +15220,11 @@
       <c r="H191">
         <v>0.54879</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191">
+        <v>1.14283</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192">
         <v>0.17412</v>
       </c>
@@ -14673,8 +15249,11 @@
       <c r="H192">
         <v>0.54666999999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192">
+        <v>1.1420399999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
@@ -14699,8 +15278,11 @@
       <c r="H193">
         <v>0.54708000000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193">
+        <v>1.14124</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194">
         <v>0.14726</v>
       </c>
@@ -14725,8 +15307,11 @@
       <c r="H194">
         <v>0.52924000000000004</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194">
+        <v>1.1404300000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195">
         <v>0.14654</v>
       </c>
@@ -14751,8 +15336,11 @@
       <c r="H195">
         <v>0.53120999999999996</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195">
+        <v>1.1396200000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
@@ -14777,8 +15365,11 @@
       <c r="H196">
         <v>0.53813</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196">
+        <v>1.13883</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
@@ -14803,8 +15394,11 @@
       <c r="H197">
         <v>0.53386999999999996</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197">
+        <v>1.1380300000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
@@ -14829,8 +15423,11 @@
       <c r="H198">
         <v>0.54844000000000004</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198">
+        <v>1.1372599999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
@@ -14855,8 +15452,11 @@
       <c r="H199">
         <v>0.50988999999999995</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199">
+        <v>1.13649</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
@@ -14881,8 +15481,11 @@
       <c r="H200">
         <v>0.51858000000000004</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200">
+        <v>1.1356999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201">
         <v>0.13768</v>
       </c>
@@ -14907,8 +15510,11 @@
       <c r="H201">
         <v>0.52446999999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201">
+        <v>1.1349199999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
@@ -14933,8 +15539,11 @@
       <c r="H202">
         <v>0.52241000000000004</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202">
+        <v>1.1341399999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203">
         <v>0.14656</v>
       </c>
@@ -14959,8 +15568,11 @@
       <c r="H203">
         <v>0.51305999999999996</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203">
+        <v>1.1334</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
@@ -14985,8 +15597,11 @@
       <c r="H204">
         <v>0.51637999999999995</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204">
+        <v>1.1326700000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
@@ -15011,8 +15626,11 @@
       <c r="H205">
         <v>0.50195000000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205">
+        <v>1.13195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206">
         <v>0.12268</v>
       </c>
@@ -15037,8 +15655,11 @@
       <c r="H206">
         <v>0.51097999999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206">
+        <v>1.13124</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207">
         <v>0.12182</v>
       </c>
@@ -15063,8 +15684,11 @@
       <c r="H207">
         <v>0.49983</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207">
+        <v>1.1305400000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208">
         <v>0.12303</v>
       </c>
@@ -15089,8 +15713,11 @@
       <c r="H208">
         <v>0.50283999999999995</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208">
+        <v>1.1298299999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209">
         <v>0.11706</v>
       </c>
@@ -15115,8 +15742,11 @@
       <c r="H209">
         <v>0.49837999999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209">
+        <v>1.12914</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210">
         <v>0.11583</v>
       </c>
@@ -15141,8 +15771,11 @@
       <c r="H210">
         <v>0.48970000000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210">
+        <v>1.12846</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
@@ -15167,8 +15800,11 @@
       <c r="H211">
         <v>0.49841999999999997</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211">
+        <v>1.1277900000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
@@ -15193,8 +15829,11 @@
       <c r="H212">
         <v>0.48357</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212">
+        <v>1.12713</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
@@ -15219,8 +15858,11 @@
       <c r="H213">
         <v>0.49952000000000002</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213">
+        <v>1.1264700000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
@@ -15245,8 +15887,11 @@
       <c r="H214">
         <v>0.48005999999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214">
+        <v>1.1258300000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
@@ -15271,8 +15916,11 @@
       <c r="H215">
         <v>0.4819</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215">
+        <v>1.1252</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216">
         <v>0.11314</v>
       </c>
@@ -15297,8 +15945,11 @@
       <c r="H216">
         <v>0.47260000000000002</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216">
+        <v>1.1245499999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
@@ -15323,8 +15974,11 @@
       <c r="H217">
         <v>0.48553000000000002</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217">
+        <v>1.1239300000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218">
         <v>0.13441</v>
       </c>
@@ -15349,8 +16003,11 @@
       <c r="H218">
         <v>0.47561999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218">
+        <v>1.1233200000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219">
         <v>0.11197</v>
       </c>
@@ -15375,8 +16032,11 @@
       <c r="H219">
         <v>0.47550999999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219">
+        <v>1.1227</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220">
         <v>0.11214</v>
       </c>
@@ -15401,8 +16061,11 @@
       <c r="H220">
         <v>0.47626000000000002</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220">
+        <v>1.1221000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221">
         <v>0.10238</v>
       </c>
@@ -15427,8 +16090,11 @@
       <c r="H221">
         <v>0.47216999999999998</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221">
+        <v>1.1214900000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
@@ -15453,8 +16119,11 @@
       <c r="H222">
         <v>0.49553999999999998</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222">
+        <v>1.1208899999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -15479,8 +16148,11 @@
       <c r="H223">
         <v>0.46201999999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223">
+        <v>1.1203099999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224">
         <v>0.10054</v>
       </c>
@@ -15505,8 +16177,11 @@
       <c r="H224">
         <v>0.44469999999999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224">
+        <v>1.11971</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225">
         <v>0.10248</v>
       </c>
@@ -15531,8 +16206,11 @@
       <c r="H225">
         <v>0.45818999999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225">
+        <v>1.11913</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226">
         <v>0.10149</v>
       </c>
@@ -15557,8 +16235,11 @@
       <c r="H226">
         <v>0.44518000000000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226">
+        <v>1.1185400000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227">
         <v>0.10385</v>
       </c>
@@ -15583,8 +16264,11 @@
       <c r="H227">
         <v>0.46711000000000003</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227">
+        <v>1.1179699999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228">
         <v>0.10721</v>
       </c>
@@ -15609,8 +16293,11 @@
       <c r="H228">
         <v>0.46228000000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228">
+        <v>1.1173900000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229">
         <v>0.10183</v>
       </c>
@@ -15635,8 +16322,11 @@
       <c r="H229">
         <v>0.46039999999999998</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229">
+        <v>1.1168199999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
@@ -15661,8 +16351,11 @@
       <c r="H230">
         <v>0.44540999999999997</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230">
+        <v>1.11625</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
@@ -15687,8 +16380,11 @@
       <c r="H231">
         <v>0.45457999999999998</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231">
+        <v>1.1156699999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
@@ -15713,8 +16409,11 @@
       <c r="H232">
         <v>0.43764999999999998</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232">
+        <v>1.1151</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
@@ -15739,8 +16438,11 @@
       <c r="H233">
         <v>0.43281999999999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233">
+        <v>1.11453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
@@ -15765,8 +16467,11 @@
       <c r="H234">
         <v>0.44912999999999997</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234">
+        <v>1.1139600000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
@@ -15791,8 +16496,11 @@
       <c r="H235">
         <v>0.43578</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235">
+        <v>1.1133999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236">
         <v>0.11858</v>
       </c>
@@ -15817,8 +16525,11 @@
       <c r="H236">
         <v>0.43417</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236">
+        <v>1.1128199999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
@@ -15843,8 +16554,11 @@
       <c r="H237">
         <v>0.42542999999999997</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237">
+        <v>1.11226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
@@ -15869,8 +16583,11 @@
       <c r="H238">
         <v>0.42979000000000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238">
+        <v>1.11171</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
@@ -15895,8 +16612,11 @@
       <c r="H239">
         <v>0.43692999999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239">
+        <v>1.1111500000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
@@ -15921,8 +16641,11 @@
       <c r="H240">
         <v>0.41438999999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240">
+        <v>1.1105799999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241">
         <v>0.1134</v>
       </c>
@@ -15947,8 +16670,11 @@
       <c r="H241">
         <v>0.42387999999999998</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241">
+        <v>1.10999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
@@ -15973,8 +16699,11 @@
       <c r="H242">
         <v>0.4173</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242">
+        <v>1.10941</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
@@ -15999,8 +16728,11 @@
       <c r="H243">
         <v>0.42992999999999998</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243">
+        <v>1.1088199999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
@@ -16025,8 +16757,11 @@
       <c r="H244">
         <v>0.41122999999999998</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244">
+        <v>1.10823</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
@@ -16051,8 +16786,11 @@
       <c r="H245">
         <v>0.42544999999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245">
+        <v>1.10762</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
@@ -16077,8 +16815,11 @@
       <c r="H246">
         <v>0.41116000000000003</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246">
+        <v>1.1069899999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247">
         <v>0.10452</v>
       </c>
@@ -16103,8 +16844,11 @@
       <c r="H247">
         <v>0.40638000000000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247">
+        <v>1.1063499999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
@@ -16129,8 +16873,11 @@
       <c r="H248">
         <v>0.41263</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248">
+        <v>1.1056900000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -16155,8 +16902,11 @@
       <c r="H249">
         <v>0.39678000000000002</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249">
+        <v>1.105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
@@ -16181,8 +16931,11 @@
       <c r="H250">
         <v>0.38388</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I250">
+        <v>1.10429</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
@@ -16207,8 +16960,11 @@
       <c r="H251">
         <v>0.39945000000000003</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251">
+        <v>1.10355</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
@@ -16233,8 +16989,11 @@
       <c r="H252">
         <v>0.39187</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252">
+        <v>1.10277</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
@@ -16259,8 +17018,11 @@
       <c r="H253">
         <v>0.38784000000000002</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253">
+        <v>1.1019600000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
@@ -16285,8 +17047,11 @@
       <c r="H254">
         <v>0.39734999999999998</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254">
+        <v>1.1010899999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
@@ -16311,8 +17076,11 @@
       <c r="H255">
         <v>0.38355</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255">
+        <v>1.1001799999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
@@ -16337,8 +17105,11 @@
       <c r="H256">
         <v>0.38446999999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I256">
+        <v>1.09921</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
@@ -16363,1298 +17134,1301 @@
       <c r="H257">
         <v>0.37708999999999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I257">
+        <v>1.0981000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273">
         <v>7.6480000000000006E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274">
         <v>7.5179999999999997E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275">
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276">
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277">
         <v>6.071E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279">
         <v>6.2780000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280">
         <v>6.4979999999999996E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281">
         <v>0.10792</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282">
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284">
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285">
         <v>6.293E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286">
         <v>7.7579999999999996E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287">
         <v>9.8110000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288">
         <v>7.6689999999999994E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290">
         <v>5.3370000000000001E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291">
         <v>5.1860000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292">
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293">
         <v>8.2559999999999995E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294">
         <v>6.837E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295">
         <v>6.5949999999999995E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296">
         <v>6.1510000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297">
         <v>0.10789</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298">
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300">
         <v>6.3140000000000002E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301">
         <v>5.6579999999999998E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302">
         <v>5.2389999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304">
         <v>5.1450000000000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306">
         <v>6.479E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307">
         <v>9.6180000000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308">
         <v>9.4920000000000004E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309">
         <v>6.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310">
         <v>5.9479999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311">
         <v>5.4510000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312">
         <v>5.1979999999999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313">
         <v>7.6670000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314">
         <v>5.9240000000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315">
         <v>5.8049999999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316">
         <v>5.0360000000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317">
         <v>6.3320000000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318">
         <v>8.1710000000000005E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319">
         <v>5.9950000000000003E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320">
         <v>4.9979999999999997E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321">
         <v>4.7169999999999997E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322">
         <v>4.8779999999999997E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323">
         <v>5.7770000000000002E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324">
         <v>9.8250000000000004E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325">
         <v>8.5629999999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326">
         <v>6.6720000000000002E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327">
         <v>5.4260000000000003E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329">
         <v>6.3339999999999994E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330">
         <v>5.6610000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331">
         <v>5.3510000000000002E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333">
         <v>4.299E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335">
         <v>4.514E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336">
         <v>5.0110000000000002E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337">
         <v>6.7330000000000001E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338">
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339">
         <v>6.5509999999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340">
         <v>5.4379999999999998E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341">
         <v>4.718E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342">
         <v>4.3270000000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343">
         <v>4.1439999999999998E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344">
         <v>4.1779999999999998E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345">
         <v>4.3880000000000002E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346">
         <v>4.632E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347">
         <v>5.0509999999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348">
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349">
         <v>7.979E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350">
         <v>5.9249999999999997E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351">
         <v>5.4719999999999998E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352">
         <v>6.4049999999999996E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353">
         <v>5.3150000000000003E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354">
         <v>4.6440000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355">
         <v>4.2340000000000003E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356">
         <v>4.0939999999999997E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357">
         <v>4.1410000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358">
         <v>4.3040000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359">
         <v>0.11991</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360">
         <v>8.2909999999999998E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361">
         <v>5.2209999999999999E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362">
         <v>4.428E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363">
         <v>4.054E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365">
         <v>3.8080000000000003E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366">
         <v>3.9030000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367">
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368">
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369">
         <v>6.9519999999999998E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370">
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371">
         <v>4.7539999999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372">
         <v>4.3720000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373">
         <v>4.2119999999999998E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376">
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377">
         <v>0.12336</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378">
         <v>6.5350000000000005E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379">
         <v>4.7890000000000002E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380">
         <v>4.1860000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381">
         <v>4.2659999999999997E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382">
         <v>4.4089999999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383">
         <v>3.934E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384">
         <v>3.7409999999999999E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385">
         <v>3.6589999999999998E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386">
         <v>3.8170000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387">
         <v>4.3180000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388">
         <v>0.12934999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389">
         <v>6.5110000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390">
         <v>5.1470000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391">
         <v>4.5769999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392">
         <v>4.1110000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394">
         <v>4.7570000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395">
         <v>7.5480000000000005E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396">
         <v>6.3519999999999993E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397">
         <v>6.275E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398">
         <v>4.8570000000000002E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399">
         <v>0.04</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400">
         <v>3.594E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401">
         <v>3.4470000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402">
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403">
         <v>3.6580000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404">
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405">
         <v>5.042E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406">
         <v>6.8080000000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408">
         <v>6.4339999999999994E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409">
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410">
         <v>5.8790000000000002E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411">
         <v>4.5330000000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412">
         <v>3.9370000000000002E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413">
         <v>3.6830000000000002E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415">
         <v>3.8690000000000002E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416">
         <v>4.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418">
         <v>4.0340000000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419">
         <v>5.0310000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420">
         <v>8.4580000000000002E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421">
         <v>5.781E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422">
         <v>4.7840000000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423">
         <v>4.5089999999999998E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424">
         <v>3.8370000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425">
         <v>3.526E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426">
         <v>3.4130000000000001E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427">
         <v>3.4439999999999998E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428">
         <v>3.5409999999999997E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429">
         <v>3.9489999999999997E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430">
         <v>5.5320000000000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431">
         <v>7.8359999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432">
         <v>4.6640000000000001E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435">
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436">
         <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437">
         <v>3.4119999999999998E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438">
         <v>0.14990999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439">
         <v>6.216E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440">
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441">
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442">
         <v>3.5180000000000003E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443">
         <v>3.3279999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444">
         <v>3.168E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445">
         <v>3.1419999999999997E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446">
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447">
         <v>3.7220000000000003E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448">
         <v>5.2019999999999997E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449">
         <v>7.4300000000000005E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450">
         <v>5.008E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451">
         <v>4.0189999999999997E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452">
         <v>3.542E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454">
         <v>3.3239999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455">
         <v>4.5440000000000001E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456">
         <v>8.5529999999999995E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457">
         <v>4.4650000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458">
         <v>3.7850000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459">
         <v>3.508E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460">
         <v>3.6859999999999997E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461">
         <v>4.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462">
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463">
         <v>4.0529999999999997E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464">
         <v>3.4009999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465">
         <v>3.2439999999999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466">
         <v>3.2480000000000002E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467">
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468">
         <v>3.6409999999999998E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469">
         <v>6.7019999999999996E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470">
         <v>8.3449999999999996E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471">
         <v>5.5449999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472">
         <v>4.2090000000000002E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473">
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474">
         <v>3.9280000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475">
         <v>3.4139999999999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476">
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477">
         <v>3.143E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478">
         <v>5.0040000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479">
         <v>4.5080000000000002E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480">
         <v>5.0770000000000003E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1">
       <c r="A482">
         <v>3.6769999999999997E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1">
       <c r="A483">
         <v>3.3360000000000001E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1">
       <c r="A484">
         <v>3.2590000000000001E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1">
       <c r="A485">
         <v>3.848E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1">
       <c r="A486">
         <v>4.9820000000000003E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1">
       <c r="A487">
         <v>5.373E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1">
       <c r="A488">
         <v>4.0419999999999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1">
       <c r="A489">
         <v>3.5040000000000002E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1">
       <c r="A490">
         <v>3.4070000000000003E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1">
       <c r="A491">
         <v>3.3689999999999998E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1">
       <c r="A492">
         <v>3.2939999999999997E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1">
       <c r="A493">
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1">
       <c r="A494">
         <v>4.0320000000000002E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1">
       <c r="A495">
         <v>6.2920000000000004E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1">
       <c r="A496">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1">
       <c r="A497">
         <v>3.5139999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1">
       <c r="A498">
         <v>3.3579999999999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1">
       <c r="A499">
         <v>3.9559999999999998E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1">
       <c r="A500">
         <v>5.2109999999999997E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1">
       <c r="A501">
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1">
       <c r="A502">
         <v>4.4010000000000001E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1">
       <c r="A503">
         <v>3.9809999999999998E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1">
       <c r="A504">
         <v>3.4250000000000003E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1">
       <c r="A505">
         <v>3.0530000000000002E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1">
       <c r="A506">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1">
       <c r="A507">
         <v>2.8819999999999998E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1">
       <c r="A508">
         <v>3.1210000000000002E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1">
       <c r="A509">
         <v>3.4279999999999998E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1">
       <c r="A510">
         <v>4.0759999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1">
       <c r="A511">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1">
       <c r="A512">
         <v>7.0860000000000006E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1">
       <c r="A513">
         <v>4.3569999999999998E-2</v>
       </c>
@@ -17671,13 +18445,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D35BB-E572-41C3-9409-E11A3769A3F0}">
   <dimension ref="A1:B257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A241" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -17685,7 +18459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>9.9228073120117104E-3</v>
       </c>
@@ -17693,7 +18467,7 @@
         <v>9.9613281250000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>9.9228073120117104E-3</v>
       </c>
@@ -17701,7 +18475,7 @@
         <v>9.9613281250000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>9.8459167480468707E-3</v>
       </c>
@@ -17709,7 +18483,7 @@
         <v>9.9226562500000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>9.7693283081054603E-3</v>
       </c>
@@ -17717,7 +18491,7 @@
         <v>9.883984375E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>9.6930419921875E-3</v>
       </c>
@@ -17725,7 +18499,7 @@
         <v>9.8453124999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>9.6170578002929604E-3</v>
       </c>
@@ -17733,7 +18507,7 @@
         <v>9.8066406249999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9.5413757324218692E-3</v>
       </c>
@@ -17741,7 +18515,7 @@
         <v>9.7679687499999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>9.4659957885742194E-3</v>
       </c>
@@ -17749,7 +18523,7 @@
         <v>9.7292968749999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9.3909179687500007E-3</v>
       </c>
@@ -17757,7 +18531,7 @@
         <v>9.6906249999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9.3161422729492096E-3</v>
       </c>
@@ -17765,7 +18539,7 @@
         <v>9.6519531249999995E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>9.2416687011718703E-3</v>
       </c>
@@ -17773,7 +18547,7 @@
         <v>9.6132812499999994E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>9.1674972534179604E-3</v>
       </c>
@@ -17781,7 +18555,7 @@
         <v>9.5746093749999994E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>9.0936279296875006E-3</v>
       </c>
@@ -17789,7 +18563,7 @@
         <v>9.5359374999999993E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>9.0200607299804596E-3</v>
       </c>
@@ -17797,7 +18571,7 @@
         <v>9.4972656249999992E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>8.9467956542968706E-3</v>
       </c>
@@ -17805,7 +18579,7 @@
         <v>9.4585937500000009E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>8.8738327026367195E-3</v>
       </c>
@@ -17813,7 +18587,7 @@
         <v>9.4199218750000008E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>8.8011718749999995E-3</v>
       </c>
@@ -17821,7 +18595,7 @@
         <v>9.3812500000000007E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>8.7288131713867192E-3</v>
       </c>
@@ -17829,7 +18603,7 @@
         <v>9.3425781250000006E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>8.65675659179687E-3</v>
       </c>
@@ -17837,7 +18611,7 @@
         <v>9.3039062500000005E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>8.5850021362304692E-3</v>
       </c>
@@ -17845,7 +18619,7 @@
         <v>9.2652343750000005E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>8.5135498046874994E-3</v>
       </c>
@@ -17853,7 +18627,7 @@
         <v>9.2265625000000004E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>8.4423995971679693E-3</v>
       </c>
@@ -17861,7 +18635,7 @@
         <v>9.1878906250000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>8.3715515136718703E-3</v>
       </c>
@@ -17869,7 +18643,7 @@
         <v>9.1492187500000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>8.3010055541992093E-3</v>
       </c>
@@ -17877,7 +18651,7 @@
         <v>9.1105468750000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>8.2307617187500001E-3</v>
       </c>
@@ -17885,7 +18659,7 @@
         <v>9.0718750000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>8.1608200073242099E-3</v>
       </c>
@@ -17893,7 +18667,7 @@
         <v>9.033203125E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>8.0911804199218697E-3</v>
       </c>
@@ -17901,7 +18675,7 @@
         <v>8.9945312499999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>8.0218429565429693E-3</v>
       </c>
@@ -17909,7 +18683,7 @@
         <v>8.9558593749999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>7.9528076171875E-3</v>
       </c>
@@ -17917,7 +18691,7 @@
         <v>8.9171874999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>7.88407440185546E-3</v>
       </c>
@@ -17925,7 +18699,7 @@
         <v>8.8785156249999997E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>7.8156433105468701E-3</v>
       </c>
@@ -17933,7 +18707,7 @@
         <v>8.8398437499999996E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>7.7475143432617199E-3</v>
       </c>
@@ -17941,7 +18715,7 @@
         <v>8.8011718749999995E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>7.6796874999999999E-3</v>
       </c>
@@ -17949,7 +18723,7 @@
         <v>8.7624999999999995E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>7.6121627807617196E-3</v>
       </c>
@@ -17957,7 +18731,7 @@
         <v>8.7238281249999994E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>7.5449401855468704E-3</v>
       </c>
@@ -17965,7 +18739,7 @@
         <v>8.6851562499999993E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>7.47801971435546E-3</v>
       </c>
@@ -17973,7 +18747,7 @@
         <v>8.6464843749999992E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>7.4114013671874998E-3</v>
       </c>
@@ -17981,7 +18755,7 @@
         <v>8.6078124999999991E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>7.3450851440429697E-3</v>
       </c>
@@ -17989,7 +18763,7 @@
         <v>8.5691406250000008E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>7.2790710449218698E-3</v>
       </c>
@@ -17997,7 +18771,7 @@
         <v>8.5304687500000007E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>7.2133590698242097E-3</v>
       </c>
@@ -18005,7 +18779,7 @@
         <v>8.4917968750000006E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>7.1479492187499997E-3</v>
       </c>
@@ -18013,7 +18787,7 @@
         <v>8.4531250000000006E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>7.0828414916992198E-3</v>
       </c>
@@ -18021,7 +18795,7 @@
         <v>8.4144531250000005E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>7.0180358886718702E-3</v>
       </c>
@@ -18029,7 +18803,7 @@
         <v>8.3757812500000004E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>6.9535324096679698E-3</v>
       </c>
@@ -18037,7 +18811,7 @@
         <v>8.3371093750000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>6.8893310546874996E-3</v>
       </c>
@@ -18045,7 +18819,7 @@
         <v>8.2984375000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>6.82543182373047E-3</v>
       </c>
@@ -18053,7 +18827,7 @@
         <v>8.2597656250000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>6.7618347167968697E-3</v>
       </c>
@@ -18061,7 +18835,7 @@
         <v>8.2210937500000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>6.69853973388671E-3</v>
       </c>
@@ -18069,7 +18843,7 @@
         <v>8.182421875E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>6.6355468750000004E-3</v>
       </c>
@@ -18077,7 +18851,7 @@
         <v>8.1437499999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>6.5728561401367097E-3</v>
       </c>
@@ -18085,7 +18859,7 @@
         <v>8.1050781249999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>6.51046752929687E-3</v>
       </c>
@@ -18093,7 +18867,7 @@
         <v>8.0664062499999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>6.4483810424804597E-3</v>
       </c>
@@ -18101,7 +18875,7 @@
         <v>8.0277343749999997E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>6.3865966796875003E-3</v>
       </c>
@@ -18109,7 +18883,7 @@
         <v>7.9890624999999996E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>6.3251144409179599E-3</v>
       </c>
@@ -18117,7 +18891,7 @@
         <v>7.9503906249999996E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>6.2639343261718704E-3</v>
       </c>
@@ -18125,7 +18899,7 @@
         <v>7.9117187499999995E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>6.2030563354492198E-3</v>
       </c>
@@ -18133,7 +18907,7 @@
         <v>7.8730468749999994E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>6.1424804687500003E-3</v>
       </c>
@@ -18141,7 +18915,7 @@
         <v>7.8343749999999993E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>6.0822067260742196E-3</v>
       </c>
@@ -18149,7 +18923,7 @@
         <v>7.7957031250000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>6.0222351074218699E-3</v>
       </c>
@@ -18157,7 +18931,7 @@
         <v>7.75703125E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>5.96256561279296E-3</v>
       </c>
@@ -18165,7 +18939,7 @@
         <v>7.718359375E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>5.9031982421875002E-3</v>
       </c>
@@ -18173,7 +18947,7 @@
         <v>7.6796874999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>5.8441329956054697E-3</v>
       </c>
@@ -18181,7 +18955,7 @@
         <v>7.6410156249999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>5.7853698730468703E-3</v>
       </c>
@@ -18189,7 +18963,7 @@
         <v>7.6023437499999997E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>5.7269088745117097E-3</v>
       </c>
@@ -18197,7 +18971,7 @@
         <v>7.5636718749999996E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>5.6687500000000002E-3</v>
       </c>
@@ -18205,7 +18979,7 @@
         <v>7.5249999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>5.6108932495117104E-3</v>
       </c>
@@ -18213,7 +18987,7 @@
         <v>7.4863281250000004E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>5.5533386230468698E-3</v>
       </c>
@@ -18221,7 +18995,7 @@
         <v>7.4476562500000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>5.4960861206054604E-3</v>
       </c>
@@ -18229,7 +19003,7 @@
         <v>7.4089843750000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>5.4391357421875001E-3</v>
       </c>
@@ -18237,7 +19011,7 @@
         <v>7.3703125000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>5.3824874877929597E-3</v>
       </c>
@@ -18245,7 +19019,7 @@
         <v>7.331640625E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>5.3261413574218703E-3</v>
       </c>
@@ -18253,7 +19027,7 @@
         <v>7.29296875E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>5.2700973510742197E-3</v>
       </c>
@@ -18261,7 +19035,7 @@
         <v>7.2542968749999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>5.2143554687500001E-3</v>
       </c>
@@ -18269,7 +19043,7 @@
         <v>7.2156249999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>5.1589157104492099E-3</v>
       </c>
@@ -18277,7 +19051,7 @@
         <v>7.1769531249999997E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>5.1037780761718698E-3</v>
       </c>
@@ -18285,7 +19059,7 @@
         <v>7.1382812499999997E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>5.0489425659179599E-3</v>
       </c>
@@ -18293,7 +19067,7 @@
         <v>7.0996093749999996E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>4.9944091796875001E-3</v>
       </c>
@@ -18301,7 +19075,7 @@
         <v>7.0609375000000004E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>4.9401779174804697E-3</v>
       </c>
@@ -18309,7 +19083,7 @@
         <v>7.0222656250000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>4.8862487792968702E-3</v>
       </c>
@@ -18317,7 +19091,7 @@
         <v>6.9835937500000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>4.8326217651367097E-3</v>
       </c>
@@ -18325,7 +19099,7 @@
         <v>6.9449218750000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>4.7792968750000001E-3</v>
       </c>
@@ -18333,7 +19107,7 @@
         <v>6.9062500000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>4.7262741088867103E-3</v>
       </c>
@@ -18341,7 +19115,7 @@
         <v>6.867578125E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>4.6735534667968698E-3</v>
       </c>
@@ -18349,7 +19123,7 @@
         <v>6.8289062499999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>4.6211349487304603E-3</v>
       </c>
@@ -18357,7 +19131,7 @@
         <v>6.7902343749999998E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>4.5690185546875001E-3</v>
       </c>
@@ -18365,7 +19139,7 @@
         <v>6.7515624999999998E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>4.5172042846679597E-3</v>
       </c>
@@ -18373,7 +19147,7 @@
         <v>6.7128906249999997E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>4.4656921386718703E-3</v>
       </c>
@@ -18381,7 +19155,7 @@
         <v>6.6742187499999996E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>4.4144821166992197E-3</v>
       </c>
@@ -18389,7 +19163,7 @@
         <v>6.6355468750000004E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>4.3635742187500002E-3</v>
       </c>
@@ -18397,7 +19171,7 @@
         <v>6.5968750000000003E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>4.3129684448242099E-3</v>
       </c>
@@ -18405,7 +19179,7 @@
         <v>6.5582031250000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>4.2626647949218699E-3</v>
       </c>
@@ -18413,7 +19187,7 @@
         <v>6.5195312500000002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>4.21266326904296E-3</v>
       </c>
@@ -18421,7 +19195,7 @@
         <v>6.4808593750000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>4.1629638671875002E-3</v>
       </c>
@@ -18429,7 +19203,7 @@
         <v>6.4421875E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>4.1135665893554697E-3</v>
       </c>
@@ -18437,7 +19211,7 @@
         <v>6.4035156249999999E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>4.0644714355468703E-3</v>
       </c>
@@ -18445,7 +19219,7 @@
         <v>6.3648437499999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>4.0156784057617098E-3</v>
       </c>
@@ -18453,7 +19227,7 @@
         <v>6.3261718749999998E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>3.9671875000000002E-3</v>
       </c>
@@ -18461,7 +19235,7 @@
         <v>6.2874999999999997E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>3.9189987182617096E-3</v>
       </c>
@@ -18469,7 +19243,7 @@
         <v>6.2488281249999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>3.8711120605468699E-3</v>
       </c>
@@ -18477,7 +19251,7 @@
         <v>6.2101562500000004E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>3.82352752685546E-3</v>
       </c>
@@ -18485,7 +19259,7 @@
         <v>6.1714843750000003E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>3.7762451171874998E-3</v>
       </c>
@@ -18493,7 +19267,7 @@
         <v>6.1328125000000002E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>3.7292648315429599E-3</v>
       </c>
@@ -18501,7 +19275,7 @@
         <v>6.0941406250000002E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>3.68258666992187E-3</v>
       </c>
@@ -18509,7 +19283,7 @@
         <v>6.0554687500000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>3.6362106323242099E-3</v>
       </c>
@@ -18517,7 +19291,7 @@
         <v>6.016796875E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>3.5901367187499999E-3</v>
       </c>
@@ -18525,7 +19299,7 @@
         <v>5.9781249999999999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>3.5443649291992101E-3</v>
       </c>
@@ -18533,7 +19307,7 @@
         <v>5.9394531249999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>3.4988952636718701E-3</v>
       </c>
@@ -18541,7 +19315,7 @@
         <v>5.9007812499999998E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>3.4537277221679602E-3</v>
       </c>
@@ -18549,7 +19323,7 @@
         <v>5.8621093749999997E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>3.4088623046875E-3</v>
       </c>
@@ -18557,7 +19331,7 @@
         <v>5.8234374999999996E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>3.36429901123046E-3</v>
       </c>
@@ -18565,7 +19339,7 @@
         <v>5.7847656250000004E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>3.3200378417968701E-3</v>
       </c>
@@ -18573,7 +19347,7 @@
         <v>5.7460937500000003E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>3.27607879638671E-3</v>
       </c>
@@ -18581,7 +19355,7 @@
         <v>5.7074218750000003E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>3.2324218750000001E-3</v>
       </c>
@@ -18589,7 +19363,7 @@
         <v>5.6687500000000002E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>3.1890670776367099E-3</v>
       </c>
@@ -18597,7 +19371,7 @@
         <v>5.6300781250000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>3.1460144042968702E-3</v>
       </c>
@@ -18605,7 +19379,7 @@
         <v>5.59140625E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>3.1032638549804599E-3</v>
       </c>
@@ -18613,7 +19387,7 @@
         <v>5.5527343749999999E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>3.0608154296875001E-3</v>
       </c>
@@ -18621,7 +19395,7 @@
         <v>5.5140624999999999E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>3.0186691284179602E-3</v>
       </c>
@@ -18629,7 +19403,7 @@
         <v>5.4753906249999998E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>2.9768249511718699E-3</v>
       </c>
@@ -18637,7 +19411,7 @@
         <v>5.4367187499999997E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>2.9352828979492102E-3</v>
       </c>
@@ -18645,7 +19419,7 @@
         <v>5.3980468749999996E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>2.8940429687499998E-3</v>
       </c>
@@ -18653,7 +19427,7 @@
         <v>5.3593750000000004E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>2.85310516357421E-3</v>
       </c>
@@ -18661,7 +19435,7 @@
         <v>5.3207031250000003E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>2.81246948242187E-3</v>
       </c>
@@ -18669,7 +19443,7 @@
         <v>5.2820312500000003E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>2.7721359252929601E-3</v>
       </c>
@@ -18677,7 +19451,7 @@
         <v>5.2433593750000002E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>2.7321044921874999E-3</v>
       </c>
@@ -18685,7 +19459,7 @@
         <v>5.2046875000000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>2.6923751831054599E-3</v>
       </c>
@@ -18693,7 +19467,7 @@
         <v>5.166015625E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>2.6529479980468701E-3</v>
       </c>
@@ -18701,7 +19475,7 @@
         <v>5.12734375E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>2.61382293701171E-3</v>
       </c>
@@ -18709,7 +19483,7 @@
         <v>5.0886718749999999E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>2.575E-3</v>
       </c>
@@ -18717,7 +19491,7 @@
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>2.5364791870117098E-3</v>
       </c>
@@ -18725,7 +19499,7 @@
         <v>5.0113281249999997E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>2.4982604980468702E-3</v>
       </c>
@@ -18733,7 +19507,7 @@
         <v>4.9726562499999996E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>2.4603439331054599E-3</v>
       </c>
@@ -18741,7 +19515,7 @@
         <v>4.9339843749999996E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>2.4227294921875002E-3</v>
       </c>
@@ -18749,7 +19523,7 @@
         <v>4.8953125000000004E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>2.3854171752929602E-3</v>
       </c>
@@ -18757,7 +19531,7 @@
         <v>4.8566406250000003E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>2.3484069824218699E-3</v>
       </c>
@@ -18765,7 +19539,7 @@
         <v>4.8179687500000002E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>2.3116989135742098E-3</v>
       </c>
@@ -18773,7 +19547,7 @@
         <v>4.7792968750000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>2.2752929687499999E-3</v>
       </c>
@@ -18781,7 +19555,7 @@
         <v>4.740625E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>2.2391891479492101E-3</v>
       </c>
@@ -18789,7 +19563,7 @@
         <v>4.701953125E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>2.2033874511718701E-3</v>
       </c>
@@ -18797,7 +19571,7 @@
         <v>4.6632812499999999E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>2.1678878784179602E-3</v>
       </c>
@@ -18805,7 +19579,7 @@
         <v>4.6246093749999998E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>2.1326904296875E-3</v>
       </c>
@@ -18813,7 +19587,7 @@
         <v>4.5859374999999997E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>2.09779510498046E-3</v>
       </c>
@@ -18821,7 +19595,7 @@
         <v>4.5472656249999997E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>2.0632019042968702E-3</v>
       </c>
@@ -18829,7 +19603,7 @@
         <v>4.5085937499999996E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>2.0289108276367101E-3</v>
       </c>
@@ -18837,7 +19611,7 @@
         <v>4.4699218750000004E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>1.9949218750000002E-3</v>
       </c>
@@ -18845,7 +19619,7 @@
         <v>4.4312500000000003E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>1.96123504638671E-3</v>
       </c>
@@ -18853,7 +19627,7 @@
         <v>4.3925781250000002E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>1.9278503417968699E-3</v>
       </c>
@@ -18861,7 +19635,7 @@
         <v>4.3539062500000001E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>1.8947677612304601E-3</v>
       </c>
@@ -18869,7 +19643,7 @@
         <v>4.3152343750000001E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>1.8619873046874999E-3</v>
       </c>
@@ -18877,7 +19651,7 @@
         <v>4.2765625E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>1.8295089721679599E-3</v>
       </c>
@@ -18885,7 +19659,7 @@
         <v>4.2378906249999999E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>1.7973327636718701E-3</v>
       </c>
@@ -18893,7 +19667,7 @@
         <v>4.1992187499999998E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>1.76545867919921E-3</v>
       </c>
@@ -18901,7 +19675,7 @@
         <v>4.1605468749999997E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>1.7338867187500001E-3</v>
       </c>
@@ -18909,7 +19683,7 @@
         <v>4.1218749999999997E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>1.7026168823242099E-3</v>
       </c>
@@ -18917,7 +19691,7 @@
         <v>4.0832031249999996E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>1.6716491699218701E-3</v>
       </c>
@@ -18925,7 +19699,7 @@
         <v>4.0445312500000004E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>1.64098358154296E-3</v>
       </c>
@@ -18933,7 +19707,7 @@
         <v>4.0058593750000003E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>1.6106201171875E-3</v>
       </c>
@@ -18941,7 +19715,7 @@
         <v>3.9671875000000002E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>1.5805587768554601E-3</v>
       </c>
@@ -18949,7 +19723,7 @@
         <v>3.9285156250000001E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>1.55079956054687E-3</v>
       </c>
@@ -18957,7 +19731,7 @@
         <v>3.8898437500000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>1.52134246826171E-3</v>
       </c>
@@ -18965,7 +19739,7 @@
         <v>3.851171875E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>1.4921875E-3</v>
       </c>
@@ -18973,7 +19747,7 @@
         <v>3.8124999999999999E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>1.4633346557617101E-3</v>
       </c>
@@ -18981,7 +19755,7 @@
         <v>3.7738281249999998E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>1.43478393554687E-3</v>
       </c>
@@ -18989,7 +19763,7 @@
         <v>3.7351562500000002E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>1.40653533935546E-3</v>
       </c>
@@ -18997,7 +19771,7 @@
         <v>3.6964843750000001E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>1.3785888671875E-3</v>
       </c>
@@ -19005,7 +19779,7 @@
         <v>3.6578125E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>1.3509445190429601E-3</v>
       </c>
@@ -19013,7 +19787,7 @@
         <v>3.619140625E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>1.32360229492187E-3</v>
       </c>
@@ -19021,7 +19795,7 @@
         <v>3.5804687499999999E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>1.29656219482421E-3</v>
       </c>
@@ -19029,7 +19803,7 @@
         <v>3.5417968749999998E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>1.26982421875E-3</v>
       </c>
@@ -19037,7 +19811,7 @@
         <v>3.5031250000000002E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>1.2433883666992101E-3</v>
       </c>
@@ -19045,7 +19819,7 @@
         <v>3.4644531250000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>1.21725463867187E-3</v>
       </c>
@@ -19053,7 +19827,7 @@
         <v>3.42578125E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>1.19142303466796E-3</v>
       </c>
@@ -19061,7 +19835,7 @@
         <v>3.3871093749999999E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>1.1658935546875E-3</v>
       </c>
@@ -19069,7 +19843,7 @@
         <v>3.3484374999999999E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>1.1406661987304601E-3</v>
       </c>
@@ -19077,7 +19851,7 @@
         <v>3.3097656250000002E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>1.11574096679687E-3</v>
       </c>
@@ -19085,7 +19859,7 @@
         <v>3.2710937500000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>1.09111785888671E-3</v>
       </c>
@@ -19093,7 +19867,7 @@
         <v>3.2324218750000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>1.066796875E-3</v>
       </c>
@@ -19101,7 +19875,7 @@
         <v>3.19375E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>1.0427780151367101E-3</v>
       </c>
@@ -19109,7 +19883,7 @@
         <v>3.1550781249999999E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>1.0190612792968701E-3</v>
       </c>
@@ -19117,7 +19891,7 @@
         <v>3.1164062499999998E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>9.9564666748046802E-4</v>
       </c>
@@ -19125,7 +19899,7 @@
         <v>3.0777343750000002E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>9.7253417968749996E-4</v>
       </c>
@@ -19133,7 +19907,7 @@
         <v>3.0390625000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>9.4972381591796804E-4</v>
       </c>
@@ -19141,7 +19915,7 @@
         <v>3.000390625E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>9.2721557617187497E-4</v>
       </c>
@@ -19149,7 +19923,7 @@
         <v>2.9617187499999999E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>9.0500946044921795E-4</v>
       </c>
@@ -19157,7 +19931,7 @@
         <v>2.9230468749999999E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>8.8310546874999999E-4</v>
       </c>
@@ -19165,7 +19939,7 @@
         <v>2.8843749999999998E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>8.6150360107421797E-4</v>
       </c>
@@ -19173,7 +19947,7 @@
         <v>2.8457031250000001E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>8.4020385742187502E-4</v>
       </c>
@@ -19181,7 +19955,7 @@
         <v>2.8070312500000001E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>8.1920623779296799E-4</v>
       </c>
@@ -19189,7 +19963,7 @@
         <v>2.768359375E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>7.9851074218750004E-4</v>
       </c>
@@ -19197,7 +19971,7 @@
         <v>2.7296874999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>7.7811737060546802E-4</v>
       </c>
@@ -19205,7 +19979,7 @@
         <v>2.6910156249999998E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>7.5802612304687496E-4</v>
       </c>
@@ -19213,7 +19987,7 @@
         <v>2.6523437500000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>7.3823699951171805E-4</v>
       </c>
@@ -19221,7 +19995,7 @@
         <v>2.6136718750000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>7.1874999999999999E-4</v>
       </c>
@@ -19229,7 +20003,7 @@
         <v>2.575E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>6.9956512451171797E-4</v>
       </c>
@@ -19237,7 +20011,7 @@
         <v>2.536328125E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>6.8068237304687502E-4</v>
       </c>
@@ -19245,7 +20019,7 @@
         <v>2.4976562499999999E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>6.62101745605468E-4</v>
       </c>
@@ -19253,7 +20027,7 @@
         <v>2.4589843749999998E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>6.4382324218750005E-4</v>
       </c>
@@ -19261,7 +20035,7 @@
         <v>2.4203125000000002E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>6.2584686279296804E-4</v>
       </c>
@@ -19269,7 +20043,7 @@
         <v>2.3816406250000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>6.0817260742187498E-4</v>
       </c>
@@ -19277,7 +20051,7 @@
         <v>2.34296875E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>5.9080047607421797E-4</v>
       </c>
@@ -19285,7 +20059,7 @@
         <v>2.3042968749999999E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>5.7373046875000002E-4</v>
       </c>
@@ -19293,7 +20067,7 @@
         <v>2.2656249999999998E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>5.5696258544921801E-4</v>
       </c>
@@ -19301,7 +20075,7 @@
         <v>2.2269531250000002E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>5.4049682617187495E-4</v>
       </c>
@@ -19309,7 +20083,7 @@
         <v>2.1882812500000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>5.2433319091796805E-4</v>
       </c>
@@ -19317,7 +20091,7 @@
         <v>2.149609375E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>5.084716796875E-4</v>
       </c>
@@ -19325,7 +20099,7 @@
         <v>2.1109375E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>4.9291229248046799E-4</v>
       </c>
@@ -19333,7 +20107,7 @@
         <v>2.0722656249999999E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>4.7765502929687499E-4</v>
       </c>
@@ -19341,7 +20115,7 @@
         <v>2.0335937499999998E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>4.6269989013671798E-4</v>
       </c>
@@ -19349,7 +20123,7 @@
         <v>1.9949218750000002E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>4.4804687499999999E-4</v>
       </c>
@@ -19357,7 +20131,7 @@
         <v>1.9562500000000001E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>4.3369598388671798E-4</v>
       </c>
@@ -19365,7 +20139,7 @@
         <v>1.917578125E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>4.1964721679687498E-4</v>
       </c>
@@ -19373,7 +20147,7 @@
         <v>1.8789062499999999E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>4.0590057373046797E-4</v>
       </c>
@@ -19381,7 +20155,7 @@
         <v>1.8402343750000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>3.9245605468749998E-4</v>
       </c>
@@ -19389,7 +20163,7 @@
         <v>1.8015625E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>3.7931365966796797E-4</v>
       </c>
@@ -19397,7 +20171,7 @@
         <v>1.7628906249999999E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>3.6647338867187498E-4</v>
       </c>
@@ -19405,7 +20179,7 @@
         <v>1.7242187500000001E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>3.5393524169921798E-4</v>
       </c>
@@ -19413,7 +20187,7 @@
         <v>1.685546875E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>3.4169921874999999E-4</v>
       </c>
@@ -19421,7 +20195,7 @@
         <v>1.6468749999999999E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>3.2976531982421798E-4</v>
       </c>
@@ -19429,7 +20203,7 @@
         <v>1.608203125E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>3.18133544921875E-4</v>
       </c>
@@ -19437,7 +20211,7 @@
         <v>1.56953125E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>3.0680389404296799E-4</v>
       </c>
@@ -19445,7 +20219,7 @@
         <v>1.5308593750000001E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>2.9577636718750001E-4</v>
       </c>
@@ -19453,7 +20227,7 @@
         <v>1.4921875E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>2.85050964355468E-4</v>
       </c>
@@ -19461,7 +20235,7 @@
         <v>1.4535156249999999E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>2.7462768554687502E-4</v>
       </c>
@@ -19469,7 +20243,7 @@
         <v>1.4148437500000001E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>2.6450653076171801E-4</v>
       </c>
@@ -19477,7 +20251,7 @@
         <v>1.376171875E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>2.5468749999999998E-4</v>
       </c>
@@ -19485,7 +20259,7 @@
         <v>1.3374999999999999E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>2.4517059326171798E-4</v>
       </c>
@@ -19493,7 +20267,7 @@
         <v>1.2988281250000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>2.3595581054687499E-4</v>
       </c>
@@ -19501,7 +20275,7 @@
         <v>1.26015625E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>2.2704315185546799E-4</v>
       </c>
@@ -19509,7 +20283,7 @@
         <v>1.2214843749999999E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>2.1843261718750001E-4</v>
       </c>
@@ -19517,7 +20291,7 @@
         <v>1.1828125000000001E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>2.1012420654296799E-4</v>
       </c>
@@ -19525,7 +20299,7 @@
         <v>1.144140625E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>2.0211791992187501E-4</v>
       </c>
@@ -19533,7 +20307,7 @@
         <v>1.1054687499999999E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>1.9441375732421801E-4</v>
       </c>
@@ -19541,7 +20315,7 @@
         <v>1.066796875E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>1.8701171875E-4</v>
       </c>
@@ -19549,7 +20323,7 @@
         <v>1.028125E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>1.7991180419921801E-4</v>
       </c>
@@ -19557,7 +20331,7 @@
         <v>9.894531250000001E-4</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>1.73114013671875E-4</v>
       </c>
@@ -19565,7 +20339,7 @@
         <v>9.5078125000000002E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>1.6661834716796801E-4</v>
       </c>
@@ -19573,7 +20347,7 @@
         <v>9.1210937500000005E-4</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>1.604248046875E-4</v>
       </c>
@@ -19581,7 +20355,7 @@
         <v>8.7343749999999997E-4</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>1.5453338623046801E-4</v>
       </c>
@@ -19589,7 +20363,7 @@
         <v>8.34765625E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>1.4894409179687501E-4</v>
       </c>
@@ -19597,7 +20371,7 @@
         <v>7.9609375000000003E-4</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>1.4365692138671799E-4</v>
       </c>
@@ -19605,7 +20379,7 @@
         <v>7.5742187499999996E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>1.3867187499999999E-4</v>
       </c>
@@ -19613,7 +20387,7 @@
         <v>7.1874999999999999E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>1.33988952636718E-4</v>
       </c>
@@ -19621,7 +20395,7 @@
         <v>6.8007812500000002E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>1.29608154296875E-4</v>
       </c>
@@ -19629,7 +20403,7 @@
         <v>6.4140625000000005E-4</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>1.2552947998046801E-4</v>
       </c>
@@ -19637,7 +20411,7 @@
         <v>6.0273437499999997E-4</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>1.2175292968749999E-4</v>
       </c>
@@ -19645,7 +20419,7 @@
         <v>5.640625E-4</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>1.1827850341796801E-4</v>
       </c>
@@ -19653,7 +20427,7 @@
         <v>5.2539062500000003E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248">
         <v>1.1510620117187499E-4</v>
       </c>
@@ -19661,7 +20435,7 @@
         <v>4.8671875000000001E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249">
         <v>1.1223602294921799E-4</v>
       </c>
@@ -19669,7 +20443,7 @@
         <v>4.4804687499999999E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250">
         <v>1.0966796875E-4</v>
       </c>
@@ -19677,7 +20451,7 @@
         <v>4.0937500000000002E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251">
         <v>1.07402038574218E-4</v>
       </c>
@@ -19685,7 +20459,7 @@
         <v>3.7070312499999999E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252">
         <v>1.05438232421875E-4</v>
       </c>
@@ -19693,7 +20467,7 @@
         <v>3.3203125000000002E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253">
         <v>1.03776550292968E-4</v>
       </c>
@@ -19701,7 +20475,7 @@
         <v>2.93359375E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254">
         <v>1.024169921875E-4</v>
       </c>
@@ -19709,7 +20483,7 @@
         <v>2.5468749999999998E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255">
         <v>1.01359558105468E-4</v>
       </c>
@@ -19717,7 +20491,7 @@
         <v>2.1601562500000001E-4</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256">
         <v>1.0060424804687501E-4</v>
       </c>
@@ -19725,7 +20499,7 @@
         <v>1.7734375000000001E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257">
         <v>1.00151062011718E-4</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF15A266-C8E1-4686-BAFA-1C4102110A87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F998C-E07D-4A84-9492-CC07AC30F2E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConvergePatternOfNN" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,9 @@
   <si>
     <t>Power=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN041601</t>
   </si>
 </sst>
 </file>
@@ -5876,6 +5879,818 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9041-42A2-8CF7-822D0A30421B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergePatternOfNN!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN041601</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergePatternOfNN!$I$2:$I$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>1.4317599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2537199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2462800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2386200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2347300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.22976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.22455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.21957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2152499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2072799999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.20381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2004900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.19763</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.19493</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.19248</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1900200000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.18763</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.18509</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.18238</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.17902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1747099999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.16971</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.16479</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1603300000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1559299999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1516900000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.14775</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1440399999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.14052</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1372</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1339600000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1308199999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1279699999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1250800000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1223099999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.11894</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1148800000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1099300000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1045499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0994699999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0946800000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.08995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0853299999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0809899999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0769</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.07301</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.06928</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0654600000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0618300000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0580099999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0544199999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0503100000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.04681</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0430299999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0395099999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0359400000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.03199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0286500000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.02434</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.02013</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.01603</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0118400000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.00745</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.00292</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99821000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.98951999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.98526000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.97636999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.97348999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.96952000000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.96565999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.95818999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.95806000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.95235000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.94632000000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.94682999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.94228000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93233999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.93974000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.92891000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92125999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.92190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.91530999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.91710000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.92108999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.90127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.89259999999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.90041000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.89493</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.90712000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.90471999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.88168000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.87405999999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.86795</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.87034</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.86714999999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.85872000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.88173999999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.85099000000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.84923000000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.84721999999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.84945999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.84206999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.84382000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.84297999999999995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83328999999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.82262000000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.82440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.82640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.81862000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.81306999999999996</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.80620999999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.81232000000000004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.81457000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.79969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.80037000000000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.80027000000000004</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.80257999999999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.78639000000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.78851000000000004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.78981999999999997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.7792</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.78417000000000003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.76944999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.76922999999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.77671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.77017999999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.77270000000000005</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.76415</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.76441999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.76049</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.75958999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.75756000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.75144999999999995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.74931999999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.74668999999999996</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.74446000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.74345000000000006</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.74541999999999997</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.74299000000000004</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.73541000000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.72824999999999995</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.73190999999999995</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.72289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.72750999999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.72058</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.73953999999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.71243999999999996</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.71338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.71006000000000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.71121999999999996</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.70787999999999995</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.70586000000000004</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.70723999999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.70050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.69750999999999996</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.69791000000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.69794</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.69005000000000005</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.69664000000000004</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.69206999999999996</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.67940999999999996</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.68583000000000005</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.68418999999999996</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.68098000000000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.68044000000000004</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.67181999999999997</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.67179</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.67481000000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.67152999999999996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.66647999999999996</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.66410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.65932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.66008</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.66341000000000006</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.65807000000000004</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.65317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.64939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.64671999999999996</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.65210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.64559</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.64497000000000004</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.64354</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.63568000000000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.63878000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.63536999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.63766</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.63722999999999996</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.62951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.62138000000000004</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.62356</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.62595999999999996</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.61726000000000003</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.61561999999999995</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.61400999999999994</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.61423000000000005</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.60970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.61102999999999996</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.61029</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.60435000000000005</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.60238999999999998</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.60629</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.60013000000000005</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.59136</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.59679000000000004</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.59577000000000002</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.59309999999999996</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.58930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.58792</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.58418999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.58182999999999996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.58160999999999996</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.57743</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.57811000000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.57562999999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.57065999999999995</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.57301000000000002</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.57204999999999995</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.57257999999999998</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.56555</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.55808999999999997</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.56054000000000004</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.55881999999999998</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.55996000000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.55884999999999996</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.55713000000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.55506999999999995</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.55018999999999996</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.55164000000000002</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.54851000000000005</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.54415000000000002</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.54393000000000002</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.54247999999999996</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.54151000000000005</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.54105000000000003</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.53981999999999997</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.53888999999999998</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.53847999999999996</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.53871999999999998</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.53944999999999999</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.54007000000000005</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.54159000000000002</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.54301999999999995</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.54596999999999996</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.54937000000000002</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.55393000000000003</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.55933999999999995</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.56638999999999995</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.57432000000000005</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.5837</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.59452000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27AF-4137-9AC1-5CFEAE0C0C91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9324,15 +10139,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9664,10 +10479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H513"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9680,9 +10495,10 @@
     <col min="6" max="6" width="23.125" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9707,8 +10523,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -9733,8 +10552,11 @@
       <c r="H2">
         <v>1.4206300000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>1.4317599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -9759,8 +10581,11 @@
       <c r="H3">
         <v>1.2538</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1.2537199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -9785,8 +10610,11 @@
       <c r="H4">
         <v>1.24709</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1.2462800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -9811,8 +10639,11 @@
       <c r="H5">
         <v>1.24204</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>1.242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -9837,8 +10668,11 @@
       <c r="H6">
         <v>1.23665</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1.2386200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -9863,8 +10697,11 @@
       <c r="H7">
         <v>1.23014</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1.2347300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -9889,8 +10726,11 @@
       <c r="H8">
         <v>1.2240500000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1.22976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -9915,8 +10755,11 @@
       <c r="H9">
         <v>1.2190000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1.22455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -9941,8 +10784,11 @@
       <c r="H10">
         <v>1.21421</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>1.21957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -9967,8 +10813,11 @@
       <c r="H11">
         <v>1.2098199999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1.2152499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -9993,8 +10842,11 @@
       <c r="H12">
         <v>1.2054800000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1.2111000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -10019,8 +10871,11 @@
       <c r="H13">
         <v>1.20116</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>1.2072799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -10045,8 +10900,11 @@
       <c r="H14">
         <v>1.19678</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1.20381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -10071,8 +10929,11 @@
       <c r="H15">
         <v>1.19224</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1.2004900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -10097,8 +10958,11 @@
       <c r="H16">
         <v>1.1869799999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1.19763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -10123,8 +10987,11 @@
       <c r="H17">
         <v>1.18069</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>1.19493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -10149,8 +11016,11 @@
       <c r="H18">
         <v>1.1738200000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>1.19248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -10175,8 +11045,11 @@
       <c r="H19">
         <v>1.167</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1.1900200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -10201,8 +11074,11 @@
       <c r="H20">
         <v>1.1607000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1.18763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -10227,8 +11103,11 @@
       <c r="H21">
         <v>1.1549100000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>1.18509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -10253,8 +11132,11 @@
       <c r="H22">
         <v>1.1495200000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>1.18238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -10279,8 +11161,11 @@
       <c r="H23">
         <v>1.14462</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1.17902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -10305,8 +11190,11 @@
       <c r="H24">
         <v>1.1403300000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>1.1747099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -10331,8 +11219,11 @@
       <c r="H25">
         <v>1.13646</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>1.16971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -10357,8 +11248,11 @@
       <c r="H26">
         <v>1.13263</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1.16479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -10383,8 +11277,11 @@
       <c r="H27">
         <v>1.1289199999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>1.1603300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -10409,8 +11306,11 @@
       <c r="H28">
         <v>1.1248800000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>1.1559299999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -10435,8 +11335,11 @@
       <c r="H29">
         <v>1.1197299999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>1.1516900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -10461,8 +11364,11 @@
       <c r="H30">
         <v>1.1130199999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>1.14775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -10487,8 +11393,11 @@
       <c r="H31">
         <v>1.1065799999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>1.1440399999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -10513,8 +11422,11 @@
       <c r="H32">
         <v>1.1006</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>1.14052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -10539,8 +11451,11 @@
       <c r="H33">
         <v>1.0948199999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>1.1372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -10565,8 +11480,11 @@
       <c r="H34">
         <v>1.0890200000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>1.1339600000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -10591,8 +11509,11 @@
       <c r="H35">
         <v>1.0837600000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>1.1308199999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -10617,8 +11538,11 @@
       <c r="H36">
         <v>1.07883</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>1.1279699999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -10643,8 +11567,11 @@
       <c r="H37">
         <v>1.0743100000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>1.1250800000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -10669,8 +11596,11 @@
       <c r="H38">
         <v>1.06986</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>1.1223099999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -10695,8 +11625,11 @@
       <c r="H39">
         <v>1.0653699999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>1.11894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -10721,8 +11654,11 @@
       <c r="H40">
         <v>1.06094</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>1.1148800000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -10747,8 +11683,11 @@
       <c r="H41">
         <v>1.05653</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>1.1099300000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -10773,8 +11712,11 @@
       <c r="H42">
         <v>1.05226</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>1.1045499999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -10799,8 +11741,11 @@
       <c r="H43">
         <v>1.0482499999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>1.0994699999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -10825,8 +11770,11 @@
       <c r="H44">
         <v>1.0442199999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>1.0946800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -10851,8 +11799,11 @@
       <c r="H45">
         <v>1.0398400000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>1.08995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -10877,8 +11828,11 @@
       <c r="H46">
         <v>1.03542</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>1.0853299999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -10903,8 +11857,11 @@
       <c r="H47">
         <v>1.03081</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>1.0809899999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -10929,8 +11886,11 @@
       <c r="H48">
         <v>1.0271699999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>1.0769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -10955,8 +11915,11 @@
       <c r="H49">
         <v>1.02199</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>1.07301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -10981,8 +11944,11 @@
       <c r="H50">
         <v>1.0180800000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>1.06928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -11007,8 +11973,11 @@
       <c r="H51">
         <v>1.01369</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>1.0654600000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -11033,8 +12002,11 @@
       <c r="H52">
         <v>1.00952</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>1.0618300000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -11059,8 +12031,11 @@
       <c r="H53">
         <v>1.00505</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>1.0580099999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -11085,8 +12060,11 @@
       <c r="H54">
         <v>1.00098</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>1.0544199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -11111,8 +12089,11 @@
       <c r="H55">
         <v>0.99624000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>1.0503100000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -11137,8 +12118,11 @@
       <c r="H56">
         <v>0.99194000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>1.04681</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -11163,8 +12147,11 @@
       <c r="H57">
         <v>0.98812</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>1.0430299999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -11189,8 +12176,11 @@
       <c r="H58">
         <v>0.98468</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>1.0395099999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -11215,8 +12205,11 @@
       <c r="H59">
         <v>0.97796000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>1.0359400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -11241,8 +12234,11 @@
       <c r="H60">
         <v>0.97294000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>1.03199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -11267,8 +12263,11 @@
       <c r="H61">
         <v>0.97084999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>1.0286500000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -11293,8 +12292,11 @@
       <c r="H62">
         <v>0.96528000000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>1.02434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -11319,8 +12321,11 @@
       <c r="H63">
         <v>0.96106000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>1.02013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -11345,8 +12350,11 @@
       <c r="H64">
         <v>0.95560999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>1.01603</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -11371,8 +12379,11 @@
       <c r="H65">
         <v>0.95350999999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>1.0118400000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -11397,8 +12408,11 @@
       <c r="H66">
         <v>0.96733000000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>1.00745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -11423,8 +12437,11 @@
       <c r="H67">
         <v>0.94330999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>1.00292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -11449,8 +12466,11 @@
       <c r="H68">
         <v>0.94547999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>0.99821000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -11475,8 +12495,11 @@
       <c r="H69">
         <v>0.93547000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>0.99380000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -11501,8 +12524,11 @@
       <c r="H70">
         <v>0.93228</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>0.98951999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -11527,8 +12553,11 @@
       <c r="H71">
         <v>0.94906000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>0.98526000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -11553,8 +12582,11 @@
       <c r="H72">
         <v>0.92579999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>0.98089999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -11579,8 +12611,11 @@
       <c r="H73">
         <v>0.92037000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>0.97636999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -11605,8 +12640,11 @@
       <c r="H74">
         <v>0.91693999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>0.97348999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -11631,8 +12669,11 @@
       <c r="H75">
         <v>0.91124000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0.96952000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -11657,8 +12698,11 @@
       <c r="H76">
         <v>0.90739999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>0.96565999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -11683,8 +12727,11 @@
       <c r="H77">
         <v>0.90813999999999995</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0.95818999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -11709,8 +12756,11 @@
       <c r="H78">
         <v>0.93222000000000005</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>0.95806000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -11735,8 +12785,11 @@
       <c r="H79">
         <v>0.89912000000000003</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>0.95235000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -11761,8 +12814,11 @@
       <c r="H80">
         <v>0.89558000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>0.94632000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -11787,8 +12843,11 @@
       <c r="H81">
         <v>0.89078999999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>0.94682999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -11813,8 +12872,11 @@
       <c r="H82">
         <v>0.88263000000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>0.94228000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -11839,8 +12901,11 @@
       <c r="H83">
         <v>0.88412000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>0.93233999999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -11865,8 +12930,11 @@
       <c r="H84">
         <v>0.88268999999999997</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>0.93974000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -11891,8 +12959,11 @@
       <c r="H85">
         <v>0.87907999999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>0.92891000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -11917,8 +12988,11 @@
       <c r="H86">
         <v>0.87473000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>0.92125999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -11943,8 +13017,11 @@
       <c r="H87">
         <v>0.86824000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>0.92190000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -11969,8 +13046,11 @@
       <c r="H88">
         <v>0.86436999999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>0.91530999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -11995,8 +13075,11 @@
       <c r="H89">
         <v>0.85697999999999996</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>0.91710000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -12021,8 +13104,11 @@
       <c r="H90">
         <v>0.85526999999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>0.92108999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -12047,8 +13133,11 @@
       <c r="H91">
         <v>0.85407</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>0.90127000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -12073,8 +13162,11 @@
       <c r="H92">
         <v>0.85119999999999996</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>0.89771000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -12099,8 +13191,11 @@
       <c r="H93">
         <v>0.85323000000000004</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>0.89259999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -12125,8 +13220,11 @@
       <c r="H94">
         <v>0.84450999999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>0.90041000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -12151,8 +13249,11 @@
       <c r="H95">
         <v>0.84823999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>0.89493</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -12177,8 +13278,11 @@
       <c r="H96">
         <v>0.83233999999999997</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>0.90712000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -12203,8 +13307,11 @@
       <c r="H97">
         <v>0.83599999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>0.90471999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -12229,8 +13336,11 @@
       <c r="H98">
         <v>0.82711000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>0.88168000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -12255,8 +13365,11 @@
       <c r="H99">
         <v>0.83006999999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>0.87405999999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -12281,8 +13394,11 @@
       <c r="H100">
         <v>0.82708000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>0.86795</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -12307,8 +13423,11 @@
       <c r="H101">
         <v>0.81877</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>0.87034</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -12333,8 +13452,11 @@
       <c r="H102">
         <v>0.84021000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <v>0.86714999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -12359,8 +13481,11 @@
       <c r="H103">
         <v>0.81716999999999995</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <v>0.85872000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -12385,8 +13510,11 @@
       <c r="H104">
         <v>0.81201999999999996</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <v>0.88173999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -12411,8 +13539,11 @@
       <c r="H105">
         <v>0.81013999999999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <v>0.85099000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -12437,8 +13568,11 @@
       <c r="H106">
         <v>0.80354000000000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <v>0.84923000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -12463,8 +13597,11 @@
       <c r="H107">
         <v>0.80054000000000003</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <v>0.84721999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -12489,8 +13626,11 @@
       <c r="H108">
         <v>0.80269000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <v>0.84945999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -12515,8 +13655,11 @@
       <c r="H109">
         <v>0.79493999999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <v>0.84206999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -12541,8 +13684,11 @@
       <c r="H110">
         <v>0.79386000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <v>0.84382000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -12567,8 +13713,11 @@
       <c r="H111">
         <v>0.79425999999999997</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <v>0.84297999999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -12593,8 +13742,11 @@
       <c r="H112">
         <v>0.80025000000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <v>0.83328999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -12619,8 +13771,11 @@
       <c r="H113">
         <v>0.78715000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>0.82262000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -12645,8 +13800,11 @@
       <c r="H114">
         <v>0.78998999999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <v>0.82440000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -12671,8 +13829,11 @@
       <c r="H115">
         <v>0.77854000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <v>0.82640999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
@@ -12697,8 +13858,11 @@
       <c r="H116">
         <v>0.78276999999999997</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <v>0.81862000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
@@ -12723,8 +13887,11 @@
       <c r="H117">
         <v>0.78036000000000005</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <v>0.81306999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
@@ -12749,8 +13916,11 @@
       <c r="H118">
         <v>0.77046000000000003</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <v>0.80620999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.42812</v>
       </c>
@@ -12775,8 +13945,11 @@
       <c r="H119">
         <v>0.76402000000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <v>0.81232000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
@@ -12801,8 +13974,11 @@
       <c r="H120">
         <v>0.77542</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <v>0.81457000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
@@ -12827,8 +14003,11 @@
       <c r="H121">
         <v>0.76939000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <v>0.79969000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
@@ -12853,8 +14032,11 @@
       <c r="H122">
         <v>0.76453000000000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <v>0.80037000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
@@ -12879,8 +14061,11 @@
       <c r="H123">
         <v>0.76256000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123">
+        <v>0.80027000000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
@@ -12905,8 +14090,11 @@
       <c r="H124">
         <v>0.75192999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124">
+        <v>0.80257999999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
@@ -12931,8 +14119,11 @@
       <c r="H125">
         <v>0.75334000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125">
+        <v>0.78639000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
@@ -12957,8 +14148,11 @@
       <c r="H126">
         <v>0.75883</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126">
+        <v>0.78851000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
@@ -12983,8 +14177,11 @@
       <c r="H127">
         <v>0.75678999999999996</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127">
+        <v>0.78981999999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.35158</v>
       </c>
@@ -13009,8 +14206,11 @@
       <c r="H128">
         <v>0.74107999999999996</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128">
+        <v>0.7792</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
@@ -13035,8 +14235,11 @@
       <c r="H129">
         <v>0.74944999999999995</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129">
+        <v>0.78417000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.3392</v>
       </c>
@@ -13061,8 +14264,11 @@
       <c r="H130">
         <v>0.73465999999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130">
+        <v>0.76944999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
@@ -13087,8 +14293,11 @@
       <c r="H131">
         <v>0.74058999999999997</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131">
+        <v>0.76922999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
@@ -13113,8 +14322,11 @@
       <c r="H132">
         <v>0.74428000000000005</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132">
+        <v>0.77671999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
@@ -13139,8 +14351,11 @@
       <c r="H133">
         <v>0.72777000000000003</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133">
+        <v>0.77017999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
@@ -13165,8 +14380,11 @@
       <c r="H134">
         <v>0.73497000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <v>0.77270000000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.32943</v>
       </c>
@@ -13191,8 +14409,11 @@
       <c r="H135">
         <v>0.72772000000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135">
+        <v>0.76415</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
@@ -13217,8 +14438,11 @@
       <c r="H136">
         <v>0.73414999999999997</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136">
+        <v>0.76441999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
@@ -13243,8 +14467,11 @@
       <c r="H137">
         <v>0.72009000000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137">
+        <v>0.76049</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.31</v>
       </c>
@@ -13269,8 +14496,11 @@
       <c r="H138">
         <v>0.73116000000000003</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138">
+        <v>0.75958999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
@@ -13295,8 +14525,11 @@
       <c r="H139">
         <v>0.71641999999999995</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <v>0.75756000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.30506</v>
       </c>
@@ -13321,8 +14554,11 @@
       <c r="H140">
         <v>0.71338000000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <v>0.75144999999999995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
@@ -13347,8 +14583,11 @@
       <c r="H141">
         <v>0.71118999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <v>0.74931999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
@@ -13373,8 +14612,11 @@
       <c r="H142">
         <v>0.71628000000000003</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142">
+        <v>0.74668999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.29479</v>
       </c>
@@ -13399,8 +14641,11 @@
       <c r="H143">
         <v>0.70799999999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143">
+        <v>0.74446000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
@@ -13425,8 +14670,11 @@
       <c r="H144">
         <v>0.70323000000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144">
+        <v>0.74345000000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
@@ -13451,8 +14699,11 @@
       <c r="H145">
         <v>0.70603000000000005</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145">
+        <v>0.74541999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
@@ -13477,8 +14728,11 @@
       <c r="H146">
         <v>0.69372</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146">
+        <v>0.74299000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.2722</v>
       </c>
@@ -13503,8 +14757,11 @@
       <c r="H147">
         <v>0.69537000000000004</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <v>0.73541000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
@@ -13529,8 +14786,11 @@
       <c r="H148">
         <v>0.69259999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148">
+        <v>0.72824999999999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
@@ -13555,8 +14815,11 @@
       <c r="H149">
         <v>0.68938999999999995</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149">
+        <v>0.73190999999999995</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
@@ -13581,8 +14844,11 @@
       <c r="H150">
         <v>0.68257999999999996</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150">
+        <v>0.72289999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
@@ -13607,8 +14873,11 @@
       <c r="H151">
         <v>0.67796999999999996</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151">
+        <v>0.72750999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
@@ -13633,8 +14902,11 @@
       <c r="H152">
         <v>0.67749000000000004</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152">
+        <v>0.72058</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.25683</v>
       </c>
@@ -13659,8 +14931,11 @@
       <c r="H153">
         <v>0.66674999999999995</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153">
+        <v>0.73953999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
@@ -13685,8 +14960,11 @@
       <c r="H154">
         <v>0.67457</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154">
+        <v>0.71243999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
@@ -13711,8 +14989,11 @@
       <c r="H155">
         <v>0.66513</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155">
+        <v>0.71338000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
@@ -13737,8 +15018,11 @@
       <c r="H156">
         <v>0.66325000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156">
+        <v>0.71006000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.24456</v>
       </c>
@@ -13763,8 +15047,11 @@
       <c r="H157">
         <v>0.65815999999999997</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157">
+        <v>0.71121999999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
@@ -13789,8 +15076,11 @@
       <c r="H158">
         <v>0.65037999999999996</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158">
+        <v>0.70787999999999995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
@@ -13815,8 +15105,11 @@
       <c r="H159">
         <v>0.64881</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159">
+        <v>0.70586000000000004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.22721</v>
       </c>
@@ -13841,8 +15134,11 @@
       <c r="H160">
         <v>0.64459</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160">
+        <v>0.70723999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
@@ -13867,8 +15163,11 @@
       <c r="H161">
         <v>0.63604000000000005</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161">
+        <v>0.70050000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.21545</v>
       </c>
@@ -13893,8 +15192,11 @@
       <c r="H162">
         <v>0.63507999999999998</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162">
+        <v>0.69750999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.21892</v>
       </c>
@@ -13919,8 +15221,11 @@
       <c r="H163">
         <v>0.63336000000000003</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163">
+        <v>0.69791000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
@@ -13945,8 +15250,11 @@
       <c r="H164">
         <v>0.62831000000000004</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164">
+        <v>0.69794</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.22827</v>
       </c>
@@ -13971,8 +15279,11 @@
       <c r="H165">
         <v>0.63027999999999995</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165">
+        <v>0.69005000000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
@@ -13997,8 +15308,11 @@
       <c r="H166">
         <v>0.62341999999999997</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166">
+        <v>0.69664000000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.21489</v>
       </c>
@@ -14023,8 +15337,11 @@
       <c r="H167">
         <v>0.61877000000000004</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167">
+        <v>0.69206999999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
@@ -14049,8 +15366,11 @@
       <c r="H168">
         <v>0.61660000000000004</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168">
+        <v>0.67940999999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
@@ -14075,8 +15395,11 @@
       <c r="H169">
         <v>0.60760000000000003</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169">
+        <v>0.68583000000000005</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.20321</v>
       </c>
@@ -14101,8 +15424,11 @@
       <c r="H170">
         <v>0.63016000000000005</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170">
+        <v>0.68418999999999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.193</v>
       </c>
@@ -14127,8 +15453,11 @@
       <c r="H171">
         <v>0.60284000000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171">
+        <v>0.68098000000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
@@ -14153,8 +15482,11 @@
       <c r="H172">
         <v>0.60062000000000004</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172">
+        <v>0.68044000000000004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.19649</v>
       </c>
@@ -14179,8 +15511,11 @@
       <c r="H173">
         <v>0.60146999999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173">
+        <v>0.67181999999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
@@ -14205,8 +15540,11 @@
       <c r="H174">
         <v>0.58921999999999997</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174">
+        <v>0.67179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
@@ -14231,8 +15569,11 @@
       <c r="H175">
         <v>0.59062000000000003</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175">
+        <v>0.67481000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.18289</v>
       </c>
@@ -14257,8 +15598,11 @@
       <c r="H176">
         <v>0.59038999999999997</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176">
+        <v>0.67152999999999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.17509</v>
       </c>
@@ -14283,8 +15627,11 @@
       <c r="H177">
         <v>0.60116000000000003</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177">
+        <v>0.66647999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.16594</v>
       </c>
@@ -14309,8 +15656,11 @@
       <c r="H178">
         <v>0.59645999999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178">
+        <v>0.66410000000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.16971</v>
       </c>
@@ -14335,8 +15685,11 @@
       <c r="H179">
         <v>0.56959000000000004</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179">
+        <v>0.65932000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
@@ -14361,8 +15714,11 @@
       <c r="H180">
         <v>0.58275999999999994</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180">
+        <v>0.66008</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
@@ -14387,8 +15743,11 @@
       <c r="H181">
         <v>0.57596000000000003</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181">
+        <v>0.66341000000000006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.17637</v>
       </c>
@@ -14413,8 +15772,11 @@
       <c r="H182">
         <v>0.57486000000000004</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182">
+        <v>0.65807000000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.16108</v>
       </c>
@@ -14439,8 +15801,11 @@
       <c r="H183">
         <v>0.57452999999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183">
+        <v>0.65317999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
@@ -14465,8 +15830,11 @@
       <c r="H184">
         <v>0.56479999999999997</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184">
+        <v>0.64939999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
@@ -14491,8 +15859,11 @@
       <c r="H185">
         <v>0.56006</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185">
+        <v>0.64671999999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
@@ -14517,8 +15888,11 @@
       <c r="H186">
         <v>0.56879000000000002</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186">
+        <v>0.65210000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
@@ -14543,8 +15917,11 @@
       <c r="H187">
         <v>0.55698000000000003</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187">
+        <v>0.64559</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
@@ -14569,8 +15946,11 @@
       <c r="H188">
         <v>0.56464999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188">
+        <v>0.64497000000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
@@ -14595,8 +15975,11 @@
       <c r="H189">
         <v>0.55678000000000005</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189">
+        <v>0.64354</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
@@ -14621,8 +16004,11 @@
       <c r="H190">
         <v>0.54979999999999996</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190">
+        <v>0.63568000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
@@ -14647,8 +16033,11 @@
       <c r="H191">
         <v>0.54879</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191">
+        <v>0.63878000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.17412</v>
       </c>
@@ -14673,8 +16062,11 @@
       <c r="H192">
         <v>0.54666999999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192">
+        <v>0.63536999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
@@ -14699,8 +16091,11 @@
       <c r="H193">
         <v>0.54708000000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193">
+        <v>0.63766</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.14726</v>
       </c>
@@ -14725,8 +16120,11 @@
       <c r="H194">
         <v>0.52924000000000004</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194">
+        <v>0.63722999999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.14654</v>
       </c>
@@ -14751,8 +16149,11 @@
       <c r="H195">
         <v>0.53120999999999996</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195">
+        <v>0.62951000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
@@ -14777,8 +16178,11 @@
       <c r="H196">
         <v>0.53813</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196">
+        <v>0.62138000000000004</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
@@ -14803,8 +16207,11 @@
       <c r="H197">
         <v>0.53386999999999996</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197">
+        <v>0.62356</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
@@ -14829,8 +16236,11 @@
       <c r="H198">
         <v>0.54844000000000004</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198">
+        <v>0.62595999999999996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
@@ -14855,8 +16265,11 @@
       <c r="H199">
         <v>0.50988999999999995</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199">
+        <v>0.61726000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
@@ -14881,8 +16294,11 @@
       <c r="H200">
         <v>0.51858000000000004</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200">
+        <v>0.61561999999999995</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.13768</v>
       </c>
@@ -14907,8 +16323,11 @@
       <c r="H201">
         <v>0.52446999999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201">
+        <v>0.61400999999999994</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
@@ -14933,8 +16352,11 @@
       <c r="H202">
         <v>0.52241000000000004</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202">
+        <v>0.61423000000000005</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.14656</v>
       </c>
@@ -14959,8 +16381,11 @@
       <c r="H203">
         <v>0.51305999999999996</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203">
+        <v>0.60970000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
@@ -14985,8 +16410,11 @@
       <c r="H204">
         <v>0.51637999999999995</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204">
+        <v>0.61102999999999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
@@ -15011,8 +16439,11 @@
       <c r="H205">
         <v>0.50195000000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205">
+        <v>0.61029</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.12268</v>
       </c>
@@ -15037,8 +16468,11 @@
       <c r="H206">
         <v>0.51097999999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206">
+        <v>0.60435000000000005</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.12182</v>
       </c>
@@ -15063,8 +16497,11 @@
       <c r="H207">
         <v>0.49983</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207">
+        <v>0.60238999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.12303</v>
       </c>
@@ -15089,8 +16526,11 @@
       <c r="H208">
         <v>0.50283999999999995</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208">
+        <v>0.60629</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.11706</v>
       </c>
@@ -15115,8 +16555,11 @@
       <c r="H209">
         <v>0.49837999999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209">
+        <v>0.60013000000000005</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.11583</v>
       </c>
@@ -15141,8 +16584,11 @@
       <c r="H210">
         <v>0.48970000000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210">
+        <v>0.59136</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
@@ -15167,8 +16613,11 @@
       <c r="H211">
         <v>0.49841999999999997</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211">
+        <v>0.59679000000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
@@ -15193,8 +16642,11 @@
       <c r="H212">
         <v>0.48357</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212">
+        <v>0.59577000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
@@ -15219,8 +16671,11 @@
       <c r="H213">
         <v>0.49952000000000002</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213">
+        <v>0.59309999999999996</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
@@ -15245,8 +16700,11 @@
       <c r="H214">
         <v>0.48005999999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214">
+        <v>0.58930000000000005</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
@@ -15271,8 +16729,11 @@
       <c r="H215">
         <v>0.4819</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215">
+        <v>0.58792</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.11314</v>
       </c>
@@ -15297,8 +16758,11 @@
       <c r="H216">
         <v>0.47260000000000002</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216">
+        <v>0.58418999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
@@ -15323,8 +16787,11 @@
       <c r="H217">
         <v>0.48553000000000002</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217">
+        <v>0.58182999999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.13441</v>
       </c>
@@ -15349,8 +16816,11 @@
       <c r="H218">
         <v>0.47561999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218">
+        <v>0.58160999999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.11197</v>
       </c>
@@ -15375,8 +16845,11 @@
       <c r="H219">
         <v>0.47550999999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219">
+        <v>0.57743</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.11214</v>
       </c>
@@ -15401,8 +16874,11 @@
       <c r="H220">
         <v>0.47626000000000002</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220">
+        <v>0.57811000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.10238</v>
       </c>
@@ -15427,8 +16903,11 @@
       <c r="H221">
         <v>0.47216999999999998</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221">
+        <v>0.57562999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
@@ -15453,8 +16932,11 @@
       <c r="H222">
         <v>0.49553999999999998</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222">
+        <v>0.57065999999999995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -15479,8 +16961,11 @@
       <c r="H223">
         <v>0.46201999999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223">
+        <v>0.57301000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.10054</v>
       </c>
@@ -15505,8 +16990,11 @@
       <c r="H224">
         <v>0.44469999999999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224">
+        <v>0.57204999999999995</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.10248</v>
       </c>
@@ -15531,8 +17019,11 @@
       <c r="H225">
         <v>0.45818999999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225">
+        <v>0.57257999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.10149</v>
       </c>
@@ -15557,8 +17048,11 @@
       <c r="H226">
         <v>0.44518000000000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226">
+        <v>0.56555</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.10385</v>
       </c>
@@ -15583,8 +17077,11 @@
       <c r="H227">
         <v>0.46711000000000003</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227">
+        <v>0.55808999999999997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.10721</v>
       </c>
@@ -15609,8 +17106,11 @@
       <c r="H228">
         <v>0.46228000000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228">
+        <v>0.56054000000000004</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.10183</v>
       </c>
@@ -15635,8 +17135,11 @@
       <c r="H229">
         <v>0.46039999999999998</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229">
+        <v>0.55881999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
@@ -15661,8 +17164,11 @@
       <c r="H230">
         <v>0.44540999999999997</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230">
+        <v>0.55996000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
@@ -15687,8 +17193,11 @@
       <c r="H231">
         <v>0.45457999999999998</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231">
+        <v>0.55884999999999996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
@@ -15713,8 +17222,11 @@
       <c r="H232">
         <v>0.43764999999999998</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232">
+        <v>0.55713000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
@@ -15739,8 +17251,11 @@
       <c r="H233">
         <v>0.43281999999999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233">
+        <v>0.55506999999999995</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
@@ -15765,8 +17280,11 @@
       <c r="H234">
         <v>0.44912999999999997</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234">
+        <v>0.55018999999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
@@ -15791,8 +17309,11 @@
       <c r="H235">
         <v>0.43578</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235">
+        <v>0.55164000000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.11858</v>
       </c>
@@ -15817,8 +17338,11 @@
       <c r="H236">
         <v>0.43417</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236">
+        <v>0.54851000000000005</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
@@ -15843,8 +17367,11 @@
       <c r="H237">
         <v>0.42542999999999997</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237">
+        <v>0.54415000000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
@@ -15869,8 +17396,11 @@
       <c r="H238">
         <v>0.42979000000000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238">
+        <v>0.54393000000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
@@ -15895,8 +17425,11 @@
       <c r="H239">
         <v>0.43692999999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239">
+        <v>0.54247999999999996</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
@@ -15921,8 +17454,11 @@
       <c r="H240">
         <v>0.41438999999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240">
+        <v>0.54151000000000005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.1134</v>
       </c>
@@ -15947,8 +17483,11 @@
       <c r="H241">
         <v>0.42387999999999998</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241">
+        <v>0.54105000000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
@@ -15973,8 +17512,11 @@
       <c r="H242">
         <v>0.4173</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242">
+        <v>0.53981999999999997</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
@@ -15999,8 +17541,11 @@
       <c r="H243">
         <v>0.42992999999999998</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243">
+        <v>0.53888999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
@@ -16025,8 +17570,11 @@
       <c r="H244">
         <v>0.41122999999999998</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244">
+        <v>0.53847999999999996</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
@@ -16051,8 +17599,11 @@
       <c r="H245">
         <v>0.42544999999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245">
+        <v>0.53871999999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
@@ -16077,8 +17628,11 @@
       <c r="H246">
         <v>0.41116000000000003</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246">
+        <v>0.53944999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.10452</v>
       </c>
@@ -16103,8 +17657,11 @@
       <c r="H247">
         <v>0.40638000000000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247">
+        <v>0.54007000000000005</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
@@ -16129,8 +17686,11 @@
       <c r="H248">
         <v>0.41263</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248">
+        <v>0.54159000000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -16155,8 +17715,11 @@
       <c r="H249">
         <v>0.39678000000000002</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249">
+        <v>0.54301999999999995</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
@@ -16181,8 +17744,11 @@
       <c r="H250">
         <v>0.38388</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I250">
+        <v>0.54596999999999996</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
@@ -16207,8 +17773,11 @@
       <c r="H251">
         <v>0.39945000000000003</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251">
+        <v>0.54937000000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
@@ -16233,8 +17802,11 @@
       <c r="H252">
         <v>0.39187</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252">
+        <v>0.55393000000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
@@ -16259,8 +17831,11 @@
       <c r="H253">
         <v>0.38784000000000002</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253">
+        <v>0.55933999999999995</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
@@ -16285,8 +17860,11 @@
       <c r="H254">
         <v>0.39734999999999998</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254">
+        <v>0.56638999999999995</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
@@ -16311,8 +17889,11 @@
       <c r="H255">
         <v>0.38355</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255">
+        <v>0.57432000000000005</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
@@ -16337,8 +17918,11 @@
       <c r="H256">
         <v>0.38446999999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I256">
+        <v>0.5837</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
@@ -16363,92 +17947,95 @@
       <c r="H257">
         <v>0.37708999999999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I257">
+        <v>0.59452000000000005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>
@@ -17671,7 +19258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D35BB-E572-41C3-9409-E11A3769A3F0}">
   <dimension ref="A1:B257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A241" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F998C-E07D-4A84-9492-CC07AC30F2E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767AC6D6-BC1F-44C0-A78D-E4AB182896A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>NN041601</t>
+  </si>
+  <si>
+    <t>NN041702</t>
   </si>
 </sst>
 </file>
@@ -6691,6 +6694,818 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-27AF-4137-9AC1-5CFEAE0C0C91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergePatternOfNN!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN041702</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergePatternOfNN!$J$2:$J$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>1.38147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2387900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2433000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2335700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2311700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2301800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2289099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.22655</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2249000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2220599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2183999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2141599999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2139899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.20862</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.20621</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2052700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1970099999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1951700000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1935500000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.18668</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.18344</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.17831</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1744300000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.17344</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1697</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1671</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.16429</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.16239</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1593500000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.15751</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1611</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.15679</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1545399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.15364</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.15273</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.15042</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1486000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.14842</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1479200000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.14534</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1443399999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1433599999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.14341</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1416900000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.13961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.13933</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1381600000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1391500000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1371100000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.13663</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1355599999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.13259</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.13317</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1312800000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.13096</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.12971</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1281300000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1252599999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.12639</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.12279</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1221300000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1224799999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1231599999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1200699999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1195900000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1188899999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1177999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.1172299999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1177999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.11589</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1147400000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.1149800000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.1134999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.11368</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1112500000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.11067</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.11036</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1101099999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1084799999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.10605</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.10564</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1048</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.10487</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1052200000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1047</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.10442</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.10286</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1017300000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.10385</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.10104</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1005799999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0993900000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.09866</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0976600000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0982400000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0980300000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.1009599999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.09693</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.09534</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.09473</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0945100000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.10338</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.1097300000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.0995699999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.09395</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.09199</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.09117</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.09307</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.09141</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.0890899999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.0886400000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.0882799999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.0900799999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.0881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.08769</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.0892900000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0882099999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.0861700000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.08697</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.08511</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.08562</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.0840700000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.08456</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.08382</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.0831599999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.0821099999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.0817699999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.0814299999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.0814999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.08066</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.0803499999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.0801700000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.0800099999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.0804499999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.0791200000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.0787199999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.0804199999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.0782099999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.0777399999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.0772299999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.07656</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.0782400000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.0761700000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.07561</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.0766199999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.0769899999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.07524</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.07453</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.0741099999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.07345</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.07246</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.07331</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.0725</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.0712699999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.0712200000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.0721099999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.07192</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.07094</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.07064</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.06979</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.0699099999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.0694699999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.0684499999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.06819</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.0676699999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.0669599999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.0666599999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.06619</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.0657099999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.06545</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.0650200000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.0649</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.0635600000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.06345</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.06253</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.0619400000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.06128</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.0611699999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.06131</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.0606100000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.06105</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.0598700000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.0607</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.0592900000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.05846</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.0578700000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.0575600000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.0572600000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.05688</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.0566899999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.0559700000000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.05528</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.05524</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.0542400000000001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.0542</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.0536099999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.05281</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.0521199999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.0519700000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.0531699999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.0521199999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.0507299999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.0507299999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.0496399999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.0488</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.05332</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.05152</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.0502800000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.04789</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.0469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.04647</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.0462100000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.0454399999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.04505</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.04444</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.04399</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.0436099999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.04311</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.0431600000000001</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.0425800000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.04203</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.04162</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.0412399999999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.0408999999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.04053</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.04017</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.03979</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.03949</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.03912</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.0387299999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.0383599999999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.03799</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.0375700000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.03722</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.0367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.03643</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.0361</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.03569</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.03529</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.03488</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.0344899999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.03409</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.0336799999999999</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.0333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.0329699999999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.0326</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.03224</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.0318700000000001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.0314700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C43-4569-A286-8EAB055234C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10479,10 +11294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I513"/>
+  <dimension ref="A1:J513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10496,9 +11311,10 @@
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10526,8 +11342,11 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -10555,8 +11374,11 @@
       <c r="I2">
         <v>1.4317599999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1.38147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -10584,8 +11406,11 @@
       <c r="I3">
         <v>1.2537199999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1.2501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -10613,8 +11438,11 @@
       <c r="I4">
         <v>1.2462800000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1.2387900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -10642,8 +11470,11 @@
       <c r="I5">
         <v>1.242</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1.2433000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -10671,8 +11502,11 @@
       <c r="I6">
         <v>1.2386200000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1.23681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -10700,8 +11534,11 @@
       <c r="I7">
         <v>1.2347300000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1.2335700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -10729,8 +11566,11 @@
       <c r="I8">
         <v>1.22976</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1.2311700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -10758,8 +11598,11 @@
       <c r="I9">
         <v>1.22455</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1.2301800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -10787,8 +11630,11 @@
       <c r="I10">
         <v>1.21957</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1.2289099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -10816,8 +11662,11 @@
       <c r="I11">
         <v>1.2152499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>1.22655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -10845,8 +11694,11 @@
       <c r="I12">
         <v>1.2111000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>1.2249000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -10874,8 +11726,11 @@
       <c r="I13">
         <v>1.2072799999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1.2220599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -10903,8 +11758,11 @@
       <c r="I14">
         <v>1.20381</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1.2183999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -10932,8 +11790,11 @@
       <c r="I15">
         <v>1.2004900000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1.2141599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -10961,8 +11822,11 @@
       <c r="I16">
         <v>1.19763</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1.2139899999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -10990,8 +11854,11 @@
       <c r="I17">
         <v>1.19493</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>1.20862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -11019,8 +11886,11 @@
       <c r="I18">
         <v>1.19248</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>1.20621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -11048,8 +11918,11 @@
       <c r="I19">
         <v>1.1900200000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>1.2075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -11077,8 +11950,11 @@
       <c r="I20">
         <v>1.18763</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>1.2052700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -11106,8 +11982,11 @@
       <c r="I21">
         <v>1.18509</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>1.1970099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -11135,8 +12014,11 @@
       <c r="I22">
         <v>1.18238</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>1.1951700000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -11164,8 +12046,11 @@
       <c r="I23">
         <v>1.17902</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>1.1935500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -11193,8 +12078,11 @@
       <c r="I24">
         <v>1.1747099999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>1.18668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -11222,8 +12110,11 @@
       <c r="I25">
         <v>1.16971</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>1.18344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -11251,8 +12142,11 @@
       <c r="I26">
         <v>1.16479</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>1.17831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -11280,8 +12174,11 @@
       <c r="I27">
         <v>1.1603300000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>1.1744300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -11309,8 +12206,11 @@
       <c r="I28">
         <v>1.1559299999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>1.17344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -11338,8 +12238,11 @@
       <c r="I29">
         <v>1.1516900000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>1.1697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -11367,8 +12270,11 @@
       <c r="I30">
         <v>1.14775</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>1.1671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -11396,8 +12302,11 @@
       <c r="I31">
         <v>1.1440399999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>1.16429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -11425,8 +12334,11 @@
       <c r="I32">
         <v>1.14052</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>1.16239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -11454,8 +12366,11 @@
       <c r="I33">
         <v>1.1372</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>1.1593500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -11483,8 +12398,11 @@
       <c r="I34">
         <v>1.1339600000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>1.15751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -11512,8 +12430,11 @@
       <c r="I35">
         <v>1.1308199999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>1.1611</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -11541,8 +12462,11 @@
       <c r="I36">
         <v>1.1279699999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>1.15679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -11570,8 +12494,11 @@
       <c r="I37">
         <v>1.1250800000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>1.1545399999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -11599,8 +12526,11 @@
       <c r="I38">
         <v>1.1223099999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>1.15364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -11628,8 +12558,11 @@
       <c r="I39">
         <v>1.11894</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>1.15273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -11657,8 +12590,11 @@
       <c r="I40">
         <v>1.1148800000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>1.15042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -11686,8 +12622,11 @@
       <c r="I41">
         <v>1.1099300000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>1.1486000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -11715,8 +12654,11 @@
       <c r="I42">
         <v>1.1045499999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>1.14842</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -11744,8 +12686,11 @@
       <c r="I43">
         <v>1.0994699999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>1.1479200000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -11773,8 +12718,11 @@
       <c r="I44">
         <v>1.0946800000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>1.14534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -11802,8 +12750,11 @@
       <c r="I45">
         <v>1.08995</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>1.1443399999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -11831,8 +12782,11 @@
       <c r="I46">
         <v>1.0853299999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>1.1433599999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -11860,8 +12814,11 @@
       <c r="I47">
         <v>1.0809899999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>1.14341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -11889,8 +12846,11 @@
       <c r="I48">
         <v>1.0769</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>1.1416900000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -11918,8 +12878,11 @@
       <c r="I49">
         <v>1.07301</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>1.13961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -11947,8 +12910,11 @@
       <c r="I50">
         <v>1.06928</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -11976,8 +12942,11 @@
       <c r="I51">
         <v>1.0654600000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>1.13933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -12005,8 +12974,11 @@
       <c r="I52">
         <v>1.0618300000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>1.1381600000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -12034,8 +13006,11 @@
       <c r="I53">
         <v>1.0580099999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>1.1391500000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -12063,8 +13038,11 @@
       <c r="I54">
         <v>1.0544199999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>1.1371100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -12092,8 +13070,11 @@
       <c r="I55">
         <v>1.0503100000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>1.13663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -12121,8 +13102,11 @@
       <c r="I56">
         <v>1.04681</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>1.1355599999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -12150,8 +13134,11 @@
       <c r="I57">
         <v>1.0430299999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>1.13259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -12179,8 +13166,11 @@
       <c r="I58">
         <v>1.0395099999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>1.13317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -12208,8 +13198,11 @@
       <c r="I59">
         <v>1.0359400000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>1.1312800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -12237,8 +13230,11 @@
       <c r="I60">
         <v>1.03199</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>1.13096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -12266,8 +13262,11 @@
       <c r="I61">
         <v>1.0286500000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>1.12971</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -12295,8 +13294,11 @@
       <c r="I62">
         <v>1.02434</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>1.1281300000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -12324,8 +13326,11 @@
       <c r="I63">
         <v>1.02013</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>1.1259999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -12353,8 +13358,11 @@
       <c r="I64">
         <v>1.01603</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>1.1252599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -12382,8 +13390,11 @@
       <c r="I65">
         <v>1.0118400000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>1.12639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -12411,8 +13422,11 @@
       <c r="I66">
         <v>1.00745</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>1.12279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -12440,8 +13454,11 @@
       <c r="I67">
         <v>1.00292</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>1.1221300000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -12469,8 +13486,11 @@
       <c r="I68">
         <v>0.99821000000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>1.1224799999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -12498,8 +13518,11 @@
       <c r="I69">
         <v>0.99380000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>1.1231599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -12527,8 +13550,11 @@
       <c r="I70">
         <v>0.98951999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>1.1200699999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -12556,8 +13582,11 @@
       <c r="I71">
         <v>0.98526000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>1.1195900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -12585,8 +13614,11 @@
       <c r="I72">
         <v>0.98089999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>1.1188899999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -12614,8 +13646,11 @@
       <c r="I73">
         <v>0.97636999999999996</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>1.1177999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -12643,8 +13678,11 @@
       <c r="I74">
         <v>0.97348999999999997</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>1.1172299999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -12672,8 +13710,11 @@
       <c r="I75">
         <v>0.96952000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>1.1177999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -12701,8 +13742,11 @@
       <c r="I76">
         <v>0.96565999999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>1.11589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -12730,8 +13774,11 @@
       <c r="I77">
         <v>0.95818999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>1.1147400000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -12759,8 +13806,11 @@
       <c r="I78">
         <v>0.95806000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>1.1149800000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -12788,8 +13838,11 @@
       <c r="I79">
         <v>0.95235000000000003</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>1.1134999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -12817,8 +13870,11 @@
       <c r="I80">
         <v>0.94632000000000005</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>1.11368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -12846,8 +13902,11 @@
       <c r="I81">
         <v>0.94682999999999995</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>1.1112500000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -12875,8 +13934,11 @@
       <c r="I82">
         <v>0.94228000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <v>1.11067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -12904,8 +13966,11 @@
       <c r="I83">
         <v>0.93233999999999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <v>1.11036</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -12933,8 +13998,11 @@
       <c r="I84">
         <v>0.93974000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -12962,8 +14030,11 @@
       <c r="I85">
         <v>0.92891000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>1.1101099999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -12991,8 +14062,11 @@
       <c r="I86">
         <v>0.92125999999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>1.1084799999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -13020,8 +14094,11 @@
       <c r="I87">
         <v>0.92190000000000005</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>1.10605</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -13049,8 +14126,11 @@
       <c r="I88">
         <v>0.91530999999999996</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>1.10564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -13078,8 +14158,11 @@
       <c r="I89">
         <v>0.91710000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>1.1048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -13107,8 +14190,11 @@
       <c r="I90">
         <v>0.92108999999999996</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>1.10487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -13136,8 +14222,11 @@
       <c r="I91">
         <v>0.90127000000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>1.1052200000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -13165,8 +14254,11 @@
       <c r="I92">
         <v>0.89771000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>1.1047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -13194,8 +14286,11 @@
       <c r="I93">
         <v>0.89259999999999995</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>1.10442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -13223,8 +14318,11 @@
       <c r="I94">
         <v>0.90041000000000004</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>1.10286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -13252,8 +14350,11 @@
       <c r="I95">
         <v>0.89493</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>1.1017300000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -13281,8 +14382,11 @@
       <c r="I96">
         <v>0.90712000000000004</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>1.10385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -13310,8 +14414,11 @@
       <c r="I97">
         <v>0.90471999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>1.10104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -13339,8 +14446,11 @@
       <c r="I98">
         <v>0.88168000000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>1.101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -13368,8 +14478,11 @@
       <c r="I99">
         <v>0.87405999999999995</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>1.1005799999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -13397,8 +14510,11 @@
       <c r="I100">
         <v>0.86795</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>1.0993900000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -13426,8 +14542,11 @@
       <c r="I101">
         <v>0.87034</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>1.09866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -13455,8 +14574,11 @@
       <c r="I102">
         <v>0.86714999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>1.0976600000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -13484,8 +14606,11 @@
       <c r="I103">
         <v>0.85872000000000004</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>1.0982400000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -13513,8 +14638,11 @@
       <c r="I104">
         <v>0.88173999999999997</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>1.0980300000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -13542,8 +14670,11 @@
       <c r="I105">
         <v>0.85099000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>1.1009599999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -13571,8 +14702,11 @@
       <c r="I106">
         <v>0.84923000000000004</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <v>1.09693</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -13600,8 +14734,11 @@
       <c r="I107">
         <v>0.84721999999999997</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <v>1.09534</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -13629,8 +14766,11 @@
       <c r="I108">
         <v>0.84945999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <v>1.09473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -13658,8 +14798,11 @@
       <c r="I109">
         <v>0.84206999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <v>1.0945100000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -13687,8 +14830,11 @@
       <c r="I110">
         <v>0.84382000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <v>1.10338</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -13716,8 +14862,11 @@
       <c r="I111">
         <v>0.84297999999999995</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <v>1.1097300000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -13745,8 +14894,11 @@
       <c r="I112">
         <v>0.83328999999999998</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112">
+        <v>1.0995699999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -13774,8 +14926,11 @@
       <c r="I113">
         <v>0.82262000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113">
+        <v>1.09395</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -13803,8 +14958,11 @@
       <c r="I114">
         <v>0.82440000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114">
+        <v>1.09199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -13832,8 +14990,11 @@
       <c r="I115">
         <v>0.82640999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115">
+        <v>1.09117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
@@ -13861,8 +15022,11 @@
       <c r="I116">
         <v>0.81862000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116">
+        <v>1.09307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
@@ -13890,8 +15054,11 @@
       <c r="I117">
         <v>0.81306999999999996</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117">
+        <v>1.09141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
@@ -13919,8 +15086,11 @@
       <c r="I118">
         <v>0.80620999999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118">
+        <v>1.0890899999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.42812</v>
       </c>
@@ -13948,8 +15118,11 @@
       <c r="I119">
         <v>0.81232000000000004</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119">
+        <v>1.0886400000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
@@ -13977,8 +15150,11 @@
       <c r="I120">
         <v>0.81457000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120">
+        <v>1.0882799999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
@@ -14006,8 +15182,11 @@
       <c r="I121">
         <v>0.79969000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121">
+        <v>1.0900799999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
@@ -14035,8 +15214,11 @@
       <c r="I122">
         <v>0.80037000000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122">
+        <v>1.0881000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
@@ -14064,8 +15246,11 @@
       <c r="I123">
         <v>0.80027000000000004</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123">
+        <v>1.08769</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
@@ -14093,8 +15278,11 @@
       <c r="I124">
         <v>0.80257999999999996</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124">
+        <v>1.0892900000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
@@ -14122,8 +15310,11 @@
       <c r="I125">
         <v>0.78639000000000003</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125">
+        <v>1.0882099999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
@@ -14151,8 +15342,11 @@
       <c r="I126">
         <v>0.78851000000000004</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126">
+        <v>1.0861700000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
@@ -14180,8 +15374,11 @@
       <c r="I127">
         <v>0.78981999999999997</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127">
+        <v>1.08697</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.35158</v>
       </c>
@@ -14209,8 +15406,11 @@
       <c r="I128">
         <v>0.7792</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128">
+        <v>1.08511</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
@@ -14238,8 +15438,11 @@
       <c r="I129">
         <v>0.78417000000000003</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129">
+        <v>1.08562</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.3392</v>
       </c>
@@ -14267,8 +15470,11 @@
       <c r="I130">
         <v>0.76944999999999997</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130">
+        <v>1.0840700000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
@@ -14296,8 +15502,11 @@
       <c r="I131">
         <v>0.76922999999999997</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131">
+        <v>1.08456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
@@ -14325,8 +15534,11 @@
       <c r="I132">
         <v>0.77671999999999997</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132">
+        <v>1.08382</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
@@ -14354,8 +15566,11 @@
       <c r="I133">
         <v>0.77017999999999998</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133">
+        <v>1.0831599999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
@@ -14383,8 +15598,11 @@
       <c r="I134">
         <v>0.77270000000000005</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134">
+        <v>1.0821099999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.32943</v>
       </c>
@@ -14412,8 +15630,11 @@
       <c r="I135">
         <v>0.76415</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135">
+        <v>1.0817699999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
@@ -14441,8 +15662,11 @@
       <c r="I136">
         <v>0.76441999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136">
+        <v>1.0814299999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
@@ -14470,8 +15694,11 @@
       <c r="I137">
         <v>0.76049</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137">
+        <v>1.0814999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.31</v>
       </c>
@@ -14499,8 +15726,11 @@
       <c r="I138">
         <v>0.75958999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138">
+        <v>1.08066</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
@@ -14528,8 +15758,11 @@
       <c r="I139">
         <v>0.75756000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139">
+        <v>1.0803499999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.30506</v>
       </c>
@@ -14557,8 +15790,11 @@
       <c r="I140">
         <v>0.75144999999999995</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140">
+        <v>1.0801700000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
@@ -14586,8 +15822,11 @@
       <c r="I141">
         <v>0.74931999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141">
+        <v>1.0800099999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
@@ -14615,8 +15854,11 @@
       <c r="I142">
         <v>0.74668999999999996</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142">
+        <v>1.0804499999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.29479</v>
       </c>
@@ -14644,8 +15886,11 @@
       <c r="I143">
         <v>0.74446000000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>1.0791200000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
@@ -14673,8 +15918,11 @@
       <c r="I144">
         <v>0.74345000000000006</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144">
+        <v>1.0787199999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
@@ -14702,8 +15950,11 @@
       <c r="I145">
         <v>0.74541999999999997</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145">
+        <v>1.0804199999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
@@ -14731,8 +15982,11 @@
       <c r="I146">
         <v>0.74299000000000004</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146">
+        <v>1.0782099999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.2722</v>
       </c>
@@ -14760,8 +16014,11 @@
       <c r="I147">
         <v>0.73541000000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147">
+        <v>1.0777399999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
@@ -14789,8 +16046,11 @@
       <c r="I148">
         <v>0.72824999999999995</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148">
+        <v>1.0772299999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
@@ -14818,8 +16078,11 @@
       <c r="I149">
         <v>0.73190999999999995</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149">
+        <v>1.07656</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
@@ -14847,8 +16110,11 @@
       <c r="I150">
         <v>0.72289999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150">
+        <v>1.0782400000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
@@ -14876,8 +16142,11 @@
       <c r="I151">
         <v>0.72750999999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151">
+        <v>1.0761700000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
@@ -14905,8 +16174,11 @@
       <c r="I152">
         <v>0.72058</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152">
+        <v>1.07561</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.25683</v>
       </c>
@@ -14934,8 +16206,11 @@
       <c r="I153">
         <v>0.73953999999999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <v>1.0766199999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
@@ -14963,8 +16238,11 @@
       <c r="I154">
         <v>0.71243999999999996</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154">
+        <v>1.0769899999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
@@ -14992,8 +16270,11 @@
       <c r="I155">
         <v>0.71338000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155">
+        <v>1.07524</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
@@ -15021,8 +16302,11 @@
       <c r="I156">
         <v>0.71006000000000002</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156">
+        <v>1.07453</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.24456</v>
       </c>
@@ -15050,8 +16334,11 @@
       <c r="I157">
         <v>0.71121999999999996</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157">
+        <v>1.0741099999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
@@ -15079,8 +16366,11 @@
       <c r="I158">
         <v>0.70787999999999995</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158">
+        <v>1.07345</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
@@ -15108,8 +16398,11 @@
       <c r="I159">
         <v>0.70586000000000004</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159">
+        <v>1.07246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.22721</v>
       </c>
@@ -15137,8 +16430,11 @@
       <c r="I160">
         <v>0.70723999999999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160">
+        <v>1.07331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
@@ -15166,8 +16462,11 @@
       <c r="I161">
         <v>0.70050000000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161">
+        <v>1.0725</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.21545</v>
       </c>
@@ -15195,8 +16494,11 @@
       <c r="I162">
         <v>0.69750999999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162">
+        <v>1.0712699999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.21892</v>
       </c>
@@ -15224,8 +16526,11 @@
       <c r="I163">
         <v>0.69791000000000003</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163">
+        <v>1.0712200000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
@@ -15253,8 +16558,11 @@
       <c r="I164">
         <v>0.69794</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164">
+        <v>1.0721099999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.22827</v>
       </c>
@@ -15282,8 +16590,11 @@
       <c r="I165">
         <v>0.69005000000000005</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165">
+        <v>1.07192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
@@ -15311,8 +16622,11 @@
       <c r="I166">
         <v>0.69664000000000004</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166">
+        <v>1.07094</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.21489</v>
       </c>
@@ -15340,8 +16654,11 @@
       <c r="I167">
         <v>0.69206999999999996</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167">
+        <v>1.07064</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
@@ -15369,8 +16686,11 @@
       <c r="I168">
         <v>0.67940999999999996</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168">
+        <v>1.06979</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
@@ -15398,8 +16718,11 @@
       <c r="I169">
         <v>0.68583000000000005</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169">
+        <v>1.0699099999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.20321</v>
       </c>
@@ -15427,8 +16750,11 @@
       <c r="I170">
         <v>0.68418999999999996</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170">
+        <v>1.0694699999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.193</v>
       </c>
@@ -15456,8 +16782,11 @@
       <c r="I171">
         <v>0.68098000000000003</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171">
+        <v>1.0684499999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
@@ -15485,8 +16814,11 @@
       <c r="I172">
         <v>0.68044000000000004</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172">
+        <v>1.06819</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.19649</v>
       </c>
@@ -15514,8 +16846,11 @@
       <c r="I173">
         <v>0.67181999999999997</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173">
+        <v>1.0676699999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
@@ -15543,8 +16878,11 @@
       <c r="I174">
         <v>0.67179</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174">
+        <v>1.0669599999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
@@ -15572,8 +16910,11 @@
       <c r="I175">
         <v>0.67481000000000002</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175">
+        <v>1.0666599999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.18289</v>
       </c>
@@ -15601,8 +16942,11 @@
       <c r="I176">
         <v>0.67152999999999996</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176">
+        <v>1.06619</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.17509</v>
       </c>
@@ -15630,8 +16974,11 @@
       <c r="I177">
         <v>0.66647999999999996</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177">
+        <v>1.0657099999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.16594</v>
       </c>
@@ -15659,8 +17006,11 @@
       <c r="I178">
         <v>0.66410000000000002</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178">
+        <v>1.06545</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.16971</v>
       </c>
@@ -15688,8 +17038,11 @@
       <c r="I179">
         <v>0.65932000000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179">
+        <v>1.0650200000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
@@ -15717,8 +17070,11 @@
       <c r="I180">
         <v>0.66008</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180">
+        <v>1.0649</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
@@ -15746,8 +17102,11 @@
       <c r="I181">
         <v>0.66341000000000006</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181">
+        <v>1.0635600000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.17637</v>
       </c>
@@ -15775,8 +17134,11 @@
       <c r="I182">
         <v>0.65807000000000004</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182">
+        <v>1.06345</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.16108</v>
       </c>
@@ -15804,8 +17166,11 @@
       <c r="I183">
         <v>0.65317999999999998</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183">
+        <v>1.06253</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
@@ -15833,8 +17198,11 @@
       <c r="I184">
         <v>0.64939999999999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184">
+        <v>1.0619400000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
@@ -15862,8 +17230,11 @@
       <c r="I185">
         <v>0.64671999999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185">
+        <v>1.06128</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
@@ -15891,8 +17262,11 @@
       <c r="I186">
         <v>0.65210000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186">
+        <v>1.0611699999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
@@ -15920,8 +17294,11 @@
       <c r="I187">
         <v>0.64559</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187">
+        <v>1.06131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
@@ -15949,8 +17326,11 @@
       <c r="I188">
         <v>0.64497000000000004</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188">
+        <v>1.0606100000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
@@ -15978,8 +17358,11 @@
       <c r="I189">
         <v>0.64354</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189">
+        <v>1.06105</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
@@ -16007,8 +17390,11 @@
       <c r="I190">
         <v>0.63568000000000002</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190">
+        <v>1.0598700000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
@@ -16036,8 +17422,11 @@
       <c r="I191">
         <v>0.63878000000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191">
+        <v>1.0607</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.17412</v>
       </c>
@@ -16065,8 +17454,11 @@
       <c r="I192">
         <v>0.63536999999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192">
+        <v>1.0592900000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
@@ -16094,8 +17486,11 @@
       <c r="I193">
         <v>0.63766</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193">
+        <v>1.05846</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.14726</v>
       </c>
@@ -16123,8 +17518,11 @@
       <c r="I194">
         <v>0.63722999999999996</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194">
+        <v>1.0578700000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.14654</v>
       </c>
@@ -16152,8 +17550,11 @@
       <c r="I195">
         <v>0.62951000000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195">
+        <v>1.0575600000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
@@ -16181,8 +17582,11 @@
       <c r="I196">
         <v>0.62138000000000004</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196">
+        <v>1.0572600000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
@@ -16210,8 +17614,11 @@
       <c r="I197">
         <v>0.62356</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197">
+        <v>1.05688</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
@@ -16239,8 +17646,11 @@
       <c r="I198">
         <v>0.62595999999999996</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198">
+        <v>1.0566899999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
@@ -16268,8 +17678,11 @@
       <c r="I199">
         <v>0.61726000000000003</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199">
+        <v>1.0559700000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
@@ -16297,8 +17710,11 @@
       <c r="I200">
         <v>0.61561999999999995</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200">
+        <v>1.05528</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.13768</v>
       </c>
@@ -16326,8 +17742,11 @@
       <c r="I201">
         <v>0.61400999999999994</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201">
+        <v>1.05524</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
@@ -16355,8 +17774,11 @@
       <c r="I202">
         <v>0.61423000000000005</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202">
+        <v>1.0542400000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.14656</v>
       </c>
@@ -16384,8 +17806,11 @@
       <c r="I203">
         <v>0.60970000000000002</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203">
+        <v>1.0542</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
@@ -16413,8 +17838,11 @@
       <c r="I204">
         <v>0.61102999999999996</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204">
+        <v>1.0536099999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
@@ -16442,8 +17870,11 @@
       <c r="I205">
         <v>0.61029</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205">
+        <v>1.05281</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.12268</v>
       </c>
@@ -16471,8 +17902,11 @@
       <c r="I206">
         <v>0.60435000000000005</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206">
+        <v>1.0521199999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.12182</v>
       </c>
@@ -16500,8 +17934,11 @@
       <c r="I207">
         <v>0.60238999999999998</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207">
+        <v>1.0519700000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.12303</v>
       </c>
@@ -16529,8 +17966,11 @@
       <c r="I208">
         <v>0.60629</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208">
+        <v>1.0531699999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.11706</v>
       </c>
@@ -16558,8 +17998,11 @@
       <c r="I209">
         <v>0.60013000000000005</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209">
+        <v>1.0521199999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.11583</v>
       </c>
@@ -16587,8 +18030,11 @@
       <c r="I210">
         <v>0.59136</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210">
+        <v>1.0507299999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
@@ -16616,8 +18062,11 @@
       <c r="I211">
         <v>0.59679000000000004</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211">
+        <v>1.0507299999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
@@ -16645,8 +18094,11 @@
       <c r="I212">
         <v>0.59577000000000002</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212">
+        <v>1.0496399999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
@@ -16674,8 +18126,11 @@
       <c r="I213">
         <v>0.59309999999999996</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213">
+        <v>1.0488</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
@@ -16703,8 +18158,11 @@
       <c r="I214">
         <v>0.58930000000000005</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214">
+        <v>1.05332</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
@@ -16732,8 +18190,11 @@
       <c r="I215">
         <v>0.58792</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215">
+        <v>1.05152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.11314</v>
       </c>
@@ -16761,8 +18222,11 @@
       <c r="I216">
         <v>0.58418999999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216">
+        <v>1.0502800000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
@@ -16790,8 +18254,11 @@
       <c r="I217">
         <v>0.58182999999999996</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217">
+        <v>1.04789</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.13441</v>
       </c>
@@ -16819,8 +18286,11 @@
       <c r="I218">
         <v>0.58160999999999996</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.11197</v>
       </c>
@@ -16848,8 +18318,11 @@
       <c r="I219">
         <v>0.57743</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219">
+        <v>1.04647</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.11214</v>
       </c>
@@ -16877,8 +18350,11 @@
       <c r="I220">
         <v>0.57811000000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220">
+        <v>1.0462100000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.10238</v>
       </c>
@@ -16906,8 +18382,11 @@
       <c r="I221">
         <v>0.57562999999999998</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221">
+        <v>1.0454399999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
@@ -16935,8 +18414,11 @@
       <c r="I222">
         <v>0.57065999999999995</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222">
+        <v>1.04505</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -16964,8 +18446,11 @@
       <c r="I223">
         <v>0.57301000000000002</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223">
+        <v>1.04444</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.10054</v>
       </c>
@@ -16993,8 +18478,11 @@
       <c r="I224">
         <v>0.57204999999999995</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224">
+        <v>1.04399</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.10248</v>
       </c>
@@ -17022,8 +18510,11 @@
       <c r="I225">
         <v>0.57257999999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225">
+        <v>1.0436099999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.10149</v>
       </c>
@@ -17051,8 +18542,11 @@
       <c r="I226">
         <v>0.56555</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226">
+        <v>1.04311</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.10385</v>
       </c>
@@ -17080,8 +18574,11 @@
       <c r="I227">
         <v>0.55808999999999997</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227">
+        <v>1.0431600000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.10721</v>
       </c>
@@ -17109,8 +18606,11 @@
       <c r="I228">
         <v>0.56054000000000004</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228">
+        <v>1.0425800000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.10183</v>
       </c>
@@ -17138,8 +18638,11 @@
       <c r="I229">
         <v>0.55881999999999998</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229">
+        <v>1.04203</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
@@ -17167,8 +18670,11 @@
       <c r="I230">
         <v>0.55996000000000001</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230">
+        <v>1.04162</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
@@ -17196,8 +18702,11 @@
       <c r="I231">
         <v>0.55884999999999996</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J231">
+        <v>1.0412399999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
@@ -17225,8 +18734,11 @@
       <c r="I232">
         <v>0.55713000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232">
+        <v>1.0408999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
@@ -17254,8 +18766,11 @@
       <c r="I233">
         <v>0.55506999999999995</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233">
+        <v>1.04053</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
@@ -17283,8 +18798,11 @@
       <c r="I234">
         <v>0.55018999999999996</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234">
+        <v>1.04017</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
@@ -17312,8 +18830,11 @@
       <c r="I235">
         <v>0.55164000000000002</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235">
+        <v>1.03979</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.11858</v>
       </c>
@@ -17341,8 +18862,11 @@
       <c r="I236">
         <v>0.54851000000000005</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236">
+        <v>1.03949</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
@@ -17370,8 +18894,11 @@
       <c r="I237">
         <v>0.54415000000000002</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237">
+        <v>1.03912</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
@@ -17399,8 +18926,11 @@
       <c r="I238">
         <v>0.54393000000000002</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238">
+        <v>1.0387299999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
@@ -17428,8 +18958,11 @@
       <c r="I239">
         <v>0.54247999999999996</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239">
+        <v>1.0383599999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
@@ -17457,8 +18990,11 @@
       <c r="I240">
         <v>0.54151000000000005</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240">
+        <v>1.03799</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.1134</v>
       </c>
@@ -17486,8 +19022,11 @@
       <c r="I241">
         <v>0.54105000000000003</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241">
+        <v>1.0375700000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
@@ -17515,8 +19054,11 @@
       <c r="I242">
         <v>0.53981999999999997</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J242">
+        <v>1.03722</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
@@ -17544,8 +19086,11 @@
       <c r="I243">
         <v>0.53888999999999998</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243">
+        <v>1.0367999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
@@ -17573,8 +19118,11 @@
       <c r="I244">
         <v>0.53847999999999996</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244">
+        <v>1.03643</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
@@ -17602,8 +19150,11 @@
       <c r="I245">
         <v>0.53871999999999998</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245">
+        <v>1.0361</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
@@ -17631,8 +19182,11 @@
       <c r="I246">
         <v>0.53944999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246">
+        <v>1.03569</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.10452</v>
       </c>
@@ -17660,8 +19214,11 @@
       <c r="I247">
         <v>0.54007000000000005</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247">
+        <v>1.03529</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
@@ -17689,8 +19246,11 @@
       <c r="I248">
         <v>0.54159000000000002</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248">
+        <v>1.03488</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -17718,8 +19278,11 @@
       <c r="I249">
         <v>0.54301999999999995</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249">
+        <v>1.0344899999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
@@ -17747,8 +19310,11 @@
       <c r="I250">
         <v>0.54596999999999996</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250">
+        <v>1.03409</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
@@ -17776,8 +19342,11 @@
       <c r="I251">
         <v>0.54937000000000002</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251">
+        <v>1.0336799999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
@@ -17805,8 +19374,11 @@
       <c r="I252">
         <v>0.55393000000000003</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252">
+        <v>1.0333300000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
@@ -17834,8 +19406,11 @@
       <c r="I253">
         <v>0.55933999999999995</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J253">
+        <v>1.0329699999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
@@ -17863,8 +19438,11 @@
       <c r="I254">
         <v>0.56638999999999995</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J254">
+        <v>1.0326</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
@@ -17892,8 +19470,11 @@
       <c r="I255">
         <v>0.57432000000000005</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255">
+        <v>1.03224</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
@@ -17921,8 +19502,11 @@
       <c r="I256">
         <v>0.5837</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J256">
+        <v>1.0318700000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
@@ -17950,92 +19534,95 @@
       <c r="I257">
         <v>0.59452000000000005</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257">
+        <v>1.0314700000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F998C-E07D-4A84-9492-CC07AC30F2E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF449A0C-50B4-4133-9AC7-6E7A604F30B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConvergePatternOfNN" sheetId="1" r:id="rId1"/>
@@ -74,17 +74,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -115,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,7 +133,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -200,7 +200,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6769,7 +6769,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6807,7 +6807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1310328271"/>
@@ -6904,7 +6904,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6936,7 +6936,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383030927"/>
@@ -6978,7 +6978,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7008,7 +7008,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7022,7 +7022,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7085,7 +7085,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8786,7 +8786,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8824,7 +8824,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2133561007"/>
@@ -8907,7 +8907,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8939,7 +8939,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="335908895"/>
@@ -8981,7 +8981,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9011,7 +9011,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10179,16 +10179,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10481,24 +10481,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>1.4317599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>1.2537199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>1.2462800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>1.2386200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>1.2347300000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>1.22976</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>1.22455</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>1.21957</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>1.2152499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>1.2111000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>1.2072799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>1.20381</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>1.2004900000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>1.19763</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>1.19493</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>1.19248</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>1.1900200000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>1.18763</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>1.18509</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>1.18238</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>1.17902</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>1.1747099999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>1.16971</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>1.16479</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>1.1603300000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>1.1559299999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>1.1516900000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>1.14775</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>1.1440399999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>1.14052</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>1.1372</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>1.1339600000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>1.1308199999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>1.1279699999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>1.1250800000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>1.1223099999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>1.11894</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>1.1148800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>1.1099300000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>1.1045499999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>1.0994699999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>1.0946800000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>1.08995</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>1.0853299999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>1.0809899999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>1.0769</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>1.07301</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>1.06928</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>1.0654600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>1.0618300000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>1.0580099999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>1.0544199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>1.0503100000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>1.04681</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>1.0430299999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>1.0395099999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>1.0359400000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>1.03199</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>1.0286500000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>1.02434</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>1.02013</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>1.01603</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>1.0118400000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>1.00745</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>1.00292</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>0.99821000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>0.99380000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>0.98951999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>0.98526000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>0.98089999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>0.97636999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>0.97348999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>0.96952000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>0.96565999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>0.95818999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>0.95806000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>0.95235000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>0.94632000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>0.94682999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>0.94228000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>0.93233999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>0.93974000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>0.92891000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>0.92125999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>0.92190000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>0.91530999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>0.91710000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>0.92108999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>0.90127000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>0.89771000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>0.89259999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>0.90041000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>0.89493</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>0.90712000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>0.90471999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>0.88168000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>0.87405999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>0.86795</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>0.87034</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0.86714999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>0.85872000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>0.88173999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>0.85099000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>0.84923000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>0.84721999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>0.84945999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>0.84206999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>0.84382000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>0.84297999999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>0.83328999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>0.82262000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>0.82440000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>0.82640999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>0.81862000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>0.81306999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>0.80620999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>0.42812</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>0.81232000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>0.81457000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>0.79969000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>0.80037000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>0.80027000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>0.80257999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>0.78639000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>0.78851000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>0.78981999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>0.35158</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>0.7792</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>0.78417000000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>0.3392</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>0.76944999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>0.76922999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>0.77671999999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>0.77017999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>0.77270000000000005</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>0.32943</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>0.76415</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>0.76441999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>0.76049</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>0.31</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>0.75958999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>0.75756000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>0.30506</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>0.75144999999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>0.74931999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>0.74668999999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>0.29479</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>0.74446000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>0.74345000000000006</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>0.74541999999999997</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>0.74299000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>0.2722</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>0.73541000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>0.72824999999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>0.73190999999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>0.72289999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>0.72750999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>0.72058</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>0.25683</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>0.73953999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>0.71243999999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
@@ -14993,7 +14993,7 @@
         <v>0.71338000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>0.71006000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>0.24456</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>0.71121999999999996</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>0.70787999999999995</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>0.70586000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>0.22721</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>0.70723999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>0.70050000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>0.21545</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>0.69750999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>0.21892</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>0.69791000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>0.69794</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>0.22827</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>0.69005000000000005</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>0.69664000000000004</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>0.21489</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>0.69206999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>0.67940999999999996</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>0.68583000000000005</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>0.20321</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>0.68418999999999996</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>0.193</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>0.68098000000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>0.68044000000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>0.19649</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>0.67181999999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>0.67179</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>0.67481000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>0.18289</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>0.67152999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>0.17509</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>0.66647999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>0.16594</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>0.66410000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>0.16971</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>0.65932000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>0.66008</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>0.66341000000000006</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>0.17637</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>0.65807000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>0.16108</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>0.65317999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>0.64939999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>0.64671999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>0.65210000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>0.64559</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>0.64497000000000004</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>0.64354</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>0.63568000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>0.63878000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192">
         <v>0.17412</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>0.63536999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>0.63766</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9">
       <c r="A194">
         <v>0.14726</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>0.63722999999999996</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9">
       <c r="A195">
         <v>0.14654</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>0.62951000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>0.62138000000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>0.62356</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>0.62595999999999996</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>0.61726000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>0.61561999999999995</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9">
       <c r="A201">
         <v>0.13768</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>0.61400999999999994</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>0.61423000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9">
       <c r="A203">
         <v>0.14656</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>0.60970000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>0.61102999999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
@@ -16443,7 +16443,7 @@
         <v>0.61029</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9">
       <c r="A206">
         <v>0.12268</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>0.60435000000000005</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9">
       <c r="A207">
         <v>0.12182</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>0.60238999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9">
       <c r="A208">
         <v>0.12303</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>0.60629</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9">
       <c r="A209">
         <v>0.11706</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>0.60013000000000005</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9">
       <c r="A210">
         <v>0.11583</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>0.59136</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>0.59679000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>0.59577000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>0.59309999999999996</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>0.58930000000000005</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>0.58792</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9">
       <c r="A216">
         <v>0.11314</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>0.58418999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>0.58182999999999996</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9">
       <c r="A218">
         <v>0.13441</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>0.58160999999999996</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9">
       <c r="A219">
         <v>0.11197</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>0.57743</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9">
       <c r="A220">
         <v>0.11214</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>0.57811000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9">
       <c r="A221">
         <v>0.10238</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>0.57562999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>0.57065999999999995</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>0.57301000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9">
       <c r="A224">
         <v>0.10054</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>0.57204999999999995</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9">
       <c r="A225">
         <v>0.10248</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>0.57257999999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9">
       <c r="A226">
         <v>0.10149</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>0.56555</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9">
       <c r="A227">
         <v>0.10385</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>0.55808999999999997</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9">
       <c r="A228">
         <v>0.10721</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>0.56054000000000004</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9">
       <c r="A229">
         <v>0.10183</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>0.55881999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>0.55996000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>0.55884999999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>0.55713000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>0.55506999999999995</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>0.55018999999999996</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>0.55164000000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9">
       <c r="A236">
         <v>0.11858</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>0.54851000000000005</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>0.54415000000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>0.54393000000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>0.54247999999999996</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>0.54151000000000005</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9">
       <c r="A241">
         <v>0.1134</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>0.54105000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>0.53981999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>0.53888999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>0.53847999999999996</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>0.53871999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>0.53944999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9">
       <c r="A247">
         <v>0.10452</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>0.54007000000000005</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>0.54159000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -17719,7 +17719,7 @@
         <v>0.54301999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>0.54596999999999996</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>0.54937000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>0.55393000000000003</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>0.55933999999999995</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>0.56638999999999995</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>0.57432000000000005</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>0.5837</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
@@ -17951,1297 +17951,1297 @@
         <v>0.59452000000000005</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273">
         <v>7.6480000000000006E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274">
         <v>7.5179999999999997E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275">
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276">
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277">
         <v>6.071E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279">
         <v>6.2780000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280">
         <v>6.4979999999999996E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281">
         <v>0.10792</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282">
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284">
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285">
         <v>6.293E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286">
         <v>7.7579999999999996E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287">
         <v>9.8110000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288">
         <v>7.6689999999999994E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290">
         <v>5.3370000000000001E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291">
         <v>5.1860000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292">
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293">
         <v>8.2559999999999995E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294">
         <v>6.837E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295">
         <v>6.5949999999999995E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296">
         <v>6.1510000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297">
         <v>0.10789</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298">
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300">
         <v>6.3140000000000002E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301">
         <v>5.6579999999999998E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302">
         <v>5.2389999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304">
         <v>5.1450000000000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306">
         <v>6.479E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307">
         <v>9.6180000000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308">
         <v>9.4920000000000004E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309">
         <v>6.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310">
         <v>5.9479999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311">
         <v>5.4510000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312">
         <v>5.1979999999999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313">
         <v>7.6670000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314">
         <v>5.9240000000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315">
         <v>5.8049999999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316">
         <v>5.0360000000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317">
         <v>6.3320000000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318">
         <v>8.1710000000000005E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319">
         <v>5.9950000000000003E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320">
         <v>4.9979999999999997E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321">
         <v>4.7169999999999997E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322">
         <v>4.8779999999999997E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323">
         <v>5.7770000000000002E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324">
         <v>9.8250000000000004E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325">
         <v>8.5629999999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326">
         <v>6.6720000000000002E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327">
         <v>5.4260000000000003E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329">
         <v>6.3339999999999994E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330">
         <v>5.6610000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331">
         <v>5.3510000000000002E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333">
         <v>4.299E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335">
         <v>4.514E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336">
         <v>5.0110000000000002E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337">
         <v>6.7330000000000001E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338">
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339">
         <v>6.5509999999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340">
         <v>5.4379999999999998E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341">
         <v>4.718E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342">
         <v>4.3270000000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343">
         <v>4.1439999999999998E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344">
         <v>4.1779999999999998E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345">
         <v>4.3880000000000002E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346">
         <v>4.632E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347">
         <v>5.0509999999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348">
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349">
         <v>7.979E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350">
         <v>5.9249999999999997E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351">
         <v>5.4719999999999998E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352">
         <v>6.4049999999999996E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353">
         <v>5.3150000000000003E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354">
         <v>4.6440000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355">
         <v>4.2340000000000003E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356">
         <v>4.0939999999999997E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357">
         <v>4.1410000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358">
         <v>4.3040000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359">
         <v>0.11991</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360">
         <v>8.2909999999999998E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361">
         <v>5.2209999999999999E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362">
         <v>4.428E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363">
         <v>4.054E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365">
         <v>3.8080000000000003E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366">
         <v>3.9030000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367">
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368">
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369">
         <v>6.9519999999999998E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370">
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371">
         <v>4.7539999999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372">
         <v>4.3720000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373">
         <v>4.2119999999999998E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376">
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377">
         <v>0.12336</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378">
         <v>6.5350000000000005E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379">
         <v>4.7890000000000002E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380">
         <v>4.1860000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381">
         <v>4.2659999999999997E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382">
         <v>4.4089999999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383">
         <v>3.934E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384">
         <v>3.7409999999999999E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385">
         <v>3.6589999999999998E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386">
         <v>3.8170000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387">
         <v>4.3180000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388">
         <v>0.12934999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389">
         <v>6.5110000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390">
         <v>5.1470000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391">
         <v>4.5769999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392">
         <v>4.1110000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394">
         <v>4.7570000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395">
         <v>7.5480000000000005E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396">
         <v>6.3519999999999993E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397">
         <v>6.275E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398">
         <v>4.8570000000000002E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399">
         <v>0.04</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400">
         <v>3.594E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401">
         <v>3.4470000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402">
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403">
         <v>3.6580000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404">
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405">
         <v>5.042E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406">
         <v>6.8080000000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408">
         <v>6.4339999999999994E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409">
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410">
         <v>5.8790000000000002E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411">
         <v>4.5330000000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412">
         <v>3.9370000000000002E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413">
         <v>3.6830000000000002E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415">
         <v>3.8690000000000002E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416">
         <v>4.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418">
         <v>4.0340000000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419">
         <v>5.0310000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420">
         <v>8.4580000000000002E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421">
         <v>5.781E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422">
         <v>4.7840000000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423">
         <v>4.5089999999999998E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424">
         <v>3.8370000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425">
         <v>3.526E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426">
         <v>3.4130000000000001E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427">
         <v>3.4439999999999998E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428">
         <v>3.5409999999999997E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429">
         <v>3.9489999999999997E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430">
         <v>5.5320000000000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431">
         <v>7.8359999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432">
         <v>4.6640000000000001E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435">
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436">
         <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437">
         <v>3.4119999999999998E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438">
         <v>0.14990999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439">
         <v>6.216E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440">
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441">
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442">
         <v>3.5180000000000003E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443">
         <v>3.3279999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444">
         <v>3.168E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445">
         <v>3.1419999999999997E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446">
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447">
         <v>3.7220000000000003E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448">
         <v>5.2019999999999997E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449">
         <v>7.4300000000000005E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450">
         <v>5.008E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451">
         <v>4.0189999999999997E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452">
         <v>3.542E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454">
         <v>3.3239999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455">
         <v>4.5440000000000001E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456">
         <v>8.5529999999999995E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457">
         <v>4.4650000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458">
         <v>3.7850000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459">
         <v>3.508E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460">
         <v>3.6859999999999997E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461">
         <v>4.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462">
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463">
         <v>4.0529999999999997E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464">
         <v>3.4009999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465">
         <v>3.2439999999999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466">
         <v>3.2480000000000002E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467">
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468">
         <v>3.6409999999999998E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469">
         <v>6.7019999999999996E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470">
         <v>8.3449999999999996E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471">
         <v>5.5449999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472">
         <v>4.2090000000000002E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473">
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474">
         <v>3.9280000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475">
         <v>3.4139999999999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476">
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477">
         <v>3.143E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478">
         <v>5.0040000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479">
         <v>4.5080000000000002E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480">
         <v>5.0770000000000003E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1">
       <c r="A482">
         <v>3.6769999999999997E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1">
       <c r="A483">
         <v>3.3360000000000001E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1">
       <c r="A484">
         <v>3.2590000000000001E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1">
       <c r="A485">
         <v>3.848E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1">
       <c r="A486">
         <v>4.9820000000000003E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1">
       <c r="A487">
         <v>5.373E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1">
       <c r="A488">
         <v>4.0419999999999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1">
       <c r="A489">
         <v>3.5040000000000002E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1">
       <c r="A490">
         <v>3.4070000000000003E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1">
       <c r="A491">
         <v>3.3689999999999998E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1">
       <c r="A492">
         <v>3.2939999999999997E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1">
       <c r="A493">
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1">
       <c r="A494">
         <v>4.0320000000000002E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1">
       <c r="A495">
         <v>6.2920000000000004E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1">
       <c r="A496">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1">
       <c r="A497">
         <v>3.5139999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1">
       <c r="A498">
         <v>3.3579999999999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1">
       <c r="A499">
         <v>3.9559999999999998E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1">
       <c r="A500">
         <v>5.2109999999999997E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1">
       <c r="A501">
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1">
       <c r="A502">
         <v>4.4010000000000001E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1">
       <c r="A503">
         <v>3.9809999999999998E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1">
       <c r="A504">
         <v>3.4250000000000003E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1">
       <c r="A505">
         <v>3.0530000000000002E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1">
       <c r="A506">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1">
       <c r="A507">
         <v>2.8819999999999998E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1">
       <c r="A508">
         <v>3.1210000000000002E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1">
       <c r="A509">
         <v>3.4279999999999998E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1">
       <c r="A510">
         <v>4.0759999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1">
       <c r="A511">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1">
       <c r="A512">
         <v>7.0860000000000006E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1">
       <c r="A513">
         <v>4.3569999999999998E-2</v>
       </c>
@@ -19258,13 +19258,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D35BB-E572-41C3-9409-E11A3769A3F0}">
   <dimension ref="A1:B257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A241" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>9.9228073120117104E-3</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>9.9613281250000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>9.9228073120117104E-3</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>9.9613281250000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>9.8459167480468707E-3</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>9.9226562500000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>9.7693283081054603E-3</v>
       </c>
@@ -19304,7 +19304,7 @@
         <v>9.883984375E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>9.6930419921875E-3</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>9.8453124999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>9.6170578002929604E-3</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>9.8066406249999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9.5413757324218692E-3</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>9.7679687499999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>9.4659957885742194E-3</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>9.7292968749999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9.3909179687500007E-3</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>9.6906249999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9.3161422729492096E-3</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>9.6519531249999995E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>9.2416687011718703E-3</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>9.6132812499999994E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>9.1674972534179604E-3</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>9.5746093749999994E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>9.0936279296875006E-3</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>9.5359374999999993E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>9.0200607299804596E-3</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>9.4972656249999992E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>8.9467956542968706E-3</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>9.4585937500000009E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>8.8738327026367195E-3</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>9.4199218750000008E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>8.8011718749999995E-3</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>9.3812500000000007E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>8.7288131713867192E-3</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>9.3425781250000006E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>8.65675659179687E-3</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>9.3039062500000005E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>8.5850021362304692E-3</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>9.2652343750000005E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>8.5135498046874994E-3</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>9.2265625000000004E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>8.4423995971679693E-3</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>9.1878906250000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>8.3715515136718703E-3</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>9.1492187500000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>8.3010055541992093E-3</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>9.1105468750000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>8.2307617187500001E-3</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>9.0718750000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>8.1608200073242099E-3</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>9.033203125E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>8.0911804199218697E-3</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>8.9945312499999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>8.0218429565429693E-3</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>8.9558593749999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>7.9528076171875E-3</v>
       </c>
@@ -19504,7 +19504,7 @@
         <v>8.9171874999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>7.88407440185546E-3</v>
       </c>
@@ -19512,7 +19512,7 @@
         <v>8.8785156249999997E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>7.8156433105468701E-3</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>8.8398437499999996E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>7.7475143432617199E-3</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>8.8011718749999995E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>7.6796874999999999E-3</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>8.7624999999999995E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>7.6121627807617196E-3</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>8.7238281249999994E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>7.5449401855468704E-3</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>8.6851562499999993E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>7.47801971435546E-3</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>8.6464843749999992E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>7.4114013671874998E-3</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>8.6078124999999991E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>7.3450851440429697E-3</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>8.5691406250000008E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>7.2790710449218698E-3</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>8.5304687500000007E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>7.2133590698242097E-3</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>8.4917968750000006E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>7.1479492187499997E-3</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>8.4531250000000006E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>7.0828414916992198E-3</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>8.4144531250000005E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>7.0180358886718702E-3</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>8.3757812500000004E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>6.9535324096679698E-3</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>8.3371093750000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>6.8893310546874996E-3</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>8.2984375000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>6.82543182373047E-3</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>8.2597656250000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>6.7618347167968697E-3</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>8.2210937500000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>6.69853973388671E-3</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>8.182421875E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>6.6355468750000004E-3</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>8.1437499999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>6.5728561401367097E-3</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>8.1050781249999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>6.51046752929687E-3</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>8.0664062499999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>6.4483810424804597E-3</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>8.0277343749999997E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>6.3865966796875003E-3</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>7.9890624999999996E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>6.3251144409179599E-3</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>7.9503906249999996E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>6.2639343261718704E-3</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>7.9117187499999995E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>6.2030563354492198E-3</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>7.8730468749999994E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>6.1424804687500003E-3</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>7.8343749999999993E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>6.0822067260742196E-3</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>7.7957031250000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>6.0222351074218699E-3</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>7.75703125E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>5.96256561279296E-3</v>
       </c>
@@ -19752,7 +19752,7 @@
         <v>7.718359375E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>5.9031982421875002E-3</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>7.6796874999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>5.8441329956054697E-3</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>7.6410156249999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>5.7853698730468703E-3</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>7.6023437499999997E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>5.7269088745117097E-3</v>
       </c>
@@ -19784,7 +19784,7 @@
         <v>7.5636718749999996E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>5.6687500000000002E-3</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>7.5249999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>5.6108932495117104E-3</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>7.4863281250000004E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>5.5533386230468698E-3</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>7.4476562500000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>5.4960861206054604E-3</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>7.4089843750000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>5.4391357421875001E-3</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>7.3703125000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>5.3824874877929597E-3</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>7.331640625E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>5.3261413574218703E-3</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>7.29296875E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>5.2700973510742197E-3</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>7.2542968749999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>5.2143554687500001E-3</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>7.2156249999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>5.1589157104492099E-3</v>
       </c>
@@ -19864,7 +19864,7 @@
         <v>7.1769531249999997E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>5.1037780761718698E-3</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>7.1382812499999997E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>5.0489425659179599E-3</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>7.0996093749999996E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>4.9944091796875001E-3</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>7.0609375000000004E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>4.9401779174804697E-3</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>7.0222656250000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>4.8862487792968702E-3</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>6.9835937500000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>4.8326217651367097E-3</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>6.9449218750000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>4.7792968750000001E-3</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>6.9062500000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>4.7262741088867103E-3</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>6.867578125E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>4.6735534667968698E-3</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>6.8289062499999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>4.6211349487304603E-3</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>6.7902343749999998E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>4.5690185546875001E-3</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>6.7515624999999998E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>4.5172042846679597E-3</v>
       </c>
@@ -19960,7 +19960,7 @@
         <v>6.7128906249999997E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>4.4656921386718703E-3</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>6.6742187499999996E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>4.4144821166992197E-3</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>6.6355468750000004E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>4.3635742187500002E-3</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>6.5968750000000003E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>4.3129684448242099E-3</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>6.5582031250000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>4.2626647949218699E-3</v>
       </c>
@@ -20000,7 +20000,7 @@
         <v>6.5195312500000002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>4.21266326904296E-3</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>6.4808593750000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>4.1629638671875002E-3</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>6.4421875E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>4.1135665893554697E-3</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>6.4035156249999999E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>4.0644714355468703E-3</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>6.3648437499999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>4.0156784057617098E-3</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>6.3261718749999998E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>3.9671875000000002E-3</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>6.2874999999999997E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>3.9189987182617096E-3</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>6.2488281249999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>3.8711120605468699E-3</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>6.2101562500000004E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>3.82352752685546E-3</v>
       </c>
@@ -20072,7 +20072,7 @@
         <v>6.1714843750000003E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>3.7762451171874998E-3</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>6.1328125000000002E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>3.7292648315429599E-3</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>6.0941406250000002E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>3.68258666992187E-3</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>6.0554687500000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>3.6362106323242099E-3</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>6.016796875E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>3.5901367187499999E-3</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>5.9781249999999999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>3.5443649291992101E-3</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>5.9394531249999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>3.4988952636718701E-3</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>5.9007812499999998E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>3.4537277221679602E-3</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>5.8621093749999997E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>3.4088623046875E-3</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>5.8234374999999996E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>3.36429901123046E-3</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>5.7847656250000004E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>3.3200378417968701E-3</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>5.7460937500000003E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>3.27607879638671E-3</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>5.7074218750000003E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>3.2324218750000001E-3</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>5.6687500000000002E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>3.1890670776367099E-3</v>
       </c>
@@ -20184,7 +20184,7 @@
         <v>5.6300781250000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>3.1460144042968702E-3</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>5.59140625E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>3.1032638549804599E-3</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>5.5527343749999999E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>3.0608154296875001E-3</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>5.5140624999999999E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>3.0186691284179602E-3</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>5.4753906249999998E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>2.9768249511718699E-3</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>5.4367187499999997E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>2.9352828979492102E-3</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>5.3980468749999996E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>2.8940429687499998E-3</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>5.3593750000000004E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>2.85310516357421E-3</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>5.3207031250000003E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>2.81246948242187E-3</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>5.2820312500000003E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>2.7721359252929601E-3</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>5.2433593750000002E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>2.7321044921874999E-3</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>5.2046875000000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>2.6923751831054599E-3</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>5.166015625E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>2.6529479980468701E-3</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>5.12734375E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>2.61382293701171E-3</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>5.0886718749999999E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>2.575E-3</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>2.5364791870117098E-3</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>5.0113281249999997E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>2.4982604980468702E-3</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>4.9726562499999996E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>2.4603439331054599E-3</v>
       </c>
@@ -20328,7 +20328,7 @@
         <v>4.9339843749999996E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>2.4227294921875002E-3</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>4.8953125000000004E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>2.3854171752929602E-3</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>4.8566406250000003E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>2.3484069824218699E-3</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>4.8179687500000002E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>2.3116989135742098E-3</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>4.7792968750000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>2.2752929687499999E-3</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>4.740625E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>2.2391891479492101E-3</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>4.701953125E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>2.2033874511718701E-3</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>4.6632812499999999E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>2.1678878784179602E-3</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>4.6246093749999998E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>2.1326904296875E-3</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>4.5859374999999997E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>2.09779510498046E-3</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>4.5472656249999997E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>2.0632019042968702E-3</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>4.5085937499999996E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>2.0289108276367101E-3</v>
       </c>
@@ -20424,7 +20424,7 @@
         <v>4.4699218750000004E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>1.9949218750000002E-3</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>4.4312500000000003E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>1.96123504638671E-3</v>
       </c>
@@ -20440,7 +20440,7 @@
         <v>4.3925781250000002E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>1.9278503417968699E-3</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>4.3539062500000001E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>1.8947677612304601E-3</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>4.3152343750000001E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>1.8619873046874999E-3</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>4.2765625E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>1.8295089721679599E-3</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>4.2378906249999999E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>1.7973327636718701E-3</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>4.1992187499999998E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>1.76545867919921E-3</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>4.1605468749999997E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>1.7338867187500001E-3</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>4.1218749999999997E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>1.7026168823242099E-3</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>4.0832031249999996E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>1.6716491699218701E-3</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>4.0445312500000004E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>1.64098358154296E-3</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>4.0058593750000003E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>1.6106201171875E-3</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>3.9671875000000002E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>1.5805587768554601E-3</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>3.9285156250000001E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>1.55079956054687E-3</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>3.8898437500000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>1.52134246826171E-3</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>3.851171875E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>1.4921875E-3</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>3.8124999999999999E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>1.4633346557617101E-3</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>3.7738281249999998E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>1.43478393554687E-3</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>3.7351562500000002E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>1.40653533935546E-3</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>3.6964843750000001E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>1.3785888671875E-3</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>3.6578125E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>1.3509445190429601E-3</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>3.619140625E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>1.32360229492187E-3</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>3.5804687499999999E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>1.29656219482421E-3</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>3.5417968749999998E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>1.26982421875E-3</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>3.5031250000000002E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>1.2433883666992101E-3</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>3.4644531250000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>1.21725463867187E-3</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>3.42578125E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>1.19142303466796E-3</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>3.3871093749999999E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>1.1658935546875E-3</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>3.3484374999999999E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>1.1406661987304601E-3</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>3.3097656250000002E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>1.11574096679687E-3</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>3.2710937500000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>1.09111785888671E-3</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>3.2324218750000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>1.066796875E-3</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>3.19375E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>1.0427780151367101E-3</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>3.1550781249999999E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>1.0190612792968701E-3</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>3.1164062499999998E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>9.9564666748046802E-4</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>3.0777343750000002E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>9.7253417968749996E-4</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>3.0390625000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>9.4972381591796804E-4</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>3.000390625E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>9.2721557617187497E-4</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>2.9617187499999999E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>9.0500946044921795E-4</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>2.9230468749999999E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>8.8310546874999999E-4</v>
       </c>
@@ -20752,7 +20752,7 @@
         <v>2.8843749999999998E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>8.6150360107421797E-4</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>2.8457031250000001E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>8.4020385742187502E-4</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>2.8070312500000001E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>8.1920623779296799E-4</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>2.768359375E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>7.9851074218750004E-4</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>2.7296874999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>7.7811737060546802E-4</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>2.6910156249999998E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>7.5802612304687496E-4</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>2.6523437500000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>7.3823699951171805E-4</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>2.6136718750000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>7.1874999999999999E-4</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>2.575E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>6.9956512451171797E-4</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>2.536328125E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>6.8068237304687502E-4</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>2.4976562499999999E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>6.62101745605468E-4</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>2.4589843749999998E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>6.4382324218750005E-4</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>2.4203125000000002E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>6.2584686279296804E-4</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>2.3816406250000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>6.0817260742187498E-4</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>2.34296875E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>5.9080047607421797E-4</v>
       </c>
@@ -20872,7 +20872,7 @@
         <v>2.3042968749999999E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>5.7373046875000002E-4</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>2.2656249999999998E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>5.5696258544921801E-4</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>2.2269531250000002E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>5.4049682617187495E-4</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>2.1882812500000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>5.2433319091796805E-4</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>2.149609375E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>5.084716796875E-4</v>
       </c>
@@ -20912,7 +20912,7 @@
         <v>2.1109375E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>4.9291229248046799E-4</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>2.0722656249999999E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>4.7765502929687499E-4</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>2.0335937499999998E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>4.6269989013671798E-4</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>1.9949218750000002E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>4.4804687499999999E-4</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>1.9562500000000001E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>4.3369598388671798E-4</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>1.917578125E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>4.1964721679687498E-4</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>1.8789062499999999E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>4.0590057373046797E-4</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>1.8402343750000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>3.9245605468749998E-4</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>1.8015625E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>3.7931365966796797E-4</v>
       </c>
@@ -20984,7 +20984,7 @@
         <v>1.7628906249999999E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>3.6647338867187498E-4</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>1.7242187500000001E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>3.5393524169921798E-4</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>1.685546875E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>3.4169921874999999E-4</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>1.6468749999999999E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>3.2976531982421798E-4</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>1.608203125E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>3.18133544921875E-4</v>
       </c>
@@ -21024,7 +21024,7 @@
         <v>1.56953125E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>3.0680389404296799E-4</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>1.5308593750000001E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>2.9577636718750001E-4</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>1.4921875E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>2.85050964355468E-4</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>1.4535156249999999E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>2.7462768554687502E-4</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>1.4148437500000001E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>2.6450653076171801E-4</v>
       </c>
@@ -21064,7 +21064,7 @@
         <v>1.376171875E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>2.5468749999999998E-4</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>1.3374999999999999E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>2.4517059326171798E-4</v>
       </c>
@@ -21080,7 +21080,7 @@
         <v>1.2988281250000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>2.3595581054687499E-4</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>1.26015625E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>2.2704315185546799E-4</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>1.2214843749999999E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>2.1843261718750001E-4</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>1.1828125000000001E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>2.1012420654296799E-4</v>
       </c>
@@ -21112,7 +21112,7 @@
         <v>1.144140625E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>2.0211791992187501E-4</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>1.1054687499999999E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>1.9441375732421801E-4</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>1.066796875E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>1.8701171875E-4</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>1.028125E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>1.7991180419921801E-4</v>
       </c>
@@ -21144,7 +21144,7 @@
         <v>9.894531250000001E-4</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>1.73114013671875E-4</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>9.5078125000000002E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>1.6661834716796801E-4</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>9.1210937500000005E-4</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>1.604248046875E-4</v>
       </c>
@@ -21168,7 +21168,7 @@
         <v>8.7343749999999997E-4</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>1.5453338623046801E-4</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>8.34765625E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>1.4894409179687501E-4</v>
       </c>
@@ -21184,7 +21184,7 @@
         <v>7.9609375000000003E-4</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>1.4365692138671799E-4</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>7.5742187499999996E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>1.3867187499999999E-4</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>7.1874999999999999E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>1.33988952636718E-4</v>
       </c>
@@ -21208,7 +21208,7 @@
         <v>6.8007812500000002E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>1.29608154296875E-4</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>6.4140625000000005E-4</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>1.2552947998046801E-4</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>6.0273437499999997E-4</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>1.2175292968749999E-4</v>
       </c>
@@ -21232,7 +21232,7 @@
         <v>5.640625E-4</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>1.1827850341796801E-4</v>
       </c>
@@ -21240,7 +21240,7 @@
         <v>5.2539062500000003E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248">
         <v>1.1510620117187499E-4</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>4.8671875000000001E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249">
         <v>1.1223602294921799E-4</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>4.4804687499999999E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250">
         <v>1.0966796875E-4</v>
       </c>
@@ -21264,7 +21264,7 @@
         <v>4.0937500000000002E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251">
         <v>1.07402038574218E-4</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>3.7070312499999999E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252">
         <v>1.05438232421875E-4</v>
       </c>
@@ -21280,7 +21280,7 @@
         <v>3.3203125000000002E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253">
         <v>1.03776550292968E-4</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>2.93359375E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254">
         <v>1.024169921875E-4</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>2.5468749999999998E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255">
         <v>1.01359558105468E-4</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>2.1601562500000001E-4</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256">
         <v>1.0060424804687501E-4</v>
       </c>
@@ -21312,7 +21312,7 @@
         <v>1.7734375000000001E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257">
         <v>1.00151062011718E-4</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767AC6D6-BC1F-44C0-A78D-E4AB182896A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23715970-6D0B-41DD-9318-41A9BB9C8E80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConvergePatternOfNN" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>NN041702</t>
+  </si>
+  <si>
+    <t>NN041701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7506,6 +7510,818 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C43-4569-A286-8EAB055234C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergePatternOfNN!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN041701</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergePatternOfNN!$K$2:$K$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>1.41401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2340899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2263599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2184600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.21113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.20475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1989799999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.19381</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1895500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1857599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.18245</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1793100000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.17621</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.17302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.16936</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1650799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1606000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.15646</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.15266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1492</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.14601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1430199999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1402000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1348499999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1322399999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1295900000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1267799999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.12354</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.11947</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1143799999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1088100000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.10338</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0981099999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0930500000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.08802</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0830900000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0785</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0742</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.06999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0658799999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0618399999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.05776</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.05379</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.04982</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0460199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0422899999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.03834</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0346200000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0306299999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0263800000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0223199999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0184800000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0144500000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0103200000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.00681</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0016400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99775000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99251999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.98289000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.97909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.97555000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.97206000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.96472999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.96081000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.95440999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.95030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.94582999999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.94201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.93672999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.93254999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.92823999999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.92357999999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91983000000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91191</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.91125999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.91173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.90054000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.89412999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.89205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.89975000000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.88175999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87680999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.87661999999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.86409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.86124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.84967999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.85797000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.84238000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.84001999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.83621000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.83377000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.83340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.82621999999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.82798000000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.81884000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.81567000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.80839000000000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.80606999999999995</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.79783000000000004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.79764000000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.79337999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.78700999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.77981</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.77788999999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.78044000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.77734000000000003</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.77017999999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.76314000000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.76302000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.76390999999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.76002000000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.74865000000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.74590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.74336000000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.75170999999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.74136999999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.74095999999999995</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.7389</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.74177000000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.73216000000000003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.73028000000000004</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.72648999999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.72174000000000005</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.71940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.71564000000000005</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.71223999999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.71360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.70845999999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.70511999999999997</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.70550999999999997</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.70379000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.70313000000000003</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.69506999999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.69449000000000005</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.69216</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.68867</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.68910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.68925000000000003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.68674999999999997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.68415000000000004</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.67693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.68342999999999998</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.68215999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.67391999999999996</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.66703999999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.66776000000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.67249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.66915999999999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.66683999999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.65995999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.66174999999999995</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.66127999999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.65780000000000005</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.65198999999999996</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.65251000000000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.65242999999999995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.64976</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.64829000000000003</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.64254999999999995</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.64932000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.64675000000000005</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.63778000000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.63504000000000005</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.63495999999999997</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.63241999999999998</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.63092999999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.63578000000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.62790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.62709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.62543000000000004</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.62470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.62251999999999996</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.62255000000000005</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.61843000000000004</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.62026000000000003</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.61853000000000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.61333000000000004</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.60899000000000003</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.60624999999999996</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.61007</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.61009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.60353000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.60299000000000003</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.60292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.60226000000000002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.59731999999999996</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.59789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.59652000000000005</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.59448000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.59286000000000005</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.59101000000000004</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.58957999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.58750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.58847000000000005</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.58903000000000005</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.58662000000000003</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.58523000000000003</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.58282999999999996</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.58148999999999995</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.58008999999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.58006000000000002</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.57984999999999998</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.57913999999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.57925000000000004</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.57818000000000003</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.57813000000000003</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.57684000000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.57696000000000003</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.57645999999999997</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.57672999999999996</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.57669000000000004</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.57696000000000003</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.57725000000000004</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.57777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.57838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.57991000000000004</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.58087</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.58187</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.58291999999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.58413999999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.58542000000000005</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.58669000000000004</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.58809</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.58945999999999998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.59080999999999995</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.59218000000000004</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.59357000000000004</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.59502999999999995</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.59633999999999998</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.59772999999999998</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.59906999999999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.60028000000000004</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.60148999999999997</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.60265999999999997</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.60355999999999999</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.60435000000000005</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.60504999999999998</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.60550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.60582000000000003</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.60604000000000002</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.60621000000000003</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.60611999999999999</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.60596000000000005</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.60567000000000004</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.60523000000000005</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.60467000000000004</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.60396000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA14-401B-AABC-94E11F518CFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10953,16 +11769,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11294,10 +12110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J513"/>
+  <dimension ref="A1:K513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11312,9 +12128,10 @@
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
     <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11345,8 +12162,11 @@
       <c r="J1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -11377,8 +12197,11 @@
       <c r="J2">
         <v>1.38147</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>1.41401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -11409,8 +12232,11 @@
       <c r="J3">
         <v>1.2501</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>1.25468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -11441,8 +12267,11 @@
       <c r="J4">
         <v>1.2387900000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>1.24787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -11473,8 +12302,11 @@
       <c r="J5">
         <v>1.2433000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>1.2415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -11505,8 +12337,11 @@
       <c r="J6">
         <v>1.23681</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>1.2340899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -11537,8 +12372,11 @@
       <c r="J7">
         <v>1.2335700000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>1.2263599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -11569,8 +12407,11 @@
       <c r="J8">
         <v>1.2311700000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>1.2184600000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -11601,8 +12442,11 @@
       <c r="J9">
         <v>1.2301800000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>1.21113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -11633,8 +12477,11 @@
       <c r="J10">
         <v>1.2289099999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>1.20475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -11665,8 +12512,11 @@
       <c r="J11">
         <v>1.22655</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>1.1989799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -11697,8 +12547,11 @@
       <c r="J12">
         <v>1.2249000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>1.19381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -11729,8 +12582,11 @@
       <c r="J13">
         <v>1.2220599999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>1.1895500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -11761,8 +12617,11 @@
       <c r="J14">
         <v>1.2183999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>1.1857599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -11793,8 +12652,11 @@
       <c r="J15">
         <v>1.2141599999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>1.18245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -11825,8 +12687,11 @@
       <c r="J16">
         <v>1.2139899999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>1.1793100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -11857,8 +12722,11 @@
       <c r="J17">
         <v>1.20862</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>1.17621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -11889,8 +12757,11 @@
       <c r="J18">
         <v>1.20621</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>1.17302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -11921,8 +12792,11 @@
       <c r="J19">
         <v>1.2075</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>1.16936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -11953,8 +12827,11 @@
       <c r="J20">
         <v>1.2052700000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>1.1650799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -11985,8 +12862,11 @@
       <c r="J21">
         <v>1.1970099999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>1.1606000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -12017,8 +12897,11 @@
       <c r="J22">
         <v>1.1951700000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>1.15646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -12049,8 +12932,11 @@
       <c r="J23">
         <v>1.1935500000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>1.15266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -12081,8 +12967,11 @@
       <c r="J24">
         <v>1.18668</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>1.1492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -12113,8 +13002,11 @@
       <c r="J25">
         <v>1.18344</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>1.14601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -12145,8 +13037,11 @@
       <c r="J26">
         <v>1.17831</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>1.1430199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -12177,8 +13072,11 @@
       <c r="J27">
         <v>1.1744300000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>1.1402000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -12209,8 +13107,11 @@
       <c r="J28">
         <v>1.17344</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>1.1375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -12241,8 +13142,11 @@
       <c r="J29">
         <v>1.1697</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>1.1348499999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -12273,8 +13177,11 @@
       <c r="J30">
         <v>1.1671</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>1.1322399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -12305,8 +13212,11 @@
       <c r="J31">
         <v>1.16429</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>1.1295900000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -12337,8 +13247,11 @@
       <c r="J32">
         <v>1.16239</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>1.1267799999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -12369,8 +13282,11 @@
       <c r="J33">
         <v>1.1593500000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>1.12354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -12401,8 +13317,11 @@
       <c r="J34">
         <v>1.15751</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>1.11947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -12433,8 +13352,11 @@
       <c r="J35">
         <v>1.1611</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>1.1143799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -12465,8 +13387,11 @@
       <c r="J36">
         <v>1.15679</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>1.1088100000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -12497,8 +13422,11 @@
       <c r="J37">
         <v>1.1545399999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>1.10338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -12529,8 +13457,11 @@
       <c r="J38">
         <v>1.15364</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>1.0981099999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -12561,8 +13492,11 @@
       <c r="J39">
         <v>1.15273</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>1.0930500000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -12593,8 +13527,11 @@
       <c r="J40">
         <v>1.15042</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>1.08802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -12625,8 +13562,11 @@
       <c r="J41">
         <v>1.1486000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>1.0830900000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -12657,8 +13597,11 @@
       <c r="J42">
         <v>1.14842</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>1.0785</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -12689,8 +13632,11 @@
       <c r="J43">
         <v>1.1479200000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>1.0742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -12721,8 +13667,11 @@
       <c r="J44">
         <v>1.14534</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>1.06999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -12753,8 +13702,11 @@
       <c r="J45">
         <v>1.1443399999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>1.0658799999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -12785,8 +13737,11 @@
       <c r="J46">
         <v>1.1433599999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>1.0618399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -12817,8 +13772,11 @@
       <c r="J47">
         <v>1.14341</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>1.05776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -12849,8 +13807,11 @@
       <c r="J48">
         <v>1.1416900000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>1.05379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -12881,8 +13842,11 @@
       <c r="J49">
         <v>1.13961</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>1.04982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -12913,8 +13877,11 @@
       <c r="J50">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>1.0460199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -12945,8 +13912,11 @@
       <c r="J51">
         <v>1.13933</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>1.0422899999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -12977,8 +13947,11 @@
       <c r="J52">
         <v>1.1381600000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>1.03834</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -13009,8 +13982,11 @@
       <c r="J53">
         <v>1.1391500000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>1.0346200000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -13041,8 +14017,11 @@
       <c r="J54">
         <v>1.1371100000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>1.0306299999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -13073,8 +14052,11 @@
       <c r="J55">
         <v>1.13663</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>1.0263800000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -13105,8 +14087,11 @@
       <c r="J56">
         <v>1.1355599999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>1.0223199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -13137,8 +14122,11 @@
       <c r="J57">
         <v>1.13259</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>1.0184800000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -13169,8 +14157,11 @@
       <c r="J58">
         <v>1.13317</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>1.0144500000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -13201,8 +14192,11 @@
       <c r="J59">
         <v>1.1312800000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>1.0103200000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -13233,8 +14227,11 @@
       <c r="J60">
         <v>1.13096</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>1.00681</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -13265,8 +14262,11 @@
       <c r="J61">
         <v>1.12971</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>1.0016400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -13297,8 +14297,11 @@
       <c r="J62">
         <v>1.1281300000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <v>0.99775000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -13329,8 +14332,11 @@
       <c r="J63">
         <v>1.1259999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <v>0.99251999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -13361,8 +14367,11 @@
       <c r="J64">
         <v>1.1252599999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <v>0.98809999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -13393,8 +14402,11 @@
       <c r="J65">
         <v>1.12639</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65">
+        <v>0.98289000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -13425,8 +14437,11 @@
       <c r="J66">
         <v>1.12279</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>0.97909999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -13457,8 +14472,11 @@
       <c r="J67">
         <v>1.1221300000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <v>0.97555000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -13489,8 +14507,11 @@
       <c r="J68">
         <v>1.1224799999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <v>0.97206000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -13521,8 +14542,11 @@
       <c r="J69">
         <v>1.1231599999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>0.96472999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -13553,8 +14577,11 @@
       <c r="J70">
         <v>1.1200699999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>0.96081000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -13585,8 +14612,11 @@
       <c r="J71">
         <v>1.1195900000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <v>0.95440999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -13617,8 +14647,11 @@
       <c r="J72">
         <v>1.1188899999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <v>0.95030000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -13649,8 +14682,11 @@
       <c r="J73">
         <v>1.1177999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>0.94582999999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -13681,8 +14717,11 @@
       <c r="J74">
         <v>1.1172299999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <v>0.94201000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -13713,8 +14752,11 @@
       <c r="J75">
         <v>1.1177999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75">
+        <v>0.93672999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -13745,8 +14787,11 @@
       <c r="J76">
         <v>1.11589</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76">
+        <v>0.93254999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -13777,8 +14822,11 @@
       <c r="J77">
         <v>1.1147400000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <v>0.92823999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -13809,8 +14857,11 @@
       <c r="J78">
         <v>1.1149800000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78">
+        <v>0.92357999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -13841,8 +14892,11 @@
       <c r="J79">
         <v>1.1134999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79">
+        <v>0.91983000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -13873,8 +14927,11 @@
       <c r="J80">
         <v>1.11368</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <v>0.91191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -13905,8 +14962,11 @@
       <c r="J81">
         <v>1.1112500000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81">
+        <v>0.91125999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -13937,8 +14997,11 @@
       <c r="J82">
         <v>1.11067</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82">
+        <v>0.91173999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -13969,8 +15032,11 @@
       <c r="J83">
         <v>1.11036</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83">
+        <v>0.90054000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -14001,8 +15067,11 @@
       <c r="J84">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84">
+        <v>0.89412999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -14033,8 +15102,11 @@
       <c r="J85">
         <v>1.1101099999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <v>0.89205000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -14065,8 +15137,11 @@
       <c r="J86">
         <v>1.1084799999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>0.89975000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -14097,8 +15172,11 @@
       <c r="J87">
         <v>1.10605</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87">
+        <v>0.88175999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -14129,8 +15207,11 @@
       <c r="J88">
         <v>1.10564</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <v>0.87595000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -14161,8 +15242,11 @@
       <c r="J89">
         <v>1.1048</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>0.87680999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -14193,8 +15277,11 @@
       <c r="J90">
         <v>1.10487</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>0.87661999999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -14225,8 +15312,11 @@
       <c r="J91">
         <v>1.1052200000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91">
+        <v>0.86670000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -14257,8 +15347,11 @@
       <c r="J92">
         <v>1.1047</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <v>0.86409999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -14289,8 +15382,11 @@
       <c r="J93">
         <v>1.10442</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>0.86124999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -14321,8 +15417,11 @@
       <c r="J94">
         <v>1.10286</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>0.84967999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -14353,8 +15452,11 @@
       <c r="J95">
         <v>1.1017300000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>0.85797000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -14385,8 +15487,11 @@
       <c r="J96">
         <v>1.10385</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>0.84238000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -14417,8 +15522,11 @@
       <c r="J97">
         <v>1.10104</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>0.84001999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -14449,8 +15557,11 @@
       <c r="J98">
         <v>1.101</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <v>0.83621000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -14481,8 +15592,11 @@
       <c r="J99">
         <v>1.1005799999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>0.83377000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -14513,8 +15627,11 @@
       <c r="J100">
         <v>1.0993900000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>0.83340000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -14545,8 +15662,11 @@
       <c r="J101">
         <v>1.09866</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K101">
+        <v>0.82621999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -14577,8 +15697,11 @@
       <c r="J102">
         <v>1.0976600000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>0.82798000000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -14609,8 +15732,11 @@
       <c r="J103">
         <v>1.0982400000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <v>0.81884000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -14641,8 +15767,11 @@
       <c r="J104">
         <v>1.0980300000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>0.81567000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -14673,8 +15802,11 @@
       <c r="J105">
         <v>1.1009599999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <v>0.80839000000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -14705,8 +15837,11 @@
       <c r="J106">
         <v>1.09693</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <v>0.80606999999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -14737,8 +15872,11 @@
       <c r="J107">
         <v>1.09534</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>0.79783000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -14769,8 +15907,11 @@
       <c r="J108">
         <v>1.09473</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>0.79764000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -14801,8 +15942,11 @@
       <c r="J109">
         <v>1.0945100000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>0.79337999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -14833,8 +15977,11 @@
       <c r="J110">
         <v>1.10338</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>0.78969999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -14865,8 +16012,11 @@
       <c r="J111">
         <v>1.1097300000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>0.78700999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -14897,8 +16047,11 @@
       <c r="J112">
         <v>1.0995699999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>0.77981</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -14929,8 +16082,11 @@
       <c r="J113">
         <v>1.09395</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>0.77788999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -14961,8 +16117,11 @@
       <c r="J114">
         <v>1.09199</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>0.78044000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -14993,8 +16152,11 @@
       <c r="J115">
         <v>1.09117</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>0.77734000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
@@ -15025,8 +16187,11 @@
       <c r="J116">
         <v>1.09307</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>0.77017999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
@@ -15057,8 +16222,11 @@
       <c r="J117">
         <v>1.09141</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>0.76314000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
@@ -15089,8 +16257,11 @@
       <c r="J118">
         <v>1.0890899999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>0.76302000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.42812</v>
       </c>
@@ -15121,8 +16292,11 @@
       <c r="J119">
         <v>1.0886400000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>0.76390999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
@@ -15153,8 +16327,11 @@
       <c r="J120">
         <v>1.0882799999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>0.76002000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
@@ -15185,8 +16362,11 @@
       <c r="J121">
         <v>1.0900799999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>0.74865000000000004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
@@ -15217,8 +16397,11 @@
       <c r="J122">
         <v>1.0881000000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>0.74590000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
@@ -15249,8 +16432,11 @@
       <c r="J123">
         <v>1.08769</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>0.74336000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
@@ -15281,8 +16467,11 @@
       <c r="J124">
         <v>1.0892900000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>0.75170999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
@@ -15313,8 +16502,11 @@
       <c r="J125">
         <v>1.0882099999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>0.74136999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
@@ -15345,8 +16537,11 @@
       <c r="J126">
         <v>1.0861700000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>0.74095999999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
@@ -15377,8 +16572,11 @@
       <c r="J127">
         <v>1.08697</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>0.7389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.35158</v>
       </c>
@@ -15409,8 +16607,11 @@
       <c r="J128">
         <v>1.08511</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>0.74177000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
@@ -15441,8 +16642,11 @@
       <c r="J129">
         <v>1.08562</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>0.73216000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.3392</v>
       </c>
@@ -15473,8 +16677,11 @@
       <c r="J130">
         <v>1.0840700000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>0.73028000000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
@@ -15505,8 +16712,11 @@
       <c r="J131">
         <v>1.08456</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>0.72648999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
@@ -15537,8 +16747,11 @@
       <c r="J132">
         <v>1.08382</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <v>0.72174000000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
@@ -15569,8 +16782,11 @@
       <c r="J133">
         <v>1.0831599999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>0.71940999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
@@ -15601,8 +16817,11 @@
       <c r="J134">
         <v>1.0821099999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>0.71564000000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.32943</v>
       </c>
@@ -15633,8 +16852,11 @@
       <c r="J135">
         <v>1.0817699999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>0.71223999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
@@ -15665,8 +16887,11 @@
       <c r="J136">
         <v>1.0814299999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>0.71360000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
@@ -15697,8 +16922,11 @@
       <c r="J137">
         <v>1.0814999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>0.70845999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.31</v>
       </c>
@@ -15729,8 +16957,11 @@
       <c r="J138">
         <v>1.08066</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>0.70511999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
@@ -15761,8 +16992,11 @@
       <c r="J139">
         <v>1.0803499999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>0.70550999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.30506</v>
       </c>
@@ -15793,8 +17027,11 @@
       <c r="J140">
         <v>1.0801700000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>0.70379000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
@@ -15825,8 +17062,11 @@
       <c r="J141">
         <v>1.0800099999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>0.70313000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
@@ -15857,8 +17097,11 @@
       <c r="J142">
         <v>1.0804499999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>0.69506999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.29479</v>
       </c>
@@ -15889,8 +17132,11 @@
       <c r="J143">
         <v>1.0791200000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K143">
+        <v>0.69449000000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
@@ -15921,8 +17167,11 @@
       <c r="J144">
         <v>1.0787199999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>0.69216</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
@@ -15953,8 +17202,11 @@
       <c r="J145">
         <v>1.0804199999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K145">
+        <v>0.68867</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
@@ -15985,8 +17237,11 @@
       <c r="J146">
         <v>1.0782099999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>0.68910000000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.2722</v>
       </c>
@@ -16017,8 +17272,11 @@
       <c r="J147">
         <v>1.0777399999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>0.68925000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
@@ -16049,8 +17307,11 @@
       <c r="J148">
         <v>1.0772299999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>0.68674999999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
@@ -16081,8 +17342,11 @@
       <c r="J149">
         <v>1.07656</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>0.68415000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
@@ -16113,8 +17377,11 @@
       <c r="J150">
         <v>1.0782400000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>0.67693999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
@@ -16145,8 +17412,11 @@
       <c r="J151">
         <v>1.0761700000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>0.68342999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
@@ -16177,8 +17447,11 @@
       <c r="J152">
         <v>1.07561</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>0.68215999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.25683</v>
       </c>
@@ -16209,8 +17482,11 @@
       <c r="J153">
         <v>1.0766199999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>0.67391999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
@@ -16241,8 +17517,11 @@
       <c r="J154">
         <v>1.0769899999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>0.66703999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
@@ -16273,8 +17552,11 @@
       <c r="J155">
         <v>1.07524</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>0.66776000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
@@ -16305,8 +17587,11 @@
       <c r="J156">
         <v>1.07453</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K156">
+        <v>0.67249999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.24456</v>
       </c>
@@ -16337,8 +17622,11 @@
       <c r="J157">
         <v>1.0741099999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>0.66915999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
@@ -16369,8 +17657,11 @@
       <c r="J158">
         <v>1.07345</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K158">
+        <v>0.66683999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
@@ -16401,8 +17692,11 @@
       <c r="J159">
         <v>1.07246</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K159">
+        <v>0.65995999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.22721</v>
       </c>
@@ -16433,8 +17727,11 @@
       <c r="J160">
         <v>1.07331</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K160">
+        <v>0.66174999999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
@@ -16465,8 +17762,11 @@
       <c r="J161">
         <v>1.0725</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>0.66127999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.21545</v>
       </c>
@@ -16497,8 +17797,11 @@
       <c r="J162">
         <v>1.0712699999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>0.65780000000000005</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.21892</v>
       </c>
@@ -16529,8 +17832,11 @@
       <c r="J163">
         <v>1.0712200000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>0.65198999999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
@@ -16561,8 +17867,11 @@
       <c r="J164">
         <v>1.0721099999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>0.65251000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.22827</v>
       </c>
@@ -16593,8 +17902,11 @@
       <c r="J165">
         <v>1.07192</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>0.65242999999999995</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
@@ -16625,8 +17937,11 @@
       <c r="J166">
         <v>1.07094</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K166">
+        <v>0.64976</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.21489</v>
       </c>
@@ -16657,8 +17972,11 @@
       <c r="J167">
         <v>1.07064</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K167">
+        <v>0.64829000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
@@ -16689,8 +18007,11 @@
       <c r="J168">
         <v>1.06979</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K168">
+        <v>0.64254999999999995</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
@@ -16721,8 +18042,11 @@
       <c r="J169">
         <v>1.0699099999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K169">
+        <v>0.64932000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.20321</v>
       </c>
@@ -16753,8 +18077,11 @@
       <c r="J170">
         <v>1.0694699999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K170">
+        <v>0.64675000000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.193</v>
       </c>
@@ -16785,8 +18112,11 @@
       <c r="J171">
         <v>1.0684499999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K171">
+        <v>0.63778000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
@@ -16817,8 +18147,11 @@
       <c r="J172">
         <v>1.06819</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K172">
+        <v>0.63504000000000005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.19649</v>
       </c>
@@ -16849,8 +18182,11 @@
       <c r="J173">
         <v>1.0676699999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K173">
+        <v>0.63495999999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
@@ -16881,8 +18217,11 @@
       <c r="J174">
         <v>1.0669599999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K174">
+        <v>0.63241999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
@@ -16913,8 +18252,11 @@
       <c r="J175">
         <v>1.0666599999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K175">
+        <v>0.63092999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.18289</v>
       </c>
@@ -16945,8 +18287,11 @@
       <c r="J176">
         <v>1.06619</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K176">
+        <v>0.63578000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.17509</v>
       </c>
@@ -16977,8 +18322,11 @@
       <c r="J177">
         <v>1.0657099999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K177">
+        <v>0.62790000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.16594</v>
       </c>
@@ -17009,8 +18357,11 @@
       <c r="J178">
         <v>1.06545</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K178">
+        <v>0.62709999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.16971</v>
       </c>
@@ -17041,8 +18392,11 @@
       <c r="J179">
         <v>1.0650200000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K179">
+        <v>0.62543000000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
@@ -17073,8 +18427,11 @@
       <c r="J180">
         <v>1.0649</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K180">
+        <v>0.62470000000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
@@ -17105,8 +18462,11 @@
       <c r="J181">
         <v>1.0635600000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K181">
+        <v>0.62251999999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.17637</v>
       </c>
@@ -17137,8 +18497,11 @@
       <c r="J182">
         <v>1.06345</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K182">
+        <v>0.62255000000000005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.16108</v>
       </c>
@@ -17169,8 +18532,11 @@
       <c r="J183">
         <v>1.06253</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K183">
+        <v>0.61843000000000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
@@ -17201,8 +18567,11 @@
       <c r="J184">
         <v>1.0619400000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K184">
+        <v>0.62026000000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
@@ -17233,8 +18602,11 @@
       <c r="J185">
         <v>1.06128</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K185">
+        <v>0.61853000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
@@ -17265,8 +18637,11 @@
       <c r="J186">
         <v>1.0611699999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K186">
+        <v>0.61333000000000004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
@@ -17297,8 +18672,11 @@
       <c r="J187">
         <v>1.06131</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K187">
+        <v>0.60899000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
@@ -17329,8 +18707,11 @@
       <c r="J188">
         <v>1.0606100000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K188">
+        <v>0.60624999999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
@@ -17361,8 +18742,11 @@
       <c r="J189">
         <v>1.06105</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K189">
+        <v>0.61007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
@@ -17393,8 +18777,11 @@
       <c r="J190">
         <v>1.0598700000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K190">
+        <v>0.61009999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
@@ -17425,8 +18812,11 @@
       <c r="J191">
         <v>1.0607</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K191">
+        <v>0.60353000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.17412</v>
       </c>
@@ -17457,8 +18847,11 @@
       <c r="J192">
         <v>1.0592900000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K192">
+        <v>0.60299000000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
@@ -17489,8 +18882,11 @@
       <c r="J193">
         <v>1.05846</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K193">
+        <v>0.60292999999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.14726</v>
       </c>
@@ -17521,8 +18917,11 @@
       <c r="J194">
         <v>1.0578700000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K194">
+        <v>0.60226000000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.14654</v>
       </c>
@@ -17553,8 +18952,11 @@
       <c r="J195">
         <v>1.0575600000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K195">
+        <v>0.59731999999999996</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
@@ -17585,8 +18987,11 @@
       <c r="J196">
         <v>1.0572600000000001</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K196">
+        <v>0.59789999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
@@ -17617,8 +19022,11 @@
       <c r="J197">
         <v>1.05688</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K197">
+        <v>0.59652000000000005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
@@ -17649,8 +19057,11 @@
       <c r="J198">
         <v>1.0566899999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K198">
+        <v>0.59448000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
@@ -17681,8 +19092,11 @@
       <c r="J199">
         <v>1.0559700000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K199">
+        <v>0.59286000000000005</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
@@ -17713,8 +19127,11 @@
       <c r="J200">
         <v>1.05528</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K200">
+        <v>0.59101000000000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.13768</v>
       </c>
@@ -17745,8 +19162,11 @@
       <c r="J201">
         <v>1.05524</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K201">
+        <v>0.58957999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
@@ -17777,8 +19197,11 @@
       <c r="J202">
         <v>1.0542400000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K202">
+        <v>0.58750000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.14656</v>
       </c>
@@ -17809,8 +19232,11 @@
       <c r="J203">
         <v>1.0542</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K203">
+        <v>0.58847000000000005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
@@ -17841,8 +19267,11 @@
       <c r="J204">
         <v>1.0536099999999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K204">
+        <v>0.58903000000000005</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
@@ -17873,8 +19302,11 @@
       <c r="J205">
         <v>1.05281</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K205">
+        <v>0.58662000000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.12268</v>
       </c>
@@ -17905,8 +19337,11 @@
       <c r="J206">
         <v>1.0521199999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K206">
+        <v>0.58523000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.12182</v>
       </c>
@@ -17937,8 +19372,11 @@
       <c r="J207">
         <v>1.0519700000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K207">
+        <v>0.58282999999999996</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.12303</v>
       </c>
@@ -17969,8 +19407,11 @@
       <c r="J208">
         <v>1.0531699999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K208">
+        <v>0.58148999999999995</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.11706</v>
       </c>
@@ -18001,8 +19442,11 @@
       <c r="J209">
         <v>1.0521199999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K209">
+        <v>0.58008999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.11583</v>
       </c>
@@ -18033,8 +19477,11 @@
       <c r="J210">
         <v>1.0507299999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K210">
+        <v>0.58006000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
@@ -18065,8 +19512,11 @@
       <c r="J211">
         <v>1.0507299999999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K211">
+        <v>0.57984999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
@@ -18097,8 +19547,11 @@
       <c r="J212">
         <v>1.0496399999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K212">
+        <v>0.57913999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
@@ -18129,8 +19582,11 @@
       <c r="J213">
         <v>1.0488</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K213">
+        <v>0.57925000000000004</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
@@ -18161,8 +19617,11 @@
       <c r="J214">
         <v>1.05332</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K214">
+        <v>0.57818000000000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
@@ -18193,8 +19652,11 @@
       <c r="J215">
         <v>1.05152</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K215">
+        <v>0.57813000000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.11314</v>
       </c>
@@ -18225,8 +19687,11 @@
       <c r="J216">
         <v>1.0502800000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K216">
+        <v>0.57684000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
@@ -18257,8 +19722,11 @@
       <c r="J217">
         <v>1.04789</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K217">
+        <v>0.57696000000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.13441</v>
       </c>
@@ -18289,8 +19757,11 @@
       <c r="J218">
         <v>1.0469999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K218">
+        <v>0.57645999999999997</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.11197</v>
       </c>
@@ -18321,8 +19792,11 @@
       <c r="J219">
         <v>1.04647</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K219">
+        <v>0.57672999999999996</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.11214</v>
       </c>
@@ -18353,8 +19827,11 @@
       <c r="J220">
         <v>1.0462100000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K220">
+        <v>0.57669000000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.10238</v>
       </c>
@@ -18385,8 +19862,11 @@
       <c r="J221">
         <v>1.0454399999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K221">
+        <v>0.57696000000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
@@ -18417,8 +19897,11 @@
       <c r="J222">
         <v>1.04505</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K222">
+        <v>0.57725000000000004</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -18449,8 +19932,11 @@
       <c r="J223">
         <v>1.04444</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K223">
+        <v>0.57777000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.10054</v>
       </c>
@@ -18481,8 +19967,11 @@
       <c r="J224">
         <v>1.04399</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K224">
+        <v>0.57838000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.10248</v>
       </c>
@@ -18513,8 +20002,11 @@
       <c r="J225">
         <v>1.0436099999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K225">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.10149</v>
       </c>
@@ -18545,8 +20037,11 @@
       <c r="J226">
         <v>1.04311</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K226">
+        <v>0.57991000000000004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.10385</v>
       </c>
@@ -18577,8 +20072,11 @@
       <c r="J227">
         <v>1.0431600000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K227">
+        <v>0.58087</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.10721</v>
       </c>
@@ -18609,8 +20107,11 @@
       <c r="J228">
         <v>1.0425800000000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K228">
+        <v>0.58187</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.10183</v>
       </c>
@@ -18641,8 +20142,11 @@
       <c r="J229">
         <v>1.04203</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K229">
+        <v>0.58291999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
@@ -18673,8 +20177,11 @@
       <c r="J230">
         <v>1.04162</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K230">
+        <v>0.58413999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
@@ -18705,8 +20212,11 @@
       <c r="J231">
         <v>1.0412399999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K231">
+        <v>0.58542000000000005</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
@@ -18737,8 +20247,11 @@
       <c r="J232">
         <v>1.0408999999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K232">
+        <v>0.58669000000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
@@ -18769,8 +20282,11 @@
       <c r="J233">
         <v>1.04053</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K233">
+        <v>0.58809</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
@@ -18801,8 +20317,11 @@
       <c r="J234">
         <v>1.04017</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K234">
+        <v>0.58945999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
@@ -18833,8 +20352,11 @@
       <c r="J235">
         <v>1.03979</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K235">
+        <v>0.59080999999999995</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.11858</v>
       </c>
@@ -18865,8 +20387,11 @@
       <c r="J236">
         <v>1.03949</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K236">
+        <v>0.59218000000000004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
@@ -18897,8 +20422,11 @@
       <c r="J237">
         <v>1.03912</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K237">
+        <v>0.59357000000000004</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
@@ -18929,8 +20457,11 @@
       <c r="J238">
         <v>1.0387299999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K238">
+        <v>0.59502999999999995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
@@ -18961,8 +20492,11 @@
       <c r="J239">
         <v>1.0383599999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K239">
+        <v>0.59633999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
@@ -18993,8 +20527,11 @@
       <c r="J240">
         <v>1.03799</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K240">
+        <v>0.59772999999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.1134</v>
       </c>
@@ -19025,8 +20562,11 @@
       <c r="J241">
         <v>1.0375700000000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K241">
+        <v>0.59906999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
@@ -19057,8 +20597,11 @@
       <c r="J242">
         <v>1.03722</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K242">
+        <v>0.60028000000000004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
@@ -19089,8 +20632,11 @@
       <c r="J243">
         <v>1.0367999999999999</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K243">
+        <v>0.60148999999999997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
@@ -19121,8 +20667,11 @@
       <c r="J244">
         <v>1.03643</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K244">
+        <v>0.60265999999999997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
@@ -19153,8 +20702,11 @@
       <c r="J245">
         <v>1.0361</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K245">
+        <v>0.60355999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
@@ -19185,8 +20737,11 @@
       <c r="J246">
         <v>1.03569</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K246">
+        <v>0.60435000000000005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.10452</v>
       </c>
@@ -19217,8 +20772,11 @@
       <c r="J247">
         <v>1.03529</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K247">
+        <v>0.60504999999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
@@ -19249,8 +20807,11 @@
       <c r="J248">
         <v>1.03488</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K248">
+        <v>0.60550000000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -19281,8 +20842,11 @@
       <c r="J249">
         <v>1.0344899999999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K249">
+        <v>0.60582000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
@@ -19313,8 +20877,11 @@
       <c r="J250">
         <v>1.03409</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K250">
+        <v>0.60604000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
@@ -19345,8 +20912,11 @@
       <c r="J251">
         <v>1.0336799999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K251">
+        <v>0.60621000000000003</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
@@ -19377,8 +20947,11 @@
       <c r="J252">
         <v>1.0333300000000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K252">
+        <v>0.60611999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
@@ -19409,8 +20982,11 @@
       <c r="J253">
         <v>1.0329699999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K253">
+        <v>0.60596000000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
@@ -19441,8 +21017,11 @@
       <c r="J254">
         <v>1.0326</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K254">
+        <v>0.60567000000000004</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
@@ -19473,8 +21052,11 @@
       <c r="J255">
         <v>1.03224</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K255">
+        <v>0.60523000000000005</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
@@ -19505,8 +21087,11 @@
       <c r="J256">
         <v>1.0318700000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K256">
+        <v>0.60467000000000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
@@ -19537,92 +21122,95 @@
       <c r="J257">
         <v>1.0314700000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K257">
+        <v>0.60396000000000005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23715970-6D0B-41DD-9318-41A9BB9C8E80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4647FD4-E51A-4EC3-8BC5-6338F895153C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConvergePatternOfNN" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,22 +76,25 @@
     <t>NN041701</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NN041801</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -122,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,7 +143,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -207,7 +210,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8400,7 +8403,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8438,7 +8441,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1310328271"/>
@@ -8535,7 +8538,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8567,7 +8570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383030927"/>
@@ -8609,7 +8612,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8639,7 +8642,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8653,7 +8656,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8716,7 +8719,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10417,7 +10420,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10455,7 +10458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2133561007"/>
@@ -10538,7 +10541,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10570,7 +10573,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="335908895"/>
@@ -10612,7 +10615,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10642,7 +10645,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12110,28 +12113,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K513"/>
+  <dimension ref="A1:L513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="C241" workbookViewId="0">
+      <selection activeCell="J261" sqref="J261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12165,8 +12168,11 @@
       <c r="K1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -12200,8 +12206,11 @@
       <c r="K2">
         <v>1.41401</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>2.0945200000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -12235,8 +12244,11 @@
       <c r="K3">
         <v>1.25468</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1.25797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -12270,8 +12282,11 @@
       <c r="K4">
         <v>1.24787</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1.2422899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -12305,8 +12320,11 @@
       <c r="K5">
         <v>1.2415</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1.23397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -12340,8 +12358,11 @@
       <c r="K6">
         <v>1.2340899999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1.23129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -12375,8 +12396,11 @@
       <c r="K7">
         <v>1.2263599999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1.22932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -12410,8 +12434,11 @@
       <c r="K8">
         <v>1.2184600000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1.2251000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -12445,8 +12472,11 @@
       <c r="K9">
         <v>1.21113</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1.2223999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -12480,8 +12510,11 @@
       <c r="K10">
         <v>1.20475</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>1.2196800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -12515,8 +12548,11 @@
       <c r="K11">
         <v>1.1989799999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>1.21482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -12550,8 +12586,11 @@
       <c r="K12">
         <v>1.19381</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>1.2101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -12585,8 +12624,11 @@
       <c r="K13">
         <v>1.1895500000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1.2081900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -12620,8 +12662,11 @@
       <c r="K14">
         <v>1.1857599999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>1.2054400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -12655,8 +12700,11 @@
       <c r="K15">
         <v>1.18245</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1.2034100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -12690,8 +12738,11 @@
       <c r="K16">
         <v>1.1793100000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>1.20377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -12725,8 +12776,11 @@
       <c r="K17">
         <v>1.17621</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>1.2017199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -12760,8 +12814,11 @@
       <c r="K18">
         <v>1.17302</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>1.1980999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -12795,8 +12852,11 @@
       <c r="K19">
         <v>1.16936</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>1.19672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -12830,8 +12890,11 @@
       <c r="K20">
         <v>1.1650799999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>1.1936199999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -12865,8 +12928,11 @@
       <c r="K21">
         <v>1.1606000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>1.19272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -12900,8 +12966,11 @@
       <c r="K22">
         <v>1.15646</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>1.1904300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -12935,8 +13004,11 @@
       <c r="K23">
         <v>1.15266</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>1.1887799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -12970,8 +13042,11 @@
       <c r="K24">
         <v>1.1492</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>1.1866300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -13005,8 +13080,11 @@
       <c r="K25">
         <v>1.14601</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>1.1828399999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -13040,8 +13118,11 @@
       <c r="K26">
         <v>1.1430199999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>1.18085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -13075,8 +13156,11 @@
       <c r="K27">
         <v>1.1402000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>1.1800900000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -13110,8 +13194,11 @@
       <c r="K28">
         <v>1.1375</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>1.1767700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -13145,8 +13232,11 @@
       <c r="K29">
         <v>1.1348499999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>1.1749099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -13180,8 +13270,11 @@
       <c r="K30">
         <v>1.1322399999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>1.1722699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -13215,8 +13308,11 @@
       <c r="K31">
         <v>1.1295900000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>1.1722399999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -13250,8 +13346,11 @@
       <c r="K32">
         <v>1.1267799999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>1.16649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -13285,8 +13384,11 @@
       <c r="K33">
         <v>1.12354</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>1.1664099999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -13320,8 +13422,11 @@
       <c r="K34">
         <v>1.11947</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>1.16154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -13355,8 +13460,11 @@
       <c r="K35">
         <v>1.1143799999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>1.16046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -13390,8 +13498,11 @@
       <c r="K36">
         <v>1.1088100000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>1.1580999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -13425,8 +13536,11 @@
       <c r="K37">
         <v>1.10338</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>1.1579699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -13460,8 +13574,11 @@
       <c r="K38">
         <v>1.0981099999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>1.1536599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -13495,8 +13612,11 @@
       <c r="K39">
         <v>1.0930500000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>1.1513500000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -13530,8 +13650,11 @@
       <c r="K40">
         <v>1.08802</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>1.1500699999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -13565,8 +13688,11 @@
       <c r="K41">
         <v>1.0830900000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>1.14699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -13600,8 +13726,11 @@
       <c r="K42">
         <v>1.0785</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>1.14601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -13635,8 +13764,11 @@
       <c r="K43">
         <v>1.0742</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>1.1440300000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -13670,8 +13802,11 @@
       <c r="K44">
         <v>1.06999</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>1.1536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -13705,8 +13840,11 @@
       <c r="K45">
         <v>1.0658799999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>1.1438200000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -13740,8 +13878,11 @@
       <c r="K46">
         <v>1.0618399999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>1.13994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -13775,8 +13916,11 @@
       <c r="K47">
         <v>1.05776</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>1.13809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -13810,8 +13954,11 @@
       <c r="K48">
         <v>1.05379</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>1.13676</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -13845,8 +13992,11 @@
       <c r="K49">
         <v>1.04982</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>1.1365799999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -13880,8 +14030,11 @@
       <c r="K50">
         <v>1.0460199999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>1.13588</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -13915,8 +14068,11 @@
       <c r="K51">
         <v>1.0422899999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>1.1335599999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -13950,8 +14106,11 @@
       <c r="K52">
         <v>1.03834</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>1.13226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -13985,8 +14144,11 @@
       <c r="K53">
         <v>1.0346200000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>1.1305099999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -14020,8 +14182,11 @@
       <c r="K54">
         <v>1.0306299999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>1.12971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -14055,8 +14220,11 @@
       <c r="K55">
         <v>1.0263800000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>1.1280600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -14090,8 +14258,11 @@
       <c r="K56">
         <v>1.0223199999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>1.1271100000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -14125,8 +14296,11 @@
       <c r="K57">
         <v>1.0184800000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>1.12602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -14160,8 +14334,11 @@
       <c r="K58">
         <v>1.0144500000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>1.1253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -14195,8 +14372,11 @@
       <c r="K59">
         <v>1.0103200000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>1.12401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -14230,8 +14410,11 @@
       <c r="K60">
         <v>1.00681</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>1.12294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -14265,8 +14448,11 @@
       <c r="K61">
         <v>1.0016400000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>1.1211800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -14300,8 +14486,11 @@
       <c r="K62">
         <v>0.99775000000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>1.1205099999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -14335,8 +14524,11 @@
       <c r="K63">
         <v>0.99251999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>1.11999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -14370,8 +14562,11 @@
       <c r="K64">
         <v>0.98809999999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>1.11835</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -14405,8 +14600,11 @@
       <c r="K65">
         <v>0.98289000000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>1.1173999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -14440,8 +14638,11 @@
       <c r="K66">
         <v>0.97909999999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>1.1162000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -14475,8 +14676,11 @@
       <c r="K67">
         <v>0.97555000000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>1.1151800000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -14510,8 +14714,11 @@
       <c r="K68">
         <v>0.97206000000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>1.11415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -14545,8 +14752,11 @@
       <c r="K69">
         <v>0.96472999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>1.1131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -14580,8 +14790,11 @@
       <c r="K70">
         <v>0.96081000000000005</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>1.1125400000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -14615,8 +14828,11 @@
       <c r="K71">
         <v>0.95440999999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>1.11202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -14650,8 +14866,11 @@
       <c r="K72">
         <v>0.95030000000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>1.1105799999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -14685,8 +14904,11 @@
       <c r="K73">
         <v>0.94582999999999995</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>1.10981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -14720,8 +14942,11 @@
       <c r="K74">
         <v>0.94201000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>1.10893</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -14755,8 +14980,11 @@
       <c r="K75">
         <v>0.93672999999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>1.10825</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -14790,8 +15018,11 @@
       <c r="K76">
         <v>0.93254999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>1.10748</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -14825,8 +15056,11 @@
       <c r="K77">
         <v>0.92823999999999995</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>1.10633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -14860,8 +15094,11 @@
       <c r="K78">
         <v>0.92357999999999996</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>1.1059000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -14895,8 +15132,11 @@
       <c r="K79">
         <v>0.91983000000000004</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>1.10477</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -14930,8 +15170,11 @@
       <c r="K80">
         <v>0.91191</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>1.1043099999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -14965,8 +15208,11 @@
       <c r="K81">
         <v>0.91125999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>1.10341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -15000,8 +15246,11 @@
       <c r="K82">
         <v>0.91173999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>1.10362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -15035,8 +15284,11 @@
       <c r="K83">
         <v>0.90054000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>1.1021099999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -15070,8 +15322,11 @@
       <c r="K84">
         <v>0.89412999999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>1.101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -15105,8 +15360,11 @@
       <c r="K85">
         <v>0.89205000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>1.10023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -15140,8 +15398,11 @@
       <c r="K86">
         <v>0.89975000000000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>1.09971</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -15175,8 +15436,11 @@
       <c r="K87">
         <v>0.88175999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>1.0989199999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -15210,8 +15474,11 @@
       <c r="K88">
         <v>0.87595000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>1.0979699999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -15245,8 +15512,11 @@
       <c r="K89">
         <v>0.87680999999999998</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>1.0968500000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -15280,8 +15550,11 @@
       <c r="K90">
         <v>0.87661999999999995</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>1.0957699999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -15315,8 +15588,11 @@
       <c r="K91">
         <v>0.86670000000000003</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>1.0962099999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -15350,8 +15626,11 @@
       <c r="K92">
         <v>0.86409999999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>1.0942799999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -15385,8 +15664,11 @@
       <c r="K93">
         <v>0.86124999999999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>1.0931200000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -15420,8 +15702,11 @@
       <c r="K94">
         <v>0.84967999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>1.0928500000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -15455,8 +15740,11 @@
       <c r="K95">
         <v>0.85797000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>1.0913600000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -15490,8 +15778,11 @@
       <c r="K96">
         <v>0.84238000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>1.09084</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -15525,8 +15816,11 @@
       <c r="K97">
         <v>0.84001999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>1.0904499999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -15560,8 +15854,11 @@
       <c r="K98">
         <v>0.83621000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>1.08988</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -15595,8 +15892,11 @@
       <c r="K99">
         <v>0.83377000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>1.09795</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -15630,8 +15930,11 @@
       <c r="K100">
         <v>0.83340000000000003</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>1.09032</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -15665,8 +15968,11 @@
       <c r="K101">
         <v>0.82621999999999995</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>1.08796</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -15700,8 +16006,11 @@
       <c r="K102">
         <v>0.82798000000000005</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>1.0867100000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -15735,8 +16044,11 @@
       <c r="K103">
         <v>0.81884000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <v>1.0860099999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -15770,8 +16082,11 @@
       <c r="K104">
         <v>0.81567000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <v>1.0857000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -15805,8 +16120,11 @@
       <c r="K105">
         <v>0.80839000000000005</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <v>1.0851200000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -15840,8 +16158,11 @@
       <c r="K106">
         <v>0.80606999999999995</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <v>1.0844499999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -15875,8 +16196,11 @@
       <c r="K107">
         <v>0.79783000000000004</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <v>1.0869599999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -15910,8 +16234,11 @@
       <c r="K108">
         <v>0.79764000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <v>1.08361</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -15945,8 +16272,11 @@
       <c r="K109">
         <v>0.79337999999999997</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <v>1.0824499999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -15980,8 +16310,11 @@
       <c r="K110">
         <v>0.78969999999999996</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <v>1.0816399999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -16015,8 +16348,11 @@
       <c r="K111">
         <v>0.78700999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>1.0810500000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -16050,8 +16386,11 @@
       <c r="K112">
         <v>0.77981</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>1.0802400000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -16085,8 +16424,11 @@
       <c r="K113">
         <v>0.77788999999999997</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>1.0799300000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -16120,8 +16462,11 @@
       <c r="K114">
         <v>0.78044000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>1.0792600000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -16155,8 +16500,11 @@
       <c r="K115">
         <v>0.77734000000000003</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>1.0784</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>0.41464000000000001</v>
       </c>
@@ -16190,8 +16538,11 @@
       <c r="K116">
         <v>0.77017999999999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>1.07917</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>0.41516999999999998</v>
       </c>
@@ -16225,8 +16576,11 @@
       <c r="K117">
         <v>0.76314000000000004</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>1.0777399999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>0.41281000000000001</v>
       </c>
@@ -16260,8 +16614,11 @@
       <c r="K118">
         <v>0.76302000000000003</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>1.0766</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>0.42812</v>
       </c>
@@ -16295,8 +16652,11 @@
       <c r="K119">
         <v>0.76390999999999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>1.07694</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>0.42465000000000003</v>
       </c>
@@ -16330,8 +16690,11 @@
       <c r="K120">
         <v>0.76002000000000003</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>1.0757399999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>0.40384999999999999</v>
       </c>
@@ -16365,8 +16728,11 @@
       <c r="K121">
         <v>0.74865000000000004</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>1.07534</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>0.38895999999999997</v>
       </c>
@@ -16400,8 +16766,11 @@
       <c r="K122">
         <v>0.74590000000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>1.0747</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123">
         <v>0.37848999999999999</v>
       </c>
@@ -16435,8 +16804,11 @@
       <c r="K123">
         <v>0.74336000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>1.0735699999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124">
         <v>0.37504999999999999</v>
       </c>
@@ -16470,8 +16842,11 @@
       <c r="K124">
         <v>0.75170999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>1.07402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125">
         <v>0.37812000000000001</v>
       </c>
@@ -16505,8 +16880,11 @@
       <c r="K125">
         <v>0.74136999999999997</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <v>1.0724199999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126">
         <v>0.36592000000000002</v>
       </c>
@@ -16540,8 +16918,11 @@
       <c r="K126">
         <v>0.74095999999999995</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <v>1.07186</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>0.35715000000000002</v>
       </c>
@@ -16575,8 +16956,11 @@
       <c r="K127">
         <v>0.7389</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <v>1.0713900000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128">
         <v>0.35158</v>
       </c>
@@ -16610,8 +16994,11 @@
       <c r="K128">
         <v>0.74177000000000004</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <v>1.07107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129">
         <v>0.35276999999999997</v>
       </c>
@@ -16645,8 +17032,11 @@
       <c r="K129">
         <v>0.73216000000000003</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <v>1.0703</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130">
         <v>0.3392</v>
       </c>
@@ -16680,8 +17070,11 @@
       <c r="K130">
         <v>0.73028000000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>1.06972</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131">
         <v>0.33100000000000002</v>
       </c>
@@ -16715,8 +17108,11 @@
       <c r="K131">
         <v>0.72648999999999997</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>1.06917</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132">
         <v>0.33173999999999998</v>
       </c>
@@ -16750,8 +17146,11 @@
       <c r="K132">
         <v>0.72174000000000005</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>1.0690299999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133">
         <v>0.32563999999999999</v>
       </c>
@@ -16785,8 +17184,11 @@
       <c r="K133">
         <v>0.71940999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>1.06864</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134">
         <v>0.32372000000000001</v>
       </c>
@@ -16820,8 +17222,11 @@
       <c r="K134">
         <v>0.71564000000000005</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <v>1.06816</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135">
         <v>0.32943</v>
       </c>
@@ -16855,8 +17260,11 @@
       <c r="K135">
         <v>0.71223999999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <v>1.0675699999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136">
         <v>0.33549000000000001</v>
       </c>
@@ -16890,8 +17298,11 @@
       <c r="K136">
         <v>0.71360000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <v>1.0669599999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137">
         <v>0.33040000000000003</v>
       </c>
@@ -16925,8 +17336,11 @@
       <c r="K137">
         <v>0.70845999999999998</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>1.06643</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138">
         <v>0.31</v>
       </c>
@@ -16960,8 +17374,11 @@
       <c r="K138">
         <v>0.70511999999999997</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <v>1.06568</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139">
         <v>0.30270999999999998</v>
       </c>
@@ -16995,8 +17412,11 @@
       <c r="K139">
         <v>0.70550999999999997</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <v>1.06514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140">
         <v>0.30506</v>
       </c>
@@ -17030,8 +17450,11 @@
       <c r="K140">
         <v>0.70379000000000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <v>1.0643800000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141">
         <v>0.29824000000000001</v>
       </c>
@@ -17065,8 +17488,11 @@
       <c r="K141">
         <v>0.70313000000000003</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <v>1.0645500000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142">
         <v>0.29981999999999998</v>
       </c>
@@ -17100,8 +17526,11 @@
       <c r="K142">
         <v>0.69506999999999997</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <v>1.06349</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143">
         <v>0.29479</v>
       </c>
@@ -17135,8 +17564,11 @@
       <c r="K143">
         <v>0.69449000000000005</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <v>1.06277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144">
         <v>0.29470000000000002</v>
       </c>
@@ -17170,8 +17602,11 @@
       <c r="K144">
         <v>0.69216</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L144">
+        <v>1.0625500000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145">
         <v>0.29476999999999998</v>
       </c>
@@ -17205,8 +17640,11 @@
       <c r="K145">
         <v>0.68867</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L145">
+        <v>1.0615000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146">
         <v>0.28226000000000001</v>
       </c>
@@ -17240,8 +17678,11 @@
       <c r="K146">
         <v>0.68910000000000005</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L146">
+        <v>1.0612699999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147">
         <v>0.2722</v>
       </c>
@@ -17275,8 +17716,11 @@
       <c r="K147">
         <v>0.68925000000000003</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L147">
+        <v>1.06054</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148">
         <v>0.26502999999999999</v>
       </c>
@@ -17310,8 +17754,11 @@
       <c r="K148">
         <v>0.68674999999999997</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L148">
+        <v>1.0600700000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149">
         <v>0.26445999999999997</v>
       </c>
@@ -17345,8 +17792,11 @@
       <c r="K149">
         <v>0.68415000000000004</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L149">
+        <v>1.0599400000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150">
         <v>0.25745000000000001</v>
       </c>
@@ -17380,8 +17830,11 @@
       <c r="K150">
         <v>0.67693999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L150">
+        <v>1.05915</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151">
         <v>0.30926999999999999</v>
       </c>
@@ -17415,8 +17868,11 @@
       <c r="K151">
         <v>0.68342999999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L151">
+        <v>1.05894</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152">
         <v>0.28016999999999997</v>
       </c>
@@ -17450,8 +17906,11 @@
       <c r="K152">
         <v>0.68215999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L152">
+        <v>1.05833</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153">
         <v>0.25683</v>
       </c>
@@ -17485,8 +17944,11 @@
       <c r="K153">
         <v>0.67391999999999996</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L153">
+        <v>1.05776</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154">
         <v>0.25270999999999999</v>
       </c>
@@ -17520,8 +17982,11 @@
       <c r="K154">
         <v>0.66703999999999997</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L154">
+        <v>1.05745</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155">
         <v>0.25451000000000001</v>
       </c>
@@ -17555,8 +18020,11 @@
       <c r="K155">
         <v>0.66776000000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L155">
+        <v>1.05718</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156">
         <v>0.25818000000000002</v>
       </c>
@@ -17590,8 +18058,11 @@
       <c r="K156">
         <v>0.67249999999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L156">
+        <v>1.0565</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157">
         <v>0.24456</v>
       </c>
@@ -17625,8 +18096,11 @@
       <c r="K157">
         <v>0.66915999999999998</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L157">
+        <v>1.0561400000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158">
         <v>0.24246999999999999</v>
       </c>
@@ -17660,8 +18134,11 @@
       <c r="K158">
         <v>0.66683999999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L158">
+        <v>1.0556300000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159">
         <v>0.24110999999999999</v>
       </c>
@@ -17695,8 +18172,11 @@
       <c r="K159">
         <v>0.65995999999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L159">
+        <v>1.0555600000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160">
         <v>0.22721</v>
       </c>
@@ -17730,8 +18210,11 @@
       <c r="K160">
         <v>0.66174999999999995</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L160">
+        <v>1.05481</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161">
         <v>0.22439000000000001</v>
       </c>
@@ -17765,8 +18248,11 @@
       <c r="K161">
         <v>0.66127999999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L161">
+        <v>1.05461</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162">
         <v>0.21545</v>
       </c>
@@ -17800,8 +18286,11 @@
       <c r="K162">
         <v>0.65780000000000005</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L162">
+        <v>1.0542899999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163">
         <v>0.21892</v>
       </c>
@@ -17835,8 +18324,11 @@
       <c r="K163">
         <v>0.65198999999999996</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L163">
+        <v>1.05365</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164">
         <v>0.21693000000000001</v>
       </c>
@@ -17870,8 +18362,11 @@
       <c r="K164">
         <v>0.65251000000000003</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L164">
+        <v>1.05318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165">
         <v>0.22827</v>
       </c>
@@ -17905,8 +18400,11 @@
       <c r="K165">
         <v>0.65242999999999995</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L165">
+        <v>1.0527200000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166">
         <v>0.21335000000000001</v>
       </c>
@@ -17940,8 +18438,11 @@
       <c r="K166">
         <v>0.64976</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L166">
+        <v>1.0523199999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167">
         <v>0.21489</v>
       </c>
@@ -17975,8 +18476,11 @@
       <c r="K167">
         <v>0.64829000000000003</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L167">
+        <v>1.0518799999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168">
         <v>0.20755000000000001</v>
       </c>
@@ -18010,8 +18514,11 @@
       <c r="K168">
         <v>0.64254999999999995</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L168">
+        <v>1.0520799999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169">
         <v>0.20574999999999999</v>
       </c>
@@ -18045,8 +18552,11 @@
       <c r="K169">
         <v>0.64932000000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L169">
+        <v>1.05169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170">
         <v>0.20321</v>
       </c>
@@ -18080,8 +18590,11 @@
       <c r="K170">
         <v>0.64675000000000005</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L170">
+        <v>1.0508999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171">
         <v>0.193</v>
       </c>
@@ -18115,8 +18628,11 @@
       <c r="K171">
         <v>0.63778000000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L171">
+        <v>1.05033</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172">
         <v>0.19892000000000001</v>
       </c>
@@ -18150,8 +18666,11 @@
       <c r="K172">
         <v>0.63504000000000005</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L172">
+        <v>1.0502100000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173">
         <v>0.19649</v>
       </c>
@@ -18185,8 +18704,11 @@
       <c r="K173">
         <v>0.63495999999999997</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L173">
+        <v>1.04976</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174">
         <v>0.19911999999999999</v>
       </c>
@@ -18220,8 +18742,11 @@
       <c r="K174">
         <v>0.63241999999999998</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L174">
+        <v>1.0492699999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175">
         <v>0.19706000000000001</v>
       </c>
@@ -18255,8 +18780,11 @@
       <c r="K175">
         <v>0.63092999999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L175">
+        <v>1.04895</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176">
         <v>0.18289</v>
       </c>
@@ -18290,8 +18818,11 @@
       <c r="K176">
         <v>0.63578000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L176">
+        <v>1.04847</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177">
         <v>0.17509</v>
       </c>
@@ -18325,8 +18856,11 @@
       <c r="K177">
         <v>0.62790000000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L177">
+        <v>1.04817</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178">
         <v>0.16594</v>
       </c>
@@ -18360,8 +18894,11 @@
       <c r="K178">
         <v>0.62709999999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L178">
+        <v>1.0477000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179">
         <v>0.16971</v>
       </c>
@@ -18395,8 +18932,11 @@
       <c r="K179">
         <v>0.62543000000000004</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L179">
+        <v>1.04982</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180">
         <v>0.17502999999999999</v>
       </c>
@@ -18430,8 +18970,11 @@
       <c r="K180">
         <v>0.62470000000000003</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L180">
+        <v>1.04739</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181">
         <v>0.19539999999999999</v>
       </c>
@@ -18465,8 +19008,11 @@
       <c r="K181">
         <v>0.62251999999999996</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L181">
+        <v>1.0467599999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182">
         <v>0.17637</v>
       </c>
@@ -18500,8 +19046,11 @@
       <c r="K182">
         <v>0.62255000000000005</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L182">
+        <v>1.0463199999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183">
         <v>0.16108</v>
       </c>
@@ -18535,8 +19084,11 @@
       <c r="K183">
         <v>0.61843000000000004</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L183">
+        <v>1.0461100000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184">
         <v>0.16381000000000001</v>
       </c>
@@ -18570,8 +19122,11 @@
       <c r="K184">
         <v>0.62026000000000003</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L184">
+        <v>1.04556</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185">
         <v>0.15601999999999999</v>
       </c>
@@ -18605,8 +19160,11 @@
       <c r="K185">
         <v>0.61853000000000002</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L185">
+        <v>1.04522</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186">
         <v>0.15185999999999999</v>
       </c>
@@ -18640,8 +19198,11 @@
       <c r="K186">
         <v>0.61333000000000004</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L186">
+        <v>1.04497</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187">
         <v>0.15282000000000001</v>
       </c>
@@ -18675,8 +19236,11 @@
       <c r="K187">
         <v>0.60899000000000003</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L187">
+        <v>1.04599</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188">
         <v>0.15049999999999999</v>
       </c>
@@ -18710,8 +19274,11 @@
       <c r="K188">
         <v>0.60624999999999996</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L188">
+        <v>1.04518</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189">
         <v>0.15559999999999999</v>
       </c>
@@ -18745,8 +19312,11 @@
       <c r="K189">
         <v>0.61007</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L189">
+        <v>1.0438700000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190">
         <v>0.15060000000000001</v>
       </c>
@@ -18780,8 +19350,11 @@
       <c r="K190">
         <v>0.61009999999999998</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L190">
+        <v>1.04454</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191">
         <v>0.15193000000000001</v>
       </c>
@@ -18815,8 +19388,11 @@
       <c r="K191">
         <v>0.60353000000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L191">
+        <v>1.0432600000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192">
         <v>0.17412</v>
       </c>
@@ -18850,8 +19426,11 @@
       <c r="K192">
         <v>0.60299000000000003</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L192">
+        <v>1.0428500000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193">
         <v>0.15371000000000001</v>
       </c>
@@ -18885,8 +19464,11 @@
       <c r="K193">
         <v>0.60292999999999997</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L193">
+        <v>1.0426</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194">
         <v>0.14726</v>
       </c>
@@ -18920,8 +19502,11 @@
       <c r="K194">
         <v>0.60226000000000002</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L194">
+        <v>1.0422899999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195">
         <v>0.14654</v>
       </c>
@@ -18955,8 +19540,11 @@
       <c r="K195">
         <v>0.59731999999999996</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L195">
+        <v>1.04199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196">
         <v>0.14136000000000001</v>
       </c>
@@ -18990,8 +19578,11 @@
       <c r="K196">
         <v>0.59789999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L196">
+        <v>1.0416399999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197">
         <v>0.13678999999999999</v>
       </c>
@@ -19025,8 +19616,11 @@
       <c r="K197">
         <v>0.59652000000000005</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L197">
+        <v>1.04135</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198">
         <v>0.14480000000000001</v>
       </c>
@@ -19060,8 +19654,11 @@
       <c r="K198">
         <v>0.59448000000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L198">
+        <v>1.04098</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199">
         <v>0.13808000000000001</v>
       </c>
@@ -19095,8 +19692,11 @@
       <c r="K199">
         <v>0.59286000000000005</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L199">
+        <v>1.04074</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200">
         <v>0.14410000000000001</v>
       </c>
@@ -19130,8 +19730,11 @@
       <c r="K200">
         <v>0.59101000000000004</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L200">
+        <v>1.04036</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201">
         <v>0.13768</v>
       </c>
@@ -19165,8 +19768,11 @@
       <c r="K201">
         <v>0.58957999999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L201">
+        <v>1.0401100000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202">
         <v>0.14094999999999999</v>
       </c>
@@ -19200,8 +19806,11 @@
       <c r="K202">
         <v>0.58750000000000002</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L202">
+        <v>1.0397799999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203">
         <v>0.14656</v>
       </c>
@@ -19235,8 +19844,11 @@
       <c r="K203">
         <v>0.58847000000000005</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L203">
+        <v>1.0395399999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204">
         <v>0.14285999999999999</v>
       </c>
@@ -19270,8 +19882,11 @@
       <c r="K204">
         <v>0.58903000000000005</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L204">
+        <v>1.03928</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205">
         <v>0.12920999999999999</v>
       </c>
@@ -19305,8 +19920,11 @@
       <c r="K205">
         <v>0.58662000000000003</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L205">
+        <v>1.0389900000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206">
         <v>0.12268</v>
       </c>
@@ -19340,8 +19958,11 @@
       <c r="K206">
         <v>0.58523000000000003</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L206">
+        <v>1.0387299999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207">
         <v>0.12182</v>
       </c>
@@ -19375,8 +19996,11 @@
       <c r="K207">
         <v>0.58282999999999996</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L207">
+        <v>1.0384500000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208">
         <v>0.12303</v>
       </c>
@@ -19410,8 +20034,11 @@
       <c r="K208">
         <v>0.58148999999999995</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L208">
+        <v>1.03834</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209">
         <v>0.11706</v>
       </c>
@@ -19445,8 +20072,11 @@
       <c r="K209">
         <v>0.58008999999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L209">
+        <v>1.0380499999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210">
         <v>0.11583</v>
       </c>
@@ -19480,8 +20110,11 @@
       <c r="K210">
         <v>0.58006000000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L210">
+        <v>1.0377400000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211">
         <v>0.11219999999999999</v>
       </c>
@@ -19515,8 +20148,11 @@
       <c r="K211">
         <v>0.57984999999999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L211">
+        <v>1.0375000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212">
         <v>0.11840000000000001</v>
       </c>
@@ -19550,8 +20186,11 @@
       <c r="K212">
         <v>0.57913999999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L212">
+        <v>1.0372600000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213">
         <v>0.12573999999999999</v>
       </c>
@@ -19585,8 +20224,11 @@
       <c r="K213">
         <v>0.57925000000000004</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L213">
+        <v>1.03708</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214">
         <v>0.11380999999999999</v>
       </c>
@@ -19620,8 +20262,11 @@
       <c r="K214">
         <v>0.57818000000000003</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L214">
+        <v>1.03685</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215">
         <v>0.11224000000000001</v>
       </c>
@@ -19655,8 +20300,11 @@
       <c r="K215">
         <v>0.57813000000000003</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L215">
+        <v>1.0366500000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216">
         <v>0.11314</v>
       </c>
@@ -19690,8 +20338,11 @@
       <c r="K216">
         <v>0.57684000000000002</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L216">
+        <v>1.0364500000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217">
         <v>0.12751999999999999</v>
       </c>
@@ -19725,8 +20376,11 @@
       <c r="K217">
         <v>0.57696000000000003</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L217">
+        <v>1.03624</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218">
         <v>0.13441</v>
       </c>
@@ -19760,8 +20414,11 @@
       <c r="K218">
         <v>0.57645999999999997</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L218">
+        <v>1.0360499999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219">
         <v>0.11197</v>
       </c>
@@ -19795,8 +20452,11 @@
       <c r="K219">
         <v>0.57672999999999996</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L219">
+        <v>1.0358700000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220">
         <v>0.11214</v>
       </c>
@@ -19830,8 +20490,11 @@
       <c r="K220">
         <v>0.57669000000000004</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L220">
+        <v>1.03569</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221">
         <v>0.10238</v>
       </c>
@@ -19865,8 +20528,11 @@
       <c r="K221">
         <v>0.57696000000000003</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L221">
+        <v>1.03552</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222">
         <v>9.9419999999999994E-2</v>
       </c>
@@ -19900,8 +20566,11 @@
       <c r="K222">
         <v>0.57725000000000004</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L222">
+        <v>1.03535</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -19935,8 +20604,11 @@
       <c r="K223">
         <v>0.57777000000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L223">
+        <v>1.0351900000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224">
         <v>0.10054</v>
       </c>
@@ -19970,8 +20642,11 @@
       <c r="K224">
         <v>0.57838000000000001</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L224">
+        <v>1.0350900000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225">
         <v>0.10248</v>
       </c>
@@ -20005,8 +20680,11 @@
       <c r="K225">
         <v>0.57899999999999996</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L225">
+        <v>1.0349200000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226">
         <v>0.10149</v>
       </c>
@@ -20040,8 +20718,11 @@
       <c r="K226">
         <v>0.57991000000000004</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L226">
+        <v>1.0347599999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227">
         <v>0.10385</v>
       </c>
@@ -20075,8 +20756,11 @@
       <c r="K227">
         <v>0.58087</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L227">
+        <v>1.0346299999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228">
         <v>0.10721</v>
       </c>
@@ -20110,8 +20794,11 @@
       <c r="K228">
         <v>0.58187</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L228">
+        <v>1.0344800000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229">
         <v>0.10183</v>
       </c>
@@ -20145,8 +20832,11 @@
       <c r="K229">
         <v>0.58291999999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L229">
+        <v>1.0343500000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230">
         <v>9.8419999999999994E-2</v>
       </c>
@@ -20180,8 +20870,11 @@
       <c r="K230">
         <v>0.58413999999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L230">
+        <v>1.03423</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231">
         <v>9.9959999999999993E-2</v>
       </c>
@@ -20215,8 +20908,11 @@
       <c r="K231">
         <v>0.58542000000000005</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L231">
+        <v>1.0341100000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232">
         <v>9.8540000000000003E-2</v>
       </c>
@@ -20250,8 +20946,11 @@
       <c r="K232">
         <v>0.58669000000000004</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L232">
+        <v>1.0339799999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233">
         <v>9.2439999999999994E-2</v>
       </c>
@@ -20285,8 +20984,11 @@
       <c r="K233">
         <v>0.58809</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L233">
+        <v>1.0338700000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234">
         <v>9.4060000000000005E-2</v>
       </c>
@@ -20320,8 +21022,11 @@
       <c r="K234">
         <v>0.58945999999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L234">
+        <v>1.03376</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235">
         <v>8.8090000000000002E-2</v>
       </c>
@@ -20355,8 +21060,11 @@
       <c r="K235">
         <v>0.59080999999999995</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L235">
+        <v>1.03365</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236">
         <v>0.11858</v>
       </c>
@@ -20390,8 +21098,11 @@
       <c r="K236">
         <v>0.59218000000000004</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L236">
+        <v>1.0335399999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237">
         <v>9.1450000000000004E-2</v>
       </c>
@@ -20425,8 +21136,11 @@
       <c r="K237">
         <v>0.59357000000000004</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L237">
+        <v>1.0334399999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238">
         <v>8.6099999999999996E-2</v>
       </c>
@@ -20460,8 +21174,11 @@
       <c r="K238">
         <v>0.59502999999999995</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L238">
+        <v>1.0333399999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239">
         <v>8.5680000000000006E-2</v>
       </c>
@@ -20495,8 +21212,11 @@
       <c r="K239">
         <v>0.59633999999999998</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L239">
+        <v>1.03322</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240">
         <v>9.7239999999999993E-2</v>
       </c>
@@ -20530,8 +21250,11 @@
       <c r="K240">
         <v>0.59772999999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L240">
+        <v>1.0332300000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241">
         <v>0.1134</v>
       </c>
@@ -20565,8 +21288,11 @@
       <c r="K241">
         <v>0.59906999999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L241">
+        <v>1.0330299999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242">
         <v>0.10904999999999999</v>
       </c>
@@ -20600,8 +21326,11 @@
       <c r="K242">
         <v>0.60028000000000004</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L242">
+        <v>1.03295</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243">
         <v>9.1689999999999994E-2</v>
       </c>
@@ -20635,8 +21364,11 @@
       <c r="K243">
         <v>0.60148999999999997</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L243">
+        <v>1.0328599999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244">
         <v>8.881E-2</v>
       </c>
@@ -20670,8 +21402,11 @@
       <c r="K244">
         <v>0.60265999999999997</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L244">
+        <v>1.0327900000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245">
         <v>8.4110000000000004E-2</v>
       </c>
@@ -20705,8 +21440,11 @@
       <c r="K245">
         <v>0.60355999999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L245">
+        <v>1.03271</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246">
         <v>7.911E-2</v>
       </c>
@@ -20740,8 +21478,11 @@
       <c r="K246">
         <v>0.60435000000000005</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L246">
+        <v>1.03264</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247">
         <v>0.10452</v>
       </c>
@@ -20775,8 +21516,11 @@
       <c r="K247">
         <v>0.60504999999999998</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L247">
+        <v>1.03257</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248">
         <v>9.06E-2</v>
       </c>
@@ -20810,8 +21554,11 @@
       <c r="K248">
         <v>0.60550000000000004</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L248">
+        <v>1.0324899999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249">
         <v>8.6139999999999994E-2</v>
       </c>
@@ -20845,8 +21592,11 @@
       <c r="K249">
         <v>0.60582000000000003</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L249">
+        <v>1.03243</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250">
         <v>7.7630000000000005E-2</v>
       </c>
@@ -20880,8 +21630,11 @@
       <c r="K250">
         <v>0.60604000000000002</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L250">
+        <v>1.0323599999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251">
         <v>7.4359999999999996E-2</v>
       </c>
@@ -20915,8 +21668,11 @@
       <c r="K251">
         <v>0.60621000000000003</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L251">
+        <v>1.0323</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252">
         <v>7.8549999999999995E-2</v>
       </c>
@@ -20950,8 +21706,11 @@
       <c r="K252">
         <v>0.60611999999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L252">
+        <v>1.03226</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253">
         <v>7.8770000000000007E-2</v>
       </c>
@@ -20985,8 +21744,11 @@
       <c r="K253">
         <v>0.60596000000000005</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L253">
+        <v>1.0322</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254">
         <v>7.5389999999999999E-2</v>
       </c>
@@ -21020,8 +21782,11 @@
       <c r="K254">
         <v>0.60567000000000004</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L254">
+        <v>1.03216</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255">
         <v>7.4520000000000003E-2</v>
       </c>
@@ -21055,8 +21820,11 @@
       <c r="K255">
         <v>0.60523000000000005</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L255">
+        <v>1.0321100000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256">
         <v>7.3510000000000006E-2</v>
       </c>
@@ -21090,8 +21858,11 @@
       <c r="K256">
         <v>0.60467000000000004</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L256">
+        <v>1.03206</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257">
         <v>7.9289999999999999E-2</v>
       </c>
@@ -21125,1298 +21896,1301 @@
       <c r="K257">
         <v>0.60396000000000005</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L257">
+        <v>1.0320199999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258">
         <v>8.5059999999999997E-2</v>
       </c>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12">
       <c r="A259">
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12">
       <c r="A260">
         <v>8.6790000000000006E-2</v>
       </c>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12">
       <c r="A261">
         <v>7.8560000000000005E-2</v>
       </c>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12">
       <c r="A262">
         <v>7.1669999999999998E-2</v>
       </c>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12">
       <c r="A263">
         <v>6.769E-2</v>
       </c>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12">
       <c r="A264">
         <v>6.5659999999999996E-2</v>
       </c>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12">
       <c r="A265">
         <v>8.8220000000000007E-2</v>
       </c>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12">
       <c r="A266">
         <v>8.5180000000000006E-2</v>
       </c>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12">
       <c r="A267">
         <v>9.4990000000000005E-2</v>
       </c>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12">
       <c r="A268">
         <v>7.46E-2</v>
       </c>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12">
       <c r="A269">
         <v>7.3810000000000001E-2</v>
       </c>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12">
       <c r="A270">
         <v>6.3439999999999996E-2</v>
       </c>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12">
       <c r="A271">
         <v>6.1249999999999999E-2</v>
       </c>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12">
       <c r="A272">
         <v>6.3619999999999996E-2</v>
       </c>
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273">
         <v>7.6480000000000006E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274">
         <v>7.5179999999999997E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275">
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276">
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277">
         <v>6.071E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279">
         <v>6.2780000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280">
         <v>6.4979999999999996E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281">
         <v>0.10792</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282">
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284">
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285">
         <v>6.293E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286">
         <v>7.7579999999999996E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287">
         <v>9.8110000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288">
         <v>7.6689999999999994E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289">
         <v>5.9859999999999997E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290">
         <v>5.3370000000000001E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291">
         <v>5.1860000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292">
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293">
         <v>8.2559999999999995E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294">
         <v>6.837E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295">
         <v>6.5949999999999995E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296">
         <v>6.1510000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297">
         <v>0.10789</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298">
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300">
         <v>6.3140000000000002E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301">
         <v>5.6579999999999998E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302">
         <v>5.2389999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304">
         <v>5.1450000000000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306">
         <v>6.479E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307">
         <v>9.6180000000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308">
         <v>9.4920000000000004E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309">
         <v>6.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310">
         <v>5.9479999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311">
         <v>5.4510000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312">
         <v>5.1979999999999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313">
         <v>7.6670000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314">
         <v>5.9240000000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315">
         <v>5.8049999999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316">
         <v>5.0360000000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317">
         <v>6.3320000000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318">
         <v>8.1710000000000005E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319">
         <v>5.9950000000000003E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320">
         <v>4.9979999999999997E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321">
         <v>4.7169999999999997E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322">
         <v>4.8779999999999997E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323">
         <v>5.7770000000000002E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324">
         <v>9.8250000000000004E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325">
         <v>8.5629999999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326">
         <v>6.6720000000000002E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327">
         <v>5.4260000000000003E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329">
         <v>6.3339999999999994E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330">
         <v>5.6610000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331">
         <v>5.3510000000000002E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333">
         <v>4.299E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335">
         <v>4.514E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336">
         <v>5.0110000000000002E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337">
         <v>6.7330000000000001E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338">
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339">
         <v>6.5509999999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340">
         <v>5.4379999999999998E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341">
         <v>4.718E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342">
         <v>4.3270000000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343">
         <v>4.1439999999999998E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344">
         <v>4.1779999999999998E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345">
         <v>4.3880000000000002E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346">
         <v>4.632E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347">
         <v>5.0509999999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348">
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349">
         <v>7.979E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350">
         <v>5.9249999999999997E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351">
         <v>5.4719999999999998E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352">
         <v>6.4049999999999996E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353">
         <v>5.3150000000000003E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354">
         <v>4.6440000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355">
         <v>4.2340000000000003E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356">
         <v>4.0939999999999997E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357">
         <v>4.1410000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358">
         <v>4.3040000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359">
         <v>0.11991</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360">
         <v>8.2909999999999998E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361">
         <v>5.2209999999999999E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362">
         <v>4.428E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363">
         <v>4.054E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365">
         <v>3.8080000000000003E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366">
         <v>3.9030000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367">
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368">
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369">
         <v>6.9519999999999998E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370">
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371">
         <v>4.7539999999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372">
         <v>4.3720000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373">
         <v>4.2119999999999998E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375">
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376">
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377">
         <v>0.12336</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378">
         <v>6.5350000000000005E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379">
         <v>4.7890000000000002E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380">
         <v>4.1860000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381">
         <v>4.2659999999999997E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382">
         <v>4.4089999999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383">
         <v>3.934E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384">
         <v>3.7409999999999999E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385">
         <v>3.6589999999999998E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386">
         <v>3.8170000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387">
         <v>4.3180000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388">
         <v>0.12934999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389">
         <v>6.5110000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390">
         <v>5.1470000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391">
         <v>4.5769999999999998E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392">
         <v>4.1110000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394">
         <v>4.7570000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395">
         <v>7.5480000000000005E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396">
         <v>6.3519999999999993E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397">
         <v>6.275E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398">
         <v>4.8570000000000002E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399">
         <v>0.04</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400">
         <v>3.594E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401">
         <v>3.4470000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402">
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403">
         <v>3.6580000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404">
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405">
         <v>5.042E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406">
         <v>6.8080000000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408">
         <v>6.4339999999999994E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409">
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410">
         <v>5.8790000000000002E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411">
         <v>4.5330000000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412">
         <v>3.9370000000000002E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413">
         <v>3.6830000000000002E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415">
         <v>3.8690000000000002E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416">
         <v>4.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418">
         <v>4.0340000000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419">
         <v>5.0310000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420">
         <v>8.4580000000000002E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421">
         <v>5.781E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422">
         <v>4.7840000000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423">
         <v>4.5089999999999998E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424">
         <v>3.8370000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425">
         <v>3.526E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426">
         <v>3.4130000000000001E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427">
         <v>3.4439999999999998E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428">
         <v>3.5409999999999997E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429">
         <v>3.9489999999999997E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430">
         <v>5.5320000000000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431">
         <v>7.8359999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432">
         <v>4.6640000000000001E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435">
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436">
         <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437">
         <v>3.4119999999999998E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438">
         <v>0.14990999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439">
         <v>6.216E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440">
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441">
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442">
         <v>3.5180000000000003E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443">
         <v>3.3279999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444">
         <v>3.168E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445">
         <v>3.1419999999999997E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446">
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447">
         <v>3.7220000000000003E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448">
         <v>5.2019999999999997E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449">
         <v>7.4300000000000005E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450">
         <v>5.008E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451">
         <v>4.0189999999999997E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452">
         <v>3.542E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454">
         <v>3.3239999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455">
         <v>4.5440000000000001E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456">
         <v>8.5529999999999995E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457">
         <v>4.4650000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458">
         <v>3.7850000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459">
         <v>3.508E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460">
         <v>3.6859999999999997E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461">
         <v>4.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462">
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463">
         <v>4.0529999999999997E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464">
         <v>3.4009999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465">
         <v>3.2439999999999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466">
         <v>3.2480000000000002E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467">
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468">
         <v>3.6409999999999998E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469">
         <v>6.7019999999999996E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470">
         <v>8.3449999999999996E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471">
         <v>5.5449999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472">
         <v>4.2090000000000002E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473">
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474">
         <v>3.9280000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475">
         <v>3.4139999999999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476">
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477">
         <v>3.143E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478">
         <v>5.0040000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479">
         <v>4.5080000000000002E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480">
         <v>5.0770000000000003E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481">
         <v>4.5859999999999998E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1">
       <c r="A482">
         <v>3.6769999999999997E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1">
       <c r="A483">
         <v>3.3360000000000001E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1">
       <c r="A484">
         <v>3.2590000000000001E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1">
       <c r="A485">
         <v>3.848E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1">
       <c r="A486">
         <v>4.9820000000000003E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1">
       <c r="A487">
         <v>5.373E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1">
       <c r="A488">
         <v>4.0419999999999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1">
       <c r="A489">
         <v>3.5040000000000002E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1">
       <c r="A490">
         <v>3.4070000000000003E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1">
       <c r="A491">
         <v>3.3689999999999998E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1">
       <c r="A492">
         <v>3.2939999999999997E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1">
       <c r="A493">
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1">
       <c r="A494">
         <v>4.0320000000000002E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1">
       <c r="A495">
         <v>6.2920000000000004E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1">
       <c r="A496">
         <v>4.1549999999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1">
       <c r="A497">
         <v>3.5139999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1">
       <c r="A498">
         <v>3.3579999999999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1">
       <c r="A499">
         <v>3.9559999999999998E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1">
       <c r="A500">
         <v>5.2109999999999997E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1">
       <c r="A501">
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1">
       <c r="A502">
         <v>4.4010000000000001E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1">
       <c r="A503">
         <v>3.9809999999999998E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1">
       <c r="A504">
         <v>3.4250000000000003E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1">
       <c r="A505">
         <v>3.0530000000000002E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1">
       <c r="A506">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1">
       <c r="A507">
         <v>2.8819999999999998E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1">
       <c r="A508">
         <v>3.1210000000000002E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1">
       <c r="A509">
         <v>3.4279999999999998E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1">
       <c r="A510">
         <v>4.0759999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1">
       <c r="A511">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1">
       <c r="A512">
         <v>7.0860000000000006E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1">
       <c r="A513">
         <v>4.3569999999999998E-2</v>
       </c>
@@ -22437,9 +23211,9 @@
       <selection activeCell="A241" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -22447,7 +23221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>9.9228073120117104E-3</v>
       </c>
@@ -22455,7 +23229,7 @@
         <v>9.9613281250000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>9.9228073120117104E-3</v>
       </c>
@@ -22463,7 +23237,7 @@
         <v>9.9613281250000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>9.8459167480468707E-3</v>
       </c>
@@ -22471,7 +23245,7 @@
         <v>9.9226562500000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>9.7693283081054603E-3</v>
       </c>
@@ -22479,7 +23253,7 @@
         <v>9.883984375E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>9.6930419921875E-3</v>
       </c>
@@ -22487,7 +23261,7 @@
         <v>9.8453124999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>9.6170578002929604E-3</v>
       </c>
@@ -22495,7 +23269,7 @@
         <v>9.8066406249999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9.5413757324218692E-3</v>
       </c>
@@ -22503,7 +23277,7 @@
         <v>9.7679687499999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>9.4659957885742194E-3</v>
       </c>
@@ -22511,7 +23285,7 @@
         <v>9.7292968749999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9.3909179687500007E-3</v>
       </c>
@@ -22519,7 +23293,7 @@
         <v>9.6906249999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9.3161422729492096E-3</v>
       </c>
@@ -22527,7 +23301,7 @@
         <v>9.6519531249999995E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>9.2416687011718703E-3</v>
       </c>
@@ -22535,7 +23309,7 @@
         <v>9.6132812499999994E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>9.1674972534179604E-3</v>
       </c>
@@ -22543,7 +23317,7 @@
         <v>9.5746093749999994E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>9.0936279296875006E-3</v>
       </c>
@@ -22551,7 +23325,7 @@
         <v>9.5359374999999993E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>9.0200607299804596E-3</v>
       </c>
@@ -22559,7 +23333,7 @@
         <v>9.4972656249999992E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>8.9467956542968706E-3</v>
       </c>
@@ -22567,7 +23341,7 @@
         <v>9.4585937500000009E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>8.8738327026367195E-3</v>
       </c>
@@ -22575,7 +23349,7 @@
         <v>9.4199218750000008E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>8.8011718749999995E-3</v>
       </c>
@@ -22583,7 +23357,7 @@
         <v>9.3812500000000007E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>8.7288131713867192E-3</v>
       </c>
@@ -22591,7 +23365,7 @@
         <v>9.3425781250000006E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>8.65675659179687E-3</v>
       </c>
@@ -22599,7 +23373,7 @@
         <v>9.3039062500000005E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>8.5850021362304692E-3</v>
       </c>
@@ -22607,7 +23381,7 @@
         <v>9.2652343750000005E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>8.5135498046874994E-3</v>
       </c>
@@ -22615,7 +23389,7 @@
         <v>9.2265625000000004E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>8.4423995971679693E-3</v>
       </c>
@@ -22623,7 +23397,7 @@
         <v>9.1878906250000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>8.3715515136718703E-3</v>
       </c>
@@ -22631,7 +23405,7 @@
         <v>9.1492187500000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>8.3010055541992093E-3</v>
       </c>
@@ -22639,7 +23413,7 @@
         <v>9.1105468750000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>8.2307617187500001E-3</v>
       </c>
@@ -22647,7 +23421,7 @@
         <v>9.0718750000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>8.1608200073242099E-3</v>
       </c>
@@ -22655,7 +23429,7 @@
         <v>9.033203125E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>8.0911804199218697E-3</v>
       </c>
@@ -22663,7 +23437,7 @@
         <v>8.9945312499999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>8.0218429565429693E-3</v>
       </c>
@@ -22671,7 +23445,7 @@
         <v>8.9558593749999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>7.9528076171875E-3</v>
       </c>
@@ -22679,7 +23453,7 @@
         <v>8.9171874999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>7.88407440185546E-3</v>
       </c>
@@ -22687,7 +23461,7 @@
         <v>8.8785156249999997E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>7.8156433105468701E-3</v>
       </c>
@@ -22695,7 +23469,7 @@
         <v>8.8398437499999996E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>7.7475143432617199E-3</v>
       </c>
@@ -22703,7 +23477,7 @@
         <v>8.8011718749999995E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>7.6796874999999999E-3</v>
       </c>
@@ -22711,7 +23485,7 @@
         <v>8.7624999999999995E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>7.6121627807617196E-3</v>
       </c>
@@ -22719,7 +23493,7 @@
         <v>8.7238281249999994E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>7.5449401855468704E-3</v>
       </c>
@@ -22727,7 +23501,7 @@
         <v>8.6851562499999993E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>7.47801971435546E-3</v>
       </c>
@@ -22735,7 +23509,7 @@
         <v>8.6464843749999992E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>7.4114013671874998E-3</v>
       </c>
@@ -22743,7 +23517,7 @@
         <v>8.6078124999999991E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>7.3450851440429697E-3</v>
       </c>
@@ -22751,7 +23525,7 @@
         <v>8.5691406250000008E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>7.2790710449218698E-3</v>
       </c>
@@ -22759,7 +23533,7 @@
         <v>8.5304687500000007E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>7.2133590698242097E-3</v>
       </c>
@@ -22767,7 +23541,7 @@
         <v>8.4917968750000006E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>7.1479492187499997E-3</v>
       </c>
@@ -22775,7 +23549,7 @@
         <v>8.4531250000000006E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>7.0828414916992198E-3</v>
       </c>
@@ -22783,7 +23557,7 @@
         <v>8.4144531250000005E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>7.0180358886718702E-3</v>
       </c>
@@ -22791,7 +23565,7 @@
         <v>8.3757812500000004E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>6.9535324096679698E-3</v>
       </c>
@@ -22799,7 +23573,7 @@
         <v>8.3371093750000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>6.8893310546874996E-3</v>
       </c>
@@ -22807,7 +23581,7 @@
         <v>8.2984375000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>6.82543182373047E-3</v>
       </c>
@@ -22815,7 +23589,7 @@
         <v>8.2597656250000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>6.7618347167968697E-3</v>
       </c>
@@ -22823,7 +23597,7 @@
         <v>8.2210937500000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>6.69853973388671E-3</v>
       </c>
@@ -22831,7 +23605,7 @@
         <v>8.182421875E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>6.6355468750000004E-3</v>
       </c>
@@ -22839,7 +23613,7 @@
         <v>8.1437499999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>6.5728561401367097E-3</v>
       </c>
@@ -22847,7 +23621,7 @@
         <v>8.1050781249999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>6.51046752929687E-3</v>
       </c>
@@ -22855,7 +23629,7 @@
         <v>8.0664062499999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>6.4483810424804597E-3</v>
       </c>
@@ -22863,7 +23637,7 @@
         <v>8.0277343749999997E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>6.3865966796875003E-3</v>
       </c>
@@ -22871,7 +23645,7 @@
         <v>7.9890624999999996E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>6.3251144409179599E-3</v>
       </c>
@@ -22879,7 +23653,7 @@
         <v>7.9503906249999996E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>6.2639343261718704E-3</v>
       </c>
@@ -22887,7 +23661,7 @@
         <v>7.9117187499999995E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>6.2030563354492198E-3</v>
       </c>
@@ -22895,7 +23669,7 @@
         <v>7.8730468749999994E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>6.1424804687500003E-3</v>
       </c>
@@ -22903,7 +23677,7 @@
         <v>7.8343749999999993E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>6.0822067260742196E-3</v>
       </c>
@@ -22911,7 +23685,7 @@
         <v>7.7957031250000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>6.0222351074218699E-3</v>
       </c>
@@ -22919,7 +23693,7 @@
         <v>7.75703125E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>5.96256561279296E-3</v>
       </c>
@@ -22927,7 +23701,7 @@
         <v>7.718359375E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>5.9031982421875002E-3</v>
       </c>
@@ -22935,7 +23709,7 @@
         <v>7.6796874999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>5.8441329956054697E-3</v>
       </c>
@@ -22943,7 +23717,7 @@
         <v>7.6410156249999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>5.7853698730468703E-3</v>
       </c>
@@ -22951,7 +23725,7 @@
         <v>7.6023437499999997E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>5.7269088745117097E-3</v>
       </c>
@@ -22959,7 +23733,7 @@
         <v>7.5636718749999996E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>5.6687500000000002E-3</v>
       </c>
@@ -22967,7 +23741,7 @@
         <v>7.5249999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>5.6108932495117104E-3</v>
       </c>
@@ -22975,7 +23749,7 @@
         <v>7.4863281250000004E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>5.5533386230468698E-3</v>
       </c>
@@ -22983,7 +23757,7 @@
         <v>7.4476562500000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>5.4960861206054604E-3</v>
       </c>
@@ -22991,7 +23765,7 @@
         <v>7.4089843750000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>5.4391357421875001E-3</v>
       </c>
@@ -22999,7 +23773,7 @@
         <v>7.3703125000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>5.3824874877929597E-3</v>
       </c>
@@ -23007,7 +23781,7 @@
         <v>7.331640625E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>5.3261413574218703E-3</v>
       </c>
@@ -23015,7 +23789,7 @@
         <v>7.29296875E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>5.2700973510742197E-3</v>
       </c>
@@ -23023,7 +23797,7 @@
         <v>7.2542968749999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>5.2143554687500001E-3</v>
       </c>
@@ -23031,7 +23805,7 @@
         <v>7.2156249999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>5.1589157104492099E-3</v>
       </c>
@@ -23039,7 +23813,7 @@
         <v>7.1769531249999997E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>5.1037780761718698E-3</v>
       </c>
@@ -23047,7 +23821,7 @@
         <v>7.1382812499999997E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>5.0489425659179599E-3</v>
       </c>
@@ -23055,7 +23829,7 @@
         <v>7.0996093749999996E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>4.9944091796875001E-3</v>
       </c>
@@ -23063,7 +23837,7 @@
         <v>7.0609375000000004E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>4.9401779174804697E-3</v>
       </c>
@@ -23071,7 +23845,7 @@
         <v>7.0222656250000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>4.8862487792968702E-3</v>
       </c>
@@ -23079,7 +23853,7 @@
         <v>6.9835937500000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>4.8326217651367097E-3</v>
       </c>
@@ -23087,7 +23861,7 @@
         <v>6.9449218750000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>4.7792968750000001E-3</v>
       </c>
@@ -23095,7 +23869,7 @@
         <v>6.9062500000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>4.7262741088867103E-3</v>
       </c>
@@ -23103,7 +23877,7 @@
         <v>6.867578125E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>4.6735534667968698E-3</v>
       </c>
@@ -23111,7 +23885,7 @@
         <v>6.8289062499999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>4.6211349487304603E-3</v>
       </c>
@@ -23119,7 +23893,7 @@
         <v>6.7902343749999998E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>4.5690185546875001E-3</v>
       </c>
@@ -23127,7 +23901,7 @@
         <v>6.7515624999999998E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>4.5172042846679597E-3</v>
       </c>
@@ -23135,7 +23909,7 @@
         <v>6.7128906249999997E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>4.4656921386718703E-3</v>
       </c>
@@ -23143,7 +23917,7 @@
         <v>6.6742187499999996E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>4.4144821166992197E-3</v>
       </c>
@@ -23151,7 +23925,7 @@
         <v>6.6355468750000004E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>4.3635742187500002E-3</v>
       </c>
@@ -23159,7 +23933,7 @@
         <v>6.5968750000000003E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>4.3129684448242099E-3</v>
       </c>
@@ -23167,7 +23941,7 @@
         <v>6.5582031250000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>4.2626647949218699E-3</v>
       </c>
@@ -23175,7 +23949,7 @@
         <v>6.5195312500000002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>4.21266326904296E-3</v>
       </c>
@@ -23183,7 +23957,7 @@
         <v>6.4808593750000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>4.1629638671875002E-3</v>
       </c>
@@ -23191,7 +23965,7 @@
         <v>6.4421875E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>4.1135665893554697E-3</v>
       </c>
@@ -23199,7 +23973,7 @@
         <v>6.4035156249999999E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>4.0644714355468703E-3</v>
       </c>
@@ -23207,7 +23981,7 @@
         <v>6.3648437499999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>4.0156784057617098E-3</v>
       </c>
@@ -23215,7 +23989,7 @@
         <v>6.3261718749999998E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>3.9671875000000002E-3</v>
       </c>
@@ -23223,7 +23997,7 @@
         <v>6.2874999999999997E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>3.9189987182617096E-3</v>
       </c>
@@ -23231,7 +24005,7 @@
         <v>6.2488281249999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>3.8711120605468699E-3</v>
       </c>
@@ -23239,7 +24013,7 @@
         <v>6.2101562500000004E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>3.82352752685546E-3</v>
       </c>
@@ -23247,7 +24021,7 @@
         <v>6.1714843750000003E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>3.7762451171874998E-3</v>
       </c>
@@ -23255,7 +24029,7 @@
         <v>6.1328125000000002E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>3.7292648315429599E-3</v>
       </c>
@@ -23263,7 +24037,7 @@
         <v>6.0941406250000002E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>3.68258666992187E-3</v>
       </c>
@@ -23271,7 +24045,7 @@
         <v>6.0554687500000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>3.6362106323242099E-3</v>
       </c>
@@ -23279,7 +24053,7 @@
         <v>6.016796875E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>3.5901367187499999E-3</v>
       </c>
@@ -23287,7 +24061,7 @@
         <v>5.9781249999999999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>3.5443649291992101E-3</v>
       </c>
@@ -23295,7 +24069,7 @@
         <v>5.9394531249999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>3.4988952636718701E-3</v>
       </c>
@@ -23303,7 +24077,7 @@
         <v>5.9007812499999998E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>3.4537277221679602E-3</v>
       </c>
@@ -23311,7 +24085,7 @@
         <v>5.8621093749999997E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>3.4088623046875E-3</v>
       </c>
@@ -23319,7 +24093,7 @@
         <v>5.8234374999999996E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>3.36429901123046E-3</v>
       </c>
@@ -23327,7 +24101,7 @@
         <v>5.7847656250000004E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>3.3200378417968701E-3</v>
       </c>
@@ -23335,7 +24109,7 @@
         <v>5.7460937500000003E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>3.27607879638671E-3</v>
       </c>
@@ -23343,7 +24117,7 @@
         <v>5.7074218750000003E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>3.2324218750000001E-3</v>
       </c>
@@ -23351,7 +24125,7 @@
         <v>5.6687500000000002E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>3.1890670776367099E-3</v>
       </c>
@@ -23359,7 +24133,7 @@
         <v>5.6300781250000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>3.1460144042968702E-3</v>
       </c>
@@ -23367,7 +24141,7 @@
         <v>5.59140625E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>3.1032638549804599E-3</v>
       </c>
@@ -23375,7 +24149,7 @@
         <v>5.5527343749999999E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>3.0608154296875001E-3</v>
       </c>
@@ -23383,7 +24157,7 @@
         <v>5.5140624999999999E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>3.0186691284179602E-3</v>
       </c>
@@ -23391,7 +24165,7 @@
         <v>5.4753906249999998E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>2.9768249511718699E-3</v>
       </c>
@@ -23399,7 +24173,7 @@
         <v>5.4367187499999997E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>2.9352828979492102E-3</v>
       </c>
@@ -23407,7 +24181,7 @@
         <v>5.3980468749999996E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>2.8940429687499998E-3</v>
       </c>
@@ -23415,7 +24189,7 @@
         <v>5.3593750000000004E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>2.85310516357421E-3</v>
       </c>
@@ -23423,7 +24197,7 @@
         <v>5.3207031250000003E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>2.81246948242187E-3</v>
       </c>
@@ -23431,7 +24205,7 @@
         <v>5.2820312500000003E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>2.7721359252929601E-3</v>
       </c>
@@ -23439,7 +24213,7 @@
         <v>5.2433593750000002E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>2.7321044921874999E-3</v>
       </c>
@@ -23447,7 +24221,7 @@
         <v>5.2046875000000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>2.6923751831054599E-3</v>
       </c>
@@ -23455,7 +24229,7 @@
         <v>5.166015625E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>2.6529479980468701E-3</v>
       </c>
@@ -23463,7 +24237,7 @@
         <v>5.12734375E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>2.61382293701171E-3</v>
       </c>
@@ -23471,7 +24245,7 @@
         <v>5.0886718749999999E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>2.575E-3</v>
       </c>
@@ -23479,7 +24253,7 @@
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>2.5364791870117098E-3</v>
       </c>
@@ -23487,7 +24261,7 @@
         <v>5.0113281249999997E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>2.4982604980468702E-3</v>
       </c>
@@ -23495,7 +24269,7 @@
         <v>4.9726562499999996E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>2.4603439331054599E-3</v>
       </c>
@@ -23503,7 +24277,7 @@
         <v>4.9339843749999996E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>2.4227294921875002E-3</v>
       </c>
@@ -23511,7 +24285,7 @@
         <v>4.8953125000000004E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>2.3854171752929602E-3</v>
       </c>
@@ -23519,7 +24293,7 @@
         <v>4.8566406250000003E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>2.3484069824218699E-3</v>
       </c>
@@ -23527,7 +24301,7 @@
         <v>4.8179687500000002E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>2.3116989135742098E-3</v>
       </c>
@@ -23535,7 +24309,7 @@
         <v>4.7792968750000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>2.2752929687499999E-3</v>
       </c>
@@ -23543,7 +24317,7 @@
         <v>4.740625E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>2.2391891479492101E-3</v>
       </c>
@@ -23551,7 +24325,7 @@
         <v>4.701953125E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>2.2033874511718701E-3</v>
       </c>
@@ -23559,7 +24333,7 @@
         <v>4.6632812499999999E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>2.1678878784179602E-3</v>
       </c>
@@ -23567,7 +24341,7 @@
         <v>4.6246093749999998E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>2.1326904296875E-3</v>
       </c>
@@ -23575,7 +24349,7 @@
         <v>4.5859374999999997E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>2.09779510498046E-3</v>
       </c>
@@ -23583,7 +24357,7 @@
         <v>4.5472656249999997E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>2.0632019042968702E-3</v>
       </c>
@@ -23591,7 +24365,7 @@
         <v>4.5085937499999996E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>2.0289108276367101E-3</v>
       </c>
@@ -23599,7 +24373,7 @@
         <v>4.4699218750000004E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>1.9949218750000002E-3</v>
       </c>
@@ -23607,7 +24381,7 @@
         <v>4.4312500000000003E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>1.96123504638671E-3</v>
       </c>
@@ -23615,7 +24389,7 @@
         <v>4.3925781250000002E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>1.9278503417968699E-3</v>
       </c>
@@ -23623,7 +24397,7 @@
         <v>4.3539062500000001E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>1.8947677612304601E-3</v>
       </c>
@@ -23631,7 +24405,7 @@
         <v>4.3152343750000001E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>1.8619873046874999E-3</v>
       </c>
@@ -23639,7 +24413,7 @@
         <v>4.2765625E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>1.8295089721679599E-3</v>
       </c>
@@ -23647,7 +24421,7 @@
         <v>4.2378906249999999E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>1.7973327636718701E-3</v>
       </c>
@@ -23655,7 +24429,7 @@
         <v>4.1992187499999998E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>1.76545867919921E-3</v>
       </c>
@@ -23663,7 +24437,7 @@
         <v>4.1605468749999997E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>1.7338867187500001E-3</v>
       </c>
@@ -23671,7 +24445,7 @@
         <v>4.1218749999999997E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>1.7026168823242099E-3</v>
       </c>
@@ -23679,7 +24453,7 @@
         <v>4.0832031249999996E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>1.6716491699218701E-3</v>
       </c>
@@ -23687,7 +24461,7 @@
         <v>4.0445312500000004E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>1.64098358154296E-3</v>
       </c>
@@ -23695,7 +24469,7 @@
         <v>4.0058593750000003E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>1.6106201171875E-3</v>
       </c>
@@ -23703,7 +24477,7 @@
         <v>3.9671875000000002E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>1.5805587768554601E-3</v>
       </c>
@@ -23711,7 +24485,7 @@
         <v>3.9285156250000001E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>1.55079956054687E-3</v>
       </c>
@@ -23719,7 +24493,7 @@
         <v>3.8898437500000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>1.52134246826171E-3</v>
       </c>
@@ -23727,7 +24501,7 @@
         <v>3.851171875E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>1.4921875E-3</v>
       </c>
@@ -23735,7 +24509,7 @@
         <v>3.8124999999999999E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>1.4633346557617101E-3</v>
       </c>
@@ -23743,7 +24517,7 @@
         <v>3.7738281249999998E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>1.43478393554687E-3</v>
       </c>
@@ -23751,7 +24525,7 @@
         <v>3.7351562500000002E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>1.40653533935546E-3</v>
       </c>
@@ -23759,7 +24533,7 @@
         <v>3.6964843750000001E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>1.3785888671875E-3</v>
       </c>
@@ -23767,7 +24541,7 @@
         <v>3.6578125E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>1.3509445190429601E-3</v>
       </c>
@@ -23775,7 +24549,7 @@
         <v>3.619140625E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>1.32360229492187E-3</v>
       </c>
@@ -23783,7 +24557,7 @@
         <v>3.5804687499999999E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>1.29656219482421E-3</v>
       </c>
@@ -23791,7 +24565,7 @@
         <v>3.5417968749999998E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>1.26982421875E-3</v>
       </c>
@@ -23799,7 +24573,7 @@
         <v>3.5031250000000002E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>1.2433883666992101E-3</v>
       </c>
@@ -23807,7 +24581,7 @@
         <v>3.4644531250000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>1.21725463867187E-3</v>
       </c>
@@ -23815,7 +24589,7 @@
         <v>3.42578125E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>1.19142303466796E-3</v>
       </c>
@@ -23823,7 +24597,7 @@
         <v>3.3871093749999999E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>1.1658935546875E-3</v>
       </c>
@@ -23831,7 +24605,7 @@
         <v>3.3484374999999999E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>1.1406661987304601E-3</v>
       </c>
@@ -23839,7 +24613,7 @@
         <v>3.3097656250000002E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>1.11574096679687E-3</v>
       </c>
@@ -23847,7 +24621,7 @@
         <v>3.2710937500000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>1.09111785888671E-3</v>
       </c>
@@ -23855,7 +24629,7 @@
         <v>3.2324218750000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>1.066796875E-3</v>
       </c>
@@ -23863,7 +24637,7 @@
         <v>3.19375E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>1.0427780151367101E-3</v>
       </c>
@@ -23871,7 +24645,7 @@
         <v>3.1550781249999999E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>1.0190612792968701E-3</v>
       </c>
@@ -23879,7 +24653,7 @@
         <v>3.1164062499999998E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>9.9564666748046802E-4</v>
       </c>
@@ -23887,7 +24661,7 @@
         <v>3.0777343750000002E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>9.7253417968749996E-4</v>
       </c>
@@ -23895,7 +24669,7 @@
         <v>3.0390625000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>9.4972381591796804E-4</v>
       </c>
@@ -23903,7 +24677,7 @@
         <v>3.000390625E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>9.2721557617187497E-4</v>
       </c>
@@ -23911,7 +24685,7 @@
         <v>2.9617187499999999E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>9.0500946044921795E-4</v>
       </c>
@@ -23919,7 +24693,7 @@
         <v>2.9230468749999999E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>8.8310546874999999E-4</v>
       </c>
@@ -23927,7 +24701,7 @@
         <v>2.8843749999999998E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>8.6150360107421797E-4</v>
       </c>
@@ -23935,7 +24709,7 @@
         <v>2.8457031250000001E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>8.4020385742187502E-4</v>
       </c>
@@ -23943,7 +24717,7 @@
         <v>2.8070312500000001E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>8.1920623779296799E-4</v>
       </c>
@@ -23951,7 +24725,7 @@
         <v>2.768359375E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>7.9851074218750004E-4</v>
       </c>
@@ -23959,7 +24733,7 @@
         <v>2.7296874999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>7.7811737060546802E-4</v>
       </c>
@@ -23967,7 +24741,7 @@
         <v>2.6910156249999998E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>7.5802612304687496E-4</v>
       </c>
@@ -23975,7 +24749,7 @@
         <v>2.6523437500000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>7.3823699951171805E-4</v>
       </c>
@@ -23983,7 +24757,7 @@
         <v>2.6136718750000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>7.1874999999999999E-4</v>
       </c>
@@ -23991,7 +24765,7 @@
         <v>2.575E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>6.9956512451171797E-4</v>
       </c>
@@ -23999,7 +24773,7 @@
         <v>2.536328125E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>6.8068237304687502E-4</v>
       </c>
@@ -24007,7 +24781,7 @@
         <v>2.4976562499999999E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>6.62101745605468E-4</v>
       </c>
@@ -24015,7 +24789,7 @@
         <v>2.4589843749999998E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>6.4382324218750005E-4</v>
       </c>
@@ -24023,7 +24797,7 @@
         <v>2.4203125000000002E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>6.2584686279296804E-4</v>
       </c>
@@ -24031,7 +24805,7 @@
         <v>2.3816406250000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>6.0817260742187498E-4</v>
       </c>
@@ -24039,7 +24813,7 @@
         <v>2.34296875E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>5.9080047607421797E-4</v>
       </c>
@@ -24047,7 +24821,7 @@
         <v>2.3042968749999999E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>5.7373046875000002E-4</v>
       </c>
@@ -24055,7 +24829,7 @@
         <v>2.2656249999999998E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>5.5696258544921801E-4</v>
       </c>
@@ -24063,7 +24837,7 @@
         <v>2.2269531250000002E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>5.4049682617187495E-4</v>
       </c>
@@ -24071,7 +24845,7 @@
         <v>2.1882812500000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>5.2433319091796805E-4</v>
       </c>
@@ -24079,7 +24853,7 @@
         <v>2.149609375E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>5.084716796875E-4</v>
       </c>
@@ -24087,7 +24861,7 @@
         <v>2.1109375E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>4.9291229248046799E-4</v>
       </c>
@@ -24095,7 +24869,7 @@
         <v>2.0722656249999999E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>4.7765502929687499E-4</v>
       </c>
@@ -24103,7 +24877,7 @@
         <v>2.0335937499999998E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>4.6269989013671798E-4</v>
       </c>
@@ -24111,7 +24885,7 @@
         <v>1.9949218750000002E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>4.4804687499999999E-4</v>
       </c>
@@ -24119,7 +24893,7 @@
         <v>1.9562500000000001E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>4.3369598388671798E-4</v>
       </c>
@@ -24127,7 +24901,7 @@
         <v>1.917578125E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>4.1964721679687498E-4</v>
       </c>
@@ -24135,7 +24909,7 @@
         <v>1.8789062499999999E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>4.0590057373046797E-4</v>
       </c>
@@ -24143,7 +24917,7 @@
         <v>1.8402343750000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>3.9245605468749998E-4</v>
       </c>
@@ -24151,7 +24925,7 @@
         <v>1.8015625E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>3.7931365966796797E-4</v>
       </c>
@@ -24159,7 +24933,7 @@
         <v>1.7628906249999999E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>3.6647338867187498E-4</v>
       </c>
@@ -24167,7 +24941,7 @@
         <v>1.7242187500000001E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>3.5393524169921798E-4</v>
       </c>
@@ -24175,7 +24949,7 @@
         <v>1.685546875E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>3.4169921874999999E-4</v>
       </c>
@@ -24183,7 +24957,7 @@
         <v>1.6468749999999999E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>3.2976531982421798E-4</v>
       </c>
@@ -24191,7 +24965,7 @@
         <v>1.608203125E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>3.18133544921875E-4</v>
       </c>
@@ -24199,7 +24973,7 @@
         <v>1.56953125E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>3.0680389404296799E-4</v>
       </c>
@@ -24207,7 +24981,7 @@
         <v>1.5308593750000001E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>2.9577636718750001E-4</v>
       </c>
@@ -24215,7 +24989,7 @@
         <v>1.4921875E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>2.85050964355468E-4</v>
       </c>
@@ -24223,7 +24997,7 @@
         <v>1.4535156249999999E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>2.7462768554687502E-4</v>
       </c>
@@ -24231,7 +25005,7 @@
         <v>1.4148437500000001E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>2.6450653076171801E-4</v>
       </c>
@@ -24239,7 +25013,7 @@
         <v>1.376171875E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>2.5468749999999998E-4</v>
       </c>
@@ -24247,7 +25021,7 @@
         <v>1.3374999999999999E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>2.4517059326171798E-4</v>
       </c>
@@ -24255,7 +25029,7 @@
         <v>1.2988281250000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>2.3595581054687499E-4</v>
       </c>
@@ -24263,7 +25037,7 @@
         <v>1.26015625E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>2.2704315185546799E-4</v>
       </c>
@@ -24271,7 +25045,7 @@
         <v>1.2214843749999999E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>2.1843261718750001E-4</v>
       </c>
@@ -24279,7 +25053,7 @@
         <v>1.1828125000000001E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>2.1012420654296799E-4</v>
       </c>
@@ -24287,7 +25061,7 @@
         <v>1.144140625E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>2.0211791992187501E-4</v>
       </c>
@@ -24295,7 +25069,7 @@
         <v>1.1054687499999999E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>1.9441375732421801E-4</v>
       </c>
@@ -24303,7 +25077,7 @@
         <v>1.066796875E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>1.8701171875E-4</v>
       </c>
@@ -24311,7 +25085,7 @@
         <v>1.028125E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>1.7991180419921801E-4</v>
       </c>
@@ -24319,7 +25093,7 @@
         <v>9.894531250000001E-4</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>1.73114013671875E-4</v>
       </c>
@@ -24327,7 +25101,7 @@
         <v>9.5078125000000002E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>1.6661834716796801E-4</v>
       </c>
@@ -24335,7 +25109,7 @@
         <v>9.1210937500000005E-4</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>1.604248046875E-4</v>
       </c>
@@ -24343,7 +25117,7 @@
         <v>8.7343749999999997E-4</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>1.5453338623046801E-4</v>
       </c>
@@ -24351,7 +25125,7 @@
         <v>8.34765625E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>1.4894409179687501E-4</v>
       </c>
@@ -24359,7 +25133,7 @@
         <v>7.9609375000000003E-4</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>1.4365692138671799E-4</v>
       </c>
@@ -24367,7 +25141,7 @@
         <v>7.5742187499999996E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>1.3867187499999999E-4</v>
       </c>
@@ -24375,7 +25149,7 @@
         <v>7.1874999999999999E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>1.33988952636718E-4</v>
       </c>
@@ -24383,7 +25157,7 @@
         <v>6.8007812500000002E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>1.29608154296875E-4</v>
       </c>
@@ -24391,7 +25165,7 @@
         <v>6.4140625000000005E-4</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>1.2552947998046801E-4</v>
       </c>
@@ -24399,7 +25173,7 @@
         <v>6.0273437499999997E-4</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>1.2175292968749999E-4</v>
       </c>
@@ -24407,7 +25181,7 @@
         <v>5.640625E-4</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>1.1827850341796801E-4</v>
       </c>
@@ -24415,7 +25189,7 @@
         <v>5.2539062500000003E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248">
         <v>1.1510620117187499E-4</v>
       </c>
@@ -24423,7 +25197,7 @@
         <v>4.8671875000000001E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249">
         <v>1.1223602294921799E-4</v>
       </c>
@@ -24431,7 +25205,7 @@
         <v>4.4804687499999999E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250">
         <v>1.0966796875E-4</v>
       </c>
@@ -24439,7 +25213,7 @@
         <v>4.0937500000000002E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251">
         <v>1.07402038574218E-4</v>
       </c>
@@ -24447,7 +25221,7 @@
         <v>3.7070312499999999E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252">
         <v>1.05438232421875E-4</v>
       </c>
@@ -24455,7 +25229,7 @@
         <v>3.3203125000000002E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253">
         <v>1.03776550292968E-4</v>
       </c>
@@ -24463,7 +25237,7 @@
         <v>2.93359375E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254">
         <v>1.024169921875E-4</v>
       </c>
@@ -24471,7 +25245,7 @@
         <v>2.5468749999999998E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255">
         <v>1.01359558105468E-4</v>
       </c>
@@ -24479,7 +25253,7 @@
         <v>2.1601562500000001E-4</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256">
         <v>1.0060424804687501E-4</v>
       </c>
@@ -24487,7 +25261,7 @@
         <v>1.7734375000000001E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257">
         <v>1.00151062011718E-4</v>
       </c>

--- a/Models/TrainingError.xlsx
+++ b/Models/TrainingError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie\Desktop\ImgSegNN\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\514\ImgSegNN\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4647FD4-E51A-4EC3-8BC5-6338F895153C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0D1172-B155-463F-A9EE-295AB179959D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConvergePatternOfNN" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NN041201</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,22 +79,26 @@
   <si>
     <t>NN041801</t>
   </si>
+  <si>
+    <t>NN041802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,7 +147,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -210,7 +214,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8325,6 +8329,1630 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BA14-401B-AABC-94E11F518CFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergePatternOfNN!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN041801</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergePatternOfNN!$L$2:$L$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>2.0945200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2422899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.22932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2251000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2223999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2196800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.21482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2081900000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2054400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2034100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.20377</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2017199999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1980999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.19672</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1936199999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.19272</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1904300000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1887799999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1866300000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1828399999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.18085</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1800900000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1767700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1749099999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1722699999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1722399999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.16649</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1664099999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.16154</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.16046</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1580999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1579699999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1536599999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1513500000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1500699999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.14699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.14601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1440300000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1438200000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.13994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.13809</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.13676</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1365799999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.13588</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1335599999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.13226</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1305099999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.12971</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1280600000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1271100000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.12602</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1253</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.12401</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.12294</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1211800000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1205099999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.11999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.11835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.1162000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1151800000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.11415</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1131</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1125400000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.11202</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1105799999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.10981</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.10893</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.10825</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.10748</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.10633</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.1059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.10477</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1043099999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.10341</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.10362</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1021099999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.10023</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.09971</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0989199999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0979699999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.0968500000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0957699999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0962099999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0942799999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0931200000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0928500000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0913600000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.09084</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0904499999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.08988</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.09795</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.09032</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.08796</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0867100000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0860099999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0851200000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0844499999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0869599999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.08361</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0824499999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0816399999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0810500000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.0802400000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.0799300000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.0792600000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.0784</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.07917</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.0777399999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.0766</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.07694</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.0757399999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.07534</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.0747</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.0735699999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.07402</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0724199999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.07186</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.0713900000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.07107</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.0703</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.06972</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.06917</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.0690299999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.06864</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.06816</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.0675699999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.0669599999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.06643</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.06568</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.06514</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.0643800000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.0645500000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.06349</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.06277</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.0625500000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.0615000000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.0612699999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.06054</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.0600700000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.0599400000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.05915</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.05894</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.05833</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.05776</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.05745</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.05718</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.0565</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.0561400000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0556300000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.0555600000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.05481</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.05461</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.0542899999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.05365</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.05318</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.0527200000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.0523199999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.0518799999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.0520799999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.05169</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.0508999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.05033</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.0502100000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.04976</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.0492699999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.04895</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.04847</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.04817</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.0477000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.04982</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.04739</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.0467599999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.0463199999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.0461100000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.04556</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.04522</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.04497</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.04599</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.04518</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.0438700000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.04454</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.0432600000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.0428500000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.0426</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.0422899999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.04199</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.0416399999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.04135</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.04098</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.04074</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.04036</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.0401100000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.0397799999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.0395399999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.03928</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.0389900000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.0387299999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.0384500000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.03834</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.0380499999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.0377400000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.0375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.0372600000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.03708</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.03685</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.0366500000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.0364500000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.03624</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.0360499999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.0358700000000001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.03569</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.03552</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.03535</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.0351900000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.0350900000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.0349200000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.0347599999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.0346299999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.0344800000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.0343500000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.03423</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.0341100000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.0339799999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.0338700000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.03376</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.03365</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.0335399999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.0334399999999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.0333399999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.03322</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.0332300000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.0330299999999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.03295</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.0328599999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.0327900000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.03271</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.03264</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.03257</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.0324899999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.03243</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.0323599999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.0323</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.03226</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.0322</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.03216</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.0321100000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.03206</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.0320199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2663-4EFD-837A-F451FCA445A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergePatternOfNN!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN041802</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergePatternOfNN!$M$2:$M$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>1.5261199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2506699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2446999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2411700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2380800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.23478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2304200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.22516</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2200500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2152400000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2108000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2067699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.20279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1990400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1954400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1920999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1888300000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1856800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1826700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1797899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.17703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.17425</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1713</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1676599999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1631199999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.15831</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1537200000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.14974</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1427</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1395</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1364799999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1335</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1307400000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1277900000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1248199999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1219399999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1130100000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1075900000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1019699999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0969199999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0919300000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.08687</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.08219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.07717</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0727599999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.06867</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.06457</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0606500000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0568</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0528999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.04908</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0453600000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0418400000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0379700000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.03409</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0304199999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0266200000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0224800000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.01858</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.01501</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0106599999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.00725</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.00298</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99917999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99548000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99317999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.98860999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.98506000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.97853999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.97250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.96992</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.96531</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.96155000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.95635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.95691999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.95104999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.94750999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.94137000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93689</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.93422000000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.92888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92208000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.91671000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.91927999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.91193000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.90959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.90330999999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90349999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.89720999999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.89568000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.88804000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.88937999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.88144999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.87636999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.87470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.86772000000000005</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.86578999999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.86790999999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.86226999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.85841999999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.84560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.84585999999999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.84379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.84697</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.83353999999999995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83226999999999995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.82887</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.82430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.82028000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.81425999999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.8115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.81613999999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.80761000000000005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.80391000000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.80215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.79337000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.78983000000000003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.79501999999999995</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.77842</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.78315999999999997</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.78161999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.77517999999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.77798999999999996</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.77383999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.76641000000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.76776999999999995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.75751999999999997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.75573999999999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.75621000000000005</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.75990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.74531000000000003</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.74951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.74168000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.74670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.74400999999999995</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.74245000000000005</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.73902999999999996</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.73351999999999995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.72655999999999998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.72994999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.72921000000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.71623000000000003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.71994999999999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.71748999999999996</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.71831999999999996</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.7087</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.70986000000000005</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.70838999999999996</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.70701000000000003</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.69835000000000003</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.70165</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.69466000000000006</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.69464000000000004</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.69865999999999995</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.68825999999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.68432000000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.69242999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.68315000000000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.67996000000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.67412000000000005</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.67576999999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.67415000000000003</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.66625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.66305000000000003</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.66391</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.66303000000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.66313</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.65817000000000003</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.65946000000000005</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.64793000000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.65368000000000004</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.65300999999999998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.64475000000000005</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.64183000000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.63590999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.63936000000000004</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.63717000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.63443000000000005</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.64612000000000003</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.63571</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.62660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.62653000000000003</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.62094000000000005</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.61985999999999997</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.62451000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.62004000000000004</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.61514999999999997</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.61504999999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.60968</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.60995999999999995</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.61041999999999996</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.60802</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.6038</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.60160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.60050999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.59309999999999996</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.59923000000000004</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.59814999999999996</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.58830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.58501999999999998</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.59147000000000005</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.58620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.57950999999999997</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.57708000000000004</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.57669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.58031999999999995</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.57923000000000002</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.57077999999999995</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.56608000000000003</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.56338999999999995</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.56927000000000005</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.56694</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.55718999999999996</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.56030999999999997</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.55498999999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.55286000000000002</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.54834000000000005</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.54464999999999997</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.54408999999999996</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.54146000000000005</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.53808</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.54071999999999998</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.54054999999999997</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.53981000000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.53298999999999996</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.52861999999999998</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.52737000000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.52676999999999996</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.52739000000000003</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.52607999999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.52254</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.52010999999999996</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.52005999999999997</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.51749000000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.51466999999999996</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.51334000000000002</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.51265000000000005</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.51178000000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.51110999999999995</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.51109000000000004</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.51226000000000005</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.51346999999999998</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.51490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.51736000000000004</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.52056999999999998</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.52531000000000005</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.53047999999999995</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.53766999999999998</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.54642999999999997</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.55849000000000004</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.57349000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2663-4EFD-837A-F451FCA445A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8403,7 +10031,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8441,7 +10069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1310328271"/>
@@ -8538,7 +10166,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8570,7 +10198,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383030927"/>
@@ -8612,7 +10240,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8642,7 +10270,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8656,7 +10284,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8719,7 +10347,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10420,7 +12048,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10458,7 +12086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2133561007"/>
@@ -10541,7 +12169,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10573,7 +12201,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="335908895"/>
@@ -10615,7 +12243,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10645,7 +12273,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12113,28 +13741,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L513"/>
+  <dimension ref="A1:M513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C241" workbookViewId="0">
-      <selection activeCell="J261" sqref="J261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12171,8 +13801,11 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.40707</v>
       </c>
@@ -12209,8 +13842,11 @@
       <c r="L2">
         <v>2.0945200000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>1.5261199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.21393</v>
       </c>
@@ -12247,8 +13883,11 @@
       <c r="L3">
         <v>1.25797</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>1.2506699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.1911499999999999</v>
       </c>
@@ -12285,8 +13924,11 @@
       <c r="L4">
         <v>1.2422899999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>1.2446999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.17875</v>
       </c>
@@ -12323,8 +13965,11 @@
       <c r="L5">
         <v>1.23397</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>1.2411700000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.1663399999999999</v>
       </c>
@@ -12361,8 +14006,11 @@
       <c r="L6">
         <v>1.23129</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>1.2380800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.1603300000000001</v>
       </c>
@@ -12399,8 +14047,11 @@
       <c r="L7">
         <v>1.22932</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>1.23478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.15283</v>
       </c>
@@ -12437,8 +14088,11 @@
       <c r="L8">
         <v>1.2251000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>1.2304200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.14449</v>
       </c>
@@ -12475,8 +14129,11 @@
       <c r="L9">
         <v>1.2223999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>1.22516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1368499999999999</v>
       </c>
@@ -12513,8 +14170,11 @@
       <c r="L10">
         <v>1.2196800000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>1.2200500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1312500000000001</v>
       </c>
@@ -12551,8 +14211,11 @@
       <c r="L11">
         <v>1.21482</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>1.2152400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.12487</v>
       </c>
@@ -12589,8 +14252,11 @@
       <c r="L12">
         <v>1.2101</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>1.2108000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.11836</v>
       </c>
@@ -12627,8 +14293,11 @@
       <c r="L13">
         <v>1.2081900000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>1.2067699999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.1136999999999999</v>
       </c>
@@ -12665,8 +14334,11 @@
       <c r="L14">
         <v>1.2054400000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>1.20279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.10816</v>
       </c>
@@ -12703,8 +14375,11 @@
       <c r="L15">
         <v>1.2034100000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>1.1990400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.1029500000000001</v>
       </c>
@@ -12741,8 +14416,11 @@
       <c r="L16">
         <v>1.20377</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>1.1954400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.0970599999999999</v>
       </c>
@@ -12779,8 +14457,11 @@
       <c r="L17">
         <v>1.2017199999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>1.1920999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.09259</v>
       </c>
@@ -12817,8 +14498,11 @@
       <c r="L18">
         <v>1.1980999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>1.1888300000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.0862099999999999</v>
       </c>
@@ -12855,8 +14539,11 @@
       <c r="L19">
         <v>1.19672</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>1.1856800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.0807500000000001</v>
       </c>
@@ -12893,8 +14580,11 @@
       <c r="L20">
         <v>1.1936199999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>1.1826700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0752299999999999</v>
       </c>
@@ -12931,8 +14621,11 @@
       <c r="L21">
         <v>1.19272</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1.1797899999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.06873</v>
       </c>
@@ -12969,8 +14662,11 @@
       <c r="L22">
         <v>1.1904300000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>1.17703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.0640000000000001</v>
       </c>
@@ -13007,8 +14703,11 @@
       <c r="L23">
         <v>1.1887799999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>1.17425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.05697</v>
       </c>
@@ -13045,8 +14744,11 @@
       <c r="L24">
         <v>1.1866300000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>1.1713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.0506</v>
       </c>
@@ -13083,8 +14785,11 @@
       <c r="L25">
         <v>1.1828399999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>1.1676599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0446500000000001</v>
       </c>
@@ -13121,8 +14826,11 @@
       <c r="L26">
         <v>1.18085</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>1.1631199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.0374099999999999</v>
       </c>
@@ -13159,8 +14867,11 @@
       <c r="L27">
         <v>1.1800900000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>1.15831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.0299199999999999</v>
       </c>
@@ -13197,8 +14908,11 @@
       <c r="L28">
         <v>1.1767700000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>1.1537200000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.02234</v>
       </c>
@@ -13235,8 +14949,11 @@
       <c r="L29">
         <v>1.1749099999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>1.14974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0116099999999999</v>
       </c>
@@ -13273,8 +14990,11 @@
       <c r="L30">
         <v>1.1722699999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>1.1459999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.00186</v>
       </c>
@@ -13311,8 +15031,11 @@
       <c r="L31">
         <v>1.1722399999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>1.1427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.99263000000000001</v>
       </c>
@@ -13349,8 +15072,11 @@
       <c r="L32">
         <v>1.16649</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>1.1395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98448999999999998</v>
       </c>
@@ -13387,8 +15113,11 @@
       <c r="L33">
         <v>1.1664099999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>1.1364799999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.97646999999999995</v>
       </c>
@@ -13425,8 +15154,11 @@
       <c r="L34">
         <v>1.16154</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>1.1335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.96584000000000003</v>
       </c>
@@ -13463,8 +15195,11 @@
       <c r="L35">
         <v>1.16046</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>1.1307400000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.95508000000000004</v>
       </c>
@@ -13501,8 +15236,11 @@
       <c r="L36">
         <v>1.1580999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>1.1277900000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.94486999999999999</v>
       </c>
@@ -13539,8 +15277,11 @@
       <c r="L37">
         <v>1.1579699999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>1.1248199999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.93822000000000005</v>
       </c>
@@ -13577,8 +15318,11 @@
       <c r="L38">
         <v>1.1536599999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>1.1219399999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.92762999999999995</v>
       </c>
@@ -13615,8 +15359,11 @@
       <c r="L39">
         <v>1.1513500000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>1.1179600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.92034000000000005</v>
       </c>
@@ -13653,8 +15400,11 @@
       <c r="L40">
         <v>1.1500699999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>1.1130100000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.91352</v>
       </c>
@@ -13691,8 +15441,11 @@
       <c r="L41">
         <v>1.14699</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>1.1075900000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.90368999999999999</v>
       </c>
@@ -13729,8 +15482,11 @@
       <c r="L42">
         <v>1.14601</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>1.1019699999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.89685000000000004</v>
       </c>
@@ -13767,8 +15523,11 @@
       <c r="L43">
         <v>1.1440300000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>1.0969199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.89124000000000003</v>
       </c>
@@ -13805,8 +15564,11 @@
       <c r="L44">
         <v>1.1536</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>1.0919300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.88793</v>
       </c>
@@ -13843,8 +15605,11 @@
       <c r="L45">
         <v>1.1438200000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>1.08687</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.87975000000000003</v>
       </c>
@@ -13881,8 +15646,11 @@
       <c r="L46">
         <v>1.13994</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>1.08219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.87073</v>
       </c>
@@ -13919,8 +15687,11 @@
       <c r="L47">
         <v>1.13809</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>1.07717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.86189000000000004</v>
       </c>
@@ -13957,8 +15728,11 @@
       <c r="L48">
         <v>1.13676</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>1.0727599999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.85167000000000004</v>
       </c>
@@ -13995,8 +15769,11 @@
       <c r="L49">
         <v>1.1365799999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>1.06867</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.84370000000000001</v>
       </c>
@@ -14033,8 +15810,11 @@
       <c r="L50">
         <v>1.13588</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>1.06457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.83496000000000004</v>
       </c>
@@ -14071,8 +15851,11 @@
       <c r="L51">
         <v>1.1335599999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>1.0606500000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.82221999999999995</v>
       </c>
@@ -14109,8 +15892,11 @@
       <c r="L52">
         <v>1.13226</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>1.0568</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.81574000000000002</v>
       </c>
@@ -14147,8 +15933,11 @@
       <c r="L53">
         <v>1.1305099999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>1.0528999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.80500000000000005</v>
       </c>
@@ -14185,8 +15974,11 @@
       <c r="L54">
         <v>1.12971</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>1.04908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.79525000000000001</v>
       </c>
@@ -14223,8 +16015,11 @@
       <c r="L55">
         <v>1.1280600000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>1.0453600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.78539000000000003</v>
       </c>
@@ -14261,8 +16056,11 @@
       <c r="L56">
         <v>1.1271100000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>1.0418400000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.78113999999999995</v>
       </c>
@@ -14299,8 +16097,11 @@
       <c r="L57">
         <v>1.12602</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>1.0379700000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.78739000000000003</v>
       </c>
@@ -14337,8 +16138,11 @@
       <c r="L58">
         <v>1.1253</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>1.03409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.77329000000000003</v>
       </c>
@@ -14375,8 +16179,11 @@
       <c r="L59">
         <v>1.12401</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>1.0304199999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.76321000000000006</v>
       </c>
@@ -14413,8 +16220,11 @@
       <c r="L60">
         <v>1.12294</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>1.0266200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.75377000000000005</v>
       </c>
@@ -14451,8 +16261,11 @@
       <c r="L61">
         <v>1.1211800000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>1.0224800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.75034999999999996</v>
       </c>
@@ -14489,8 +16302,11 @@
       <c r="L62">
         <v>1.1205099999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>1.01858</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.74243000000000003</v>
       </c>
@@ -14527,8 +16343,11 @@
       <c r="L63">
         <v>1.11999</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>1.01501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.73775000000000002</v>
       </c>
@@ -14565,8 +16384,11 @@
       <c r="L64">
         <v>1.11835</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>1.0106599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.72572000000000003</v>
       </c>
@@ -14603,8 +16425,11 @@
       <c r="L65">
         <v>1.1173999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>1.00725</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.71723999999999999</v>
       </c>
@@ -14641,8 +16466,11 @@
       <c r="L66">
         <v>1.1162000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>1.00298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.71008000000000004</v>
       </c>
@@ -14679,8 +16507,11 @@
       <c r="L67">
         <v>1.1151800000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>0.99917999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.71574000000000004</v>
       </c>
@@ -14717,8 +16548,11 @@
       <c r="L68">
         <v>1.11415</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>0.99548000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.69894999999999996</v>
       </c>
@@ -14755,8 +16589,11 @@
       <c r="L69">
         <v>1.1131</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>0.99317999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.68415000000000004</v>
       </c>
@@ -14793,8 +16630,11 @@
       <c r="L70">
         <v>1.1125400000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>0.98860999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.67340999999999995</v>
       </c>
@@ -14831,8 +16671,11 @@
       <c r="L71">
         <v>1.11202</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>0.98506000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.66666999999999998</v>
       </c>
@@ -14869,8 +16712,11 @@
       <c r="L72">
         <v>1.1105799999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>0.98270000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.66208</v>
       </c>
@@ -14907,8 +16753,11 @@
       <c r="L73">
         <v>1.10981</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>0.97853999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.66693999999999998</v>
       </c>
@@ -14945,8 +16794,11 @@
       <c r="L74">
         <v>1.10893</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>0.97250999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.67162999999999995</v>
       </c>
@@ -14983,8 +16835,11 @@
       <c r="L75">
         <v>1.10825</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>0.96992</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.65447999999999995</v>
       </c>
@@ -15021,8 +16876,11 @@
       <c r="L76">
         <v>1.10748</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>0.96531</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.64273999999999998</v>
       </c>
@@ -15059,8 +16917,11 @@
       <c r="L77">
         <v>1.10633</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>0.96155000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.64258999999999999</v>
       </c>
@@ -15097,8 +16958,11 @@
       <c r="L78">
         <v>1.1059000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>0.95635999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.63590999999999998</v>
       </c>
@@ -15135,8 +16999,11 @@
       <c r="L79">
         <v>1.10477</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79">
+        <v>0.95691999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.62336000000000003</v>
       </c>
@@ -15173,8 +17040,11 @@
       <c r="L80">
         <v>1.1043099999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80">
+        <v>0.95104999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.62356999999999996</v>
       </c>
@@ -15211,8 +17081,11 @@
       <c r="L81">
         <v>1.10341</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>0.94750999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.61885000000000001</v>
       </c>
@@ -15249,8 +17122,11 @@
       <c r="L82">
         <v>1.10362</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>0.94137000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.61470999999999998</v>
       </c>
@@ -15287,8 +17163,11 @@
       <c r="L83">
         <v>1.1021099999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>0.93689</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.60540000000000005</v>
       </c>
@@ -15325,8 +17204,11 @@
       <c r="L84">
         <v>1.101</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>0.93422000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.58589999999999998</v>
       </c>
@@ -15363,8 +17245,11 @@
       <c r="L85">
         <v>1.10023</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85">
+        <v>0.92888999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.57554000000000005</v>
       </c>
@@ -15401,8 +17286,11 @@
       <c r="L86">
         <v>1.09971</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86">
+        <v>0.92208000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.58003000000000005</v>
       </c>
@@ -15439,8 +17327,11 @@
       <c r="L87">
         <v>1.0989199999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87">
+        <v>0.91671000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.59414</v>
       </c>
@@ -15477,8 +17368,11 @@
       <c r="L88">
         <v>1.0979699999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88">
+        <v>0.91927999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.58672000000000002</v>
       </c>
@@ -15515,8 +17409,11 @@
       <c r="L89">
         <v>1.0968500000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89">
+        <v>0.91193000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.56840000000000002</v>
       </c>
@@ -15553,8 +17450,11 @@
       <c r="L90">
         <v>1.0957699999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90">
+        <v>0.90959999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.55964000000000003</v>
       </c>
@@ -15591,8 +17491,11 @@
       <c r="L91">
         <v>1.0962099999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91">
+        <v>0.90330999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.55367999999999995</v>
       </c>
@@ -15629,8 +17532,11 @@
       <c r="L92">
         <v>1.0942799999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92">
+        <v>0.90349999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.55037000000000003</v>
       </c>
@@ -15667,8 +17573,11 @@
       <c r="L93">
         <v>1.0931200000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93">
+        <v>0.89720999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.54627000000000003</v>
       </c>
@@ -15705,8 +17614,11 @@
       <c r="L94">
         <v>1.0928500000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94">
+        <v>0.89568000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.54215000000000002</v>
       </c>
@@ -15743,8 +17655,11 @@
       <c r="L95">
         <v>1.0913600000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95">
+        <v>0.88804000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.53695999999999999</v>
       </c>
@@ -15781,8 +17696,11 @@
       <c r="L96">
         <v>1.09084</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96">
+        <v>0.88937999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.52939000000000003</v>
       </c>
@@ -15819,8 +17737,11 @@
       <c r="L97">
         <v>1.0904499999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97">
+        <v>0.88144999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.52663000000000004</v>
       </c>
@@ -15857,8 +17778,11 @@
       <c r="L98">
         <v>1.08988</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98">
+        <v>0.87636999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.51566999999999996</v>
       </c>
@@ -15895,8 +17819,11 @@
       <c r="L99">
         <v>1.09795</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99">
+        <v>0.87470000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.51349</v>
       </c>
@@ -15933,8 +17860,11 @@
       <c r="L100">
         <v>1.09032</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100">
+        <v>0.86772000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.49807000000000001</v>
       </c>
@@ -15971,8 +17901,11 @@
       <c r="L101">
         <v>1.08796</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101">
+        <v>0.86578999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.49478</v>
       </c>
@@ -16009,8 +17942,11 @@
       <c r="L102">
         <v>1.0867100000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102">
+        <v>0.86790999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.48609000000000002</v>
       </c>
@@ -16047,8 +17983,11 @@
       <c r="L103">
         <v>1.0860099999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103">
+        <v>0.86226999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.49109999999999998</v>
       </c>
@@ -16085,8 +18024,11 @@
       <c r="L104">
         <v>1.0857000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.48444999999999999</v>
       </c>
@@ -16123,8 +18065,11 @@
       <c r="L105">
         <v>1.0851200000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105">
+        <v>0.85841999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.47420000000000001</v>
       </c>
@@ -16161,8 +18106,11 @@
       <c r="L106">
         <v>1.0844499999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106">
+        <v>0.84560000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.47017999999999999</v>
       </c>
@@ -16199,8 +18147,11 @@
       <c r="L107">
         <v>1.0869599999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107">
+        <v>0.84585999999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.46390999999999999</v>
       </c>
@@ -16237,8 +18188,11 @@
       <c r="L108">
         <v>1.08361</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108">
+        <v>0.84379999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.47032000000000002</v>
       </c>
@@ -16275,8 +18229,11 @@
       <c r="L109">
         <v>1.0824499999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109">
+        <v>0.84697</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.45624999999999999</v>
       </c>
@@ -16313,8 +18270,11 @@
       <c r="L110">
         <v>1.0816399999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.44896000000000003</v>
       </c>
@@ -16351,8 +18311,11 @@
       <c r="L111">
         <v>1.0810500000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111">
+        <v>0.83353999999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.44874000000000003</v>
       </c>
@@ -16389,8 +18352,11 @@
       <c r="L112">
         <v>1.0802400000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112">
+        <v>0.83226999999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.43002000000000001</v>
       </c>
@@ -16427,8 +18393,11 @@
       <c r="L113">
         <v>1.0799300000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113">
+        <v>0.82887</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.41952</v>
       </c>
@@ -16465,8 +18434,11 @@
       <c r="L114">
         <v>1.0792600000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114">
+        <v>0.82430000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.43237999999999999</v>
       </c>
@@ -16503,8 +18475,11 @@
       <c r="L115">
         <v>1.0784</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115">
+        <v>0.82028000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.41464000000000001</v>
       <